--- a/业务线技术支持登记表格式.xlsx
+++ b/业务线技术支持登记表格式.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141">
   <si>
     <t>业务线支持登记表</t>
   </si>
@@ -433,6 +433,18 @@
   </si>
   <si>
     <t>https://xhbup.com/jzzkj2/tp/</t>
+  </si>
+  <si>
+    <t>蓝荣贵</t>
+  </si>
+  <si>
+    <t>佛山市天成健康咨询有限公司</t>
+  </si>
+  <si>
+    <t>祛痘</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/tiancheng/</t>
   </si>
 </sst>
 </file>
@@ -1339,7 +1351,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1349,6 +1361,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -1404,6 +1419,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1880,1637 +1898,1667 @@
   <dimension ref="B1:Q55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="F24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="F36" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G24" sqref="G24"/>
+      <selection pane="bottomRight" activeCell="C42" sqref="C42:C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="1.25" style="3" customWidth="1"/>
-    <col min="2" max="2" width="7" style="3" customWidth="1"/>
-    <col min="3" max="3" width="10.625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="28.5" style="4" customWidth="1"/>
-    <col min="5" max="5" width="25.375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="11.25" style="3" customWidth="1"/>
-    <col min="7" max="7" width="8.125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="11.75" style="3" customWidth="1"/>
-    <col min="9" max="9" width="14.375" style="3" customWidth="1"/>
-    <col min="10" max="10" width="15.25" style="5" customWidth="1"/>
-    <col min="11" max="11" width="25.25" style="6" customWidth="1"/>
-    <col min="12" max="12" width="14.75" style="5" customWidth="1"/>
-    <col min="13" max="13" width="3.875" style="3" customWidth="1"/>
-    <col min="14" max="16" width="15.375" style="3" customWidth="1"/>
-    <col min="17" max="19" width="14.125" style="3" customWidth="1"/>
-    <col min="20" max="20" width="29.25" style="3" customWidth="1"/>
-    <col min="21" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="1.25" style="4" customWidth="1"/>
+    <col min="2" max="2" width="7" style="4" customWidth="1"/>
+    <col min="3" max="3" width="10.625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="28.5" style="5" customWidth="1"/>
+    <col min="5" max="5" width="25.375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="11.25" style="4" customWidth="1"/>
+    <col min="7" max="7" width="8.125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="11.75" style="4" customWidth="1"/>
+    <col min="9" max="9" width="14.375" style="4" customWidth="1"/>
+    <col min="10" max="10" width="15.25" style="6" customWidth="1"/>
+    <col min="11" max="11" width="25.25" style="7" customWidth="1"/>
+    <col min="12" max="12" width="14.75" style="6" customWidth="1"/>
+    <col min="13" max="13" width="3.875" style="4" customWidth="1"/>
+    <col min="14" max="16" width="15.375" style="4" customWidth="1"/>
+    <col min="17" max="19" width="14.125" style="4" customWidth="1"/>
+    <col min="20" max="20" width="29.25" style="4" customWidth="1"/>
+    <col min="21" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="46.5" customHeight="1" spans="3:17">
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="7"/>
-      <c r="N1" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="8"/>
+      <c r="N1" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
     </row>
     <row r="2" ht="21.75" customHeight="1" spans="2:17">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="31" t="s">
+      <c r="K2" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="L2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="32" t="s">
+      <c r="N2" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="O2" s="32" t="s">
+      <c r="O2" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="P2" s="32" t="s">
+      <c r="P2" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" s="32" t="s">
+      <c r="Q2" s="34" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" ht="33" spans="2:17">
-      <c r="B3" s="9">
-        <v>1</v>
-      </c>
-      <c r="C3" s="10">
+      <c r="B3" s="10">
+        <v>1</v>
+      </c>
+      <c r="C3" s="11">
         <v>43570</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="12">
         <v>2</v>
       </c>
-      <c r="H3" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="9" t="s">
+      <c r="H3" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="33" t="s">
+      <c r="K3" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="L3" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="N3" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="O3" s="34"/>
-      <c r="P3" s="34"/>
-      <c r="Q3" s="43">
+      <c r="L3" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="45">
         <f>O3+P3</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" ht="21.75" customHeight="1" spans="2:17">
-      <c r="B4" s="9">
+      <c r="B4" s="10">
         <v>5</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="11">
         <v>43570</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="9">
-        <v>1</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="9" t="s">
+      <c r="G4" s="10">
+        <v>1</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="J4" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="K4" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="L4" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="N4" s="35" t="s">
+      <c r="L4" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="N4" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="O4" s="35">
+      <c r="O4" s="37">
         <f>SUM(O3:O3)</f>
         <v>0</v>
       </c>
-      <c r="P4" s="35">
+      <c r="P4" s="37">
         <f>SUM(P3:P3)</f>
         <v>0</v>
       </c>
-      <c r="Q4" s="35">
+      <c r="Q4" s="37">
         <f>SUM(Q3:Q3)</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" ht="21.75" customHeight="1" spans="2:12">
-      <c r="B5" s="9">
+      <c r="B5" s="10">
         <v>6</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="11">
         <v>43570</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="9">
-        <v>1</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" s="9" t="s">
+      <c r="G5" s="10">
+        <v>1</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="J5" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="K5" s="9" t="s">
+      <c r="K5" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="L5" s="9" t="s">
+      <c r="L5" s="10" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="6" ht="21.75" customHeight="1" spans="2:12">
-      <c r="B6" s="9"/>
-      <c r="C6" s="10">
+      <c r="B6" s="10"/>
+      <c r="C6" s="11">
         <v>43570</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="9">
-        <v>1</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I6" s="9" t="s">
+      <c r="G6" s="10">
+        <v>1</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="J6" s="9" t="s">
+      <c r="J6" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="K6" s="9" t="s">
+      <c r="K6" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="L6" s="9" t="s">
+      <c r="L6" s="10" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="7" ht="39.75" customHeight="1" spans="2:12">
-      <c r="B7" s="9"/>
-      <c r="C7" s="10">
+      <c r="B7" s="10"/>
+      <c r="C7" s="11">
         <v>43570</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="10">
         <v>2</v>
       </c>
-      <c r="H7" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I7" s="9" t="s">
+      <c r="H7" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="9" t="s">
+      <c r="J7" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="K7" s="36" t="s">
+      <c r="K7" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="L7" s="9" t="s">
+      <c r="L7" s="10" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="8" ht="21.75" customHeight="1" spans="2:12">
-      <c r="B8" s="9"/>
-      <c r="C8" s="10">
+      <c r="B8" s="10"/>
+      <c r="C8" s="11">
         <v>43570</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="9">
-        <v>1</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I8" s="9" t="s">
+      <c r="G8" s="10">
+        <v>1</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="J8" s="9" t="s">
+      <c r="J8" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="K8" s="9" t="s">
+      <c r="K8" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="L8" s="9" t="s">
+      <c r="L8" s="10" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9" ht="21.75" customHeight="1" spans="2:12">
-      <c r="B9" s="9"/>
-      <c r="C9" s="10">
+      <c r="B9" s="10"/>
+      <c r="C9" s="11">
         <v>43570</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="G9" s="9">
-        <v>1</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I9" s="9" t="s">
+      <c r="G9" s="10">
+        <v>1</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="J9" s="9" t="s">
+      <c r="J9" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="K9" s="9" t="s">
+      <c r="K9" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="L9" s="9" t="s">
+      <c r="L9" s="10" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="10" ht="21.75" customHeight="1" spans="2:12">
-      <c r="B10" s="9"/>
-      <c r="C10" s="10">
+      <c r="B10" s="10"/>
+      <c r="C10" s="11">
         <v>43570</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="G10" s="9">
-        <v>1</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I10" s="9" t="s">
+      <c r="G10" s="10">
+        <v>1</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="J10" s="9" t="s">
+      <c r="J10" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="K10" s="9" t="s">
+      <c r="K10" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="L10" s="9" t="s">
+      <c r="L10" s="10" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="11" ht="87" customHeight="1" spans="2:12">
-      <c r="B11" s="9"/>
-      <c r="C11" s="10">
+      <c r="B11" s="10"/>
+      <c r="C11" s="11">
         <v>43570</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="10">
         <v>4</v>
       </c>
-      <c r="H11" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I11" s="9" t="s">
+      <c r="H11" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J11" s="9" t="s">
+      <c r="J11" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="K11" s="36" t="s">
+      <c r="K11" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="L11" s="9" t="s">
+      <c r="L11" s="10" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="12" ht="21.75" customHeight="1" spans="2:12">
-      <c r="B12" s="9"/>
-      <c r="C12" s="10">
+      <c r="B12" s="10"/>
+      <c r="C12" s="11">
         <v>43570</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="G12" s="9">
-        <v>1</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I12" s="9" t="s">
+      <c r="G12" s="10">
+        <v>1</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="J12" s="9" t="s">
+      <c r="J12" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="K12" s="9" t="s">
+      <c r="K12" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="L12" s="9" t="s">
+      <c r="L12" s="10" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="13" ht="21.75" customHeight="1" spans="2:12">
-      <c r="B13" s="9"/>
-      <c r="C13" s="10">
+      <c r="B13" s="10"/>
+      <c r="C13" s="11">
         <v>43570</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="G13" s="9">
-        <v>1</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I13" s="9" t="s">
+      <c r="G13" s="10">
+        <v>1</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="J13" s="9" t="s">
+      <c r="J13" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="K13" s="9" t="s">
+      <c r="K13" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="L13" s="9" t="s">
+      <c r="L13" s="10" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="14" ht="21.75" customHeight="1" spans="2:12">
-      <c r="B14" s="9"/>
-      <c r="C14" s="10">
+      <c r="B14" s="10"/>
+      <c r="C14" s="11">
         <v>43570</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="G14" s="9">
-        <v>1</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I14" s="9" t="s">
+      <c r="G14" s="10">
+        <v>1</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I14" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="J14" s="9" t="s">
+      <c r="J14" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="K14" s="9" t="s">
+      <c r="K14" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="L14" s="9" t="s">
+      <c r="L14" s="10" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="15" ht="21.75" customHeight="1" spans="2:12">
-      <c r="B15" s="9"/>
-      <c r="C15" s="10">
+      <c r="B15" s="10"/>
+      <c r="C15" s="11">
         <v>43570</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="G15" s="9">
-        <v>1</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I15" s="9" t="s">
+      <c r="G15" s="10">
+        <v>1</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="J15" s="9" t="s">
+      <c r="J15" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="K15" s="9" t="s">
+      <c r="K15" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="L15" s="9" t="s">
+      <c r="L15" s="10" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="16" ht="21.75" customHeight="1" spans="2:12">
-      <c r="B16" s="9"/>
-      <c r="C16" s="10">
+      <c r="B16" s="10"/>
+      <c r="C16" s="11">
         <v>43570</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="G16" s="9">
-        <v>1</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I16" s="9" t="s">
+      <c r="G16" s="10">
+        <v>1</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I16" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="J16" s="9" t="s">
+      <c r="J16" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="K16" s="9" t="s">
+      <c r="K16" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="L16" s="9" t="s">
+      <c r="L16" s="10" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="17" ht="21.75" customHeight="1" spans="2:12">
-      <c r="B17" s="9"/>
-      <c r="C17" s="10">
+      <c r="B17" s="10"/>
+      <c r="C17" s="11">
         <v>43570</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="F17" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="G17" s="9">
-        <v>1</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I17" s="9" t="s">
+      <c r="G17" s="10">
+        <v>1</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I17" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="J17" s="9" t="s">
+      <c r="J17" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="K17" s="9" t="s">
+      <c r="K17" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="L17" s="9" t="s">
+      <c r="L17" s="10" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="18" ht="21.75" customHeight="1" spans="2:12">
-      <c r="B18" s="9"/>
-      <c r="C18" s="10">
+      <c r="B18" s="10"/>
+      <c r="C18" s="11">
         <v>43571</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="F18" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="G18" s="9">
-        <v>1</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I18" s="9" t="s">
+      <c r="G18" s="10">
+        <v>1</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I18" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="J18" s="9" t="s">
+      <c r="J18" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="K18" s="9" t="s">
+      <c r="K18" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="L18" s="9" t="s">
+      <c r="L18" s="10" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="19" ht="21.75" customHeight="1" spans="2:12">
-      <c r="B19" s="9"/>
-      <c r="C19" s="10">
+      <c r="B19" s="10"/>
+      <c r="C19" s="11">
         <v>43571</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="F19" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="G19" s="9">
-        <v>1</v>
-      </c>
-      <c r="H19" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I19" s="9" t="s">
+      <c r="G19" s="10">
+        <v>1</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I19" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="J19" s="9" t="s">
+      <c r="J19" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="K19" s="9" t="s">
+      <c r="K19" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="L19" s="9" t="s">
+      <c r="L19" s="10" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="20" ht="21.75" customHeight="1" spans="2:12">
-      <c r="B20" s="9"/>
-      <c r="C20" s="10">
+      <c r="B20" s="10"/>
+      <c r="C20" s="11">
         <v>43571</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="E20" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="F20" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="G20" s="9">
-        <v>1</v>
-      </c>
-      <c r="H20" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I20" s="9" t="s">
+      <c r="G20" s="10">
+        <v>1</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I20" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="J20" s="9" t="s">
+      <c r="J20" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="K20" s="9" t="s">
+      <c r="K20" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="L20" s="9" t="s">
+      <c r="L20" s="10" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="21" ht="21.75" customHeight="1" spans="2:12">
-      <c r="B21" s="9"/>
-      <c r="C21" s="10">
+      <c r="B21" s="10"/>
+      <c r="C21" s="11">
         <v>43571</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E21" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="F21" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="G21" s="9">
-        <v>1</v>
-      </c>
-      <c r="H21" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I21" s="9" t="s">
+      <c r="G21" s="10">
+        <v>1</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I21" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="J21" s="9" t="s">
+      <c r="J21" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="K21" s="9" t="s">
+      <c r="K21" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="L21" s="9" t="s">
+      <c r="L21" s="10" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="22" ht="21.75" customHeight="1" spans="2:12">
-      <c r="B22" s="9"/>
-      <c r="C22" s="10">
+      <c r="B22" s="10"/>
+      <c r="C22" s="11">
         <v>43571</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="E22" s="13" t="s">
+      <c r="E22" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="F22" s="9" t="s">
+      <c r="F22" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="G22" s="9">
-        <v>1</v>
-      </c>
-      <c r="H22" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I22" s="9" t="s">
+      <c r="G22" s="10">
+        <v>1</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I22" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J22" s="9" t="s">
+      <c r="J22" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="K22" s="9" t="s">
+      <c r="K22" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="L22" s="9" t="s">
+      <c r="L22" s="10" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="23" ht="21.75" customHeight="1" spans="2:12">
-      <c r="B23" s="9"/>
-      <c r="C23" s="10">
+      <c r="B23" s="10"/>
+      <c r="C23" s="11">
         <v>43571</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="E23" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F23" s="9" t="s">
+      <c r="F23" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="G23" s="9">
-        <v>1</v>
-      </c>
-      <c r="H23" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I23" s="9" t="s">
+      <c r="G23" s="10">
+        <v>1</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I23" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="J23" s="9" t="s">
+      <c r="J23" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="K23" s="9" t="s">
+      <c r="K23" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="L23" s="9" t="s">
+      <c r="L23" s="10" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="24" ht="42.95" customHeight="1" spans="2:12">
-      <c r="B24" s="9"/>
-      <c r="C24" s="10">
+      <c r="B24" s="10"/>
+      <c r="C24" s="11">
         <v>43571</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D24" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="E24" s="9" t="s">
+      <c r="E24" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="F24" s="9" t="s">
+      <c r="F24" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="G24" s="9">
+      <c r="G24" s="10">
         <v>2</v>
       </c>
-      <c r="H24" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I24" s="9" t="s">
+      <c r="H24" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I24" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="J24" s="9" t="s">
+      <c r="J24" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="K24" s="37" t="s">
+      <c r="K24" s="39" t="s">
         <v>97</v>
       </c>
-      <c r="L24" s="9" t="s">
+      <c r="L24" s="10" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="25" ht="21.75" customHeight="1" spans="2:12">
-      <c r="B25" s="9"/>
-      <c r="C25" s="10">
+      <c r="B25" s="10"/>
+      <c r="C25" s="11">
         <v>43571</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="E25" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="F25" s="9" t="s">
+      <c r="F25" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="G25" s="9">
-        <v>1</v>
-      </c>
-      <c r="H25" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I25" s="9" t="s">
+      <c r="G25" s="10">
+        <v>1</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I25" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="J25" s="9" t="s">
+      <c r="J25" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="K25" s="9" t="s">
+      <c r="K25" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="L25" s="9" t="s">
+      <c r="L25" s="10" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="26" ht="21.75" customHeight="1" spans="2:12">
-      <c r="B26" s="9"/>
-      <c r="C26" s="10">
+      <c r="B26" s="10"/>
+      <c r="C26" s="11">
         <v>43571</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="D26" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="E26" s="9" t="s">
+      <c r="E26" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="F26" s="9" t="s">
+      <c r="F26" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="G26" s="9">
-        <v>1</v>
-      </c>
-      <c r="H26" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I26" s="9" t="s">
+      <c r="G26" s="10">
+        <v>1</v>
+      </c>
+      <c r="H26" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I26" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="J26" s="9" t="s">
+      <c r="J26" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="K26" s="9" t="s">
+      <c r="K26" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="L26" s="9" t="s">
+      <c r="L26" s="10" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="27" ht="21.75" customHeight="1" spans="2:12">
-      <c r="B27" s="9"/>
-      <c r="C27" s="10">
+      <c r="B27" s="10"/>
+      <c r="C27" s="11">
         <v>43571</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="D27" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="E27" s="9" t="s">
+      <c r="E27" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="F27" s="9" t="s">
+      <c r="F27" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="G27" s="9">
-        <v>1</v>
-      </c>
-      <c r="H27" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I27" s="9" t="s">
+      <c r="G27" s="10">
+        <v>1</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I27" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="J27" s="9" t="s">
+      <c r="J27" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="K27" s="9" t="s">
+      <c r="K27" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="L27" s="9" t="s">
+      <c r="L27" s="10" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="28" ht="21.75" customHeight="1" spans="2:12">
-      <c r="B28" s="9"/>
-      <c r="C28" s="10">
+      <c r="B28" s="10"/>
+      <c r="C28" s="11">
         <v>43571</v>
       </c>
-      <c r="D28" s="9" t="s">
+      <c r="D28" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="E28" s="9" t="s">
+      <c r="E28" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="F28" s="9" t="s">
+      <c r="F28" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="G28" s="9">
-        <v>1</v>
-      </c>
-      <c r="H28" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I28" s="9" t="s">
+      <c r="G28" s="10">
+        <v>1</v>
+      </c>
+      <c r="H28" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I28" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="J28" s="9" t="s">
+      <c r="J28" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="K28" s="9" t="s">
+      <c r="K28" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="L28" s="9" t="s">
+      <c r="L28" s="10" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="29" ht="21.75" customHeight="1" spans="2:12">
-      <c r="B29" s="9">
+      <c r="B29" s="10">
         <v>78</v>
       </c>
-      <c r="C29" s="10">
+      <c r="C29" s="11">
         <v>43571</v>
       </c>
-      <c r="D29" s="9" t="s">
+      <c r="D29" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="E29" s="9" t="s">
+      <c r="E29" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="F29" s="9" t="s">
+      <c r="F29" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="G29" s="9">
-        <v>1</v>
-      </c>
-      <c r="H29" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I29" s="9" t="s">
+      <c r="G29" s="10">
+        <v>1</v>
+      </c>
+      <c r="H29" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I29" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J29" s="9" t="s">
+      <c r="J29" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="K29" s="9" t="s">
+      <c r="K29" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="L29" s="9" t="s">
+      <c r="L29" s="10" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="30" ht="21.75" customHeight="1" spans="2:12">
-      <c r="B30" s="14"/>
-      <c r="C30" s="10">
+      <c r="B30" s="15"/>
+      <c r="C30" s="11">
         <v>43571</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="D30" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="E30" s="9" t="s">
+      <c r="E30" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="F30" s="9" t="s">
+      <c r="F30" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="G30" s="9">
-        <v>1</v>
-      </c>
-      <c r="H30" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I30" s="9" t="s">
+      <c r="G30" s="10">
+        <v>1</v>
+      </c>
+      <c r="H30" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I30" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="J30" s="9" t="s">
+      <c r="J30" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="K30" s="9" t="s">
+      <c r="K30" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="L30" s="9" t="s">
+      <c r="L30" s="10" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="31" ht="21.75" customHeight="1" spans="2:12">
-      <c r="B31" s="9">
+      <c r="B31" s="10">
         <v>79</v>
       </c>
-      <c r="C31" s="10">
+      <c r="C31" s="11">
         <v>43571</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="D31" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="E31" s="9" t="s">
+      <c r="E31" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="F31" s="9" t="s">
+      <c r="F31" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="G31" s="9">
-        <v>1</v>
-      </c>
-      <c r="H31" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I31" s="9" t="s">
+      <c r="G31" s="10">
+        <v>1</v>
+      </c>
+      <c r="H31" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I31" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J31" s="9" t="s">
+      <c r="J31" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="K31" s="9" t="s">
+      <c r="K31" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="L31" s="9" t="s">
+      <c r="L31" s="10" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="32" ht="21.75" customHeight="1" spans="2:12">
-      <c r="B32" s="9">
+      <c r="B32" s="10">
         <v>80</v>
       </c>
-      <c r="C32" s="10">
+      <c r="C32" s="11">
         <v>43571</v>
       </c>
-      <c r="D32" s="9" t="s">
+      <c r="D32" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="E32" s="9" t="s">
+      <c r="E32" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="F32" s="9" t="s">
+      <c r="F32" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="G32" s="9">
-        <v>1</v>
-      </c>
-      <c r="H32" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I32" s="9" t="s">
+      <c r="G32" s="10">
+        <v>1</v>
+      </c>
+      <c r="H32" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I32" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="J32" s="9" t="s">
+      <c r="J32" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="K32" s="9" t="s">
+      <c r="K32" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="L32" s="9" t="s">
+      <c r="L32" s="10" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="33" ht="21.75" customHeight="1" spans="2:12">
-      <c r="B33" s="9">
+      <c r="B33" s="10">
         <v>81</v>
       </c>
-      <c r="C33" s="10">
+      <c r="C33" s="11">
         <v>43571</v>
       </c>
-      <c r="D33" s="9" t="s">
+      <c r="D33" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="E33" s="9" t="s">
+      <c r="E33" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="F33" s="9" t="s">
+      <c r="F33" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="G33" s="9">
-        <v>1</v>
-      </c>
-      <c r="H33" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I33" s="9" t="s">
+      <c r="G33" s="10">
+        <v>1</v>
+      </c>
+      <c r="H33" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I33" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="J33" s="9" t="s">
+      <c r="J33" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="K33" s="9" t="s">
+      <c r="K33" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="L33" s="9" t="s">
+      <c r="L33" s="10" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="34" ht="21.75" customHeight="1" spans="2:12">
-      <c r="B34" s="9">
+      <c r="B34" s="10">
         <v>82</v>
       </c>
-      <c r="C34" s="10">
+      <c r="C34" s="11">
         <v>43571</v>
       </c>
-      <c r="D34" s="9" t="s">
+      <c r="D34" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="E34" s="9" t="s">
+      <c r="E34" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="F34" s="9" t="s">
+      <c r="F34" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="G34" s="9">
-        <v>1</v>
-      </c>
-      <c r="H34" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I34" s="9" t="s">
+      <c r="G34" s="10">
+        <v>1</v>
+      </c>
+      <c r="H34" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I34" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="J34" s="9" t="s">
+      <c r="J34" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="K34" s="9" t="s">
+      <c r="K34" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="L34" s="9" t="s">
+      <c r="L34" s="10" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="35" ht="21.75" customHeight="1" spans="2:12">
-      <c r="B35" s="9">
+      <c r="B35" s="10">
         <v>83</v>
       </c>
-      <c r="C35" s="10">
+      <c r="C35" s="11">
         <v>43571</v>
       </c>
-      <c r="D35" s="15" t="s">
+      <c r="D35" s="16" t="s">
         <v>118</v>
       </c>
       <c r="E35" t="s">
         <v>119</v>
       </c>
-      <c r="F35" s="9" t="s">
+      <c r="F35" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="G35" s="9">
-        <v>1</v>
-      </c>
-      <c r="H35" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I35" s="9" t="s">
+      <c r="G35" s="10">
+        <v>1</v>
+      </c>
+      <c r="H35" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I35" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="J35" s="9" t="s">
+      <c r="J35" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="K35" s="9" t="s">
+      <c r="K35" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="L35" s="9" t="s">
+      <c r="L35" s="10" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="36" ht="21.75" customHeight="1" spans="2:12">
-      <c r="B36" s="9">
+      <c r="B36" s="10">
         <v>84</v>
       </c>
-      <c r="C36" s="10">
+      <c r="C36" s="11">
         <v>43571</v>
       </c>
-      <c r="D36" s="9" t="s">
+      <c r="D36" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="E36" s="15" t="s">
+      <c r="E36" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="F36" s="9" t="s">
+      <c r="F36" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="G36" s="9">
-        <v>1</v>
-      </c>
-      <c r="H36" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I36" s="9" t="s">
+      <c r="G36" s="10">
+        <v>1</v>
+      </c>
+      <c r="H36" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I36" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J36" s="9" t="s">
+      <c r="J36" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="K36" s="9" t="s">
+      <c r="K36" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="L36" s="9" t="s">
+      <c r="L36" s="10" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="37" ht="21.75" customHeight="1" spans="2:12">
-      <c r="B37" s="9">
+      <c r="B37" s="10">
         <v>85</v>
       </c>
-      <c r="C37" s="10">
+      <c r="C37" s="11">
         <v>43571</v>
       </c>
-      <c r="D37" s="16" t="s">
+      <c r="D37" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="E37" s="16" t="s">
+      <c r="E37" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="F37" s="17" t="s">
+      <c r="F37" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="G37" s="9">
-        <v>1</v>
-      </c>
-      <c r="H37" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I37" s="9" t="s">
+      <c r="G37" s="10">
+        <v>1</v>
+      </c>
+      <c r="H37" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I37" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="J37" s="9" t="s">
+      <c r="J37" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="K37" s="9" t="s">
+      <c r="K37" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="L37" s="9" t="s">
+      <c r="L37" s="10" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="38" ht="21.75" customHeight="1" spans="2:12">
-      <c r="B38" s="9">
+      <c r="B38" s="10">
         <v>86</v>
       </c>
-      <c r="C38" s="10">
+      <c r="C38" s="11">
         <v>43571</v>
       </c>
-      <c r="D38" s="16" t="s">
+      <c r="D38" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="E38" s="16" t="s">
+      <c r="E38" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="F38" s="17" t="s">
+      <c r="F38" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="G38" s="9">
-        <v>1</v>
-      </c>
-      <c r="H38" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I38" s="9" t="s">
+      <c r="G38" s="10">
+        <v>1</v>
+      </c>
+      <c r="H38" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I38" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="J38" s="9" t="s">
+      <c r="J38" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="K38" s="9" t="s">
+      <c r="K38" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="L38" s="9" t="s">
+      <c r="L38" s="10" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="39" ht="21.75" customHeight="1" spans="2:12">
-      <c r="B39" s="9">
+      <c r="B39" s="10">
         <v>87</v>
       </c>
-      <c r="C39" s="10">
+      <c r="C39" s="11">
         <v>43571</v>
       </c>
-      <c r="D39" s="18" t="s">
+      <c r="D39" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="E39" s="16" t="s">
+      <c r="E39" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="F39" s="17" t="s">
+      <c r="F39" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="G39" s="9">
-        <v>1</v>
-      </c>
-      <c r="H39" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I39" s="18" t="s">
+      <c r="G39" s="10">
+        <v>1</v>
+      </c>
+      <c r="H39" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I39" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="J39" s="9" t="s">
+      <c r="J39" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="K39" s="9" t="s">
+      <c r="K39" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="L39" s="9" t="s">
+      <c r="L39" s="10" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="40" s="2" customFormat="1" ht="21.75" customHeight="1" spans="2:12">
-      <c r="B40" s="9">
+      <c r="B40" s="10">
         <v>88</v>
       </c>
-      <c r="C40" s="10">
+      <c r="C40" s="11">
         <v>43571</v>
       </c>
-      <c r="D40" s="19" t="s">
+      <c r="D40" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="E40" s="19" t="s">
+      <c r="E40" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="F40" s="17" t="s">
+      <c r="F40" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="G40" s="9">
-        <v>1</v>
-      </c>
-      <c r="H40" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I40" s="19" t="s">
+      <c r="G40" s="10">
+        <v>1</v>
+      </c>
+      <c r="H40" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I40" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="J40" s="9" t="s">
+      <c r="J40" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="K40" s="19" t="s">
+      <c r="K40" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="L40" s="9" t="s">
+      <c r="L40" s="10" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="41" s="2" customFormat="1" ht="21.75" customHeight="1" spans="2:12">
-      <c r="B41" s="9">
+      <c r="B41" s="10">
         <v>89</v>
       </c>
-      <c r="C41" s="10">
+      <c r="C41" s="11">
         <v>43571</v>
       </c>
-      <c r="D41" s="19" t="s">
+      <c r="D41" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="E41" s="20" t="s">
+      <c r="E41" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="F41" s="17" t="s">
+      <c r="F41" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="G41" s="9">
-        <v>1</v>
-      </c>
-      <c r="H41" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I41" s="19" t="s">
+      <c r="G41" s="10">
+        <v>1</v>
+      </c>
+      <c r="H41" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I41" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="J41" s="9" t="s">
+      <c r="J41" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="K41" s="20" t="s">
+      <c r="K41" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="L41" s="9" t="s">
+      <c r="L41" s="10" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="42" s="2" customFormat="1" ht="21.75" customHeight="1" spans="2:12">
-      <c r="B42" s="9">
+      <c r="B42" s="10">
         <v>90</v>
       </c>
-      <c r="C42" s="10">
+      <c r="C42" s="11">
         <v>43572</v>
       </c>
-      <c r="D42" s="21" t="s">
+      <c r="D42" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="E42" s="21" t="s">
+      <c r="E42" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="F42" s="17" t="s">
+      <c r="F42" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="G42" s="9">
-        <v>1</v>
-      </c>
-      <c r="H42" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I42" s="21" t="s">
+      <c r="G42" s="10">
+        <v>1</v>
+      </c>
+      <c r="H42" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I42" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="J42" s="9" t="s">
+      <c r="J42" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="K42" s="20" t="s">
+      <c r="K42" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="L42" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="43" ht="21.75" customHeight="1" spans="2:12">
-      <c r="B43" s="14"/>
-      <c r="C43" s="22"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="9"/>
-      <c r="H43" s="9"/>
-      <c r="I43" s="9"/>
-      <c r="J43" s="9"/>
-      <c r="K43" s="38"/>
-      <c r="L43" s="9"/>
+      <c r="L42" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" s="3" customFormat="1" ht="21.75" customHeight="1" spans="2:12">
+      <c r="B43" s="15"/>
+      <c r="C43" s="11">
+        <v>43572</v>
+      </c>
+      <c r="D43" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="E43" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="F43" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="G43" s="10">
+        <v>1</v>
+      </c>
+      <c r="H43" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I43" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="J43" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="K43" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="L43" s="10" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="44" ht="21.75" customHeight="1" spans="2:12">
-      <c r="B44" s="14"/>
-      <c r="C44" s="22"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="9"/>
-      <c r="J44" s="9"/>
-      <c r="K44" s="38"/>
-      <c r="L44" s="9"/>
+      <c r="B44" s="15"/>
+      <c r="C44" s="11">
+        <v>43572</v>
+      </c>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="10"/>
+      <c r="K44" s="40"/>
+      <c r="L44" s="10"/>
     </row>
     <row r="45" ht="21.75" customHeight="1" spans="2:12">
-      <c r="B45" s="14"/>
-      <c r="C45" s="22"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="9"/>
-      <c r="J45" s="9"/>
-      <c r="K45" s="38"/>
-      <c r="L45" s="9"/>
+      <c r="B45" s="15"/>
+      <c r="C45" s="11">
+        <v>43572</v>
+      </c>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="10"/>
+      <c r="K45" s="40"/>
+      <c r="L45" s="10"/>
     </row>
     <row r="46" ht="21.75" customHeight="1" spans="2:12">
-      <c r="B46" s="14"/>
-      <c r="C46" s="22"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="9"/>
-      <c r="I46" s="9"/>
-      <c r="J46" s="9"/>
-      <c r="K46" s="38"/>
-      <c r="L46" s="9"/>
+      <c r="B46" s="15"/>
+      <c r="C46" s="11">
+        <v>43572</v>
+      </c>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="10"/>
+      <c r="K46" s="40"/>
+      <c r="L46" s="10"/>
     </row>
     <row r="47" ht="21.75" customHeight="1" spans="2:12">
-      <c r="B47" s="14"/>
-      <c r="C47" s="22"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9"/>
-      <c r="F47" s="9"/>
-      <c r="G47" s="9"/>
-      <c r="H47" s="9"/>
-      <c r="I47" s="9"/>
-      <c r="J47" s="9"/>
-      <c r="K47" s="38"/>
-      <c r="L47" s="9"/>
+      <c r="B47" s="15"/>
+      <c r="C47" s="11">
+        <v>43572</v>
+      </c>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="10"/>
+      <c r="K47" s="40"/>
+      <c r="L47" s="10"/>
     </row>
     <row r="48" ht="21.75" customHeight="1" spans="2:12">
-      <c r="B48" s="14"/>
-      <c r="C48" s="22"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="9"/>
-      <c r="F48" s="9"/>
-      <c r="G48" s="9"/>
-      <c r="H48" s="9"/>
-      <c r="I48" s="9"/>
-      <c r="J48" s="9"/>
-      <c r="K48" s="38"/>
-      <c r="L48" s="9"/>
+      <c r="B48" s="15"/>
+      <c r="C48" s="11">
+        <v>43572</v>
+      </c>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="10"/>
+      <c r="J48" s="10"/>
+      <c r="K48" s="40"/>
+      <c r="L48" s="10"/>
     </row>
     <row r="49" ht="21.75" customHeight="1" spans="2:12">
-      <c r="B49" s="14"/>
-      <c r="C49" s="22"/>
-      <c r="D49" s="9"/>
-      <c r="E49" s="9"/>
-      <c r="F49" s="9"/>
-      <c r="G49" s="9"/>
-      <c r="H49" s="9"/>
-      <c r="I49" s="9"/>
-      <c r="J49" s="9"/>
-      <c r="K49" s="38"/>
-      <c r="L49" s="9"/>
+      <c r="B49" s="15"/>
+      <c r="C49" s="24"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="10"/>
+      <c r="J49" s="10"/>
+      <c r="K49" s="40"/>
+      <c r="L49" s="10"/>
     </row>
     <row r="50" ht="21.75" customHeight="1" spans="2:12">
-      <c r="B50" s="14"/>
-      <c r="C50" s="22"/>
-      <c r="D50" s="9"/>
-      <c r="E50" s="9"/>
-      <c r="F50" s="9"/>
-      <c r="G50" s="9"/>
-      <c r="H50" s="9"/>
-      <c r="I50" s="9"/>
-      <c r="J50" s="9"/>
-      <c r="K50" s="38"/>
-      <c r="L50" s="9"/>
+      <c r="B50" s="15"/>
+      <c r="C50" s="24"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="10"/>
+      <c r="J50" s="10"/>
+      <c r="K50" s="40"/>
+      <c r="L50" s="10"/>
     </row>
     <row r="51" ht="21.75" customHeight="1" spans="2:12">
-      <c r="B51" s="14"/>
-      <c r="C51" s="22"/>
-      <c r="D51" s="9"/>
-      <c r="E51" s="9"/>
-      <c r="F51" s="9"/>
-      <c r="G51" s="9"/>
-      <c r="H51" s="9"/>
-      <c r="I51" s="9"/>
-      <c r="J51" s="9"/>
-      <c r="K51" s="38"/>
-      <c r="L51" s="9"/>
+      <c r="B51" s="15"/>
+      <c r="C51" s="24"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="10"/>
+      <c r="I51" s="10"/>
+      <c r="J51" s="10"/>
+      <c r="K51" s="40"/>
+      <c r="L51" s="10"/>
     </row>
     <row r="52" ht="21.75" customHeight="1" spans="2:12">
-      <c r="B52" s="14"/>
-      <c r="C52" s="22"/>
-      <c r="D52" s="9"/>
-      <c r="E52" s="9"/>
-      <c r="F52" s="9"/>
-      <c r="G52" s="9"/>
-      <c r="H52" s="9"/>
-      <c r="I52" s="9"/>
-      <c r="J52" s="9"/>
-      <c r="K52" s="38"/>
-      <c r="L52" s="9"/>
+      <c r="B52" s="15"/>
+      <c r="C52" s="24"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="10"/>
+      <c r="I52" s="10"/>
+      <c r="J52" s="10"/>
+      <c r="K52" s="40"/>
+      <c r="L52" s="10"/>
     </row>
     <row r="53" ht="21.75" customHeight="1" spans="2:12">
-      <c r="B53" s="23" t="s">
+      <c r="B53" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C53" s="24"/>
-      <c r="D53" s="25"/>
-      <c r="E53" s="25"/>
-      <c r="F53" s="26"/>
-      <c r="G53" s="26">
+      <c r="C53" s="26"/>
+      <c r="D53" s="27"/>
+      <c r="E53" s="27"/>
+      <c r="F53" s="28"/>
+      <c r="G53" s="28">
         <f>SUM(G3:G29)</f>
         <v>33</v>
       </c>
-      <c r="H53" s="26"/>
-      <c r="I53" s="26"/>
-      <c r="J53" s="9"/>
-      <c r="K53" s="39"/>
-      <c r="L53" s="9"/>
+      <c r="H53" s="28"/>
+      <c r="I53" s="28"/>
+      <c r="J53" s="10"/>
+      <c r="K53" s="41"/>
+      <c r="L53" s="10"/>
     </row>
     <row r="55" ht="75" customHeight="1" spans="2:12">
-      <c r="B55" s="27"/>
-      <c r="C55" s="28"/>
-      <c r="D55" s="28"/>
-      <c r="E55" s="28"/>
-      <c r="F55" s="28"/>
-      <c r="G55" s="28"/>
-      <c r="H55" s="28"/>
-      <c r="I55" s="28"/>
-      <c r="J55" s="40"/>
-      <c r="K55" s="41"/>
-      <c r="L55" s="42"/>
+      <c r="B55" s="29"/>
+      <c r="C55" s="30"/>
+      <c r="D55" s="30"/>
+      <c r="E55" s="30"/>
+      <c r="F55" s="30"/>
+      <c r="G55" s="30"/>
+      <c r="H55" s="30"/>
+      <c r="I55" s="30"/>
+      <c r="J55" s="42"/>
+      <c r="K55" s="43"/>
+      <c r="L55" s="44"/>
     </row>
   </sheetData>
   <autoFilter ref="C2:L53"/>
@@ -3568,6 +3616,7 @@
     <hyperlink ref="K40" r:id="rId31" display="https://xhbup.com/zhimei/"/>
     <hyperlink ref="K41" r:id="rId32" display="https://xhbup.com/hylys/" tooltip="https://xhbup.com/hylys/"/>
     <hyperlink ref="K42" r:id="rId33" display="https://xhbup.com/jzzkj2/tp/" tooltip="https://xhbup.com/jzzkj2/tp/"/>
+    <hyperlink ref="K43" r:id="rId34" display="https://xhbup.com/tiancheng/" tooltip="https://xhbup.com/tiancheng/"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>

--- a/业务线技术支持登记表格式.xlsx
+++ b/业务线技术支持登记表格式.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145">
   <si>
     <t>业务线支持登记表</t>
   </si>
@@ -445,6 +445,18 @@
   </si>
   <si>
     <t>https://xhbup.com/tiancheng/</t>
+  </si>
+  <si>
+    <t>胡雄敏</t>
+  </si>
+  <si>
+    <t>佛山市素现化妆品有限公司</t>
+  </si>
+  <si>
+    <t>减防</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/sxhzp/</t>
   </si>
 </sst>
 </file>
@@ -452,12 +464,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="36">
+  <fonts count="34">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -498,19 +510,6 @@
     </font>
     <font>
       <sz val="10.5"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
@@ -569,38 +568,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -614,14 +589,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -631,46 +598,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -691,12 +618,84 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -706,7 +705,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -739,31 +738,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -782,54 +769,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -871,24 +810,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -896,6 +817,54 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -920,6 +889,36 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1104,17 +1103,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1122,23 +1121,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1154,6 +1138,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1179,25 +1172,31 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1209,10 +1208,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="26" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1221,137 +1220,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="17" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="26" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="26" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="35" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1361,9 +1360,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -1403,40 +1399,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1448,13 +1441,13 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1463,7 +1456,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1487,7 +1480,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1902,1663 +1895,1681 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C42" sqref="C42:C48"/>
+      <selection pane="bottomRight" activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="1.25" style="4" customWidth="1"/>
-    <col min="2" max="2" width="7" style="4" customWidth="1"/>
-    <col min="3" max="3" width="10.625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="28.5" style="5" customWidth="1"/>
-    <col min="5" max="5" width="25.375" style="5" customWidth="1"/>
-    <col min="6" max="6" width="11.25" style="4" customWidth="1"/>
-    <col min="7" max="7" width="8.125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="11.75" style="4" customWidth="1"/>
-    <col min="9" max="9" width="14.375" style="4" customWidth="1"/>
-    <col min="10" max="10" width="15.25" style="6" customWidth="1"/>
-    <col min="11" max="11" width="25.25" style="7" customWidth="1"/>
-    <col min="12" max="12" width="14.75" style="6" customWidth="1"/>
-    <col min="13" max="13" width="3.875" style="4" customWidth="1"/>
-    <col min="14" max="16" width="15.375" style="4" customWidth="1"/>
-    <col min="17" max="19" width="14.125" style="4" customWidth="1"/>
-    <col min="20" max="20" width="29.25" style="4" customWidth="1"/>
-    <col min="21" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="1.25" style="3" customWidth="1"/>
+    <col min="2" max="2" width="7" style="3" customWidth="1"/>
+    <col min="3" max="3" width="10.625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="28.5" style="4" customWidth="1"/>
+    <col min="5" max="5" width="25.375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="11.25" style="3" customWidth="1"/>
+    <col min="7" max="7" width="8.125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="11.75" style="3" customWidth="1"/>
+    <col min="9" max="9" width="14.375" style="3" customWidth="1"/>
+    <col min="10" max="10" width="15.25" style="5" customWidth="1"/>
+    <col min="11" max="11" width="25.25" style="6" customWidth="1"/>
+    <col min="12" max="12" width="14.75" style="5" customWidth="1"/>
+    <col min="13" max="13" width="3.875" style="3" customWidth="1"/>
+    <col min="14" max="16" width="15.375" style="3" customWidth="1"/>
+    <col min="17" max="19" width="14.125" style="3" customWidth="1"/>
+    <col min="20" max="20" width="29.25" style="3" customWidth="1"/>
+    <col min="21" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="46.5" customHeight="1" spans="3:17">
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="8"/>
-      <c r="N1" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="7"/>
+      <c r="N1" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
     </row>
     <row r="2" ht="21.75" customHeight="1" spans="2:17">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="33" t="s">
+      <c r="K2" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="34" t="s">
+      <c r="N2" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="O2" s="34" t="s">
+      <c r="O2" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="P2" s="34" t="s">
+      <c r="P2" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" s="34" t="s">
+      <c r="Q2" s="32" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" ht="33" spans="2:17">
-      <c r="B3" s="10">
-        <v>1</v>
-      </c>
-      <c r="C3" s="11">
+      <c r="B3" s="9">
+        <v>1</v>
+      </c>
+      <c r="C3" s="10">
         <v>43570</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="11">
         <v>2</v>
       </c>
-      <c r="H3" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="10" t="s">
+      <c r="H3" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J3" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="35" t="s">
+      <c r="K3" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="L3" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="N3" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="O3" s="36"/>
-      <c r="P3" s="36"/>
-      <c r="Q3" s="45">
+      <c r="L3" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="43">
         <f>O3+P3</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" ht="21.75" customHeight="1" spans="2:17">
-      <c r="B4" s="10">
+      <c r="B4" s="9">
         <v>5</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="10">
         <v>43570</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="10">
-        <v>1</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="10" t="s">
+      <c r="G4" s="9">
+        <v>1</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="J4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="K4" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="L4" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="N4" s="37" t="s">
+      <c r="L4" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="N4" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="O4" s="37">
+      <c r="O4" s="35">
         <f>SUM(O3:O3)</f>
         <v>0</v>
       </c>
-      <c r="P4" s="37">
+      <c r="P4" s="35">
         <f>SUM(P3:P3)</f>
         <v>0</v>
       </c>
-      <c r="Q4" s="37">
+      <c r="Q4" s="35">
         <f>SUM(Q3:Q3)</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" ht="21.75" customHeight="1" spans="2:12">
-      <c r="B5" s="10">
+      <c r="B5" s="9">
         <v>6</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="10">
         <v>43570</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="10">
-        <v>1</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" s="10" t="s">
+      <c r="G5" s="9">
+        <v>1</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="J5" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="K5" s="10" t="s">
+      <c r="K5" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="L5" s="10" t="s">
+      <c r="L5" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="6" ht="21.75" customHeight="1" spans="2:12">
-      <c r="B6" s="10"/>
-      <c r="C6" s="11">
+      <c r="B6" s="9"/>
+      <c r="C6" s="10">
         <v>43570</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="10">
-        <v>1</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I6" s="10" t="s">
+      <c r="G6" s="9">
+        <v>1</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="J6" s="10" t="s">
+      <c r="J6" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="K6" s="10" t="s">
+      <c r="K6" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="L6" s="10" t="s">
+      <c r="L6" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="7" ht="39.75" customHeight="1" spans="2:12">
-      <c r="B7" s="10"/>
-      <c r="C7" s="11">
+      <c r="B7" s="9"/>
+      <c r="C7" s="10">
         <v>43570</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="9">
         <v>2</v>
       </c>
-      <c r="H7" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I7" s="10" t="s">
+      <c r="H7" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="10" t="s">
+      <c r="J7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="K7" s="38" t="s">
+      <c r="K7" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="L7" s="10" t="s">
+      <c r="L7" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="8" ht="21.75" customHeight="1" spans="2:12">
-      <c r="B8" s="10"/>
-      <c r="C8" s="11">
+      <c r="B8" s="9"/>
+      <c r="C8" s="10">
         <v>43570</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="10">
-        <v>1</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I8" s="10" t="s">
+      <c r="G8" s="9">
+        <v>1</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="J8" s="10" t="s">
+      <c r="J8" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="K8" s="10" t="s">
+      <c r="K8" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="L8" s="10" t="s">
+      <c r="L8" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9" ht="21.75" customHeight="1" spans="2:12">
-      <c r="B9" s="10"/>
-      <c r="C9" s="11">
+      <c r="B9" s="9"/>
+      <c r="C9" s="10">
         <v>43570</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="G9" s="10">
-        <v>1</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I9" s="10" t="s">
+      <c r="G9" s="9">
+        <v>1</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="J9" s="10" t="s">
+      <c r="J9" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="K9" s="10" t="s">
+      <c r="K9" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="L9" s="10" t="s">
+      <c r="L9" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="10" ht="21.75" customHeight="1" spans="2:12">
-      <c r="B10" s="10"/>
-      <c r="C10" s="11">
+      <c r="B10" s="9"/>
+      <c r="C10" s="10">
         <v>43570</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="G10" s="10">
-        <v>1</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I10" s="10" t="s">
+      <c r="G10" s="9">
+        <v>1</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="J10" s="10" t="s">
+      <c r="J10" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="K10" s="10" t="s">
+      <c r="K10" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="L10" s="10" t="s">
+      <c r="L10" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="11" ht="87" customHeight="1" spans="2:12">
-      <c r="B11" s="10"/>
-      <c r="C11" s="11">
+      <c r="B11" s="9"/>
+      <c r="C11" s="10">
         <v>43570</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G11" s="9">
         <v>4</v>
       </c>
-      <c r="H11" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I11" s="10" t="s">
+      <c r="H11" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="J11" s="10" t="s">
+      <c r="J11" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="K11" s="38" t="s">
+      <c r="K11" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="L11" s="10" t="s">
+      <c r="L11" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="12" ht="21.75" customHeight="1" spans="2:12">
-      <c r="B12" s="10"/>
-      <c r="C12" s="11">
+      <c r="B12" s="9"/>
+      <c r="C12" s="10">
         <v>43570</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="G12" s="10">
-        <v>1</v>
-      </c>
-      <c r="H12" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I12" s="10" t="s">
+      <c r="G12" s="9">
+        <v>1</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="J12" s="10" t="s">
+      <c r="J12" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="K12" s="10" t="s">
+      <c r="K12" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="L12" s="10" t="s">
+      <c r="L12" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="13" ht="21.75" customHeight="1" spans="2:12">
-      <c r="B13" s="10"/>
-      <c r="C13" s="11">
+      <c r="B13" s="9"/>
+      <c r="C13" s="10">
         <v>43570</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="G13" s="10">
-        <v>1</v>
-      </c>
-      <c r="H13" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I13" s="10" t="s">
+      <c r="G13" s="9">
+        <v>1</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="J13" s="10" t="s">
+      <c r="J13" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="K13" s="10" t="s">
+      <c r="K13" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="L13" s="10" t="s">
+      <c r="L13" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="14" ht="21.75" customHeight="1" spans="2:12">
-      <c r="B14" s="10"/>
-      <c r="C14" s="11">
+      <c r="B14" s="9"/>
+      <c r="C14" s="10">
         <v>43570</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="F14" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="G14" s="10">
-        <v>1</v>
-      </c>
-      <c r="H14" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I14" s="10" t="s">
+      <c r="G14" s="9">
+        <v>1</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I14" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="J14" s="10" t="s">
+      <c r="J14" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="K14" s="10" t="s">
+      <c r="K14" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="L14" s="10" t="s">
+      <c r="L14" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="15" ht="21.75" customHeight="1" spans="2:12">
-      <c r="B15" s="10"/>
-      <c r="C15" s="11">
+      <c r="B15" s="9"/>
+      <c r="C15" s="10">
         <v>43570</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="E15" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="F15" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="G15" s="10">
-        <v>1</v>
-      </c>
-      <c r="H15" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I15" s="10" t="s">
+      <c r="G15" s="9">
+        <v>1</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="J15" s="10" t="s">
+      <c r="J15" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="K15" s="10" t="s">
+      <c r="K15" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="L15" s="10" t="s">
+      <c r="L15" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="16" ht="21.75" customHeight="1" spans="2:12">
-      <c r="B16" s="10"/>
-      <c r="C16" s="11">
+      <c r="B16" s="9"/>
+      <c r="C16" s="10">
         <v>43570</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E16" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="F16" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="G16" s="10">
-        <v>1</v>
-      </c>
-      <c r="H16" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I16" s="10" t="s">
+      <c r="G16" s="9">
+        <v>1</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I16" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="J16" s="10" t="s">
+      <c r="J16" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="K16" s="10" t="s">
+      <c r="K16" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="L16" s="10" t="s">
+      <c r="L16" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="17" ht="21.75" customHeight="1" spans="2:12">
-      <c r="B17" s="10"/>
-      <c r="C17" s="11">
+      <c r="B17" s="9"/>
+      <c r="C17" s="10">
         <v>43570</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="E17" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="F17" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="G17" s="10">
-        <v>1</v>
-      </c>
-      <c r="H17" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I17" s="10" t="s">
+      <c r="G17" s="9">
+        <v>1</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I17" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="J17" s="10" t="s">
+      <c r="J17" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="K17" s="10" t="s">
+      <c r="K17" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="L17" s="10" t="s">
+      <c r="L17" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="18" ht="21.75" customHeight="1" spans="2:12">
-      <c r="B18" s="10"/>
-      <c r="C18" s="11">
+      <c r="B18" s="9"/>
+      <c r="C18" s="10">
         <v>43571</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="E18" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="F18" s="10" t="s">
+      <c r="F18" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="G18" s="10">
-        <v>1</v>
-      </c>
-      <c r="H18" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I18" s="10" t="s">
+      <c r="G18" s="9">
+        <v>1</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I18" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="J18" s="10" t="s">
+      <c r="J18" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="K18" s="10" t="s">
+      <c r="K18" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="L18" s="10" t="s">
+      <c r="L18" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="19" ht="21.75" customHeight="1" spans="2:12">
-      <c r="B19" s="10"/>
-      <c r="C19" s="11">
+      <c r="B19" s="9"/>
+      <c r="C19" s="10">
         <v>43571</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="E19" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="F19" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="G19" s="10">
-        <v>1</v>
-      </c>
-      <c r="H19" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I19" s="10" t="s">
+      <c r="G19" s="9">
+        <v>1</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I19" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="J19" s="10" t="s">
+      <c r="J19" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="K19" s="10" t="s">
+      <c r="K19" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="L19" s="10" t="s">
+      <c r="L19" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="20" ht="21.75" customHeight="1" spans="2:12">
-      <c r="B20" s="10"/>
-      <c r="C20" s="11">
+      <c r="B20" s="9"/>
+      <c r="C20" s="10">
         <v>43571</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="E20" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="F20" s="10" t="s">
+      <c r="F20" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="G20" s="10">
-        <v>1</v>
-      </c>
-      <c r="H20" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I20" s="10" t="s">
+      <c r="G20" s="9">
+        <v>1</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I20" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="J20" s="10" t="s">
+      <c r="J20" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="K20" s="10" t="s">
+      <c r="K20" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="L20" s="10" t="s">
+      <c r="L20" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="21" ht="21.75" customHeight="1" spans="2:12">
-      <c r="B21" s="10"/>
-      <c r="C21" s="11">
+      <c r="B21" s="9"/>
+      <c r="C21" s="10">
         <v>43571</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="E21" s="10" t="s">
+      <c r="E21" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="F21" s="10" t="s">
+      <c r="F21" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="G21" s="10">
-        <v>1</v>
-      </c>
-      <c r="H21" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I21" s="10" t="s">
+      <c r="G21" s="9">
+        <v>1</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I21" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="J21" s="10" t="s">
+      <c r="J21" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="K21" s="10" t="s">
+      <c r="K21" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="L21" s="10" t="s">
+      <c r="L21" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="22" ht="21.75" customHeight="1" spans="2:12">
-      <c r="B22" s="10"/>
-      <c r="C22" s="11">
+      <c r="B22" s="9"/>
+      <c r="C22" s="10">
         <v>43571</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="D22" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="E22" s="14" t="s">
+      <c r="E22" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="F22" s="10" t="s">
+      <c r="F22" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="G22" s="10">
-        <v>1</v>
-      </c>
-      <c r="H22" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I22" s="10" t="s">
+      <c r="G22" s="9">
+        <v>1</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I22" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="J22" s="10" t="s">
+      <c r="J22" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="K22" s="10" t="s">
+      <c r="K22" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="L22" s="10" t="s">
+      <c r="L22" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="23" ht="21.75" customHeight="1" spans="2:12">
-      <c r="B23" s="10"/>
-      <c r="C23" s="11">
+      <c r="B23" s="9"/>
+      <c r="C23" s="10">
         <v>43571</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="E23" s="10" t="s">
+      <c r="E23" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="F23" s="10" t="s">
+      <c r="F23" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="G23" s="10">
-        <v>1</v>
-      </c>
-      <c r="H23" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I23" s="10" t="s">
+      <c r="G23" s="9">
+        <v>1</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I23" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="J23" s="10" t="s">
+      <c r="J23" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="K23" s="10" t="s">
+      <c r="K23" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="L23" s="10" t="s">
+      <c r="L23" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="24" ht="42.95" customHeight="1" spans="2:12">
-      <c r="B24" s="10"/>
-      <c r="C24" s="11">
+      <c r="B24" s="9"/>
+      <c r="C24" s="10">
         <v>43571</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="D24" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="E24" s="10" t="s">
+      <c r="E24" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="F24" s="10" t="s">
+      <c r="F24" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="G24" s="10">
+      <c r="G24" s="9">
         <v>2</v>
       </c>
-      <c r="H24" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I24" s="10" t="s">
+      <c r="H24" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I24" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="J24" s="10" t="s">
+      <c r="J24" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="K24" s="39" t="s">
+      <c r="K24" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="L24" s="10" t="s">
+      <c r="L24" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="25" ht="21.75" customHeight="1" spans="2:12">
-      <c r="B25" s="10"/>
-      <c r="C25" s="11">
+      <c r="B25" s="9"/>
+      <c r="C25" s="10">
         <v>43571</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="E25" s="10" t="s">
+      <c r="E25" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="F25" s="10" t="s">
+      <c r="F25" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="G25" s="10">
-        <v>1</v>
-      </c>
-      <c r="H25" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I25" s="10" t="s">
+      <c r="G25" s="9">
+        <v>1</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I25" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="J25" s="10" t="s">
+      <c r="J25" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="K25" s="10" t="s">
+      <c r="K25" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="L25" s="10" t="s">
+      <c r="L25" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="26" ht="21.75" customHeight="1" spans="2:12">
-      <c r="B26" s="10"/>
-      <c r="C26" s="11">
+      <c r="B26" s="9"/>
+      <c r="C26" s="10">
         <v>43571</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="E26" s="10" t="s">
+      <c r="E26" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="F26" s="10" t="s">
+      <c r="F26" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="G26" s="10">
-        <v>1</v>
-      </c>
-      <c r="H26" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I26" s="10" t="s">
+      <c r="G26" s="9">
+        <v>1</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I26" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="J26" s="10" t="s">
+      <c r="J26" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="K26" s="10" t="s">
+      <c r="K26" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="L26" s="10" t="s">
+      <c r="L26" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="27" ht="21.75" customHeight="1" spans="2:12">
-      <c r="B27" s="10"/>
-      <c r="C27" s="11">
+      <c r="B27" s="9"/>
+      <c r="C27" s="10">
         <v>43571</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="D27" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E27" s="10" t="s">
+      <c r="E27" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="F27" s="10" t="s">
+      <c r="F27" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="G27" s="10">
-        <v>1</v>
-      </c>
-      <c r="H27" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I27" s="10" t="s">
+      <c r="G27" s="9">
+        <v>1</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I27" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="J27" s="10" t="s">
+      <c r="J27" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="K27" s="10" t="s">
+      <c r="K27" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="L27" s="10" t="s">
+      <c r="L27" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="28" ht="21.75" customHeight="1" spans="2:12">
-      <c r="B28" s="10"/>
-      <c r="C28" s="11">
+      <c r="B28" s="9"/>
+      <c r="C28" s="10">
         <v>43571</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="D28" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="E28" s="10" t="s">
+      <c r="E28" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="F28" s="10" t="s">
+      <c r="F28" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="G28" s="10">
-        <v>1</v>
-      </c>
-      <c r="H28" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I28" s="10" t="s">
+      <c r="G28" s="9">
+        <v>1</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I28" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="J28" s="10" t="s">
+      <c r="J28" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="K28" s="10" t="s">
+      <c r="K28" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="L28" s="10" t="s">
+      <c r="L28" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="29" ht="21.75" customHeight="1" spans="2:12">
-      <c r="B29" s="10">
+      <c r="B29" s="9">
         <v>78</v>
       </c>
-      <c r="C29" s="11">
+      <c r="C29" s="10">
         <v>43571</v>
       </c>
-      <c r="D29" s="10" t="s">
+      <c r="D29" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="E29" s="10" t="s">
+      <c r="E29" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="F29" s="10" t="s">
+      <c r="F29" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="G29" s="10">
-        <v>1</v>
-      </c>
-      <c r="H29" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I29" s="10" t="s">
+      <c r="G29" s="9">
+        <v>1</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I29" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="J29" s="10" t="s">
+      <c r="J29" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="K29" s="10" t="s">
+      <c r="K29" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="L29" s="10" t="s">
+      <c r="L29" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="30" ht="21.75" customHeight="1" spans="2:12">
-      <c r="B30" s="15"/>
-      <c r="C30" s="11">
+      <c r="B30" s="14"/>
+      <c r="C30" s="10">
         <v>43571</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="D30" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="E30" s="10" t="s">
+      <c r="E30" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="F30" s="10" t="s">
+      <c r="F30" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="G30" s="10">
-        <v>1</v>
-      </c>
-      <c r="H30" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I30" s="10" t="s">
+      <c r="G30" s="9">
+        <v>1</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I30" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="J30" s="10" t="s">
+      <c r="J30" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="K30" s="10" t="s">
+      <c r="K30" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="L30" s="10" t="s">
+      <c r="L30" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="31" ht="21.75" customHeight="1" spans="2:12">
-      <c r="B31" s="10">
+      <c r="B31" s="9">
         <v>79</v>
       </c>
-      <c r="C31" s="11">
+      <c r="C31" s="10">
         <v>43571</v>
       </c>
-      <c r="D31" s="10" t="s">
+      <c r="D31" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="E31" s="10" t="s">
+      <c r="E31" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="F31" s="10" t="s">
+      <c r="F31" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="G31" s="10">
-        <v>1</v>
-      </c>
-      <c r="H31" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I31" s="10" t="s">
+      <c r="G31" s="9">
+        <v>1</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I31" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="J31" s="10" t="s">
+      <c r="J31" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="K31" s="10" t="s">
+      <c r="K31" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="L31" s="10" t="s">
+      <c r="L31" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="32" ht="21.75" customHeight="1" spans="2:12">
-      <c r="B32" s="10">
+      <c r="B32" s="9">
         <v>80</v>
       </c>
-      <c r="C32" s="11">
+      <c r="C32" s="10">
         <v>43571</v>
       </c>
-      <c r="D32" s="10" t="s">
+      <c r="D32" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E32" s="10" t="s">
+      <c r="E32" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="F32" s="10" t="s">
+      <c r="F32" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="G32" s="10">
-        <v>1</v>
-      </c>
-      <c r="H32" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I32" s="10" t="s">
+      <c r="G32" s="9">
+        <v>1</v>
+      </c>
+      <c r="H32" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I32" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="J32" s="10" t="s">
+      <c r="J32" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="K32" s="10" t="s">
+      <c r="K32" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="L32" s="10" t="s">
+      <c r="L32" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="33" ht="21.75" customHeight="1" spans="2:12">
-      <c r="B33" s="10">
+      <c r="B33" s="9">
         <v>81</v>
       </c>
-      <c r="C33" s="11">
+      <c r="C33" s="10">
         <v>43571</v>
       </c>
-      <c r="D33" s="10" t="s">
+      <c r="D33" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E33" s="10" t="s">
+      <c r="E33" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="F33" s="10" t="s">
+      <c r="F33" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="G33" s="10">
-        <v>1</v>
-      </c>
-      <c r="H33" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I33" s="10" t="s">
+      <c r="G33" s="9">
+        <v>1</v>
+      </c>
+      <c r="H33" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I33" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="J33" s="10" t="s">
+      <c r="J33" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="K33" s="10" t="s">
+      <c r="K33" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="L33" s="10" t="s">
+      <c r="L33" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="34" ht="21.75" customHeight="1" spans="2:12">
-      <c r="B34" s="10">
+      <c r="B34" s="9">
         <v>82</v>
       </c>
-      <c r="C34" s="11">
+      <c r="C34" s="10">
         <v>43571</v>
       </c>
-      <c r="D34" s="10" t="s">
+      <c r="D34" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="E34" s="10" t="s">
+      <c r="E34" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="F34" s="10" t="s">
+      <c r="F34" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="G34" s="10">
-        <v>1</v>
-      </c>
-      <c r="H34" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I34" s="10" t="s">
+      <c r="G34" s="9">
+        <v>1</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I34" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="J34" s="10" t="s">
+      <c r="J34" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="K34" s="10" t="s">
+      <c r="K34" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="L34" s="10" t="s">
+      <c r="L34" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="35" ht="21.75" customHeight="1" spans="2:12">
-      <c r="B35" s="10">
+      <c r="B35" s="9">
         <v>83</v>
       </c>
-      <c r="C35" s="11">
+      <c r="C35" s="10">
         <v>43571</v>
       </c>
-      <c r="D35" s="16" t="s">
+      <c r="D35" s="15" t="s">
         <v>118</v>
       </c>
       <c r="E35" t="s">
         <v>119</v>
       </c>
-      <c r="F35" s="10" t="s">
+      <c r="F35" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="G35" s="10">
-        <v>1</v>
-      </c>
-      <c r="H35" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I35" s="10" t="s">
+      <c r="G35" s="9">
+        <v>1</v>
+      </c>
+      <c r="H35" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I35" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="J35" s="10" t="s">
+      <c r="J35" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="K35" s="10" t="s">
+      <c r="K35" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="L35" s="10" t="s">
+      <c r="L35" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="36" ht="21.75" customHeight="1" spans="2:12">
-      <c r="B36" s="10">
+      <c r="B36" s="9">
         <v>84</v>
       </c>
-      <c r="C36" s="11">
+      <c r="C36" s="10">
         <v>43571</v>
       </c>
-      <c r="D36" s="10" t="s">
+      <c r="D36" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="E36" s="16" t="s">
+      <c r="E36" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="F36" s="10" t="s">
+      <c r="F36" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="G36" s="10">
-        <v>1</v>
-      </c>
-      <c r="H36" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I36" s="10" t="s">
+      <c r="G36" s="9">
+        <v>1</v>
+      </c>
+      <c r="H36" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I36" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="J36" s="10" t="s">
+      <c r="J36" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="K36" s="10" t="s">
+      <c r="K36" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="L36" s="10" t="s">
+      <c r="L36" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="37" ht="21.75" customHeight="1" spans="2:12">
-      <c r="B37" s="10">
+      <c r="B37" s="9">
         <v>85</v>
       </c>
-      <c r="C37" s="11">
+      <c r="C37" s="10">
         <v>43571</v>
       </c>
-      <c r="D37" s="17" t="s">
+      <c r="D37" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="E37" s="17" t="s">
+      <c r="E37" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="F37" s="18" t="s">
+      <c r="F37" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="G37" s="10">
-        <v>1</v>
-      </c>
-      <c r="H37" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I37" s="10" t="s">
+      <c r="G37" s="9">
+        <v>1</v>
+      </c>
+      <c r="H37" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I37" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="J37" s="10" t="s">
+      <c r="J37" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="K37" s="10" t="s">
+      <c r="K37" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="L37" s="10" t="s">
+      <c r="L37" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="38" ht="21.75" customHeight="1" spans="2:12">
-      <c r="B38" s="10">
+      <c r="B38" s="9">
         <v>86</v>
       </c>
-      <c r="C38" s="11">
+      <c r="C38" s="10">
         <v>43571</v>
       </c>
-      <c r="D38" s="17" t="s">
+      <c r="D38" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="E38" s="17" t="s">
+      <c r="E38" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="F38" s="18" t="s">
+      <c r="F38" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="G38" s="10">
-        <v>1</v>
-      </c>
-      <c r="H38" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I38" s="10" t="s">
+      <c r="G38" s="9">
+        <v>1</v>
+      </c>
+      <c r="H38" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I38" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="J38" s="10" t="s">
+      <c r="J38" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="K38" s="10" t="s">
+      <c r="K38" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="L38" s="10" t="s">
+      <c r="L38" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="39" ht="21.75" customHeight="1" spans="2:12">
-      <c r="B39" s="10">
+      <c r="B39" s="9">
         <v>87</v>
       </c>
-      <c r="C39" s="11">
+      <c r="C39" s="10">
         <v>43571</v>
       </c>
-      <c r="D39" s="19" t="s">
+      <c r="D39" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="E39" s="17" t="s">
+      <c r="E39" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="F39" s="18" t="s">
+      <c r="F39" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="G39" s="10">
-        <v>1</v>
-      </c>
-      <c r="H39" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I39" s="19" t="s">
+      <c r="G39" s="9">
+        <v>1</v>
+      </c>
+      <c r="H39" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I39" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="J39" s="10" t="s">
+      <c r="J39" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="K39" s="10" t="s">
+      <c r="K39" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="L39" s="10" t="s">
+      <c r="L39" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="40" s="2" customFormat="1" ht="21.75" customHeight="1" spans="2:12">
-      <c r="B40" s="10">
+      <c r="B40" s="9">
         <v>88</v>
       </c>
-      <c r="C40" s="11">
+      <c r="C40" s="10">
         <v>43571</v>
       </c>
-      <c r="D40" s="20" t="s">
+      <c r="D40" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="E40" s="20" t="s">
+      <c r="E40" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="F40" s="18" t="s">
+      <c r="F40" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="G40" s="10">
-        <v>1</v>
-      </c>
-      <c r="H40" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I40" s="20" t="s">
+      <c r="G40" s="9">
+        <v>1</v>
+      </c>
+      <c r="H40" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I40" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="J40" s="10" t="s">
+      <c r="J40" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="K40" s="20" t="s">
+      <c r="K40" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="L40" s="10" t="s">
+      <c r="L40" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="41" s="2" customFormat="1" ht="21.75" customHeight="1" spans="2:12">
-      <c r="B41" s="10">
+      <c r="B41" s="9">
         <v>89</v>
       </c>
-      <c r="C41" s="11">
+      <c r="C41" s="10">
         <v>43571</v>
       </c>
-      <c r="D41" s="20" t="s">
+      <c r="D41" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="E41" s="21" t="s">
+      <c r="E41" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="F41" s="18" t="s">
+      <c r="F41" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G41" s="10">
-        <v>1</v>
-      </c>
-      <c r="H41" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I41" s="20" t="s">
+      <c r="G41" s="9">
+        <v>1</v>
+      </c>
+      <c r="H41" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I41" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="J41" s="10" t="s">
+      <c r="J41" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="K41" s="21" t="s">
+      <c r="K41" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="L41" s="10" t="s">
+      <c r="L41" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="42" s="2" customFormat="1" ht="21.75" customHeight="1" spans="2:12">
-      <c r="B42" s="10">
+      <c r="B42" s="9">
         <v>90</v>
       </c>
-      <c r="C42" s="11">
+      <c r="C42" s="10">
         <v>43572</v>
       </c>
-      <c r="D42" s="22" t="s">
+      <c r="D42" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="E42" s="22" t="s">
+      <c r="E42" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="F42" s="18" t="s">
+      <c r="F42" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="G42" s="10">
-        <v>1</v>
-      </c>
-      <c r="H42" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I42" s="22" t="s">
+      <c r="G42" s="9">
+        <v>1</v>
+      </c>
+      <c r="H42" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I42" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="J42" s="10" t="s">
+      <c r="J42" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="K42" s="21" t="s">
+      <c r="K42" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="L42" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="43" s="3" customFormat="1" ht="21.75" customHeight="1" spans="2:12">
-      <c r="B43" s="15"/>
-      <c r="C43" s="11">
+      <c r="L42" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" s="2" customFormat="1" ht="21.75" customHeight="1" spans="2:12">
+      <c r="B43" s="14"/>
+      <c r="C43" s="10">
         <v>43572</v>
       </c>
-      <c r="D43" s="23" t="s">
+      <c r="D43" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="E43" s="23" t="s">
+      <c r="E43" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="F43" s="10" t="s">
+      <c r="F43" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="G43" s="10">
-        <v>1</v>
-      </c>
-      <c r="H43" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I43" s="23" t="s">
+      <c r="G43" s="9">
+        <v>1</v>
+      </c>
+      <c r="H43" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I43" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="J43" s="10" t="s">
+      <c r="J43" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="K43" s="10" t="s">
+      <c r="K43" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="L43" s="10" t="s">
+      <c r="L43" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="44" ht="21.75" customHeight="1" spans="2:12">
-      <c r="B44" s="15"/>
-      <c r="C44" s="11">
+      <c r="B44" s="14"/>
+      <c r="C44" s="10">
         <v>43572</v>
       </c>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
-      <c r="H44" s="10"/>
-      <c r="I44" s="10"/>
-      <c r="J44" s="10"/>
-      <c r="K44" s="40"/>
-      <c r="L44" s="10"/>
+      <c r="D44" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="E44" t="s">
+        <v>142</v>
+      </c>
+      <c r="F44" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="G44" s="9">
+        <v>1</v>
+      </c>
+      <c r="H44" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I44" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="J44" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K44" t="s">
+        <v>144</v>
+      </c>
+      <c r="L44" s="9" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="45" ht="21.75" customHeight="1" spans="2:12">
-      <c r="B45" s="15"/>
-      <c r="C45" s="11">
+      <c r="B45" s="14"/>
+      <c r="C45" s="10">
         <v>43572</v>
       </c>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="10"/>
-      <c r="I45" s="10"/>
-      <c r="J45" s="10"/>
-      <c r="K45" s="40"/>
-      <c r="L45" s="10"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="38"/>
+      <c r="L45" s="9"/>
     </row>
     <row r="46" ht="21.75" customHeight="1" spans="2:12">
-      <c r="B46" s="15"/>
-      <c r="C46" s="11">
+      <c r="B46" s="14"/>
+      <c r="C46" s="10">
         <v>43572</v>
       </c>
-      <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="10"/>
-      <c r="I46" s="10"/>
-      <c r="J46" s="10"/>
-      <c r="K46" s="40"/>
-      <c r="L46" s="10"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="38"/>
+      <c r="L46" s="9"/>
     </row>
     <row r="47" ht="21.75" customHeight="1" spans="2:12">
-      <c r="B47" s="15"/>
-      <c r="C47" s="11">
+      <c r="B47" s="14"/>
+      <c r="C47" s="10">
         <v>43572</v>
       </c>
-      <c r="D47" s="10"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
-      <c r="H47" s="10"/>
-      <c r="I47" s="10"/>
-      <c r="J47" s="10"/>
-      <c r="K47" s="40"/>
-      <c r="L47" s="10"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="38"/>
+      <c r="L47" s="9"/>
     </row>
     <row r="48" ht="21.75" customHeight="1" spans="2:12">
-      <c r="B48" s="15"/>
-      <c r="C48" s="11">
+      <c r="B48" s="14"/>
+      <c r="C48" s="10">
         <v>43572</v>
       </c>
-      <c r="D48" s="10"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="10"/>
-      <c r="H48" s="10"/>
-      <c r="I48" s="10"/>
-      <c r="J48" s="10"/>
-      <c r="K48" s="40"/>
-      <c r="L48" s="10"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="38"/>
+      <c r="L48" s="9"/>
     </row>
     <row r="49" ht="21.75" customHeight="1" spans="2:12">
-      <c r="B49" s="15"/>
-      <c r="C49" s="24"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="10"/>
-      <c r="I49" s="10"/>
-      <c r="J49" s="10"/>
-      <c r="K49" s="40"/>
-      <c r="L49" s="10"/>
+      <c r="B49" s="14"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="38"/>
+      <c r="L49" s="9"/>
     </row>
     <row r="50" ht="21.75" customHeight="1" spans="2:12">
-      <c r="B50" s="15"/>
-      <c r="C50" s="24"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
-      <c r="G50" s="10"/>
-      <c r="H50" s="10"/>
-      <c r="I50" s="10"/>
-      <c r="J50" s="10"/>
-      <c r="K50" s="40"/>
-      <c r="L50" s="10"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="22"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="38"/>
+      <c r="L50" s="9"/>
     </row>
     <row r="51" ht="21.75" customHeight="1" spans="2:12">
-      <c r="B51" s="15"/>
-      <c r="C51" s="24"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="10"/>
-      <c r="G51" s="10"/>
-      <c r="H51" s="10"/>
-      <c r="I51" s="10"/>
-      <c r="J51" s="10"/>
-      <c r="K51" s="40"/>
-      <c r="L51" s="10"/>
+      <c r="B51" s="14"/>
+      <c r="C51" s="22"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="38"/>
+      <c r="L51" s="9"/>
     </row>
     <row r="52" ht="21.75" customHeight="1" spans="2:12">
-      <c r="B52" s="15"/>
-      <c r="C52" s="24"/>
-      <c r="D52" s="10"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10"/>
-      <c r="G52" s="10"/>
-      <c r="H52" s="10"/>
-      <c r="I52" s="10"/>
-      <c r="J52" s="10"/>
-      <c r="K52" s="40"/>
-      <c r="L52" s="10"/>
+      <c r="B52" s="14"/>
+      <c r="C52" s="22"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="38"/>
+      <c r="L52" s="9"/>
     </row>
     <row r="53" ht="21.75" customHeight="1" spans="2:12">
-      <c r="B53" s="25" t="s">
+      <c r="B53" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C53" s="26"/>
-      <c r="D53" s="27"/>
-      <c r="E53" s="27"/>
-      <c r="F53" s="28"/>
-      <c r="G53" s="28">
+      <c r="C53" s="24"/>
+      <c r="D53" s="25"/>
+      <c r="E53" s="25"/>
+      <c r="F53" s="26"/>
+      <c r="G53" s="26">
         <f>SUM(G3:G29)</f>
         <v>33</v>
       </c>
-      <c r="H53" s="28"/>
-      <c r="I53" s="28"/>
-      <c r="J53" s="10"/>
-      <c r="K53" s="41"/>
-      <c r="L53" s="10"/>
+      <c r="H53" s="26"/>
+      <c r="I53" s="26"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="39"/>
+      <c r="L53" s="9"/>
     </row>
     <row r="55" ht="75" customHeight="1" spans="2:12">
-      <c r="B55" s="29"/>
-      <c r="C55" s="30"/>
-      <c r="D55" s="30"/>
-      <c r="E55" s="30"/>
-      <c r="F55" s="30"/>
-      <c r="G55" s="30"/>
-      <c r="H55" s="30"/>
-      <c r="I55" s="30"/>
-      <c r="J55" s="42"/>
-      <c r="K55" s="43"/>
-      <c r="L55" s="44"/>
+      <c r="B55" s="27"/>
+      <c r="C55" s="28"/>
+      <c r="D55" s="28"/>
+      <c r="E55" s="28"/>
+      <c r="F55" s="28"/>
+      <c r="G55" s="28"/>
+      <c r="H55" s="28"/>
+      <c r="I55" s="28"/>
+      <c r="J55" s="40"/>
+      <c r="K55" s="41"/>
+      <c r="L55" s="42"/>
     </row>
   </sheetData>
   <autoFilter ref="C2:L53"/>
@@ -3575,7 +3586,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J53">
       <formula1>"H5页面制作,页面跳转修改,页面修改,H5整站制作,PC制作&amp;折成3个H5页面"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J40 J41:J42 J43:J52">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J40 J41:J42 J43:J44 J45:J52">
       <formula1>"H5页面制作,页面跳转修改,页面修改,H5整站制作,PC制作&amp;折成3个H5页面,跳转设置,摘包"</formula1>
     </dataValidation>
   </dataValidations>

--- a/业务线技术支持登记表格式.xlsx
+++ b/业务线技术支持登记表格式.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23280" windowHeight="10350"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23280" windowHeight="10350"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$2:$L$53</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="160">
   <si>
     <t>业务线支持登记表</t>
   </si>
@@ -456,20 +456,69 @@
     <t>减防</t>
   </si>
   <si>
+    <t>名市茂南区东科贸易有限公司</t>
+  </si>
+  <si>
+    <t>护肤</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
     <t>https://xhbup.com/sxhzp/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/qudou/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈建豪</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>浙江胜握信息科技有限公司</t>
+  </si>
+  <si>
+    <t>惠州市互慧互联网络科技有限公司</t>
+  </si>
+  <si>
+    <t>胜握阅读</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/shengwo/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>张杰</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>雀斑</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱泽亮</t>
+  </si>
+  <si>
+    <t>九江致尚化妆品有限公司</t>
+  </si>
+  <si>
+    <t>减肥</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/danke/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/zhishang/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="34">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -567,151 +616,34 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Lucida Sans Unicode"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -732,198 +664,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.79992065187536243"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -944,80 +690,80 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="3" tint="0.399853511154515"/>
+        <color theme="3" tint="0.39982299264503923"/>
       </left>
       <right style="thin">
-        <color theme="3" tint="0.399853511154515"/>
+        <color theme="3" tint="0.39982299264503923"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color theme="3" tint="0.399853511154515"/>
+        <color theme="3" tint="0.39982299264503923"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color theme="3" tint="0.399853511154515"/>
+        <color theme="3" tint="0.39982299264503923"/>
       </left>
       <right style="thin">
-        <color theme="3" tint="0.399853511154515"/>
+        <color theme="3" tint="0.39982299264503923"/>
       </right>
       <top style="thin">
-        <color theme="3" tint="0.399853511154515"/>
+        <color theme="3" tint="0.39982299264503923"/>
       </top>
       <bottom style="thin">
-        <color theme="3" tint="0.399853511154515"/>
+        <color theme="3" tint="0.39982299264503923"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color theme="3" tint="0.399853511154515"/>
+        <color theme="3" tint="0.39982299264503923"/>
       </left>
       <right style="thin">
-        <color theme="3" tint="0.399853511154515"/>
+        <color theme="3" tint="0.39982299264503923"/>
       </right>
       <top style="thin">
-        <color theme="3" tint="0.399853511154515"/>
+        <color theme="3" tint="0.39982299264503923"/>
       </top>
       <bottom style="thin">
-        <color theme="3" tint="0.399822992645039"/>
+        <color theme="3" tint="0.39979247413556324"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color theme="3" tint="0.399853511154515"/>
+        <color theme="3" tint="0.39982299264503923"/>
       </left>
       <right/>
       <top style="thin">
-        <color theme="3" tint="0.399853511154515"/>
+        <color theme="3" tint="0.39982299264503923"/>
       </top>
       <bottom style="thin">
-        <color theme="3" tint="0.399853511154515"/>
+        <color theme="3" tint="0.39982299264503923"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color theme="3" tint="0.399853511154515"/>
+        <color theme="3" tint="0.39982299264503923"/>
       </right>
       <top style="thin">
-        <color theme="3" tint="0.399853511154515"/>
+        <color theme="3" tint="0.39982299264503923"/>
       </top>
       <bottom style="thin">
-        <color theme="3" tint="0.399853511154515"/>
+        <color theme="3" tint="0.39982299264503923"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color theme="3" tint="0.399853511154515"/>
+        <color theme="3" tint="0.39982299264503923"/>
       </left>
       <right/>
       <top style="thin">
-        <color theme="3" tint="0.399853511154515"/>
+        <color theme="3" tint="0.39982299264503923"/>
       </top>
       <bottom style="thin">
         <color auto="1"/>
@@ -1028,7 +774,7 @@
       <left/>
       <right/>
       <top style="thin">
-        <color theme="3" tint="0.399853511154515"/>
+        <color theme="3" tint="0.39982299264503923"/>
       </top>
       <bottom style="thin">
         <color auto="1"/>
@@ -1046,25 +792,25 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.349986266670736"/>
+        <color theme="0" tint="-0.34998626667073579"/>
       </left>
       <right style="thin">
-        <color theme="0" tint="-0.349986266670736"/>
+        <color theme="0" tint="-0.34998626667073579"/>
       </right>
       <top style="thin">
-        <color theme="0" tint="-0.349986266670736"/>
+        <color theme="0" tint="-0.34998626667073579"/>
       </top>
       <bottom style="thin">
-        <color theme="0" tint="-0.349986266670736"/>
+        <color theme="0" tint="-0.34998626667073579"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color theme="3" tint="0.399853511154515"/>
+        <color theme="3" tint="0.39982299264503923"/>
       </left>
       <right style="thin">
-        <color theme="3" tint="0.399853511154515"/>
+        <color theme="3" tint="0.39982299264503923"/>
       </right>
       <top style="thin">
         <color rgb="FF00B0F0"/>
@@ -1076,10 +822,10 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="3" tint="0.399853511154515"/>
+        <color theme="3" tint="0.39982299264503923"/>
       </left>
       <right style="thin">
-        <color theme="3" tint="0.399853511154515"/>
+        <color theme="3" tint="0.39982299264503923"/>
       </right>
       <top style="thin">
         <color auto="1"/>
@@ -1092,265 +838,23 @@
     <border>
       <left/>
       <right style="thin">
-        <color theme="3" tint="0.399853511154515"/>
+        <color theme="3" tint="0.39982299264503923"/>
       </right>
       <top style="thin">
-        <color theme="3" tint="0.399853511154515"/>
+        <color theme="3" tint="0.39982299264503923"/>
       </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="26" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="26" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="35" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1420,128 +924,93 @@
     <xf numFmtId="58" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="000000FF"/>
-      <color rgb="00D5F1FF"/>
-      <color rgb="00E7F7FF"/>
-      <color rgb="00A7E2FF"/>
+      <color rgb="FF0000FF"/>
+      <color rgb="FFD5F1FF"/>
+      <color rgb="FFE7F7FF"/>
+      <color rgb="FFA7E2FF"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1553,7 +1022,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
@@ -1575,10 +1044,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1882,20 +1351,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:Q55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="F36" activePane="bottomRight" state="frozen"/>
-      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D44" sqref="D44"/>
+      <selection pane="bottomRight" activeCell="K48" sqref="K48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1919,27 +1387,27 @@
     <col min="21" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="46.5" customHeight="1" spans="3:17">
-      <c r="C1" s="7" t="s">
+    <row r="1" spans="2:17" s="1" customFormat="1" ht="46.5" customHeight="1">
+      <c r="C1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="29"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="25"/>
       <c r="L1" s="7"/>
-      <c r="N1" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-    </row>
-    <row r="2" ht="21.75" customHeight="1" spans="2:17">
+      <c r="N1" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
+      <c r="Q1" s="39"/>
+    </row>
+    <row r="2" spans="2:17" ht="21.75" customHeight="1">
       <c r="B2" s="8" t="s">
         <v>2</v>
       </c>
@@ -1967,26 +1435,26 @@
       <c r="J2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="31" t="s">
+      <c r="K2" s="26" t="s">
         <v>11</v>
       </c>
       <c r="L2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="32" t="s">
+      <c r="N2" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="O2" s="32" t="s">
+      <c r="O2" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="P2" s="32" t="s">
+      <c r="P2" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" s="32" t="s">
+      <c r="Q2" s="27" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" ht="33" spans="2:17">
+    <row r="3" spans="2:17" ht="33">
       <c r="B3" s="9">
         <v>1</v>
       </c>
@@ -2014,23 +1482,23 @@
       <c r="J3" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="33" t="s">
+      <c r="K3" s="28" t="s">
         <v>22</v>
       </c>
       <c r="L3" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="N3" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="O3" s="34"/>
-      <c r="P3" s="34"/>
-      <c r="Q3" s="43">
+      <c r="N3" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="O3" s="29"/>
+      <c r="P3" s="29"/>
+      <c r="Q3" s="37">
         <f>O3+P3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" ht="21.75" customHeight="1" spans="2:17">
+    <row r="4" spans="2:17" ht="21.75" customHeight="1">
       <c r="B4" s="9">
         <v>5</v>
       </c>
@@ -2064,23 +1532,23 @@
       <c r="L4" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="N4" s="35" t="s">
+      <c r="N4" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="O4" s="35">
+      <c r="O4" s="30">
         <f>SUM(O3:O3)</f>
         <v>0</v>
       </c>
-      <c r="P4" s="35">
+      <c r="P4" s="30">
         <f>SUM(P3:P3)</f>
         <v>0</v>
       </c>
-      <c r="Q4" s="35">
+      <c r="Q4" s="30">
         <f>SUM(Q3:Q3)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" ht="21.75" customHeight="1" spans="2:12">
+    <row r="5" spans="2:17" ht="21.75" customHeight="1">
       <c r="B5" s="9">
         <v>6</v>
       </c>
@@ -2115,7 +1583,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" ht="21.75" customHeight="1" spans="2:12">
+    <row r="6" spans="2:17" ht="21.75" customHeight="1">
       <c r="B6" s="9"/>
       <c r="C6" s="10">
         <v>43570</v>
@@ -2148,7 +1616,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" ht="39.75" customHeight="1" spans="2:12">
+    <row r="7" spans="2:17" ht="39.75" customHeight="1">
       <c r="B7" s="9"/>
       <c r="C7" s="10">
         <v>43570</v>
@@ -2174,14 +1642,14 @@
       <c r="J7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="K7" s="36" t="s">
+      <c r="K7" s="31" t="s">
         <v>22</v>
       </c>
       <c r="L7" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" ht="21.75" customHeight="1" spans="2:12">
+    <row r="8" spans="2:17" ht="21.75" customHeight="1">
       <c r="B8" s="9"/>
       <c r="C8" s="10">
         <v>43570</v>
@@ -2214,7 +1682,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" ht="21.75" customHeight="1" spans="2:12">
+    <row r="9" spans="2:17" ht="21.75" customHeight="1">
       <c r="B9" s="9"/>
       <c r="C9" s="10">
         <v>43570</v>
@@ -2247,7 +1715,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" ht="21.75" customHeight="1" spans="2:12">
+    <row r="10" spans="2:17" ht="21.75" customHeight="1">
       <c r="B10" s="9"/>
       <c r="C10" s="10">
         <v>43570</v>
@@ -2280,7 +1748,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" ht="87" customHeight="1" spans="2:12">
+    <row r="11" spans="2:17" ht="87" customHeight="1">
       <c r="B11" s="9"/>
       <c r="C11" s="10">
         <v>43570</v>
@@ -2306,14 +1774,14 @@
       <c r="J11" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="K11" s="36" t="s">
+      <c r="K11" s="31" t="s">
         <v>52</v>
       </c>
       <c r="L11" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12" ht="21.75" customHeight="1" spans="2:12">
+    <row r="12" spans="2:17" ht="21.75" customHeight="1">
       <c r="B12" s="9"/>
       <c r="C12" s="10">
         <v>43570</v>
@@ -2346,7 +1814,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" ht="21.75" customHeight="1" spans="2:12">
+    <row r="13" spans="2:17" ht="21.75" customHeight="1">
       <c r="B13" s="9"/>
       <c r="C13" s="10">
         <v>43570</v>
@@ -2379,7 +1847,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" ht="21.75" customHeight="1" spans="2:12">
+    <row r="14" spans="2:17" ht="21.75" customHeight="1">
       <c r="B14" s="9"/>
       <c r="C14" s="10">
         <v>43570</v>
@@ -2412,7 +1880,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" ht="21.75" customHeight="1" spans="2:12">
+    <row r="15" spans="2:17" ht="21.75" customHeight="1">
       <c r="B15" s="9"/>
       <c r="C15" s="10">
         <v>43570</v>
@@ -2445,7 +1913,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" ht="21.75" customHeight="1" spans="2:12">
+    <row r="16" spans="2:17" ht="21.75" customHeight="1">
       <c r="B16" s="9"/>
       <c r="C16" s="10">
         <v>43570</v>
@@ -2478,7 +1946,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" ht="21.75" customHeight="1" spans="2:12">
+    <row r="17" spans="2:12" ht="21.75" customHeight="1">
       <c r="B17" s="9"/>
       <c r="C17" s="10">
         <v>43570</v>
@@ -2511,7 +1979,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" ht="21.75" customHeight="1" spans="2:12">
+    <row r="18" spans="2:12" ht="21.75" customHeight="1">
       <c r="B18" s="9"/>
       <c r="C18" s="10">
         <v>43571</v>
@@ -2544,7 +2012,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" ht="21.75" customHeight="1" spans="2:12">
+    <row r="19" spans="2:12" ht="21.75" customHeight="1">
       <c r="B19" s="9"/>
       <c r="C19" s="10">
         <v>43571</v>
@@ -2577,7 +2045,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" ht="21.75" customHeight="1" spans="2:12">
+    <row r="20" spans="2:12" ht="21.75" customHeight="1">
       <c r="B20" s="9"/>
       <c r="C20" s="10">
         <v>43571</v>
@@ -2610,7 +2078,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" ht="21.75" customHeight="1" spans="2:12">
+    <row r="21" spans="2:12" ht="21.75" customHeight="1">
       <c r="B21" s="9"/>
       <c r="C21" s="10">
         <v>43571</v>
@@ -2643,7 +2111,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" ht="21.75" customHeight="1" spans="2:12">
+    <row r="22" spans="2:12" ht="21.75" customHeight="1">
       <c r="B22" s="9"/>
       <c r="C22" s="10">
         <v>43571</v>
@@ -2676,7 +2144,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" ht="21.75" customHeight="1" spans="2:12">
+    <row r="23" spans="2:12" ht="21.75" customHeight="1">
       <c r="B23" s="9"/>
       <c r="C23" s="10">
         <v>43571</v>
@@ -2709,7 +2177,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" ht="42.95" customHeight="1" spans="2:12">
+    <row r="24" spans="2:12" ht="42.95" customHeight="1">
       <c r="B24" s="9"/>
       <c r="C24" s="10">
         <v>43571</v>
@@ -2735,14 +2203,14 @@
       <c r="J24" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="K24" s="37" t="s">
+      <c r="K24" s="32" t="s">
         <v>97</v>
       </c>
       <c r="L24" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" ht="21.75" customHeight="1" spans="2:12">
+    <row r="25" spans="2:12" ht="21.75" customHeight="1">
       <c r="B25" s="9"/>
       <c r="C25" s="10">
         <v>43571</v>
@@ -2775,7 +2243,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" ht="21.75" customHeight="1" spans="2:12">
+    <row r="26" spans="2:12" ht="21.75" customHeight="1">
       <c r="B26" s="9"/>
       <c r="C26" s="10">
         <v>43571</v>
@@ -2808,7 +2276,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" ht="21.75" customHeight="1" spans="2:12">
+    <row r="27" spans="2:12" ht="21.75" customHeight="1">
       <c r="B27" s="9"/>
       <c r="C27" s="10">
         <v>43571</v>
@@ -2841,7 +2309,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" ht="21.75" customHeight="1" spans="2:12">
+    <row r="28" spans="2:12" ht="21.75" customHeight="1">
       <c r="B28" s="9"/>
       <c r="C28" s="10">
         <v>43571</v>
@@ -2874,7 +2342,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" ht="21.75" customHeight="1" spans="2:12">
+    <row r="29" spans="2:12" ht="21.75" customHeight="1">
       <c r="B29" s="9">
         <v>78</v>
       </c>
@@ -2909,7 +2377,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" ht="21.75" customHeight="1" spans="2:12">
+    <row r="30" spans="2:12" ht="21.75" customHeight="1">
       <c r="B30" s="14"/>
       <c r="C30" s="10">
         <v>43571</v>
@@ -2942,7 +2410,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" ht="21.75" customHeight="1" spans="2:12">
+    <row r="31" spans="2:12" ht="21.75" customHeight="1">
       <c r="B31" s="9">
         <v>79</v>
       </c>
@@ -2977,7 +2445,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" ht="21.75" customHeight="1" spans="2:12">
+    <row r="32" spans="2:12" ht="21.75" customHeight="1">
       <c r="B32" s="9">
         <v>80</v>
       </c>
@@ -3012,7 +2480,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" ht="21.75" customHeight="1" spans="2:12">
+    <row r="33" spans="2:12" ht="21.75" customHeight="1">
       <c r="B33" s="9">
         <v>81</v>
       </c>
@@ -3047,7 +2515,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" ht="21.75" customHeight="1" spans="2:12">
+    <row r="34" spans="2:12" ht="21.75" customHeight="1">
       <c r="B34" s="9">
         <v>82</v>
       </c>
@@ -3082,7 +2550,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" ht="21.75" customHeight="1" spans="2:12">
+    <row r="35" spans="2:12" ht="21.75" customHeight="1">
       <c r="B35" s="9">
         <v>83</v>
       </c>
@@ -3117,7 +2585,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="36" ht="21.75" customHeight="1" spans="2:12">
+    <row r="36" spans="2:12" ht="21.75" customHeight="1">
       <c r="B36" s="9">
         <v>84</v>
       </c>
@@ -3152,7 +2620,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" ht="21.75" customHeight="1" spans="2:12">
+    <row r="37" spans="2:12" ht="21.75" customHeight="1">
       <c r="B37" s="9">
         <v>85</v>
       </c>
@@ -3187,7 +2655,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="38" ht="21.75" customHeight="1" spans="2:12">
+    <row r="38" spans="2:12" ht="21.75" customHeight="1">
       <c r="B38" s="9">
         <v>86</v>
       </c>
@@ -3222,7 +2690,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" ht="21.75" customHeight="1" spans="2:12">
+    <row r="39" spans="2:12" ht="21.75" customHeight="1">
       <c r="B39" s="9">
         <v>87</v>
       </c>
@@ -3257,7 +2725,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="40" s="2" customFormat="1" ht="21.75" customHeight="1" spans="2:12">
+    <row r="40" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B40" s="9">
         <v>88</v>
       </c>
@@ -3292,7 +2760,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="41" s="2" customFormat="1" ht="21.75" customHeight="1" spans="2:12">
+    <row r="41" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B41" s="9">
         <v>89</v>
       </c>
@@ -3327,7 +2795,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" s="2" customFormat="1" ht="21.75" customHeight="1" spans="2:12">
+    <row r="42" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B42" s="9">
         <v>90</v>
       </c>
@@ -3362,7 +2830,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="43" s="2" customFormat="1" ht="21.75" customHeight="1" spans="2:12">
+    <row r="43" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B43" s="14"/>
       <c r="C43" s="10">
         <v>43572</v>
@@ -3395,7 +2863,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="44" ht="21.75" customHeight="1" spans="2:12">
+    <row r="44" spans="2:12" ht="21.75" customHeight="1">
       <c r="B44" s="14"/>
       <c r="C44" s="10">
         <v>43572</v>
@@ -3421,74 +2889,146 @@
       <c r="J44" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="K44" t="s">
-        <v>144</v>
+      <c r="K44" s="9" t="s">
+        <v>146</v>
       </c>
       <c r="L44" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="45" ht="21.75" customHeight="1" spans="2:12">
+    <row r="45" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B45" s="14"/>
       <c r="C45" s="10">
         <v>43572</v>
       </c>
-      <c r="D45" s="9"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="9"/>
-      <c r="J45" s="9"/>
-      <c r="K45" s="38"/>
-      <c r="L45" s="9"/>
-    </row>
-    <row r="46" ht="21.75" customHeight="1" spans="2:12">
+      <c r="D45" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="E45" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="F45" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G45" s="9">
+        <v>1</v>
+      </c>
+      <c r="H45" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I45" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="J45" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="K45" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="L45" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B46" s="14"/>
       <c r="C46" s="10">
         <v>43572</v>
       </c>
-      <c r="D46" s="9"/>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="9"/>
-      <c r="I46" s="9"/>
-      <c r="J46" s="9"/>
-      <c r="K46" s="38"/>
-      <c r="L46" s="9"/>
-    </row>
-    <row r="47" ht="21.75" customHeight="1" spans="2:12">
+      <c r="D46" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="E46" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="F46" s="46" t="s">
+        <v>151</v>
+      </c>
+      <c r="G46" s="9">
+        <v>1</v>
+      </c>
+      <c r="H46" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I46" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="J46" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="K46" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="L46" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" ht="21.75" customHeight="1">
       <c r="B47" s="14"/>
       <c r="C47" s="10">
         <v>43572</v>
       </c>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9"/>
-      <c r="F47" s="9"/>
-      <c r="G47" s="9"/>
-      <c r="H47" s="9"/>
-      <c r="I47" s="9"/>
-      <c r="J47" s="9"/>
-      <c r="K47" s="38"/>
-      <c r="L47" s="9"/>
-    </row>
-    <row r="48" ht="21.75" customHeight="1" spans="2:12">
+      <c r="D47" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="E47" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="F47" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="G47" s="9">
+        <v>1</v>
+      </c>
+      <c r="H47" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I47" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="J47" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="K47" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="L47" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" ht="21.75" customHeight="1">
       <c r="B48" s="14"/>
       <c r="C48" s="10">
         <v>43572</v>
       </c>
-      <c r="D48" s="9"/>
-      <c r="E48" s="9"/>
-      <c r="F48" s="9"/>
-      <c r="G48" s="9"/>
-      <c r="H48" s="9"/>
-      <c r="I48" s="9"/>
-      <c r="J48" s="9"/>
-      <c r="K48" s="38"/>
-      <c r="L48" s="9"/>
-    </row>
-    <row r="49" ht="21.75" customHeight="1" spans="2:12">
+      <c r="D48" s="47" t="s">
+        <v>155</v>
+      </c>
+      <c r="E48" s="47" t="s">
+        <v>156</v>
+      </c>
+      <c r="F48" s="45" t="s">
+        <v>157</v>
+      </c>
+      <c r="G48" s="9">
+        <v>1</v>
+      </c>
+      <c r="H48" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I48" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="J48" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="K48" s="46" t="s">
+        <v>159</v>
+      </c>
+      <c r="L48" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="49" spans="2:12" ht="21.75" customHeight="1">
       <c r="B49" s="14"/>
       <c r="C49" s="22"/>
       <c r="D49" s="9"/>
@@ -3498,10 +3038,10 @@
       <c r="H49" s="9"/>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
-      <c r="K49" s="38"/>
+      <c r="K49" s="33"/>
       <c r="L49" s="9"/>
     </row>
-    <row r="50" ht="21.75" customHeight="1" spans="2:12">
+    <row r="50" spans="2:12" ht="21.75" customHeight="1">
       <c r="B50" s="14"/>
       <c r="C50" s="22"/>
       <c r="D50" s="9"/>
@@ -3511,10 +3051,10 @@
       <c r="H50" s="9"/>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
-      <c r="K50" s="38"/>
+      <c r="K50" s="33"/>
       <c r="L50" s="9"/>
     </row>
-    <row r="51" ht="21.75" customHeight="1" spans="2:12">
+    <row r="51" spans="2:12" ht="21.75" customHeight="1">
       <c r="B51" s="14"/>
       <c r="C51" s="22"/>
       <c r="D51" s="9"/>
@@ -3524,10 +3064,10 @@
       <c r="H51" s="9"/>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
-      <c r="K51" s="38"/>
+      <c r="K51" s="33"/>
       <c r="L51" s="9"/>
     </row>
-    <row r="52" ht="21.75" customHeight="1" spans="2:12">
+    <row r="52" spans="2:12" ht="21.75" customHeight="1">
       <c r="B52" s="14"/>
       <c r="C52" s="22"/>
       <c r="D52" s="9"/>
@@ -3537,39 +3077,39 @@
       <c r="H52" s="9"/>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
-      <c r="K52" s="38"/>
+      <c r="K52" s="33"/>
       <c r="L52" s="9"/>
     </row>
-    <row r="53" ht="21.75" customHeight="1" spans="2:12">
-      <c r="B53" s="23" t="s">
+    <row r="53" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B53" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C53" s="24"/>
-      <c r="D53" s="25"/>
-      <c r="E53" s="25"/>
-      <c r="F53" s="26"/>
-      <c r="G53" s="26">
+      <c r="C53" s="41"/>
+      <c r="D53" s="23"/>
+      <c r="E53" s="23"/>
+      <c r="F53" s="24"/>
+      <c r="G53" s="24">
         <f>SUM(G3:G29)</f>
         <v>33</v>
       </c>
-      <c r="H53" s="26"/>
-      <c r="I53" s="26"/>
+      <c r="H53" s="24"/>
+      <c r="I53" s="24"/>
       <c r="J53" s="9"/>
-      <c r="K53" s="39"/>
+      <c r="K53" s="34"/>
       <c r="L53" s="9"/>
     </row>
-    <row r="55" ht="75" customHeight="1" spans="2:12">
-      <c r="B55" s="27"/>
-      <c r="C55" s="28"/>
-      <c r="D55" s="28"/>
-      <c r="E55" s="28"/>
-      <c r="F55" s="28"/>
-      <c r="G55" s="28"/>
-      <c r="H55" s="28"/>
-      <c r="I55" s="28"/>
-      <c r="J55" s="40"/>
-      <c r="K55" s="41"/>
-      <c r="L55" s="42"/>
+    <row r="55" spans="2:12" ht="75" customHeight="1">
+      <c r="B55" s="42"/>
+      <c r="C55" s="43"/>
+      <c r="D55" s="43"/>
+      <c r="E55" s="43"/>
+      <c r="F55" s="43"/>
+      <c r="G55" s="43"/>
+      <c r="H55" s="43"/>
+      <c r="I55" s="43"/>
+      <c r="J55" s="44"/>
+      <c r="K55" s="35"/>
+      <c r="L55" s="36"/>
     </row>
   </sheetData>
   <autoFilter ref="C2:L53"/>
@@ -3582,56 +3122,61 @@
     <mergeCell ref="B53:C53"/>
     <mergeCell ref="B55:J55"/>
   </mergeCells>
+  <phoneticPr fontId="15" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J53">
       <formula1>"H5页面制作,页面跳转修改,页面修改,H5整站制作,PC制作&amp;折成3个H5页面"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J40 J41:J42 J43:J44 J45:J52">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J52">
       <formula1>"H5页面制作,页面跳转修改,页面修改,H5整站制作,PC制作&amp;折成3个H5页面,跳转设置,摘包"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="K4" r:id="rId2" display="https://xhbup.com/sgxcmy/" tooltip="https://xhbup.com/sgxcmy/"/>
-    <hyperlink ref="K5" r:id="rId3" display="https://xhbup.com/qb/" tooltip="https://xhbup.com/qb/"/>
-    <hyperlink ref="K6" r:id="rId4" display="https://xhbup.com/kehong/"/>
-    <hyperlink ref="K8" r:id="rId5" display="https://xhbup.com/quban" tooltip="https://xhbup.com/quban"/>
-    <hyperlink ref="K9" r:id="rId6" display="https://www.xhbup.com/gdkpdz/" tooltip="https://www.xhbup.com/gdkpdz/"/>
-    <hyperlink ref="K10" r:id="rId7" display="https://www.xhbup.com/dcsk/"/>
-    <hyperlink ref="K12" r:id="rId8" display="https://xhbup.com/maokong/" tooltip="https://xhbup.com/maokong/"/>
-    <hyperlink ref="K13" r:id="rId9" display="https://xhbup.com/quban1/" tooltip="https://xhbup.com/quban1/"/>
-    <hyperlink ref="K14" r:id="rId10" display="https://xhbup.com/quban2/" tooltip="https://xhbup.com/quban2/"/>
-    <hyperlink ref="K15" r:id="rId11" display="https://xhbup.com/huchou/" tooltip="https://xhbup.com/huchou/"/>
-    <hyperlink ref="K16" r:id="rId12" display="https://xhbup.com/huchou1/" tooltip="https://xhbup.com/huchou1/"/>
-    <hyperlink ref="K17" r:id="rId13" display="https://xhbup.com/qhxs/" tooltip="https://xhbup.com/qhxs/"/>
-    <hyperlink ref="K18" r:id="rId14" display="https://xhbup.com/feicui/" tooltip="https://xhbup.com/feicui/"/>
-    <hyperlink ref="K19" r:id="rId15" display="https://xhbup.com/yfmmwljs/tg/" tooltip="https://xhbup.com/yfmmwljs/tg/"/>
-    <hyperlink ref="K20" r:id="rId16" display="https://xhbup.com/xiyou/" tooltip="https://xhbup.com/xiyou/"/>
-    <hyperlink ref="K21" r:id="rId17" display="https://xhbup.com/xuanya/"/>
-    <hyperlink ref="K22" r:id="rId18" display="https://xhbup.com/hdmp/" tooltip="https://xhbup.com/hdmp/"/>
-    <hyperlink ref="K23" r:id="rId19" display="https://xhbup.com/fds/" tooltip="https://xhbup.com/fds/"/>
-    <hyperlink ref="K24" r:id="rId20" display="https://xhbup.com/fanlv/&#10;https://xhbup.com/fanlv1/" tooltip="https://xhbup.com/fanlv/https://xhbup.com/fanlv/"/>
-    <hyperlink ref="K25" r:id="rId21" display="https://xhbup.com/quban3/"/>
-    <hyperlink ref="K26" r:id="rId22" display="https://xhbup.com/danke/" tooltip="https://xhbup.com/danke/"/>
-    <hyperlink ref="K27" r:id="rId23" display="https://xhbup.com/sendu/" tooltip="https://xhbup.com/sendu/"/>
-    <hyperlink ref="K28" r:id="rId24" display="https://www.xhbup.com/wcwl/" tooltip="https://www.xhbup.com/wcwl/"/>
-    <hyperlink ref="K29" r:id="rId25" display="https://www.xhbup.com/lefeng/" tooltip="https://www.xhbup.com/lefeng/"/>
-    <hyperlink ref="K30" r:id="rId26" display="https://www.xhbup.com/jianfu/" tooltip="https://www.xhbup.com/jianfu/"/>
-    <hyperlink ref="K31" r:id="rId27" display="https://www.xhbup.com/yixing/" tooltip="https://www.xhbup.com/yixing/"/>
-    <hyperlink ref="K32" r:id="rId9" display="https://xhbup.com/quban1/" tooltip="https://xhbup.com/quban1/"/>
-    <hyperlink ref="K33" r:id="rId9" display="https://xhbup.com/quban2/" tooltip="https://xhbup.com/quban1/"/>
-    <hyperlink ref="K34" r:id="rId15" display="https://xhbup.com/yfmmwljs/tg/" tooltip="https://xhbup.com/yfmmwljs/tg/"/>
-    <hyperlink ref="K35" r:id="rId28" display="https://xhbup.com/yinxiuer/" tooltip="https://xhbup.com/yinxiuer/"/>
-    <hyperlink ref="K36" r:id="rId29" display="https://xhbup.com/tingcai/" tooltip="https://xhbup.com/tingcai/"/>
-    <hyperlink ref="K37" r:id="rId13" display="https://xhbup.com/qhxs/"/>
-    <hyperlink ref="K39" r:id="rId30" display="https://xhbup.com/yuanteng/"/>
-    <hyperlink ref="K40" r:id="rId31" display="https://xhbup.com/zhimei/"/>
-    <hyperlink ref="K41" r:id="rId32" display="https://xhbup.com/hylys/" tooltip="https://xhbup.com/hylys/"/>
-    <hyperlink ref="K42" r:id="rId33" display="https://xhbup.com/jzzkj2/tp/" tooltip="https://xhbup.com/jzzkj2/tp/"/>
-    <hyperlink ref="K43" r:id="rId34" display="https://xhbup.com/tiancheng/" tooltip="https://xhbup.com/tiancheng/"/>
+    <hyperlink ref="K4" r:id="rId1" tooltip="https://xhbup.com/sgxcmy/"/>
+    <hyperlink ref="K5" r:id="rId2" tooltip="https://xhbup.com/qb/"/>
+    <hyperlink ref="K6" r:id="rId3"/>
+    <hyperlink ref="K8" r:id="rId4" tooltip="https://xhbup.com/quban"/>
+    <hyperlink ref="K9" r:id="rId5" tooltip="https://www.xhbup.com/gdkpdz/"/>
+    <hyperlink ref="K10" r:id="rId6"/>
+    <hyperlink ref="K12" r:id="rId7" tooltip="https://xhbup.com/maokong/"/>
+    <hyperlink ref="K13" r:id="rId8" tooltip="https://xhbup.com/quban1/"/>
+    <hyperlink ref="K14" r:id="rId9" tooltip="https://xhbup.com/quban2/"/>
+    <hyperlink ref="K15" r:id="rId10" tooltip="https://xhbup.com/huchou/"/>
+    <hyperlink ref="K16" r:id="rId11" tooltip="https://xhbup.com/huchou1/"/>
+    <hyperlink ref="K17" r:id="rId12" tooltip="https://xhbup.com/qhxs/"/>
+    <hyperlink ref="K18" r:id="rId13" tooltip="https://xhbup.com/feicui/"/>
+    <hyperlink ref="K19" r:id="rId14" tooltip="https://xhbup.com/yfmmwljs/tg/"/>
+    <hyperlink ref="K20" r:id="rId15" tooltip="https://xhbup.com/xiyou/"/>
+    <hyperlink ref="K21" r:id="rId16"/>
+    <hyperlink ref="K22" r:id="rId17" tooltip="https://xhbup.com/hdmp/"/>
+    <hyperlink ref="K23" r:id="rId18" tooltip="https://xhbup.com/fds/"/>
+    <hyperlink ref="K24" r:id="rId19" tooltip="https://xhbup.com/fanlv/https://xhbup.com/fanlv/"/>
+    <hyperlink ref="K25" r:id="rId20"/>
+    <hyperlink ref="K26" r:id="rId21" tooltip="https://xhbup.com/danke/"/>
+    <hyperlink ref="K27" r:id="rId22" tooltip="https://xhbup.com/sendu/"/>
+    <hyperlink ref="K28" r:id="rId23" tooltip="https://www.xhbup.com/wcwl/"/>
+    <hyperlink ref="K29" r:id="rId24" tooltip="https://www.xhbup.com/lefeng/"/>
+    <hyperlink ref="K30" r:id="rId25" tooltip="https://www.xhbup.com/jianfu/"/>
+    <hyperlink ref="K31" r:id="rId26" tooltip="https://www.xhbup.com/yixing/"/>
+    <hyperlink ref="K32" r:id="rId27" tooltip="https://xhbup.com/quban1/"/>
+    <hyperlink ref="K33" r:id="rId28" tooltip="https://xhbup.com/quban1/"/>
+    <hyperlink ref="K34" r:id="rId29" tooltip="https://xhbup.com/yfmmwljs/tg/"/>
+    <hyperlink ref="K35" r:id="rId30" tooltip="https://xhbup.com/yinxiuer/"/>
+    <hyperlink ref="K36" r:id="rId31" tooltip="https://xhbup.com/tingcai/"/>
+    <hyperlink ref="K37" r:id="rId32"/>
+    <hyperlink ref="K39" r:id="rId33"/>
+    <hyperlink ref="K40" r:id="rId34"/>
+    <hyperlink ref="K41" r:id="rId35" tooltip="https://xhbup.com/hylys/"/>
+    <hyperlink ref="K42" r:id="rId36" tooltip="https://xhbup.com/jzzkj2/tp/"/>
+    <hyperlink ref="K43" r:id="rId37" tooltip="https://xhbup.com/tiancheng/"/>
+    <hyperlink ref="K44" r:id="rId38"/>
+    <hyperlink ref="K45" r:id="rId39"/>
+    <hyperlink ref="K46" r:id="rId40"/>
+    <hyperlink ref="K47" r:id="rId41"/>
+    <hyperlink ref="K48" r:id="rId42"/>
   </hyperlinks>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId43"/>
+  <drawing r:id="rId44"/>
 </worksheet>
 </file>
--- a/业务线技术支持登记表格式.xlsx
+++ b/业务线技术支持登记表格式.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$2:$L$53</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$2:$L$76</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="189">
   <si>
     <t>业务线支持登记表</t>
   </si>
@@ -174,351 +174,457 @@
   </si>
   <si>
     <t>跳转设置</t>
+  </si>
+  <si>
+    <t>伍亦</t>
+  </si>
+  <si>
+    <t>珠海森度生物科技有限公司</t>
+  </si>
+  <si>
+    <t>毛孔</t>
+  </si>
+  <si>
+    <t>杨鑫</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/maokong/</t>
+  </si>
+  <si>
+    <t>邓远坤</t>
+  </si>
+  <si>
+    <t>广州市白云区茜妃化妆品厂8</t>
+  </si>
+  <si>
+    <t>陈志宇</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/quban1/</t>
+  </si>
+  <si>
+    <t>珠海美丰达贸易有限公司</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/quban2/</t>
+  </si>
+  <si>
+    <t>贰贰零</t>
+  </si>
+  <si>
+    <t>韶关市云联缘梦园贸易有限公司</t>
+  </si>
+  <si>
+    <t>狐臭</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/huchou/</t>
+  </si>
+  <si>
+    <t>佛山市奎哥日用品有限公司</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/huchou1/</t>
+  </si>
+  <si>
+    <t>广州优理氏生物科技有限公司</t>
+  </si>
+  <si>
+    <t>祛红血丝</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/qhxs/</t>
+  </si>
+  <si>
+    <t>张海生</t>
+  </si>
+  <si>
+    <t>广州祥祯福珠宝有限公司</t>
+  </si>
+  <si>
+    <t>翡翠</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/feicui/</t>
+  </si>
+  <si>
+    <t>郑梦飞</t>
+  </si>
+  <si>
+    <t>云浮市麦芒网络科技有限公司</t>
+  </si>
+  <si>
+    <t>淘秒杀</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/yfmmwljs/tg/</t>
+  </si>
+  <si>
+    <t>廖晓飞</t>
+  </si>
+  <si>
+    <t>东莞市锐宣信息技术有限公司</t>
+  </si>
+  <si>
+    <t>阅读</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/xiyou/</t>
+  </si>
+  <si>
+    <t>新用户</t>
+  </si>
+  <si>
+    <t>汕头市宣雅日化用品有限公司</t>
+  </si>
+  <si>
+    <t>丰胸</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/xuanya/</t>
+  </si>
+  <si>
+    <t>吴鹏</t>
+  </si>
+  <si>
+    <t>佛山市韩都名品网络科技有限公司</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/hdmp/</t>
+  </si>
+  <si>
+    <t>周宇恒</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/fds/</t>
+  </si>
+  <si>
+    <t>霍尔果斯变现猫网络科技有限公司</t>
+  </si>
+  <si>
+    <t>广州芝绿电子商务有限公司</t>
+  </si>
+  <si>
+    <t>话费</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/fanlv/
+https://xhbup.com/fanlv1/</t>
+  </si>
+  <si>
+    <t>张杰</t>
+  </si>
+  <si>
+    <t>广州蛋壳网络科技有限公司</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/quban3/</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/danke/</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/sendu/</t>
+  </si>
+  <si>
+    <t>李泽生</t>
+  </si>
+  <si>
+    <t>广东卫城网络科技有限公司</t>
+  </si>
+  <si>
+    <t>书城</t>
+  </si>
+  <si>
+    <t>黄曼玲</t>
+  </si>
+  <si>
+    <t>页面跳转修改</t>
+  </si>
+  <si>
+    <t>https://www.xhbup.com/wcwl/</t>
+  </si>
+  <si>
+    <t>新客户</t>
+  </si>
+  <si>
+    <t>云浮市乐锋化妆品经营有限公司</t>
+  </si>
+  <si>
+    <t>广州天拓</t>
+  </si>
+  <si>
+    <t>广州健肤门诊部有限公司（线下会诊）</t>
+  </si>
+  <si>
+    <t>祛胎记</t>
+  </si>
+  <si>
+    <t>https://www.xhbup.com/jianfu/</t>
+  </si>
+  <si>
+    <t>珠海市易鑫化妆品有限公司</t>
+  </si>
+  <si>
+    <t>https://www.xhbup.com/yixing/</t>
+  </si>
+  <si>
+    <t>胡清燕</t>
+  </si>
+  <si>
+    <t>东莞市茵秀儿化妆品有限公司</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/yinxiuer/</t>
+  </si>
+  <si>
+    <t>广州奈萱化妆品有限公司</t>
+  </si>
+  <si>
+    <t>广州市婷采化妆品有限公司</t>
+  </si>
+  <si>
+    <t>抗皱</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/tingcai/</t>
+  </si>
+  <si>
+    <t>皮肤</t>
+  </si>
+  <si>
+    <t>广州市白云区美莲葆化妆品厂</t>
+  </si>
+  <si>
+    <t>https://www.xhbup.com/gzblqmlb</t>
+  </si>
+  <si>
+    <t>佛山市南海区源腾珠宝有限公司</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/yuanteng/</t>
+  </si>
+  <si>
+    <t>李冲</t>
+  </si>
+  <si>
+    <t>紫金县智美化妆品有限公司</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/zhimei/</t>
+  </si>
+  <si>
+    <t>河源兰颜氏化妆品有限公司</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/hylys/</t>
+  </si>
+  <si>
+    <t>江门市蓬江区聚智众科技有限公司</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/jzzkj2/tp/</t>
+  </si>
+  <si>
+    <t>蓝荣贵</t>
+  </si>
+  <si>
+    <t>佛山市天成健康咨询有限公司</t>
+  </si>
+  <si>
+    <t>祛痘</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/tiancheng/</t>
+  </si>
+  <si>
+    <t>胡雄敏</t>
+  </si>
+  <si>
+    <t>佛山市素现化妆品有限公司</t>
+  </si>
+  <si>
+    <t>减防</t>
+  </si>
+  <si>
+    <t>名市茂南区东科贸易有限公司</t>
+  </si>
+  <si>
+    <t>护肤</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/sxhzp/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/qudou/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈建豪</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>浙江胜握信息科技有限公司</t>
+  </si>
+  <si>
+    <t>惠州市互慧互联网络科技有限公司</t>
+  </si>
+  <si>
+    <t>胜握阅读</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/shengwo/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>张杰</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>雀斑</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱泽亮</t>
+  </si>
+  <si>
+    <t>九江致尚化妆品有限公司</t>
+  </si>
+  <si>
+    <t>减肥</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/danke/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/zhishang/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/zhishang1/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>皮肤</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/jianfu1/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>张立</t>
+  </si>
+  <si>
+    <t>中山市爱菈美肌美容有限公司</t>
+  </si>
+  <si>
+    <t>祛斑</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/quban4/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>广州善林进出口有限责任公司</t>
+  </si>
+  <si>
+    <t>痘印</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/shanlin/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>广州市天尚信息技术有限公司</t>
+  </si>
+  <si>
+    <t>西柚阅读</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/xiyou/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/qb/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/kehong/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>易联支付有限公司</t>
+  </si>
+  <si>
+    <t>银联</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/ylzf1/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>何丰腾</t>
+  </si>
+  <si>
+    <t>广州市汇聚支付电子科技有限公司</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/huiju/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>https://xhbup.com/mizhua1/
 https://xhbup.com/mizhua2/
 https://xhbup.com/mizhua3/
 https://xhbup.com/mizhua4/</t>
-  </si>
-  <si>
-    <t>伍亦</t>
-  </si>
-  <si>
-    <t>珠海森度生物科技有限公司</t>
-  </si>
-  <si>
-    <t>毛孔</t>
-  </si>
-  <si>
-    <t>杨鑫</t>
-  </si>
-  <si>
-    <t>https://xhbup.com/maokong/</t>
-  </si>
-  <si>
-    <t>邓远坤</t>
-  </si>
-  <si>
-    <t>广州市白云区茜妃化妆品厂8</t>
-  </si>
-  <si>
-    <t>陈志宇</t>
-  </si>
-  <si>
-    <t>https://xhbup.com/quban1/</t>
-  </si>
-  <si>
-    <t>珠海美丰达贸易有限公司</t>
-  </si>
-  <si>
-    <t>https://xhbup.com/quban2/</t>
-  </si>
-  <si>
-    <t>贰贰零</t>
-  </si>
-  <si>
-    <t>韶关市云联缘梦园贸易有限公司</t>
-  </si>
-  <si>
-    <t>狐臭</t>
-  </si>
-  <si>
-    <t>https://xhbup.com/huchou/</t>
-  </si>
-  <si>
-    <t>佛山市奎哥日用品有限公司</t>
-  </si>
-  <si>
-    <t>https://xhbup.com/huchou1/</t>
-  </si>
-  <si>
-    <t>广州优理氏生物科技有限公司</t>
-  </si>
-  <si>
-    <t>祛红血丝</t>
-  </si>
-  <si>
-    <t>https://xhbup.com/qhxs/</t>
-  </si>
-  <si>
-    <t>张海生</t>
-  </si>
-  <si>
-    <t>广州祥祯福珠宝有限公司</t>
-  </si>
-  <si>
-    <t>翡翠</t>
-  </si>
-  <si>
-    <t>https://xhbup.com/feicui/</t>
-  </si>
-  <si>
-    <t>郑梦飞</t>
-  </si>
-  <si>
-    <t>云浮市麦芒网络科技有限公司</t>
-  </si>
-  <si>
-    <t>淘秒杀</t>
-  </si>
-  <si>
-    <t>https://xhbup.com/yfmmwljs/tg/</t>
-  </si>
-  <si>
-    <t>廖晓飞</t>
-  </si>
-  <si>
-    <t>东莞市锐宣信息技术有限公司</t>
-  </si>
-  <si>
-    <t>阅读</t>
-  </si>
-  <si>
-    <t>https://xhbup.com/xiyou/</t>
-  </si>
-  <si>
-    <t>新用户</t>
-  </si>
-  <si>
-    <t>汕头市宣雅日化用品有限公司</t>
-  </si>
-  <si>
-    <t>丰胸</t>
-  </si>
-  <si>
-    <t>https://xhbup.com/xuanya/</t>
-  </si>
-  <si>
-    <t>吴鹏</t>
-  </si>
-  <si>
-    <t>佛山市韩都名品网络科技有限公司</t>
-  </si>
-  <si>
-    <t>https://xhbup.com/hdmp/</t>
-  </si>
-  <si>
-    <t>周宇恒</t>
-  </si>
-  <si>
-    <t>https://xhbup.com/fds/</t>
-  </si>
-  <si>
-    <t>霍尔果斯变现猫网络科技有限公司</t>
-  </si>
-  <si>
-    <t>广州芝绿电子商务有限公司</t>
-  </si>
-  <si>
-    <t>话费</t>
-  </si>
-  <si>
-    <t>https://xhbup.com/fanlv/
-https://xhbup.com/fanlv1/</t>
-  </si>
-  <si>
-    <t>张杰</t>
-  </si>
-  <si>
-    <t>广州蛋壳网络科技有限公司</t>
-  </si>
-  <si>
-    <t>https://xhbup.com/quban3/</t>
-  </si>
-  <si>
-    <t>https://xhbup.com/danke/</t>
-  </si>
-  <si>
-    <t>https://xhbup.com/sendu/</t>
-  </si>
-  <si>
-    <t>李泽生</t>
-  </si>
-  <si>
-    <t>广东卫城网络科技有限公司</t>
-  </si>
-  <si>
-    <t>书城</t>
-  </si>
-  <si>
-    <t>黄曼玲</t>
-  </si>
-  <si>
-    <t>页面跳转修改</t>
-  </si>
-  <si>
-    <t>https://www.xhbup.com/wcwl/</t>
-  </si>
-  <si>
-    <t>新客户</t>
-  </si>
-  <si>
-    <t>云浮市乐锋化妆品经营有限公司</t>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>https://www.xhbup.com/lefeng/</t>
-  </si>
-  <si>
-    <t>广州天拓</t>
-  </si>
-  <si>
-    <t>广州健肤门诊部有限公司（线下会诊）</t>
-  </si>
-  <si>
-    <t>祛胎记</t>
-  </si>
-  <si>
-    <t>https://www.xhbup.com/jianfu/</t>
-  </si>
-  <si>
-    <t>珠海市易鑫化妆品有限公司</t>
-  </si>
-  <si>
-    <t>https://www.xhbup.com/yixing/</t>
-  </si>
-  <si>
-    <t>胡清燕</t>
-  </si>
-  <si>
-    <t>东莞市茵秀儿化妆品有限公司</t>
-  </si>
-  <si>
-    <t>https://xhbup.com/yinxiuer/</t>
-  </si>
-  <si>
-    <t>广州奈萱化妆品有限公司</t>
-  </si>
-  <si>
-    <t>广州市婷采化妆品有限公司</t>
-  </si>
-  <si>
-    <t>抗皱</t>
-  </si>
-  <si>
-    <t>https://xhbup.com/tingcai/</t>
-  </si>
-  <si>
-    <t>皮肤</t>
-  </si>
-  <si>
-    <t>广州市白云区美莲葆化妆品厂</t>
-  </si>
-  <si>
-    <t>https://www.xhbup.com/gzblqmlb</t>
-  </si>
-  <si>
-    <t>佛山市南海区源腾珠宝有限公司</t>
-  </si>
-  <si>
-    <t>https://xhbup.com/yuanteng/</t>
-  </si>
-  <si>
-    <t>李冲</t>
-  </si>
-  <si>
-    <t>紫金县智美化妆品有限公司</t>
-  </si>
-  <si>
-    <t>https://xhbup.com/zhimei/</t>
-  </si>
-  <si>
-    <t>河源兰颜氏化妆品有限公司</t>
-  </si>
-  <si>
-    <t>https://xhbup.com/hylys/</t>
-  </si>
-  <si>
-    <t>江门市蓬江区聚智众科技有限公司</t>
-  </si>
-  <si>
-    <t>https://xhbup.com/jzzkj2/tp/</t>
-  </si>
-  <si>
-    <t>蓝荣贵</t>
-  </si>
-  <si>
-    <t>佛山市天成健康咨询有限公司</t>
-  </si>
-  <si>
-    <t>祛痘</t>
-  </si>
-  <si>
-    <t>https://xhbup.com/tiancheng/</t>
-  </si>
-  <si>
-    <t>胡雄敏</t>
-  </si>
-  <si>
-    <t>佛山市素现化妆品有限公司</t>
-  </si>
-  <si>
-    <t>减防</t>
-  </si>
-  <si>
-    <t>名市茂南区东科贸易有限公司</t>
-  </si>
-  <si>
-    <t>护肤</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>https://xhbup.com/sxhzp/</t>
+    <t>朱鹏程</t>
+  </si>
+  <si>
+    <t>韶关市悦和贸易有限公司</t>
+  </si>
+  <si>
+    <t>平胸</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>https://xhbup.com/qudou/</t>
+    <t>https://xhbup.com/yuehe/</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>陈建豪</t>
+    <t>清远市缤纷时代商贸有限公司</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/bfsd/</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>浙江胜握信息科技有限公司</t>
-  </si>
-  <si>
-    <t>惠州市互慧互联网络科技有限公司</t>
-  </si>
-  <si>
-    <t>胜握阅读</t>
-  </si>
-  <si>
-    <t>https://xhbup.com/shengwo/</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>张杰</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>雀斑</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>朱泽亮</t>
-  </si>
-  <si>
-    <t>九江致尚化妆品有限公司</t>
-  </si>
-  <si>
-    <t>减肥</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://xhbup.com/danke/</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://xhbup.com/zhishang/</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <t>广州正和药业连锁有限公司</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/zhyy/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="19">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -642,6 +748,21 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -669,7 +790,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -821,21 +942,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="3" tint="0.39982299264503923"/>
-      </left>
-      <right style="thin">
-        <color theme="3" tint="0.39982299264503923"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color theme="3" tint="0.39982299264503923"/>
@@ -849,12 +955,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -954,9 +1064,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -969,6 +1076,27 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -987,21 +1115,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1027,14 +1147,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>234950</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>111125</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>858824</xdr:rowOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>1574</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1357,13 +1477,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:Q55"/>
+  <dimension ref="B1:Q78"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="F36" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="F51" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K48" sqref="K48"/>
+      <selection pane="bottomRight" activeCell="I60" sqref="I60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1388,24 +1508,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:17" s="1" customFormat="1" ht="46.5" customHeight="1">
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
       <c r="K1" s="25"/>
       <c r="L1" s="7"/>
-      <c r="N1" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="39"/>
+      <c r="N1" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
+      <c r="Q1" s="45"/>
     </row>
     <row r="2" spans="2:17" ht="21.75" customHeight="1">
       <c r="B2" s="8" t="s">
@@ -1493,7 +1613,7 @@
       </c>
       <c r="O3" s="29"/>
       <c r="P3" s="29"/>
-      <c r="Q3" s="37">
+      <c r="Q3" s="36">
         <f>O3+P3</f>
         <v>0</v>
       </c>
@@ -1775,7 +1895,7 @@
         <v>51</v>
       </c>
       <c r="K11" s="31" t="s">
-        <v>52</v>
+        <v>179</v>
       </c>
       <c r="L11" s="9" t="s">
         <v>23</v>
@@ -1787,28 +1907,28 @@
         <v>43570</v>
       </c>
       <c r="D12" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="F12" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="G12" s="9">
+        <v>1</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" s="9" t="s">
         <v>55</v>
-      </c>
-      <c r="G12" s="9">
-        <v>1</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>56</v>
       </c>
       <c r="J12" s="9" t="s">
         <v>51</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L12" s="9" t="s">
         <v>23</v>
@@ -1820,10 +1940,10 @@
         <v>43570</v>
       </c>
       <c r="D13" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="9" t="s">
         <v>58</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>59</v>
       </c>
       <c r="F13" s="9" t="s">
         <v>30</v>
@@ -1835,13 +1955,13 @@
         <v>19</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J13" s="9" t="s">
         <v>51</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L13" s="9" t="s">
         <v>23</v>
@@ -1853,10 +1973,10 @@
         <v>43570</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F14" s="9" t="s">
         <v>30</v>
@@ -1868,13 +1988,13 @@
         <v>19</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J14" s="9" t="s">
         <v>51</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L14" s="9" t="s">
         <v>23</v>
@@ -1886,14 +2006,14 @@
         <v>43570</v>
       </c>
       <c r="D15" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="F15" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="F15" s="9" t="s">
-        <v>66</v>
-      </c>
       <c r="G15" s="9">
         <v>1</v>
       </c>
@@ -1901,13 +2021,13 @@
         <v>19</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J15" s="9" t="s">
         <v>51</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L15" s="9" t="s">
         <v>23</v>
@@ -1919,13 +2039,13 @@
         <v>43570</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G16" s="9">
         <v>1</v>
@@ -1934,13 +2054,13 @@
         <v>19</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J16" s="9" t="s">
         <v>51</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L16" s="9" t="s">
         <v>23</v>
@@ -1952,14 +2072,14 @@
         <v>43570</v>
       </c>
       <c r="D17" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F17" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="E17" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>71</v>
-      </c>
       <c r="G17" s="9">
         <v>1</v>
       </c>
@@ -1967,13 +2087,13 @@
         <v>19</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J17" s="9" t="s">
         <v>51</v>
       </c>
       <c r="K17" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L17" s="9" t="s">
         <v>23</v>
@@ -1985,13 +2105,13 @@
         <v>43571</v>
       </c>
       <c r="D18" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="F18" s="9" t="s">
         <v>74</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>75</v>
       </c>
       <c r="G18" s="9">
         <v>1</v>
@@ -2006,7 +2126,7 @@
         <v>51</v>
       </c>
       <c r="K18" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L18" s="9" t="s">
         <v>23</v>
@@ -2018,14 +2138,14 @@
         <v>43571</v>
       </c>
       <c r="D19" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E19" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="F19" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="F19" s="9" t="s">
-        <v>79</v>
-      </c>
       <c r="G19" s="9">
         <v>1</v>
       </c>
@@ -2033,13 +2153,13 @@
         <v>19</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J19" s="9" t="s">
         <v>21</v>
       </c>
       <c r="K19" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L19" s="9" t="s">
         <v>23</v>
@@ -2051,13 +2171,13 @@
         <v>43571</v>
       </c>
       <c r="D20" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="E20" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="F20" s="9" t="s">
         <v>82</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>83</v>
       </c>
       <c r="G20" s="9">
         <v>1</v>
@@ -2072,7 +2192,7 @@
         <v>51</v>
       </c>
       <c r="K20" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L20" s="9" t="s">
         <v>23</v>
@@ -2084,14 +2204,14 @@
         <v>43571</v>
       </c>
       <c r="D21" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="E21" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="F21" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="F21" s="9" t="s">
-        <v>87</v>
-      </c>
       <c r="G21" s="9">
         <v>1</v>
       </c>
@@ -2099,13 +2219,13 @@
         <v>19</v>
       </c>
       <c r="I21" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J21" s="9" t="s">
         <v>51</v>
       </c>
       <c r="K21" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L21" s="9" t="s">
         <v>23</v>
@@ -2117,13 +2237,13 @@
         <v>43571</v>
       </c>
       <c r="D22" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E22" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="E22" s="13" t="s">
-        <v>90</v>
-      </c>
       <c r="F22" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G22" s="9">
         <v>1</v>
@@ -2138,7 +2258,7 @@
         <v>51</v>
       </c>
       <c r="K22" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L22" s="9" t="s">
         <v>23</v>
@@ -2150,7 +2270,7 @@
         <v>43571</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E23" s="9" t="s">
         <v>37</v>
@@ -2171,7 +2291,7 @@
         <v>51</v>
       </c>
       <c r="K23" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L23" s="9" t="s">
         <v>23</v>
@@ -2183,13 +2303,13 @@
         <v>43571</v>
       </c>
       <c r="D24" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="E24" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="E24" s="9" t="s">
+      <c r="F24" s="9" t="s">
         <v>95</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>96</v>
       </c>
       <c r="G24" s="9">
         <v>2</v>
@@ -2198,13 +2318,13 @@
         <v>19</v>
       </c>
       <c r="I24" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J24" s="9" t="s">
         <v>51</v>
       </c>
       <c r="K24" s="32" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L24" s="9" t="s">
         <v>23</v>
@@ -2216,10 +2336,10 @@
         <v>43571</v>
       </c>
       <c r="D25" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="E25" s="9" t="s">
         <v>98</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>99</v>
       </c>
       <c r="F25" s="9" t="s">
         <v>30</v>
@@ -2237,7 +2357,7 @@
         <v>51</v>
       </c>
       <c r="K25" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L25" s="9" t="s">
         <v>23</v>
@@ -2249,10 +2369,10 @@
         <v>43571</v>
       </c>
       <c r="D26" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="E26" s="9" t="s">
         <v>98</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>99</v>
       </c>
       <c r="F26" s="9" t="s">
         <v>30</v>
@@ -2270,7 +2390,7 @@
         <v>51</v>
       </c>
       <c r="K26" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L26" s="9" t="s">
         <v>23</v>
@@ -2282,28 +2402,28 @@
         <v>43571</v>
       </c>
       <c r="D27" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E27" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E27" s="9" t="s">
+      <c r="F27" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="F27" s="9" t="s">
+      <c r="G27" s="9">
+        <v>1</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I27" s="9" t="s">
         <v>55</v>
-      </c>
-      <c r="G27" s="9">
-        <v>1</v>
-      </c>
-      <c r="H27" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I27" s="9" t="s">
-        <v>56</v>
       </c>
       <c r="J27" s="9" t="s">
         <v>51</v>
       </c>
       <c r="K27" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L27" s="9" t="s">
         <v>23</v>
@@ -2315,28 +2435,28 @@
         <v>43571</v>
       </c>
       <c r="D28" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="E28" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="E28" s="9" t="s">
+      <c r="F28" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="F28" s="9" t="s">
+      <c r="G28" s="9">
+        <v>1</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I28" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="G28" s="9">
-        <v>1</v>
-      </c>
-      <c r="H28" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I28" s="9" t="s">
+      <c r="J28" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="J28" s="9" t="s">
+      <c r="K28" s="9" t="s">
         <v>107</v>
-      </c>
-      <c r="K28" s="9" t="s">
-        <v>108</v>
       </c>
       <c r="L28" s="9" t="s">
         <v>23</v>
@@ -2350,13 +2470,13 @@
         <v>43571</v>
       </c>
       <c r="D29" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="E29" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="E29" s="9" t="s">
-        <v>110</v>
-      </c>
       <c r="F29" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G29" s="9">
         <v>1</v>
@@ -2370,8 +2490,8 @@
       <c r="J29" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="K29" s="9" t="s">
-        <v>111</v>
+      <c r="K29" s="40" t="s">
+        <v>180</v>
       </c>
       <c r="L29" s="9" t="s">
         <v>23</v>
@@ -2383,14 +2503,14 @@
         <v>43571</v>
       </c>
       <c r="D30" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="F30" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="E30" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="F30" s="9" t="s">
-        <v>114</v>
-      </c>
       <c r="G30" s="9">
         <v>1</v>
       </c>
@@ -2398,13 +2518,13 @@
         <v>19</v>
       </c>
       <c r="I30" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J30" s="9" t="s">
         <v>51</v>
       </c>
       <c r="K30" s="9" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="L30" s="9" t="s">
         <v>23</v>
@@ -2418,13 +2538,13 @@
         <v>43571</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G31" s="9">
         <v>1</v>
@@ -2439,7 +2559,7 @@
         <v>51</v>
       </c>
       <c r="K31" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L31" s="9" t="s">
         <v>23</v>
@@ -2453,10 +2573,10 @@
         <v>43571</v>
       </c>
       <c r="D32" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E32" s="9" t="s">
         <v>58</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>59</v>
       </c>
       <c r="F32" s="9" t="s">
         <v>30</v>
@@ -2468,13 +2588,13 @@
         <v>19</v>
       </c>
       <c r="I32" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="J32" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="K32" s="9" t="s">
         <v>60</v>
-      </c>
-      <c r="J32" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="K32" s="9" t="s">
-        <v>61</v>
       </c>
       <c r="L32" s="9" t="s">
         <v>23</v>
@@ -2488,10 +2608,10 @@
         <v>43571</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F33" s="9" t="s">
         <v>30</v>
@@ -2503,13 +2623,13 @@
         <v>19</v>
       </c>
       <c r="I33" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J33" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K33" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L33" s="9" t="s">
         <v>23</v>
@@ -2523,14 +2643,14 @@
         <v>43571</v>
       </c>
       <c r="D34" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E34" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="E34" s="9" t="s">
+      <c r="F34" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="F34" s="9" t="s">
-        <v>79</v>
-      </c>
       <c r="G34" s="9">
         <v>1</v>
       </c>
@@ -2538,13 +2658,13 @@
         <v>19</v>
       </c>
       <c r="I34" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J34" s="9" t="s">
         <v>21</v>
       </c>
       <c r="K34" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L34" s="9" t="s">
         <v>23</v>
@@ -2558,10 +2678,10 @@
         <v>43571</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E35" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F35" s="9" t="s">
         <v>30</v>
@@ -2573,13 +2693,13 @@
         <v>19</v>
       </c>
       <c r="I35" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J35" s="9" t="s">
         <v>51</v>
       </c>
       <c r="K35" s="9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L35" s="9" t="s">
         <v>23</v>
@@ -2593,13 +2713,13 @@
         <v>43571</v>
       </c>
       <c r="D36" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="E36" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="F36" s="9" t="s">
         <v>121</v>
-      </c>
-      <c r="E36" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="F36" s="9" t="s">
-        <v>123</v>
       </c>
       <c r="G36" s="9">
         <v>1</v>
@@ -2614,7 +2734,7 @@
         <v>51</v>
       </c>
       <c r="K36" s="9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="L36" s="9" t="s">
         <v>23</v>
@@ -2628,13 +2748,13 @@
         <v>43571</v>
       </c>
       <c r="D37" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G37" s="9">
         <v>1</v>
@@ -2643,13 +2763,13 @@
         <v>19</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K37" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L37" s="9" t="s">
         <v>23</v>
@@ -2663,28 +2783,28 @@
         <v>43571</v>
       </c>
       <c r="D38" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F38" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="G38" s="9">
+        <v>1</v>
+      </c>
+      <c r="H38" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I38" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="J38" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="K38" s="9" t="s">
         <v>125</v>
-      </c>
-      <c r="G38" s="9">
-        <v>1</v>
-      </c>
-      <c r="H38" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I38" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="J38" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="K38" s="9" t="s">
-        <v>127</v>
       </c>
       <c r="L38" s="9" t="s">
         <v>23</v>
@@ -2698,13 +2818,13 @@
         <v>43571</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G39" s="9">
         <v>1</v>
@@ -2719,7 +2839,7 @@
         <v>51</v>
       </c>
       <c r="K39" s="9" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L39" s="9" t="s">
         <v>23</v>
@@ -2733,13 +2853,13 @@
         <v>43571</v>
       </c>
       <c r="D40" s="18" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E40" s="18" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G40" s="9">
         <v>1</v>
@@ -2754,7 +2874,7 @@
         <v>32</v>
       </c>
       <c r="K40" s="18" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L40" s="9" t="s">
         <v>23</v>
@@ -2768,10 +2888,10 @@
         <v>43571</v>
       </c>
       <c r="D41" s="18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E41" s="19" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F41" s="9" t="s">
         <v>18</v>
@@ -2789,7 +2909,7 @@
         <v>32</v>
       </c>
       <c r="K41" s="19" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="L41" s="9" t="s">
         <v>23</v>
@@ -2803,13 +2923,13 @@
         <v>43572</v>
       </c>
       <c r="D42" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E42" s="20" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G42" s="9">
         <v>1</v>
@@ -2818,13 +2938,13 @@
         <v>19</v>
       </c>
       <c r="I42" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J42" s="9" t="s">
         <v>21</v>
       </c>
       <c r="K42" s="19" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="L42" s="9" t="s">
         <v>23</v>
@@ -2836,13 +2956,13 @@
         <v>43572</v>
       </c>
       <c r="D43" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="E43" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="F43" s="9" t="s">
         <v>137</v>
-      </c>
-      <c r="E43" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="F43" s="9" t="s">
-        <v>139</v>
       </c>
       <c r="G43" s="9">
         <v>1</v>
@@ -2857,7 +2977,7 @@
         <v>51</v>
       </c>
       <c r="K43" s="9" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="L43" s="9" t="s">
         <v>23</v>
@@ -2869,13 +2989,13 @@
         <v>43572</v>
       </c>
       <c r="D44" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="E44" t="s">
+        <v>140</v>
+      </c>
+      <c r="F44" s="9" t="s">
         <v>141</v>
-      </c>
-      <c r="E44" t="s">
-        <v>142</v>
-      </c>
-      <c r="F44" s="9" t="s">
-        <v>143</v>
       </c>
       <c r="G44" s="9">
         <v>1</v>
@@ -2890,7 +3010,7 @@
         <v>21</v>
       </c>
       <c r="K44" s="9" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="L44" s="9" t="s">
         <v>23</v>
@@ -2902,13 +3022,13 @@
         <v>43572</v>
       </c>
       <c r="D45" s="21" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E45" s="21" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G45" s="9">
         <v>1</v>
@@ -2917,13 +3037,13 @@
         <v>19</v>
       </c>
       <c r="I45" s="9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="J45" s="9" t="s">
         <v>51</v>
       </c>
       <c r="K45" s="9" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="L45" s="9" t="s">
         <v>23</v>
@@ -2935,13 +3055,13 @@
         <v>43572</v>
       </c>
       <c r="D46" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="E46" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="F46" s="38" t="s">
         <v>149</v>
-      </c>
-      <c r="E46" s="21" t="s">
-        <v>150</v>
-      </c>
-      <c r="F46" s="46" t="s">
-        <v>151</v>
       </c>
       <c r="G46" s="9">
         <v>1</v>
@@ -2956,7 +3076,7 @@
         <v>51</v>
       </c>
       <c r="K46" s="9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="L46" s="9" t="s">
         <v>23</v>
@@ -2968,13 +3088,13 @@
         <v>43572</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E47" s="21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G47" s="9">
         <v>1</v>
@@ -2986,10 +3106,10 @@
         <v>38</v>
       </c>
       <c r="J47" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K47" s="21" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="L47" s="9" t="s">
         <v>23</v>
@@ -3000,29 +3120,29 @@
       <c r="C48" s="10">
         <v>43572</v>
       </c>
-      <c r="D48" s="47" t="s">
+      <c r="D48" s="39" t="s">
+        <v>153</v>
+      </c>
+      <c r="E48" s="39" t="s">
+        <v>154</v>
+      </c>
+      <c r="F48" s="37" t="s">
         <v>155</v>
       </c>
-      <c r="E48" s="47" t="s">
-        <v>156</v>
-      </c>
-      <c r="F48" s="45" t="s">
-        <v>157</v>
-      </c>
       <c r="G48" s="9">
         <v>1</v>
       </c>
       <c r="H48" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I48" s="47" t="s">
+      <c r="I48" s="39" t="s">
         <v>20</v>
       </c>
       <c r="J48" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="K48" s="46" t="s">
-        <v>159</v>
+      <c r="K48" s="38" t="s">
+        <v>157</v>
       </c>
       <c r="L48" s="9" t="s">
         <v>23</v>
@@ -3030,104 +3150,643 @@
     </row>
     <row r="49" spans="2:12" ht="21.75" customHeight="1">
       <c r="B49" s="14"/>
-      <c r="C49" s="22"/>
-      <c r="D49" s="9"/>
-      <c r="E49" s="9"/>
-      <c r="F49" s="9"/>
-      <c r="G49" s="9"/>
-      <c r="H49" s="9"/>
-      <c r="I49" s="9"/>
-      <c r="J49" s="9"/>
-      <c r="K49" s="33"/>
-      <c r="L49" s="9"/>
+      <c r="C49" s="10">
+        <v>43573</v>
+      </c>
+      <c r="D49" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="E49" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="F49" s="37" t="s">
+        <v>155</v>
+      </c>
+      <c r="G49" s="9">
+        <v>1</v>
+      </c>
+      <c r="H49" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I49" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="J49" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="K49" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="L49" s="9" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="50" spans="2:12" ht="21.75" customHeight="1">
       <c r="B50" s="14"/>
-      <c r="C50" s="22"/>
-      <c r="D50" s="9"/>
-      <c r="E50" s="9"/>
-      <c r="F50" s="9"/>
-      <c r="G50" s="9"/>
-      <c r="H50" s="9"/>
-      <c r="I50" s="9"/>
-      <c r="J50" s="9"/>
-      <c r="K50" s="33"/>
-      <c r="L50" s="9"/>
-    </row>
-    <row r="51" spans="2:12" ht="21.75" customHeight="1">
+      <c r="C50" s="10">
+        <v>43573</v>
+      </c>
+      <c r="D50" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="E50" t="s">
+        <v>111</v>
+      </c>
+      <c r="F50" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="G50" s="9">
+        <v>1</v>
+      </c>
+      <c r="H50" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I50" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="J50" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="K50" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="L50" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="51" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B51" s="14"/>
-      <c r="C51" s="22"/>
-      <c r="D51" s="9"/>
-      <c r="E51" s="9"/>
-      <c r="F51" s="9"/>
-      <c r="G51" s="9"/>
-      <c r="H51" s="9"/>
-      <c r="I51" s="9"/>
-      <c r="J51" s="9"/>
-      <c r="K51" s="33"/>
-      <c r="L51" s="9"/>
-    </row>
-    <row r="52" spans="2:12" ht="21.75" customHeight="1">
+      <c r="C51" s="10">
+        <v>43573</v>
+      </c>
+      <c r="D51" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="E51" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="F51" s="37" t="s">
+        <v>163</v>
+      </c>
+      <c r="G51" s="9">
+        <v>1</v>
+      </c>
+      <c r="H51" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I51" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="J51" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="K51" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="L51" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B52" s="14"/>
-      <c r="C52" s="22"/>
-      <c r="D52" s="9"/>
-      <c r="E52" s="9"/>
-      <c r="F52" s="9"/>
-      <c r="G52" s="9"/>
-      <c r="H52" s="9"/>
-      <c r="I52" s="9"/>
-      <c r="J52" s="9"/>
-      <c r="K52" s="33"/>
-      <c r="L52" s="9"/>
-    </row>
-    <row r="53" spans="2:12" ht="21.75" customHeight="1">
-      <c r="B53" s="40" t="s">
+      <c r="C52" s="10">
+        <v>43573</v>
+      </c>
+      <c r="D52" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="E52" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="F52" s="37" t="s">
+        <v>166</v>
+      </c>
+      <c r="G52" s="9">
+        <v>1</v>
+      </c>
+      <c r="H52" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I52" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="J52" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="K52" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="L52" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="53" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B53" s="14"/>
+      <c r="C53" s="10">
+        <v>43573</v>
+      </c>
+      <c r="D53" t="s">
+        <v>168</v>
+      </c>
+      <c r="E53" t="s">
+        <v>81</v>
+      </c>
+      <c r="F53" s="37" t="s">
+        <v>169</v>
+      </c>
+      <c r="G53" s="9">
+        <v>1</v>
+      </c>
+      <c r="H53" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I53" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="J53" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="K53" t="s">
+        <v>170</v>
+      </c>
+      <c r="L53" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="54" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B54" s="14"/>
+      <c r="C54" s="10">
+        <v>43573</v>
+      </c>
+      <c r="D54" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E54" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="F54" s="37" t="s">
+        <v>163</v>
+      </c>
+      <c r="G54" s="9">
+        <v>1</v>
+      </c>
+      <c r="H54" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I54" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="J54" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K54" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="L54" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="55" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B55" s="14"/>
+      <c r="C55" s="10">
+        <v>43573</v>
+      </c>
+      <c r="D55" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E55" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="F55" s="37" t="s">
+        <v>163</v>
+      </c>
+      <c r="G55" s="9">
+        <v>1</v>
+      </c>
+      <c r="H55" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I55" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="J55" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K55" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="L55" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="56" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B56" s="14"/>
+      <c r="C56" s="10">
+        <v>43573</v>
+      </c>
+      <c r="D56" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="E56" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="F56" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="G56" s="9">
+        <v>1</v>
+      </c>
+      <c r="H56" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I56" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="J56" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="K56" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="L56" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="57" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B57" s="14"/>
+      <c r="C57" s="10">
+        <v>43573</v>
+      </c>
+      <c r="D57" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="E57" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="F57" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="G57" s="9">
+        <v>1</v>
+      </c>
+      <c r="H57" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I57" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="J57" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="K57" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="L57" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="58" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B58" s="14"/>
+      <c r="C58" s="10">
+        <v>43573</v>
+      </c>
+      <c r="D58" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="E58" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="F58" s="37" t="s">
+        <v>183</v>
+      </c>
+      <c r="G58" s="9">
+        <v>1</v>
+      </c>
+      <c r="H58" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I58" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="J58" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="K58" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="L58" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="59" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B59" s="14"/>
+      <c r="C59" s="10">
+        <v>43573</v>
+      </c>
+      <c r="D59" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="E59" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="F59" s="37" t="s">
+        <v>183</v>
+      </c>
+      <c r="G59" s="9">
+        <v>1</v>
+      </c>
+      <c r="H59" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I59" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="J59" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="K59" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="L59" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="60" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B60" s="14"/>
+      <c r="C60" s="10">
+        <v>43573</v>
+      </c>
+      <c r="D60" s="42" t="s">
+        <v>187</v>
+      </c>
+      <c r="E60" s="42" t="s">
+        <v>187</v>
+      </c>
+      <c r="F60" s="37" t="s">
+        <v>183</v>
+      </c>
+      <c r="G60" s="9">
+        <v>1</v>
+      </c>
+      <c r="H60" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I60" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="J60" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="K60" s="42" t="s">
+        <v>188</v>
+      </c>
+      <c r="L60" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="61" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B61" s="14"/>
+      <c r="C61" s="22"/>
+      <c r="D61" s="21"/>
+      <c r="E61" s="21"/>
+      <c r="F61" s="37"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="9"/>
+      <c r="I61" s="21"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="41"/>
+      <c r="L61" s="9"/>
+    </row>
+    <row r="62" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B62" s="14"/>
+      <c r="C62" s="22"/>
+      <c r="D62" s="21"/>
+      <c r="E62" s="21"/>
+      <c r="F62" s="37"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="9"/>
+      <c r="I62" s="21"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="41"/>
+      <c r="L62" s="9"/>
+    </row>
+    <row r="63" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B63" s="14"/>
+      <c r="C63" s="22"/>
+      <c r="D63" s="21"/>
+      <c r="E63" s="21"/>
+      <c r="F63" s="37"/>
+      <c r="G63" s="9"/>
+      <c r="H63" s="9"/>
+      <c r="I63" s="21"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="41"/>
+      <c r="L63" s="9"/>
+    </row>
+    <row r="64" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B64" s="14"/>
+      <c r="C64" s="22"/>
+      <c r="D64" s="21"/>
+      <c r="E64" s="21"/>
+      <c r="F64" s="37"/>
+      <c r="G64" s="9"/>
+      <c r="H64" s="9"/>
+      <c r="I64" s="21"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="41"/>
+      <c r="L64" s="9"/>
+    </row>
+    <row r="65" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B65" s="14"/>
+      <c r="C65" s="22"/>
+      <c r="D65" s="21"/>
+      <c r="E65" s="21"/>
+      <c r="F65" s="37"/>
+      <c r="G65" s="9"/>
+      <c r="H65" s="9"/>
+      <c r="I65" s="21"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="41"/>
+      <c r="L65" s="9"/>
+    </row>
+    <row r="66" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B66" s="14"/>
+      <c r="C66" s="22"/>
+      <c r="D66" s="21"/>
+      <c r="E66" s="21"/>
+      <c r="F66" s="37"/>
+      <c r="G66" s="9"/>
+      <c r="H66" s="9"/>
+      <c r="I66" s="21"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="41"/>
+      <c r="L66" s="9"/>
+    </row>
+    <row r="67" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B67" s="14"/>
+      <c r="C67" s="22"/>
+      <c r="D67" s="21"/>
+      <c r="E67" s="21"/>
+      <c r="F67" s="37"/>
+      <c r="G67" s="9"/>
+      <c r="H67" s="9"/>
+      <c r="I67" s="21"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="41"/>
+      <c r="L67" s="9"/>
+    </row>
+    <row r="68" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B68" s="14"/>
+      <c r="C68" s="22"/>
+      <c r="D68" s="21"/>
+      <c r="E68" s="21"/>
+      <c r="F68" s="37"/>
+      <c r="G68" s="9"/>
+      <c r="H68" s="9"/>
+      <c r="I68" s="21"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="41"/>
+      <c r="L68" s="9"/>
+    </row>
+    <row r="69" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B69" s="14"/>
+      <c r="C69" s="22"/>
+      <c r="D69" s="21"/>
+      <c r="E69" s="21"/>
+      <c r="F69" s="37"/>
+      <c r="G69" s="9"/>
+      <c r="H69" s="9"/>
+      <c r="I69" s="21"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="41"/>
+      <c r="L69" s="9"/>
+    </row>
+    <row r="70" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B70" s="14"/>
+      <c r="C70" s="22"/>
+      <c r="D70" s="21"/>
+      <c r="E70" s="21"/>
+      <c r="F70" s="37"/>
+      <c r="G70" s="9"/>
+      <c r="H70" s="9"/>
+      <c r="I70" s="21"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="41"/>
+      <c r="L70" s="9"/>
+    </row>
+    <row r="71" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B71" s="14"/>
+      <c r="C71" s="22"/>
+      <c r="D71" s="21"/>
+      <c r="E71" s="21"/>
+      <c r="F71" s="37"/>
+      <c r="G71" s="9"/>
+      <c r="H71" s="9"/>
+      <c r="I71" s="21"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="41"/>
+      <c r="L71" s="9"/>
+    </row>
+    <row r="72" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B72" s="14"/>
+      <c r="C72" s="22"/>
+      <c r="D72" s="21"/>
+      <c r="E72" s="21"/>
+      <c r="F72" s="37"/>
+      <c r="G72" s="9"/>
+      <c r="H72" s="9"/>
+      <c r="I72" s="21"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="41"/>
+      <c r="L72" s="9"/>
+    </row>
+    <row r="73" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B73" s="14"/>
+      <c r="C73" s="22"/>
+      <c r="D73" s="21"/>
+      <c r="E73" s="21"/>
+      <c r="F73" s="37"/>
+      <c r="G73" s="9"/>
+      <c r="H73" s="9"/>
+      <c r="I73" s="21"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="21"/>
+      <c r="L73" s="9"/>
+    </row>
+    <row r="74" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B74" s="14"/>
+      <c r="C74" s="22"/>
+      <c r="D74" s="21"/>
+      <c r="E74" s="21"/>
+      <c r="F74" s="37"/>
+      <c r="G74" s="9"/>
+      <c r="H74" s="9"/>
+      <c r="I74" s="21"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="21"/>
+      <c r="L74" s="9"/>
+    </row>
+    <row r="75" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B75" s="14"/>
+      <c r="C75" s="22"/>
+      <c r="D75" s="21"/>
+      <c r="E75" s="21"/>
+      <c r="F75" s="37"/>
+      <c r="G75" s="9"/>
+      <c r="H75" s="9"/>
+      <c r="I75" s="21"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="21"/>
+      <c r="L75" s="9"/>
+    </row>
+    <row r="76" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B76" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="C53" s="41"/>
-      <c r="D53" s="23"/>
-      <c r="E53" s="23"/>
-      <c r="F53" s="24"/>
-      <c r="G53" s="24">
+      <c r="C76" s="47"/>
+      <c r="D76" s="23"/>
+      <c r="E76" s="23"/>
+      <c r="F76" s="24"/>
+      <c r="G76" s="24">
         <f>SUM(G3:G29)</f>
         <v>33</v>
       </c>
-      <c r="H53" s="24"/>
-      <c r="I53" s="24"/>
-      <c r="J53" s="9"/>
-      <c r="K53" s="34"/>
-      <c r="L53" s="9"/>
-    </row>
-    <row r="55" spans="2:12" ht="75" customHeight="1">
-      <c r="B55" s="42"/>
-      <c r="C55" s="43"/>
-      <c r="D55" s="43"/>
-      <c r="E55" s="43"/>
-      <c r="F55" s="43"/>
-      <c r="G55" s="43"/>
-      <c r="H55" s="43"/>
-      <c r="I55" s="43"/>
-      <c r="J55" s="44"/>
-      <c r="K55" s="35"/>
-      <c r="L55" s="36"/>
+      <c r="H76" s="24"/>
+      <c r="I76" s="24"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="33"/>
+      <c r="L76" s="9"/>
+    </row>
+    <row r="78" spans="2:12" ht="75" customHeight="1">
+      <c r="B78" s="48"/>
+      <c r="C78" s="49"/>
+      <c r="D78" s="49"/>
+      <c r="E78" s="49"/>
+      <c r="F78" s="49"/>
+      <c r="G78" s="49"/>
+      <c r="H78" s="49"/>
+      <c r="I78" s="49"/>
+      <c r="J78" s="50"/>
+      <c r="K78" s="34"/>
+      <c r="L78" s="35"/>
     </row>
   </sheetData>
-  <autoFilter ref="C2:L53"/>
+  <autoFilter ref="C2:L76"/>
   <sortState ref="B3:I41">
     <sortCondition ref="B3"/>
   </sortState>
   <mergeCells count="4">
     <mergeCell ref="C1:J1"/>
     <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B55:J55"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B78:J78"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J53">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J76">
       <formula1>"H5页面制作,页面跳转修改,页面修改,H5整站制作,PC制作&amp;折成3个H5页面"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J52">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J75">
       <formula1>"H5页面制作,页面跳转修改,页面修改,H5整站制作,PC制作&amp;折成3个H5页面,跳转设置,摘包"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3155,7 +3814,7 @@
     <hyperlink ref="K26" r:id="rId21" tooltip="https://xhbup.com/danke/"/>
     <hyperlink ref="K27" r:id="rId22" tooltip="https://xhbup.com/sendu/"/>
     <hyperlink ref="K28" r:id="rId23" tooltip="https://www.xhbup.com/wcwl/"/>
-    <hyperlink ref="K29" r:id="rId24" tooltip="https://www.xhbup.com/lefeng/"/>
+    <hyperlink ref="K29" r:id="rId24"/>
     <hyperlink ref="K30" r:id="rId25" tooltip="https://www.xhbup.com/jianfu/"/>
     <hyperlink ref="K31" r:id="rId26" tooltip="https://www.xhbup.com/yixing/"/>
     <hyperlink ref="K32" r:id="rId27" tooltip="https://xhbup.com/quban1/"/>
@@ -3174,9 +3833,20 @@
     <hyperlink ref="K46" r:id="rId40"/>
     <hyperlink ref="K47" r:id="rId41"/>
     <hyperlink ref="K48" r:id="rId42"/>
+    <hyperlink ref="K49" r:id="rId43"/>
+    <hyperlink ref="K50" r:id="rId44"/>
+    <hyperlink ref="K51" r:id="rId45"/>
+    <hyperlink ref="K52" r:id="rId46"/>
+    <hyperlink ref="K53" r:id="rId47"/>
+    <hyperlink ref="K54" r:id="rId48"/>
+    <hyperlink ref="K55" r:id="rId49"/>
+    <hyperlink ref="K56" r:id="rId50"/>
+    <hyperlink ref="K57" r:id="rId51"/>
+    <hyperlink ref="K58" r:id="rId52"/>
+    <hyperlink ref="K59" r:id="rId53"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId43"/>
-  <drawing r:id="rId44"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId54"/>
+  <drawing r:id="rId55"/>
 </worksheet>
 </file>
--- a/业务线技术支持登记表格式.xlsx
+++ b/业务线技术支持登记表格式.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21425"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\phpStudy\WWW\myWork\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A054583C-5496-46E8-A88F-5BF562B2CBD1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23280" windowHeight="10350"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,12 +18,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$2:$L$76</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="192">
   <si>
     <t>业务线支持登记表</t>
   </si>
@@ -619,12 +625,22 @@
   <si>
     <t>https://xhbup.com/zhyy/</t>
   </si>
+  <si>
+    <t>催铭泉</t>
+  </si>
+  <si>
+    <t>广州礼顺堂医药科技有限公司</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/gzlstyy/tg/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1137,6 +1153,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1158,7 +1177,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPr id="6" name="图片 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1167,7 +1192,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1476,17 +1501,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:Q78"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="F51" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I60" sqref="I60"/>
+      <selection pane="bottomRight" activeCell="K61" sqref="K61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="1.25" style="3" customWidth="1"/>
     <col min="2" max="2" width="7" style="3" customWidth="1"/>
@@ -1507,7 +1532,7 @@
     <col min="21" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" s="1" customFormat="1" ht="46.5" customHeight="1">
+    <row r="1" spans="2:17" s="1" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C1" s="44" t="s">
         <v>0</v>
       </c>
@@ -1527,7 +1552,7 @@
       <c r="P1" s="45"/>
       <c r="Q1" s="45"/>
     </row>
-    <row r="2" spans="2:17" ht="21.75" customHeight="1">
+    <row r="2" spans="2:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="8" t="s">
         <v>2</v>
       </c>
@@ -1574,7 +1599,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="2:17" ht="33">
+    <row r="3" spans="2:17" ht="33" x14ac:dyDescent="0.15">
       <c r="B3" s="9">
         <v>1</v>
       </c>
@@ -1618,7 +1643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:17" ht="21.75" customHeight="1">
+    <row r="4" spans="2:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="9">
         <v>5</v>
       </c>
@@ -1668,7 +1693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:17" ht="21.75" customHeight="1">
+    <row r="5" spans="2:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="9">
         <v>6</v>
       </c>
@@ -1703,7 +1728,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="2:17" ht="21.75" customHeight="1">
+    <row r="6" spans="2:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="9"/>
       <c r="C6" s="10">
         <v>43570</v>
@@ -1736,7 +1761,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="2:17" ht="39.75" customHeight="1">
+    <row r="7" spans="2:17" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="9"/>
       <c r="C7" s="10">
         <v>43570</v>
@@ -1769,7 +1794,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="2:17" ht="21.75" customHeight="1">
+    <row r="8" spans="2:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="9"/>
       <c r="C8" s="10">
         <v>43570</v>
@@ -1802,7 +1827,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="2:17" ht="21.75" customHeight="1">
+    <row r="9" spans="2:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="9"/>
       <c r="C9" s="10">
         <v>43570</v>
@@ -1835,7 +1860,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="2:17" ht="21.75" customHeight="1">
+    <row r="10" spans="2:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="9"/>
       <c r="C10" s="10">
         <v>43570</v>
@@ -1868,7 +1893,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="2:17" ht="87" customHeight="1">
+    <row r="11" spans="2:17" ht="87" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="9"/>
       <c r="C11" s="10">
         <v>43570</v>
@@ -1901,7 +1926,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="2:17" ht="21.75" customHeight="1">
+    <row r="12" spans="2:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="9"/>
       <c r="C12" s="10">
         <v>43570</v>
@@ -1934,7 +1959,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="2:17" ht="21.75" customHeight="1">
+    <row r="13" spans="2:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="9"/>
       <c r="C13" s="10">
         <v>43570</v>
@@ -1967,7 +1992,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="2:17" ht="21.75" customHeight="1">
+    <row r="14" spans="2:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="9"/>
       <c r="C14" s="10">
         <v>43570</v>
@@ -2000,7 +2025,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="2:17" ht="21.75" customHeight="1">
+    <row r="15" spans="2:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="9"/>
       <c r="C15" s="10">
         <v>43570</v>
@@ -2033,7 +2058,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="2:17" ht="21.75" customHeight="1">
+    <row r="16" spans="2:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="9"/>
       <c r="C16" s="10">
         <v>43570</v>
@@ -2066,7 +2091,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="2:12" ht="21.75" customHeight="1">
+    <row r="17" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="9"/>
       <c r="C17" s="10">
         <v>43570</v>
@@ -2099,7 +2124,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="2:12" ht="21.75" customHeight="1">
+    <row r="18" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="9"/>
       <c r="C18" s="10">
         <v>43571</v>
@@ -2132,7 +2157,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="2:12" ht="21.75" customHeight="1">
+    <row r="19" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="9"/>
       <c r="C19" s="10">
         <v>43571</v>
@@ -2165,7 +2190,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="2:12" ht="21.75" customHeight="1">
+    <row r="20" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="9"/>
       <c r="C20" s="10">
         <v>43571</v>
@@ -2198,7 +2223,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="2:12" ht="21.75" customHeight="1">
+    <row r="21" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="9"/>
       <c r="C21" s="10">
         <v>43571</v>
@@ -2231,7 +2256,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="2:12" ht="21.75" customHeight="1">
+    <row r="22" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="9"/>
       <c r="C22" s="10">
         <v>43571</v>
@@ -2264,7 +2289,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="2:12" ht="21.75" customHeight="1">
+    <row r="23" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="9"/>
       <c r="C23" s="10">
         <v>43571</v>
@@ -2297,7 +2322,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="2:12" ht="42.95" customHeight="1">
+    <row r="24" spans="2:12" ht="42.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="9"/>
       <c r="C24" s="10">
         <v>43571</v>
@@ -2330,7 +2355,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="2:12" ht="21.75" customHeight="1">
+    <row r="25" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="9"/>
       <c r="C25" s="10">
         <v>43571</v>
@@ -2363,7 +2388,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="2:12" ht="21.75" customHeight="1">
+    <row r="26" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="9"/>
       <c r="C26" s="10">
         <v>43571</v>
@@ -2396,7 +2421,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="2:12" ht="21.75" customHeight="1">
+    <row r="27" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="9"/>
       <c r="C27" s="10">
         <v>43571</v>
@@ -2429,7 +2454,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="2:12" ht="21.75" customHeight="1">
+    <row r="28" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="9"/>
       <c r="C28" s="10">
         <v>43571</v>
@@ -2462,7 +2487,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="2:12" ht="21.75" customHeight="1">
+    <row r="29" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="9">
         <v>78</v>
       </c>
@@ -2497,7 +2522,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="2:12" ht="21.75" customHeight="1">
+    <row r="30" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="14"/>
       <c r="C30" s="10">
         <v>43571</v>
@@ -2530,7 +2555,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="2:12" ht="21.75" customHeight="1">
+    <row r="31" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="9">
         <v>79</v>
       </c>
@@ -2565,7 +2590,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="2:12" ht="21.75" customHeight="1">
+    <row r="32" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="9">
         <v>80</v>
       </c>
@@ -2600,7 +2625,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="2:12" ht="21.75" customHeight="1">
+    <row r="33" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="9">
         <v>81</v>
       </c>
@@ -2635,7 +2660,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="2:12" ht="21.75" customHeight="1">
+    <row r="34" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" s="9">
         <v>82</v>
       </c>
@@ -2670,7 +2695,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="2:12" ht="21.75" customHeight="1">
+    <row r="35" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B35" s="9">
         <v>83</v>
       </c>
@@ -2705,7 +2730,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="2:12" ht="21.75" customHeight="1">
+    <row r="36" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="9">
         <v>84</v>
       </c>
@@ -2740,7 +2765,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="2:12" ht="21.75" customHeight="1">
+    <row r="37" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="9">
         <v>85</v>
       </c>
@@ -2775,7 +2800,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="2:12" ht="21.75" customHeight="1">
+    <row r="38" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="9">
         <v>86</v>
       </c>
@@ -2810,7 +2835,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="2:12" ht="21.75" customHeight="1">
+    <row r="39" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" s="9">
         <v>87</v>
       </c>
@@ -2845,7 +2870,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+    <row r="40" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="9">
         <v>88</v>
       </c>
@@ -2880,7 +2905,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+    <row r="41" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="9">
         <v>89</v>
       </c>
@@ -2915,7 +2940,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+    <row r="42" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" s="9">
         <v>90</v>
       </c>
@@ -2950,7 +2975,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="43" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+    <row r="43" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B43" s="14"/>
       <c r="C43" s="10">
         <v>43572</v>
@@ -2983,7 +3008,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="2:12" ht="21.75" customHeight="1">
+    <row r="44" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="14"/>
       <c r="C44" s="10">
         <v>43572</v>
@@ -3016,7 +3041,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="45" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+    <row r="45" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" s="14"/>
       <c r="C45" s="10">
         <v>43572</v>
@@ -3049,7 +3074,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+    <row r="46" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" s="14"/>
       <c r="C46" s="10">
         <v>43572</v>
@@ -3082,7 +3107,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="2:12" ht="21.75" customHeight="1">
+    <row r="47" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" s="14"/>
       <c r="C47" s="10">
         <v>43572</v>
@@ -3115,7 +3140,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="2:12" ht="21.75" customHeight="1">
+    <row r="48" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B48" s="14"/>
       <c r="C48" s="10">
         <v>43572</v>
@@ -3148,7 +3173,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="49" spans="2:12" ht="21.75" customHeight="1">
+    <row r="49" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B49" s="14"/>
       <c r="C49" s="10">
         <v>43573</v>
@@ -3181,7 +3206,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="50" spans="2:12" ht="21.75" customHeight="1">
+    <row r="50" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B50" s="14"/>
       <c r="C50" s="10">
         <v>43573</v>
@@ -3214,7 +3239,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+    <row r="51" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B51" s="14"/>
       <c r="C51" s="10">
         <v>43573</v>
@@ -3247,7 +3272,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="52" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+    <row r="52" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B52" s="14"/>
       <c r="C52" s="10">
         <v>43573</v>
@@ -3280,7 +3305,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="53" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+    <row r="53" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B53" s="14"/>
       <c r="C53" s="10">
         <v>43573</v>
@@ -3313,7 +3338,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="54" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+    <row r="54" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B54" s="14"/>
       <c r="C54" s="10">
         <v>43573</v>
@@ -3346,7 +3371,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="55" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+    <row r="55" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B55" s="14"/>
       <c r="C55" s="10">
         <v>43573</v>
@@ -3379,7 +3404,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="56" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+    <row r="56" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B56" s="14"/>
       <c r="C56" s="10">
         <v>43573</v>
@@ -3412,7 +3437,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="57" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+    <row r="57" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B57" s="14"/>
       <c r="C57" s="10">
         <v>43573</v>
@@ -3445,7 +3470,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="58" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+    <row r="58" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B58" s="14"/>
       <c r="C58" s="10">
         <v>43573</v>
@@ -3478,7 +3503,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="59" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+    <row r="59" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B59" s="14"/>
       <c r="C59" s="10">
         <v>43573</v>
@@ -3511,7 +3536,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="60" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+    <row r="60" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B60" s="14"/>
       <c r="C60" s="10">
         <v>43573</v>
@@ -3544,20 +3569,40 @@
         <v>23</v>
       </c>
     </row>
-    <row r="61" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+    <row r="61" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B61" s="14"/>
-      <c r="C61" s="22"/>
-      <c r="D61" s="21"/>
-      <c r="E61" s="21"/>
-      <c r="F61" s="37"/>
-      <c r="G61" s="9"/>
-      <c r="H61" s="9"/>
-      <c r="I61" s="21"/>
-      <c r="J61" s="9"/>
-      <c r="K61" s="41"/>
-      <c r="L61" s="9"/>
-    </row>
-    <row r="62" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="C61" s="10">
+        <v>43573</v>
+      </c>
+      <c r="D61" s="43" t="s">
+        <v>189</v>
+      </c>
+      <c r="E61" s="43" t="s">
+        <v>190</v>
+      </c>
+      <c r="F61" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="G61" s="9">
+        <v>1</v>
+      </c>
+      <c r="H61" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I61" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="J61" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K61" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="L61" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="62" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B62" s="14"/>
       <c r="C62" s="22"/>
       <c r="D62" s="21"/>
@@ -3570,7 +3615,7 @@
       <c r="K62" s="41"/>
       <c r="L62" s="9"/>
     </row>
-    <row r="63" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+    <row r="63" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B63" s="14"/>
       <c r="C63" s="22"/>
       <c r="D63" s="21"/>
@@ -3583,7 +3628,7 @@
       <c r="K63" s="41"/>
       <c r="L63" s="9"/>
     </row>
-    <row r="64" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+    <row r="64" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B64" s="14"/>
       <c r="C64" s="22"/>
       <c r="D64" s="21"/>
@@ -3596,7 +3641,7 @@
       <c r="K64" s="41"/>
       <c r="L64" s="9"/>
     </row>
-    <row r="65" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+    <row r="65" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B65" s="14"/>
       <c r="C65" s="22"/>
       <c r="D65" s="21"/>
@@ -3609,7 +3654,7 @@
       <c r="K65" s="41"/>
       <c r="L65" s="9"/>
     </row>
-    <row r="66" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+    <row r="66" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B66" s="14"/>
       <c r="C66" s="22"/>
       <c r="D66" s="21"/>
@@ -3622,7 +3667,7 @@
       <c r="K66" s="41"/>
       <c r="L66" s="9"/>
     </row>
-    <row r="67" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+    <row r="67" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B67" s="14"/>
       <c r="C67" s="22"/>
       <c r="D67" s="21"/>
@@ -3635,7 +3680,7 @@
       <c r="K67" s="41"/>
       <c r="L67" s="9"/>
     </row>
-    <row r="68" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+    <row r="68" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B68" s="14"/>
       <c r="C68" s="22"/>
       <c r="D68" s="21"/>
@@ -3648,7 +3693,7 @@
       <c r="K68" s="41"/>
       <c r="L68" s="9"/>
     </row>
-    <row r="69" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+    <row r="69" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B69" s="14"/>
       <c r="C69" s="22"/>
       <c r="D69" s="21"/>
@@ -3661,7 +3706,7 @@
       <c r="K69" s="41"/>
       <c r="L69" s="9"/>
     </row>
-    <row r="70" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+    <row r="70" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B70" s="14"/>
       <c r="C70" s="22"/>
       <c r="D70" s="21"/>
@@ -3674,7 +3719,7 @@
       <c r="K70" s="41"/>
       <c r="L70" s="9"/>
     </row>
-    <row r="71" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+    <row r="71" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B71" s="14"/>
       <c r="C71" s="22"/>
       <c r="D71" s="21"/>
@@ -3687,7 +3732,7 @@
       <c r="K71" s="41"/>
       <c r="L71" s="9"/>
     </row>
-    <row r="72" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+    <row r="72" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B72" s="14"/>
       <c r="C72" s="22"/>
       <c r="D72" s="21"/>
@@ -3700,7 +3745,7 @@
       <c r="K72" s="41"/>
       <c r="L72" s="9"/>
     </row>
-    <row r="73" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+    <row r="73" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B73" s="14"/>
       <c r="C73" s="22"/>
       <c r="D73" s="21"/>
@@ -3713,7 +3758,7 @@
       <c r="K73" s="21"/>
       <c r="L73" s="9"/>
     </row>
-    <row r="74" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+    <row r="74" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B74" s="14"/>
       <c r="C74" s="22"/>
       <c r="D74" s="21"/>
@@ -3726,7 +3771,7 @@
       <c r="K74" s="21"/>
       <c r="L74" s="9"/>
     </row>
-    <row r="75" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+    <row r="75" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B75" s="14"/>
       <c r="C75" s="22"/>
       <c r="D75" s="21"/>
@@ -3739,7 +3784,7 @@
       <c r="K75" s="21"/>
       <c r="L75" s="9"/>
     </row>
-    <row r="76" spans="2:12" ht="21.75" customHeight="1">
+    <row r="76" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B76" s="46" t="s">
         <v>15</v>
       </c>
@@ -3757,7 +3802,7 @@
       <c r="K76" s="33"/>
       <c r="L76" s="9"/>
     </row>
-    <row r="78" spans="2:12" ht="75" customHeight="1">
+    <row r="78" spans="2:12" ht="75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B78" s="48"/>
       <c r="C78" s="49"/>
       <c r="D78" s="49"/>
@@ -3771,7 +3816,7 @@
       <c r="L78" s="35"/>
     </row>
   </sheetData>
-  <autoFilter ref="C2:L76"/>
+  <autoFilter ref="C2:L76" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <sortState ref="B3:I41">
     <sortCondition ref="B3"/>
   </sortState>
@@ -3783,70 +3828,71 @@
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J76">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J76" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"H5页面制作,页面跳转修改,页面修改,H5整站制作,PC制作&amp;折成3个H5页面"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J75">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J75" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"H5页面制作,页面跳转修改,页面修改,H5整站制作,PC制作&amp;折成3个H5页面,跳转设置,摘包"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="K4" r:id="rId1" tooltip="https://xhbup.com/sgxcmy/"/>
-    <hyperlink ref="K5" r:id="rId2" tooltip="https://xhbup.com/qb/"/>
-    <hyperlink ref="K6" r:id="rId3"/>
-    <hyperlink ref="K8" r:id="rId4" tooltip="https://xhbup.com/quban"/>
-    <hyperlink ref="K9" r:id="rId5" tooltip="https://www.xhbup.com/gdkpdz/"/>
-    <hyperlink ref="K10" r:id="rId6"/>
-    <hyperlink ref="K12" r:id="rId7" tooltip="https://xhbup.com/maokong/"/>
-    <hyperlink ref="K13" r:id="rId8" tooltip="https://xhbup.com/quban1/"/>
-    <hyperlink ref="K14" r:id="rId9" tooltip="https://xhbup.com/quban2/"/>
-    <hyperlink ref="K15" r:id="rId10" tooltip="https://xhbup.com/huchou/"/>
-    <hyperlink ref="K16" r:id="rId11" tooltip="https://xhbup.com/huchou1/"/>
-    <hyperlink ref="K17" r:id="rId12" tooltip="https://xhbup.com/qhxs/"/>
-    <hyperlink ref="K18" r:id="rId13" tooltip="https://xhbup.com/feicui/"/>
-    <hyperlink ref="K19" r:id="rId14" tooltip="https://xhbup.com/yfmmwljs/tg/"/>
-    <hyperlink ref="K20" r:id="rId15" tooltip="https://xhbup.com/xiyou/"/>
-    <hyperlink ref="K21" r:id="rId16"/>
-    <hyperlink ref="K22" r:id="rId17" tooltip="https://xhbup.com/hdmp/"/>
-    <hyperlink ref="K23" r:id="rId18" tooltip="https://xhbup.com/fds/"/>
-    <hyperlink ref="K24" r:id="rId19" tooltip="https://xhbup.com/fanlv/https://xhbup.com/fanlv/"/>
-    <hyperlink ref="K25" r:id="rId20"/>
-    <hyperlink ref="K26" r:id="rId21" tooltip="https://xhbup.com/danke/"/>
-    <hyperlink ref="K27" r:id="rId22" tooltip="https://xhbup.com/sendu/"/>
-    <hyperlink ref="K28" r:id="rId23" tooltip="https://www.xhbup.com/wcwl/"/>
-    <hyperlink ref="K29" r:id="rId24"/>
-    <hyperlink ref="K30" r:id="rId25" tooltip="https://www.xhbup.com/jianfu/"/>
-    <hyperlink ref="K31" r:id="rId26" tooltip="https://www.xhbup.com/yixing/"/>
-    <hyperlink ref="K32" r:id="rId27" tooltip="https://xhbup.com/quban1/"/>
-    <hyperlink ref="K33" r:id="rId28" tooltip="https://xhbup.com/quban1/"/>
-    <hyperlink ref="K34" r:id="rId29" tooltip="https://xhbup.com/yfmmwljs/tg/"/>
-    <hyperlink ref="K35" r:id="rId30" tooltip="https://xhbup.com/yinxiuer/"/>
-    <hyperlink ref="K36" r:id="rId31" tooltip="https://xhbup.com/tingcai/"/>
-    <hyperlink ref="K37" r:id="rId32"/>
-    <hyperlink ref="K39" r:id="rId33"/>
-    <hyperlink ref="K40" r:id="rId34"/>
-    <hyperlink ref="K41" r:id="rId35" tooltip="https://xhbup.com/hylys/"/>
-    <hyperlink ref="K42" r:id="rId36" tooltip="https://xhbup.com/jzzkj2/tp/"/>
-    <hyperlink ref="K43" r:id="rId37" tooltip="https://xhbup.com/tiancheng/"/>
-    <hyperlink ref="K44" r:id="rId38"/>
-    <hyperlink ref="K45" r:id="rId39"/>
-    <hyperlink ref="K46" r:id="rId40"/>
-    <hyperlink ref="K47" r:id="rId41"/>
-    <hyperlink ref="K48" r:id="rId42"/>
-    <hyperlink ref="K49" r:id="rId43"/>
-    <hyperlink ref="K50" r:id="rId44"/>
-    <hyperlink ref="K51" r:id="rId45"/>
-    <hyperlink ref="K52" r:id="rId46"/>
-    <hyperlink ref="K53" r:id="rId47"/>
-    <hyperlink ref="K54" r:id="rId48"/>
-    <hyperlink ref="K55" r:id="rId49"/>
-    <hyperlink ref="K56" r:id="rId50"/>
-    <hyperlink ref="K57" r:id="rId51"/>
-    <hyperlink ref="K58" r:id="rId52"/>
-    <hyperlink ref="K59" r:id="rId53"/>
+    <hyperlink ref="K4" r:id="rId1" tooltip="https://xhbup.com/sgxcmy/" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="K5" r:id="rId2" tooltip="https://xhbup.com/qb/" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="K6" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="K8" r:id="rId4" tooltip="https://xhbup.com/quban" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="K9" r:id="rId5" tooltip="https://www.xhbup.com/gdkpdz/" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="K10" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="K12" r:id="rId7" tooltip="https://xhbup.com/maokong/" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="K13" r:id="rId8" tooltip="https://xhbup.com/quban1/" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="K14" r:id="rId9" tooltip="https://xhbup.com/quban2/" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="K15" r:id="rId10" tooltip="https://xhbup.com/huchou/" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="K16" r:id="rId11" tooltip="https://xhbup.com/huchou1/" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="K17" r:id="rId12" tooltip="https://xhbup.com/qhxs/" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="K18" r:id="rId13" tooltip="https://xhbup.com/feicui/" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="K19" r:id="rId14" tooltip="https://xhbup.com/yfmmwljs/tg/" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="K20" r:id="rId15" tooltip="https://xhbup.com/xiyou/" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="K21" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="K22" r:id="rId17" tooltip="https://xhbup.com/hdmp/" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="K23" r:id="rId18" tooltip="https://xhbup.com/fds/" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="K24" r:id="rId19" tooltip="https://xhbup.com/fanlv/https://xhbup.com/fanlv/" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="K25" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="K26" r:id="rId21" tooltip="https://xhbup.com/danke/" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="K27" r:id="rId22" tooltip="https://xhbup.com/sendu/" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="K28" r:id="rId23" tooltip="https://www.xhbup.com/wcwl/" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="K29" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="K30" r:id="rId25" tooltip="https://www.xhbup.com/jianfu/" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="K31" r:id="rId26" tooltip="https://www.xhbup.com/yixing/" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="K32" r:id="rId27" tooltip="https://xhbup.com/quban1/" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="K33" r:id="rId28" tooltip="https://xhbup.com/quban1/" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="K34" r:id="rId29" tooltip="https://xhbup.com/yfmmwljs/tg/" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="K35" r:id="rId30" tooltip="https://xhbup.com/yinxiuer/" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="K36" r:id="rId31" tooltip="https://xhbup.com/tingcai/" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="K37" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="K39" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="K40" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="K41" r:id="rId35" tooltip="https://xhbup.com/hylys/" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="K42" r:id="rId36" tooltip="https://xhbup.com/jzzkj2/tp/" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="K43" r:id="rId37" tooltip="https://xhbup.com/tiancheng/" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="K44" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="K45" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="K46" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="K47" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="K48" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="K49" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="K50" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="K51" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="K52" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="K53" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="K54" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="K55" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="K56" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="K57" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="K58" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="K59" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="K61" r:id="rId54" xr:uid="{88D1802A-C552-4B4E-A015-9E3EC7903984}"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId54"/>
-  <drawing r:id="rId55"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId55"/>
+  <drawing r:id="rId56"/>
 </worksheet>
 </file>
--- a/业务线技术支持登记表格式.xlsx
+++ b/业务线技术支持登记表格式.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\phpStudy\WWW\myWork\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A054583C-5496-46E8-A88F-5BF562B2CBD1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,12 +12,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$2:$L$76</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="199">
   <si>
     <t>业务线支持登记表</t>
   </si>
@@ -632,15 +626,49 @@
     <t>广州礼顺堂医药科技有限公司</t>
   </si>
   <si>
+    <t>执象广告（上海）有限公司</t>
+  </si>
+  <si>
+    <t>广州市花都万穗小额贷款股份有限公司</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/hdws1/
+https://xhbup.com/hdws2/
+https://xhbup.com/hdws3/
+https://xhbup.com/hdws4/ 
+https://xhbup.com/hdws5/
+https://xhbup.com/hdws6/
+https://xhbup.com/hdws7/
+https://xhbup.com/hdws8/
+https://xhbup.com/hdws9/
+https://xhbup.com/hdws10/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>贷款</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>阳春市七众网络科技有限公司</t>
+  </si>
+  <si>
+    <t>阅读</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
     <t>https://xhbup.com/gzlstyy/tg/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/qizhong/</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -980,7 +1008,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1132,6 +1160,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1180,7 +1214,7 @@
         <xdr:cNvPr id="6" name="图片 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1192,7 +1226,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1501,17 +1535,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:Q78"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="F51" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="F60" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K61" sqref="K61"/>
+      <selection pane="bottomRight" activeCell="L63" sqref="L63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="1.25" style="3" customWidth="1"/>
     <col min="2" max="2" width="7" style="3" customWidth="1"/>
@@ -1532,7 +1566,7 @@
     <col min="21" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" s="1" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:17" s="1" customFormat="1" ht="46.5" customHeight="1">
       <c r="C1" s="44" t="s">
         <v>0</v>
       </c>
@@ -1552,7 +1586,7 @@
       <c r="P1" s="45"/>
       <c r="Q1" s="45"/>
     </row>
-    <row r="2" spans="2:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:17" ht="21.75" customHeight="1">
       <c r="B2" s="8" t="s">
         <v>2</v>
       </c>
@@ -1599,7 +1633,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="2:17" ht="33" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:17" ht="33">
       <c r="B3" s="9">
         <v>1</v>
       </c>
@@ -1643,7 +1677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:17" ht="21.75" customHeight="1">
       <c r="B4" s="9">
         <v>5</v>
       </c>
@@ -1693,7 +1727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:17" ht="21.75" customHeight="1">
       <c r="B5" s="9">
         <v>6</v>
       </c>
@@ -1728,7 +1762,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="2:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:17" ht="21.75" customHeight="1">
       <c r="B6" s="9"/>
       <c r="C6" s="10">
         <v>43570</v>
@@ -1761,7 +1795,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="2:17" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:17" ht="39.75" customHeight="1">
       <c r="B7" s="9"/>
       <c r="C7" s="10">
         <v>43570</v>
@@ -1794,7 +1828,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="2:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:17" ht="21.75" customHeight="1">
       <c r="B8" s="9"/>
       <c r="C8" s="10">
         <v>43570</v>
@@ -1827,7 +1861,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="2:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:17" ht="21.75" customHeight="1">
       <c r="B9" s="9"/>
       <c r="C9" s="10">
         <v>43570</v>
@@ -1860,7 +1894,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="2:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:17" ht="21.75" customHeight="1">
       <c r="B10" s="9"/>
       <c r="C10" s="10">
         <v>43570</v>
@@ -1893,7 +1927,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="2:17" ht="87" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:17" ht="87" customHeight="1">
       <c r="B11" s="9"/>
       <c r="C11" s="10">
         <v>43570</v>
@@ -1926,7 +1960,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="2:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:17" ht="21.75" customHeight="1">
       <c r="B12" s="9"/>
       <c r="C12" s="10">
         <v>43570</v>
@@ -1959,7 +1993,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="2:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:17" ht="21.75" customHeight="1">
       <c r="B13" s="9"/>
       <c r="C13" s="10">
         <v>43570</v>
@@ -1992,7 +2026,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="2:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:17" ht="21.75" customHeight="1">
       <c r="B14" s="9"/>
       <c r="C14" s="10">
         <v>43570</v>
@@ -2025,7 +2059,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="2:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:17" ht="21.75" customHeight="1">
       <c r="B15" s="9"/>
       <c r="C15" s="10">
         <v>43570</v>
@@ -2058,7 +2092,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="2:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:17" ht="21.75" customHeight="1">
       <c r="B16" s="9"/>
       <c r="C16" s="10">
         <v>43570</v>
@@ -2091,7 +2125,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:12" ht="21.75" customHeight="1">
       <c r="B17" s="9"/>
       <c r="C17" s="10">
         <v>43570</v>
@@ -2124,7 +2158,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:12" ht="21.75" customHeight="1">
       <c r="B18" s="9"/>
       <c r="C18" s="10">
         <v>43571</v>
@@ -2157,7 +2191,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:12" ht="21.75" customHeight="1">
       <c r="B19" s="9"/>
       <c r="C19" s="10">
         <v>43571</v>
@@ -2190,7 +2224,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:12" ht="21.75" customHeight="1">
       <c r="B20" s="9"/>
       <c r="C20" s="10">
         <v>43571</v>
@@ -2223,7 +2257,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:12" ht="21.75" customHeight="1">
       <c r="B21" s="9"/>
       <c r="C21" s="10">
         <v>43571</v>
@@ -2256,7 +2290,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:12" ht="21.75" customHeight="1">
       <c r="B22" s="9"/>
       <c r="C22" s="10">
         <v>43571</v>
@@ -2289,7 +2323,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:12" ht="21.75" customHeight="1">
       <c r="B23" s="9"/>
       <c r="C23" s="10">
         <v>43571</v>
@@ -2322,7 +2356,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="2:12" ht="42.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:12" ht="42.95" customHeight="1">
       <c r="B24" s="9"/>
       <c r="C24" s="10">
         <v>43571</v>
@@ -2355,7 +2389,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:12" ht="21.75" customHeight="1">
       <c r="B25" s="9"/>
       <c r="C25" s="10">
         <v>43571</v>
@@ -2388,7 +2422,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:12" ht="21.75" customHeight="1">
       <c r="B26" s="9"/>
       <c r="C26" s="10">
         <v>43571</v>
@@ -2421,7 +2455,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:12" ht="21.75" customHeight="1">
       <c r="B27" s="9"/>
       <c r="C27" s="10">
         <v>43571</v>
@@ -2454,7 +2488,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:12" ht="21.75" customHeight="1">
       <c r="B28" s="9"/>
       <c r="C28" s="10">
         <v>43571</v>
@@ -2487,7 +2521,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:12" ht="21.75" customHeight="1">
       <c r="B29" s="9">
         <v>78</v>
       </c>
@@ -2522,7 +2556,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:12" ht="21.75" customHeight="1">
       <c r="B30" s="14"/>
       <c r="C30" s="10">
         <v>43571</v>
@@ -2555,7 +2589,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:12" ht="21.75" customHeight="1">
       <c r="B31" s="9">
         <v>79</v>
       </c>
@@ -2590,7 +2624,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:12" ht="21.75" customHeight="1">
       <c r="B32" s="9">
         <v>80</v>
       </c>
@@ -2625,7 +2659,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:12" ht="21.75" customHeight="1">
       <c r="B33" s="9">
         <v>81</v>
       </c>
@@ -2660,7 +2694,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:12" ht="21.75" customHeight="1">
       <c r="B34" s="9">
         <v>82</v>
       </c>
@@ -2695,7 +2729,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:12" ht="21.75" customHeight="1">
       <c r="B35" s="9">
         <v>83</v>
       </c>
@@ -2730,7 +2764,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:12" ht="21.75" customHeight="1">
       <c r="B36" s="9">
         <v>84</v>
       </c>
@@ -2765,7 +2799,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:12" ht="21.75" customHeight="1">
       <c r="B37" s="9">
         <v>85</v>
       </c>
@@ -2800,7 +2834,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:12" ht="21.75" customHeight="1">
       <c r="B38" s="9">
         <v>86</v>
       </c>
@@ -2835,7 +2869,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:12" ht="21.75" customHeight="1">
       <c r="B39" s="9">
         <v>87</v>
       </c>
@@ -2870,7 +2904,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B40" s="9">
         <v>88</v>
       </c>
@@ -2905,7 +2939,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B41" s="9">
         <v>89</v>
       </c>
@@ -2940,7 +2974,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B42" s="9">
         <v>90</v>
       </c>
@@ -2975,7 +3009,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="43" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B43" s="14"/>
       <c r="C43" s="10">
         <v>43572</v>
@@ -3008,7 +3042,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:12" ht="21.75" customHeight="1">
       <c r="B44" s="14"/>
       <c r="C44" s="10">
         <v>43572</v>
@@ -3041,7 +3075,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="45" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B45" s="14"/>
       <c r="C45" s="10">
         <v>43572</v>
@@ -3074,7 +3108,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B46" s="14"/>
       <c r="C46" s="10">
         <v>43572</v>
@@ -3107,7 +3141,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:12" ht="21.75" customHeight="1">
       <c r="B47" s="14"/>
       <c r="C47" s="10">
         <v>43572</v>
@@ -3140,7 +3174,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:12" ht="21.75" customHeight="1">
       <c r="B48" s="14"/>
       <c r="C48" s="10">
         <v>43572</v>
@@ -3173,7 +3207,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="49" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:12" ht="21.75" customHeight="1">
       <c r="B49" s="14"/>
       <c r="C49" s="10">
         <v>43573</v>
@@ -3206,7 +3240,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="50" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:12" ht="21.75" customHeight="1">
       <c r="B50" s="14"/>
       <c r="C50" s="10">
         <v>43573</v>
@@ -3239,7 +3273,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B51" s="14"/>
       <c r="C51" s="10">
         <v>43573</v>
@@ -3272,7 +3306,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="52" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B52" s="14"/>
       <c r="C52" s="10">
         <v>43573</v>
@@ -3305,7 +3339,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="53" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B53" s="14"/>
       <c r="C53" s="10">
         <v>43573</v>
@@ -3338,7 +3372,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="54" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B54" s="14"/>
       <c r="C54" s="10">
         <v>43573</v>
@@ -3371,7 +3405,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="55" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B55" s="14"/>
       <c r="C55" s="10">
         <v>43573</v>
@@ -3404,7 +3438,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="56" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B56" s="14"/>
       <c r="C56" s="10">
         <v>43573</v>
@@ -3437,7 +3471,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="57" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B57" s="14"/>
       <c r="C57" s="10">
         <v>43573</v>
@@ -3470,7 +3504,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="58" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B58" s="14"/>
       <c r="C58" s="10">
         <v>43573</v>
@@ -3503,7 +3537,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="59" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B59" s="14"/>
       <c r="C59" s="10">
         <v>43573</v>
@@ -3536,7 +3570,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="60" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B60" s="14"/>
       <c r="C60" s="10">
         <v>43573</v>
@@ -3569,7 +3603,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="61" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B61" s="14"/>
       <c r="C61" s="10">
         <v>43573</v>
@@ -3595,40 +3629,78 @@
       <c r="J61" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="K61" s="9" t="s">
+      <c r="K61" s="40" t="s">
+        <v>197</v>
+      </c>
+      <c r="L61" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="62" spans="2:12" s="2" customFormat="1" ht="172.5" customHeight="1">
+      <c r="B62" s="14"/>
+      <c r="C62" s="10">
+        <v>43574</v>
+      </c>
+      <c r="D62" t="s">
         <v>191</v>
       </c>
-      <c r="L61" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="62" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B62" s="14"/>
-      <c r="C62" s="22"/>
-      <c r="D62" s="21"/>
-      <c r="E62" s="21"/>
-      <c r="F62" s="37"/>
-      <c r="G62" s="9"/>
-      <c r="H62" s="9"/>
-      <c r="I62" s="21"/>
-      <c r="J62" s="9"/>
-      <c r="K62" s="41"/>
-      <c r="L62" s="9"/>
-    </row>
-    <row r="63" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E62" t="s">
+        <v>192</v>
+      </c>
+      <c r="F62" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="G62" s="9">
+        <v>10</v>
+      </c>
+      <c r="H62" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I62" t="s">
+        <v>59</v>
+      </c>
+      <c r="J62" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="K62" s="51" t="s">
+        <v>193</v>
+      </c>
+      <c r="L62" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="63" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B63" s="14"/>
-      <c r="C63" s="22"/>
-      <c r="D63" s="21"/>
-      <c r="E63" s="21"/>
-      <c r="F63" s="37"/>
-      <c r="G63" s="9"/>
-      <c r="H63" s="9"/>
-      <c r="I63" s="21"/>
-      <c r="J63" s="9"/>
-      <c r="K63" s="41"/>
+      <c r="C63" s="10">
+        <v>43574</v>
+      </c>
+      <c r="D63" t="s">
+        <v>102</v>
+      </c>
+      <c r="E63" t="s">
+        <v>195</v>
+      </c>
+      <c r="F63" s="37" t="s">
+        <v>196</v>
+      </c>
+      <c r="G63" s="9">
+        <v>1</v>
+      </c>
+      <c r="H63" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I63" t="s">
+        <v>105</v>
+      </c>
+      <c r="J63" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="K63" s="52" t="s">
+        <v>198</v>
+      </c>
       <c r="L63" s="9"/>
     </row>
-    <row r="64" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B64" s="14"/>
       <c r="C64" s="22"/>
       <c r="D64" s="21"/>
@@ -3641,7 +3713,7 @@
       <c r="K64" s="41"/>
       <c r="L64" s="9"/>
     </row>
-    <row r="65" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B65" s="14"/>
       <c r="C65" s="22"/>
       <c r="D65" s="21"/>
@@ -3654,7 +3726,7 @@
       <c r="K65" s="41"/>
       <c r="L65" s="9"/>
     </row>
-    <row r="66" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B66" s="14"/>
       <c r="C66" s="22"/>
       <c r="D66" s="21"/>
@@ -3667,7 +3739,7 @@
       <c r="K66" s="41"/>
       <c r="L66" s="9"/>
     </row>
-    <row r="67" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B67" s="14"/>
       <c r="C67" s="22"/>
       <c r="D67" s="21"/>
@@ -3680,7 +3752,7 @@
       <c r="K67" s="41"/>
       <c r="L67" s="9"/>
     </row>
-    <row r="68" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B68" s="14"/>
       <c r="C68" s="22"/>
       <c r="D68" s="21"/>
@@ -3693,7 +3765,7 @@
       <c r="K68" s="41"/>
       <c r="L68" s="9"/>
     </row>
-    <row r="69" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B69" s="14"/>
       <c r="C69" s="22"/>
       <c r="D69" s="21"/>
@@ -3706,7 +3778,7 @@
       <c r="K69" s="41"/>
       <c r="L69" s="9"/>
     </row>
-    <row r="70" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B70" s="14"/>
       <c r="C70" s="22"/>
       <c r="D70" s="21"/>
@@ -3719,7 +3791,7 @@
       <c r="K70" s="41"/>
       <c r="L70" s="9"/>
     </row>
-    <row r="71" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B71" s="14"/>
       <c r="C71" s="22"/>
       <c r="D71" s="21"/>
@@ -3732,7 +3804,7 @@
       <c r="K71" s="41"/>
       <c r="L71" s="9"/>
     </row>
-    <row r="72" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B72" s="14"/>
       <c r="C72" s="22"/>
       <c r="D72" s="21"/>
@@ -3745,7 +3817,7 @@
       <c r="K72" s="41"/>
       <c r="L72" s="9"/>
     </row>
-    <row r="73" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B73" s="14"/>
       <c r="C73" s="22"/>
       <c r="D73" s="21"/>
@@ -3758,7 +3830,7 @@
       <c r="K73" s="21"/>
       <c r="L73" s="9"/>
     </row>
-    <row r="74" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B74" s="14"/>
       <c r="C74" s="22"/>
       <c r="D74" s="21"/>
@@ -3771,7 +3843,7 @@
       <c r="K74" s="21"/>
       <c r="L74" s="9"/>
     </row>
-    <row r="75" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B75" s="14"/>
       <c r="C75" s="22"/>
       <c r="D75" s="21"/>
@@ -3784,7 +3856,7 @@
       <c r="K75" s="21"/>
       <c r="L75" s="9"/>
     </row>
-    <row r="76" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="2:12" ht="21.75" customHeight="1">
       <c r="B76" s="46" t="s">
         <v>15</v>
       </c>
@@ -3802,7 +3874,7 @@
       <c r="K76" s="33"/>
       <c r="L76" s="9"/>
     </row>
-    <row r="78" spans="2:12" ht="75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="2:12" ht="75" customHeight="1">
       <c r="B78" s="48"/>
       <c r="C78" s="49"/>
       <c r="D78" s="49"/>
@@ -3816,7 +3888,7 @@
       <c r="L78" s="35"/>
     </row>
   </sheetData>
-  <autoFilter ref="C2:L76" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="C2:L76"/>
   <sortState ref="B3:I41">
     <sortCondition ref="B3"/>
   </sortState>
@@ -3828,71 +3900,73 @@
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J76" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J76">
       <formula1>"H5页面制作,页面跳转修改,页面修改,H5整站制作,PC制作&amp;折成3个H5页面"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J75" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J75">
       <formula1>"H5页面制作,页面跳转修改,页面修改,H5整站制作,PC制作&amp;折成3个H5页面,跳转设置,摘包"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="K4" r:id="rId1" tooltip="https://xhbup.com/sgxcmy/" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="K5" r:id="rId2" tooltip="https://xhbup.com/qb/" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="K6" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="K8" r:id="rId4" tooltip="https://xhbup.com/quban" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="K9" r:id="rId5" tooltip="https://www.xhbup.com/gdkpdz/" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="K10" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="K12" r:id="rId7" tooltip="https://xhbup.com/maokong/" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="K13" r:id="rId8" tooltip="https://xhbup.com/quban1/" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="K14" r:id="rId9" tooltip="https://xhbup.com/quban2/" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="K15" r:id="rId10" tooltip="https://xhbup.com/huchou/" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="K16" r:id="rId11" tooltip="https://xhbup.com/huchou1/" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="K17" r:id="rId12" tooltip="https://xhbup.com/qhxs/" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="K18" r:id="rId13" tooltip="https://xhbup.com/feicui/" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="K19" r:id="rId14" tooltip="https://xhbup.com/yfmmwljs/tg/" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="K20" r:id="rId15" tooltip="https://xhbup.com/xiyou/" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="K21" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="K22" r:id="rId17" tooltip="https://xhbup.com/hdmp/" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="K23" r:id="rId18" tooltip="https://xhbup.com/fds/" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="K24" r:id="rId19" tooltip="https://xhbup.com/fanlv/https://xhbup.com/fanlv/" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="K25" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="K26" r:id="rId21" tooltip="https://xhbup.com/danke/" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="K27" r:id="rId22" tooltip="https://xhbup.com/sendu/" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="K28" r:id="rId23" tooltip="https://www.xhbup.com/wcwl/" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="K29" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="K30" r:id="rId25" tooltip="https://www.xhbup.com/jianfu/" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="K31" r:id="rId26" tooltip="https://www.xhbup.com/yixing/" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="K32" r:id="rId27" tooltip="https://xhbup.com/quban1/" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="K33" r:id="rId28" tooltip="https://xhbup.com/quban1/" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="K34" r:id="rId29" tooltip="https://xhbup.com/yfmmwljs/tg/" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="K35" r:id="rId30" tooltip="https://xhbup.com/yinxiuer/" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="K36" r:id="rId31" tooltip="https://xhbup.com/tingcai/" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="K37" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="K39" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="K40" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="K41" r:id="rId35" tooltip="https://xhbup.com/hylys/" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="K42" r:id="rId36" tooltip="https://xhbup.com/jzzkj2/tp/" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="K43" r:id="rId37" tooltip="https://xhbup.com/tiancheng/" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="K44" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="K45" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="K46" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="K47" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="K48" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="K49" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="K50" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="K51" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="K52" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="K53" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="K54" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="K55" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="K56" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="K57" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="K58" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="K59" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="K61" r:id="rId54" xr:uid="{88D1802A-C552-4B4E-A015-9E3EC7903984}"/>
+    <hyperlink ref="K4" r:id="rId1" tooltip="https://xhbup.com/sgxcmy/"/>
+    <hyperlink ref="K5" r:id="rId2" tooltip="https://xhbup.com/qb/"/>
+    <hyperlink ref="K6" r:id="rId3"/>
+    <hyperlink ref="K8" r:id="rId4" tooltip="https://xhbup.com/quban"/>
+    <hyperlink ref="K9" r:id="rId5" tooltip="https://www.xhbup.com/gdkpdz/"/>
+    <hyperlink ref="K10" r:id="rId6"/>
+    <hyperlink ref="K12" r:id="rId7" tooltip="https://xhbup.com/maokong/"/>
+    <hyperlink ref="K13" r:id="rId8" tooltip="https://xhbup.com/quban1/"/>
+    <hyperlink ref="K14" r:id="rId9" tooltip="https://xhbup.com/quban2/"/>
+    <hyperlink ref="K15" r:id="rId10" tooltip="https://xhbup.com/huchou/"/>
+    <hyperlink ref="K16" r:id="rId11" tooltip="https://xhbup.com/huchou1/"/>
+    <hyperlink ref="K17" r:id="rId12" tooltip="https://xhbup.com/qhxs/"/>
+    <hyperlink ref="K18" r:id="rId13" tooltip="https://xhbup.com/feicui/"/>
+    <hyperlink ref="K19" r:id="rId14" tooltip="https://xhbup.com/yfmmwljs/tg/"/>
+    <hyperlink ref="K20" r:id="rId15" tooltip="https://xhbup.com/xiyou/"/>
+    <hyperlink ref="K21" r:id="rId16"/>
+    <hyperlink ref="K22" r:id="rId17" tooltip="https://xhbup.com/hdmp/"/>
+    <hyperlink ref="K23" r:id="rId18" tooltip="https://xhbup.com/fds/"/>
+    <hyperlink ref="K24" r:id="rId19" tooltip="https://xhbup.com/fanlv/https://xhbup.com/fanlv/"/>
+    <hyperlink ref="K25" r:id="rId20"/>
+    <hyperlink ref="K26" r:id="rId21" tooltip="https://xhbup.com/danke/"/>
+    <hyperlink ref="K27" r:id="rId22" tooltip="https://xhbup.com/sendu/"/>
+    <hyperlink ref="K28" r:id="rId23" tooltip="https://www.xhbup.com/wcwl/"/>
+    <hyperlink ref="K29" r:id="rId24"/>
+    <hyperlink ref="K30" r:id="rId25" tooltip="https://www.xhbup.com/jianfu/"/>
+    <hyperlink ref="K31" r:id="rId26" tooltip="https://www.xhbup.com/yixing/"/>
+    <hyperlink ref="K32" r:id="rId27" tooltip="https://xhbup.com/quban1/"/>
+    <hyperlink ref="K33" r:id="rId28" tooltip="https://xhbup.com/quban1/"/>
+    <hyperlink ref="K34" r:id="rId29" tooltip="https://xhbup.com/yfmmwljs/tg/"/>
+    <hyperlink ref="K35" r:id="rId30" tooltip="https://xhbup.com/yinxiuer/"/>
+    <hyperlink ref="K36" r:id="rId31" tooltip="https://xhbup.com/tingcai/"/>
+    <hyperlink ref="K37" r:id="rId32"/>
+    <hyperlink ref="K39" r:id="rId33"/>
+    <hyperlink ref="K40" r:id="rId34"/>
+    <hyperlink ref="K41" r:id="rId35" tooltip="https://xhbup.com/hylys/"/>
+    <hyperlink ref="K42" r:id="rId36" tooltip="https://xhbup.com/jzzkj2/tp/"/>
+    <hyperlink ref="K43" r:id="rId37" tooltip="https://xhbup.com/tiancheng/"/>
+    <hyperlink ref="K44" r:id="rId38"/>
+    <hyperlink ref="K45" r:id="rId39"/>
+    <hyperlink ref="K46" r:id="rId40"/>
+    <hyperlink ref="K47" r:id="rId41"/>
+    <hyperlink ref="K48" r:id="rId42"/>
+    <hyperlink ref="K49" r:id="rId43"/>
+    <hyperlink ref="K50" r:id="rId44"/>
+    <hyperlink ref="K51" r:id="rId45"/>
+    <hyperlink ref="K52" r:id="rId46"/>
+    <hyperlink ref="K53" r:id="rId47"/>
+    <hyperlink ref="K54" r:id="rId48"/>
+    <hyperlink ref="K55" r:id="rId49"/>
+    <hyperlink ref="K56" r:id="rId50"/>
+    <hyperlink ref="K57" r:id="rId51"/>
+    <hyperlink ref="K58" r:id="rId52"/>
+    <hyperlink ref="K59" r:id="rId53"/>
+    <hyperlink ref="K61" r:id="rId54"/>
+    <hyperlink ref="K62" r:id="rId55" display="https://xhbup.com/hdws1/"/>
+    <hyperlink ref="K63" r:id="rId56"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId55"/>
-  <drawing r:id="rId56"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId57"/>
+  <drawing r:id="rId58"/>
 </worksheet>
 </file>
--- a/业务线技术支持登记表格式.xlsx
+++ b/业务线技术支持登记表格式.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="201">
   <si>
     <t>业务线支持登记表</t>
   </si>
@@ -662,6 +662,13 @@
   <si>
     <t>https://xhbup.com/qizhong/</t>
     <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>祛斑</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.xhbup.com/kehong1/</t>
   </si>
 </sst>
 </file>
@@ -1542,7 +1549,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="F60" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L63" sqref="L63"/>
+      <selection pane="bottomRight" activeCell="L62" sqref="L62:L64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -3698,20 +3705,42 @@
       <c r="K63" s="52" t="s">
         <v>198</v>
       </c>
-      <c r="L63" s="9"/>
+      <c r="L63" s="9" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="64" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B64" s="14"/>
-      <c r="C64" s="22"/>
-      <c r="D64" s="21"/>
-      <c r="E64" s="21"/>
-      <c r="F64" s="37"/>
-      <c r="G64" s="9"/>
-      <c r="H64" s="9"/>
-      <c r="I64" s="21"/>
-      <c r="J64" s="9"/>
-      <c r="K64" s="41"/>
-      <c r="L64" s="9"/>
+      <c r="C64" s="10">
+        <v>43574</v>
+      </c>
+      <c r="D64" t="s">
+        <v>28</v>
+      </c>
+      <c r="E64" t="s">
+        <v>34</v>
+      </c>
+      <c r="F64" s="37" t="s">
+        <v>199</v>
+      </c>
+      <c r="G64" s="9">
+        <v>1</v>
+      </c>
+      <c r="H64" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I64" t="s">
+        <v>20</v>
+      </c>
+      <c r="J64" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="K64" t="s">
+        <v>200</v>
+      </c>
+      <c r="L64" s="9" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="65" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B65" s="14"/>

--- a/业务线技术支持登记表格式.xlsx
+++ b/业务线技术支持登记表格式.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="205">
   <si>
     <t>业务线支持登记表</t>
   </si>
@@ -668,7 +668,22 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
+    <t>执象(上海)有限公司</t>
+  </si>
+  <si>
+    <t>佛山市雷米高动物营养保健科技有限公司</t>
+  </si>
+  <si>
+    <t>犬粮</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
     <t>https://www.xhbup.com/kehong1/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.xhbup.com/leimigao/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1015,7 +1030,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1148,6 +1163,12 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1169,11 +1190,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1221,7 +1239,7 @@
         <xdr:cNvPr id="6" name="图片 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1233,7 +1251,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1546,10 +1564,10 @@
   <dimension ref="B1:Q78"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="F60" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="F66" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L62" sqref="L62:L64"/>
+      <selection pane="bottomRight" activeCell="K71" sqref="K71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1574,24 +1592,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:17" s="1" customFormat="1" ht="46.5" customHeight="1">
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
       <c r="K1" s="25"/>
       <c r="L1" s="7"/>
-      <c r="N1" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
-      <c r="Q1" s="45"/>
+      <c r="N1" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
     </row>
     <row r="2" spans="2:17" ht="21.75" customHeight="1">
       <c r="B2" s="8" t="s">
@@ -3663,13 +3681,13 @@
       <c r="H62" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I62" t="s">
+      <c r="I62" s="21" t="s">
         <v>59</v>
       </c>
       <c r="J62" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="K62" s="51" t="s">
+      <c r="K62" s="44" t="s">
         <v>193</v>
       </c>
       <c r="L62" s="9" t="s">
@@ -3681,7 +3699,7 @@
       <c r="C63" s="10">
         <v>43574</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D63" s="21" t="s">
         <v>102</v>
       </c>
       <c r="E63" t="s">
@@ -3696,13 +3714,13 @@
       <c r="H63" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I63" t="s">
+      <c r="I63" s="21" t="s">
         <v>105</v>
       </c>
       <c r="J63" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="K63" s="52" t="s">
+      <c r="K63" s="45" t="s">
         <v>198</v>
       </c>
       <c r="L63" s="9" t="s">
@@ -3714,7 +3732,7 @@
       <c r="C64" s="10">
         <v>43574</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D64" s="21" t="s">
         <v>28</v>
       </c>
       <c r="E64" t="s">
@@ -3729,14 +3747,14 @@
       <c r="H64" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I64" t="s">
+      <c r="I64" s="21" t="s">
         <v>20</v>
       </c>
       <c r="J64" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="K64" t="s">
-        <v>200</v>
+      <c r="K64" s="53" t="s">
+        <v>203</v>
       </c>
       <c r="L64" s="9" t="s">
         <v>23</v>
@@ -3744,15 +3762,33 @@
     </row>
     <row r="65" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B65" s="14"/>
-      <c r="C65" s="22"/>
-      <c r="D65" s="21"/>
-      <c r="E65" s="21"/>
-      <c r="F65" s="37"/>
-      <c r="G65" s="9"/>
-      <c r="H65" s="9"/>
-      <c r="I65" s="21"/>
-      <c r="J65" s="9"/>
-      <c r="K65" s="41"/>
+      <c r="C65" s="10">
+        <v>43574</v>
+      </c>
+      <c r="D65" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="E65" s="21" t="s">
+        <v>201</v>
+      </c>
+      <c r="F65" s="37" t="s">
+        <v>202</v>
+      </c>
+      <c r="G65" s="9">
+        <v>1</v>
+      </c>
+      <c r="H65" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I65" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="J65" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="K65" s="45" t="s">
+        <v>204</v>
+      </c>
       <c r="L65" s="9"/>
     </row>
     <row r="66" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
@@ -3886,10 +3922,10 @@
       <c r="L75" s="9"/>
     </row>
     <row r="76" spans="2:12" ht="21.75" customHeight="1">
-      <c r="B76" s="46" t="s">
+      <c r="B76" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="C76" s="47"/>
+      <c r="C76" s="49"/>
       <c r="D76" s="23"/>
       <c r="E76" s="23"/>
       <c r="F76" s="24"/>
@@ -3904,15 +3940,15 @@
       <c r="L76" s="9"/>
     </row>
     <row r="78" spans="2:12" ht="75" customHeight="1">
-      <c r="B78" s="48"/>
-      <c r="C78" s="49"/>
-      <c r="D78" s="49"/>
-      <c r="E78" s="49"/>
-      <c r="F78" s="49"/>
-      <c r="G78" s="49"/>
-      <c r="H78" s="49"/>
-      <c r="I78" s="49"/>
-      <c r="J78" s="50"/>
+      <c r="B78" s="50"/>
+      <c r="C78" s="51"/>
+      <c r="D78" s="51"/>
+      <c r="E78" s="51"/>
+      <c r="F78" s="51"/>
+      <c r="G78" s="51"/>
+      <c r="H78" s="51"/>
+      <c r="I78" s="51"/>
+      <c r="J78" s="52"/>
       <c r="K78" s="34"/>
       <c r="L78" s="35"/>
     </row>
@@ -3993,9 +4029,11 @@
     <hyperlink ref="K61" r:id="rId54"/>
     <hyperlink ref="K62" r:id="rId55" display="https://xhbup.com/hdws1/"/>
     <hyperlink ref="K63" r:id="rId56"/>
+    <hyperlink ref="K64" r:id="rId57"/>
+    <hyperlink ref="K65" r:id="rId58"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId57"/>
-  <drawing r:id="rId58"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId59"/>
+  <drawing r:id="rId60"/>
 </worksheet>
 </file>
--- a/业务线技术支持登记表格式.xlsx
+++ b/业务线技术支持登记表格式.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21425"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\phpStudy\WWW\myWork\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBA5FDCF-663C-4C8F-A57B-2C278F070C91}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,12 +18,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$2:$L$76</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="211">
   <si>
     <t>业务线支持登记表</t>
   </si>
@@ -685,12 +691,46 @@
     <t>https://www.xhbup.com/leimigao/</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
+  <si>
+    <t>张纯</t>
+  </si>
+  <si>
+    <t>珠海熙岚春天化妆品有限公司</t>
+  </si>
+  <si>
+    <t>珠海市鑫瀚生物科技有限公司</t>
+  </si>
+  <si>
+    <t>祛斑</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/xilan/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>https://xhbup.com/xi</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>nhan/</t>
+    </r>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -828,6 +868,14 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1191,7 +1239,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1239,7 +1287,7 @@
         <xdr:cNvPr id="6" name="图片 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1251,7 +1299,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1560,17 +1608,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:Q78"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="F66" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="F61" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K71" sqref="K71"/>
+      <selection pane="bottomRight" activeCell="N62" sqref="N62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="1.25" style="3" customWidth="1"/>
     <col min="2" max="2" width="7" style="3" customWidth="1"/>
@@ -1591,7 +1639,7 @@
     <col min="21" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" s="1" customFormat="1" ht="46.5" customHeight="1">
+    <row r="1" spans="2:17" s="1" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C1" s="46" t="s">
         <v>0</v>
       </c>
@@ -1611,7 +1659,7 @@
       <c r="P1" s="47"/>
       <c r="Q1" s="47"/>
     </row>
-    <row r="2" spans="2:17" ht="21.75" customHeight="1">
+    <row r="2" spans="2:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="8" t="s">
         <v>2</v>
       </c>
@@ -1658,7 +1706,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="2:17" ht="33">
+    <row r="3" spans="2:17" ht="33" x14ac:dyDescent="0.15">
       <c r="B3" s="9">
         <v>1</v>
       </c>
@@ -1702,7 +1750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:17" ht="21.75" customHeight="1">
+    <row r="4" spans="2:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="9">
         <v>5</v>
       </c>
@@ -1752,7 +1800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:17" ht="21.75" customHeight="1">
+    <row r="5" spans="2:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="9">
         <v>6</v>
       </c>
@@ -1787,7 +1835,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="2:17" ht="21.75" customHeight="1">
+    <row r="6" spans="2:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="9"/>
       <c r="C6" s="10">
         <v>43570</v>
@@ -1820,7 +1868,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="2:17" ht="39.75" customHeight="1">
+    <row r="7" spans="2:17" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="9"/>
       <c r="C7" s="10">
         <v>43570</v>
@@ -1853,7 +1901,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="2:17" ht="21.75" customHeight="1">
+    <row r="8" spans="2:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="9"/>
       <c r="C8" s="10">
         <v>43570</v>
@@ -1886,7 +1934,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="2:17" ht="21.75" customHeight="1">
+    <row r="9" spans="2:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="9"/>
       <c r="C9" s="10">
         <v>43570</v>
@@ -1919,7 +1967,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="2:17" ht="21.75" customHeight="1">
+    <row r="10" spans="2:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="9"/>
       <c r="C10" s="10">
         <v>43570</v>
@@ -1952,7 +2000,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="2:17" ht="87" customHeight="1">
+    <row r="11" spans="2:17" ht="87" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="9"/>
       <c r="C11" s="10">
         <v>43570</v>
@@ -1985,7 +2033,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="2:17" ht="21.75" customHeight="1">
+    <row r="12" spans="2:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="9"/>
       <c r="C12" s="10">
         <v>43570</v>
@@ -2018,7 +2066,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="2:17" ht="21.75" customHeight="1">
+    <row r="13" spans="2:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="9"/>
       <c r="C13" s="10">
         <v>43570</v>
@@ -2051,7 +2099,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="2:17" ht="21.75" customHeight="1">
+    <row r="14" spans="2:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="9"/>
       <c r="C14" s="10">
         <v>43570</v>
@@ -2084,7 +2132,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="2:17" ht="21.75" customHeight="1">
+    <row r="15" spans="2:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="9"/>
       <c r="C15" s="10">
         <v>43570</v>
@@ -2117,7 +2165,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="2:17" ht="21.75" customHeight="1">
+    <row r="16" spans="2:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="9"/>
       <c r="C16" s="10">
         <v>43570</v>
@@ -2150,7 +2198,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="2:12" ht="21.75" customHeight="1">
+    <row r="17" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="9"/>
       <c r="C17" s="10">
         <v>43570</v>
@@ -2183,7 +2231,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="2:12" ht="21.75" customHeight="1">
+    <row r="18" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="9"/>
       <c r="C18" s="10">
         <v>43571</v>
@@ -2216,7 +2264,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="2:12" ht="21.75" customHeight="1">
+    <row r="19" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="9"/>
       <c r="C19" s="10">
         <v>43571</v>
@@ -2249,7 +2297,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="2:12" ht="21.75" customHeight="1">
+    <row r="20" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="9"/>
       <c r="C20" s="10">
         <v>43571</v>
@@ -2282,7 +2330,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="2:12" ht="21.75" customHeight="1">
+    <row r="21" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="9"/>
       <c r="C21" s="10">
         <v>43571</v>
@@ -2315,7 +2363,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="2:12" ht="21.75" customHeight="1">
+    <row r="22" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="9"/>
       <c r="C22" s="10">
         <v>43571</v>
@@ -2348,7 +2396,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="2:12" ht="21.75" customHeight="1">
+    <row r="23" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="9"/>
       <c r="C23" s="10">
         <v>43571</v>
@@ -2381,7 +2429,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="2:12" ht="42.95" customHeight="1">
+    <row r="24" spans="2:12" ht="42.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="9"/>
       <c r="C24" s="10">
         <v>43571</v>
@@ -2414,7 +2462,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="2:12" ht="21.75" customHeight="1">
+    <row r="25" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="9"/>
       <c r="C25" s="10">
         <v>43571</v>
@@ -2447,7 +2495,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="2:12" ht="21.75" customHeight="1">
+    <row r="26" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="9"/>
       <c r="C26" s="10">
         <v>43571</v>
@@ -2480,7 +2528,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="2:12" ht="21.75" customHeight="1">
+    <row r="27" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="9"/>
       <c r="C27" s="10">
         <v>43571</v>
@@ -2513,7 +2561,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="2:12" ht="21.75" customHeight="1">
+    <row r="28" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="9"/>
       <c r="C28" s="10">
         <v>43571</v>
@@ -2546,7 +2594,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="2:12" ht="21.75" customHeight="1">
+    <row r="29" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="9">
         <v>78</v>
       </c>
@@ -2581,7 +2629,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="2:12" ht="21.75" customHeight="1">
+    <row r="30" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="14"/>
       <c r="C30" s="10">
         <v>43571</v>
@@ -2614,7 +2662,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="2:12" ht="21.75" customHeight="1">
+    <row r="31" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="9">
         <v>79</v>
       </c>
@@ -2649,7 +2697,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="2:12" ht="21.75" customHeight="1">
+    <row r="32" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="9">
         <v>80</v>
       </c>
@@ -2684,7 +2732,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="2:12" ht="21.75" customHeight="1">
+    <row r="33" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="9">
         <v>81</v>
       </c>
@@ -2719,7 +2767,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="2:12" ht="21.75" customHeight="1">
+    <row r="34" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" s="9">
         <v>82</v>
       </c>
@@ -2754,7 +2802,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="2:12" ht="21.75" customHeight="1">
+    <row r="35" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B35" s="9">
         <v>83</v>
       </c>
@@ -2789,7 +2837,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="2:12" ht="21.75" customHeight="1">
+    <row r="36" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="9">
         <v>84</v>
       </c>
@@ -2824,7 +2872,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="2:12" ht="21.75" customHeight="1">
+    <row r="37" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="9">
         <v>85</v>
       </c>
@@ -2859,7 +2907,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="2:12" ht="21.75" customHeight="1">
+    <row r="38" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="9">
         <v>86</v>
       </c>
@@ -2894,7 +2942,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="2:12" ht="21.75" customHeight="1">
+    <row r="39" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" s="9">
         <v>87</v>
       </c>
@@ -2929,7 +2977,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+    <row r="40" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="9">
         <v>88</v>
       </c>
@@ -2964,7 +3012,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+    <row r="41" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="9">
         <v>89</v>
       </c>
@@ -2999,7 +3047,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+    <row r="42" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" s="9">
         <v>90</v>
       </c>
@@ -3034,7 +3082,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="43" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+    <row r="43" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B43" s="14"/>
       <c r="C43" s="10">
         <v>43572</v>
@@ -3067,7 +3115,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="2:12" ht="21.75" customHeight="1">
+    <row r="44" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="14"/>
       <c r="C44" s="10">
         <v>43572</v>
@@ -3100,7 +3148,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="45" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+    <row r="45" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" s="14"/>
       <c r="C45" s="10">
         <v>43572</v>
@@ -3133,7 +3181,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+    <row r="46" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" s="14"/>
       <c r="C46" s="10">
         <v>43572</v>
@@ -3166,7 +3214,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="2:12" ht="21.75" customHeight="1">
+    <row r="47" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" s="14"/>
       <c r="C47" s="10">
         <v>43572</v>
@@ -3199,7 +3247,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="2:12" ht="21.75" customHeight="1">
+    <row r="48" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B48" s="14"/>
       <c r="C48" s="10">
         <v>43572</v>
@@ -3232,7 +3280,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="49" spans="2:12" ht="21.75" customHeight="1">
+    <row r="49" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B49" s="14"/>
       <c r="C49" s="10">
         <v>43573</v>
@@ -3265,7 +3313,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="50" spans="2:12" ht="21.75" customHeight="1">
+    <row r="50" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B50" s="14"/>
       <c r="C50" s="10">
         <v>43573</v>
@@ -3298,7 +3346,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+    <row r="51" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B51" s="14"/>
       <c r="C51" s="10">
         <v>43573</v>
@@ -3331,7 +3379,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="52" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+    <row r="52" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B52" s="14"/>
       <c r="C52" s="10">
         <v>43573</v>
@@ -3364,7 +3412,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="53" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+    <row r="53" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B53" s="14"/>
       <c r="C53" s="10">
         <v>43573</v>
@@ -3397,7 +3445,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="54" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+    <row r="54" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B54" s="14"/>
       <c r="C54" s="10">
         <v>43573</v>
@@ -3430,7 +3478,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="55" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+    <row r="55" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B55" s="14"/>
       <c r="C55" s="10">
         <v>43573</v>
@@ -3463,7 +3511,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="56" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+    <row r="56" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B56" s="14"/>
       <c r="C56" s="10">
         <v>43573</v>
@@ -3496,7 +3544,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="57" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+    <row r="57" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B57" s="14"/>
       <c r="C57" s="10">
         <v>43573</v>
@@ -3529,7 +3577,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="58" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+    <row r="58" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B58" s="14"/>
       <c r="C58" s="10">
         <v>43573</v>
@@ -3562,7 +3610,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="59" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+    <row r="59" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B59" s="14"/>
       <c r="C59" s="10">
         <v>43573</v>
@@ -3595,7 +3643,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="60" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+    <row r="60" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B60" s="14"/>
       <c r="C60" s="10">
         <v>43573</v>
@@ -3628,7 +3676,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="61" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+    <row r="61" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B61" s="14"/>
       <c r="C61" s="10">
         <v>43573</v>
@@ -3661,7 +3709,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="62" spans="2:12" s="2" customFormat="1" ht="172.5" customHeight="1">
+    <row r="62" spans="2:12" s="2" customFormat="1" ht="172.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B62" s="14"/>
       <c r="C62" s="10">
         <v>43574</v>
@@ -3694,7 +3742,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="63" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+    <row r="63" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B63" s="14"/>
       <c r="C63" s="10">
         <v>43574</v>
@@ -3702,7 +3750,7 @@
       <c r="D63" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="E63" t="s">
+      <c r="E63" s="21" t="s">
         <v>195</v>
       </c>
       <c r="F63" s="37" t="s">
@@ -3727,7 +3775,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="64" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+    <row r="64" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B64" s="14"/>
       <c r="C64" s="10">
         <v>43574</v>
@@ -3735,7 +3783,7 @@
       <c r="D64" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="E64" t="s">
+      <c r="E64" s="21" t="s">
         <v>34</v>
       </c>
       <c r="F64" s="37" t="s">
@@ -3760,7 +3808,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="65" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+    <row r="65" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B65" s="14"/>
       <c r="C65" s="10">
         <v>43574</v>
@@ -3789,35 +3837,77 @@
       <c r="K65" s="45" t="s">
         <v>204</v>
       </c>
-      <c r="L65" s="9"/>
-    </row>
-    <row r="66" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="L65" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B66" s="14"/>
-      <c r="C66" s="22"/>
-      <c r="D66" s="21"/>
-      <c r="E66" s="21"/>
-      <c r="F66" s="37"/>
-      <c r="G66" s="9"/>
-      <c r="H66" s="9"/>
-      <c r="I66" s="21"/>
-      <c r="J66" s="9"/>
-      <c r="K66" s="41"/>
-      <c r="L66" s="9"/>
-    </row>
-    <row r="67" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="C66" s="10">
+        <v>43574</v>
+      </c>
+      <c r="D66" s="43" t="s">
+        <v>205</v>
+      </c>
+      <c r="E66" s="43" t="s">
+        <v>206</v>
+      </c>
+      <c r="F66" s="37" t="s">
+        <v>208</v>
+      </c>
+      <c r="G66" s="9">
+        <v>1</v>
+      </c>
+      <c r="H66" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I66" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="J66" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="K66" s="45" t="s">
+        <v>209</v>
+      </c>
+      <c r="L66" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B67" s="14"/>
-      <c r="C67" s="22"/>
-      <c r="D67" s="21"/>
-      <c r="E67" s="21"/>
-      <c r="F67" s="37"/>
-      <c r="G67" s="9"/>
-      <c r="H67" s="9"/>
-      <c r="I67" s="21"/>
-      <c r="J67" s="9"/>
-      <c r="K67" s="41"/>
-      <c r="L67" s="9"/>
-    </row>
-    <row r="68" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="C67" s="10">
+        <v>43574</v>
+      </c>
+      <c r="D67" s="43" t="s">
+        <v>205</v>
+      </c>
+      <c r="E67" s="43" t="s">
+        <v>207</v>
+      </c>
+      <c r="F67" s="37" t="s">
+        <v>208</v>
+      </c>
+      <c r="G67" s="9">
+        <v>1</v>
+      </c>
+      <c r="H67" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I67" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="J67" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="K67" s="45" t="s">
+        <v>210</v>
+      </c>
+      <c r="L67" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="68" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B68" s="14"/>
       <c r="C68" s="22"/>
       <c r="D68" s="21"/>
@@ -3830,7 +3920,7 @@
       <c r="K68" s="41"/>
       <c r="L68" s="9"/>
     </row>
-    <row r="69" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+    <row r="69" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B69" s="14"/>
       <c r="C69" s="22"/>
       <c r="D69" s="21"/>
@@ -3843,7 +3933,7 @@
       <c r="K69" s="41"/>
       <c r="L69" s="9"/>
     </row>
-    <row r="70" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+    <row r="70" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B70" s="14"/>
       <c r="C70" s="22"/>
       <c r="D70" s="21"/>
@@ -3856,7 +3946,7 @@
       <c r="K70" s="41"/>
       <c r="L70" s="9"/>
     </row>
-    <row r="71" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+    <row r="71" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B71" s="14"/>
       <c r="C71" s="22"/>
       <c r="D71" s="21"/>
@@ -3869,7 +3959,7 @@
       <c r="K71" s="41"/>
       <c r="L71" s="9"/>
     </row>
-    <row r="72" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+    <row r="72" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B72" s="14"/>
       <c r="C72" s="22"/>
       <c r="D72" s="21"/>
@@ -3882,7 +3972,7 @@
       <c r="K72" s="41"/>
       <c r="L72" s="9"/>
     </row>
-    <row r="73" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+    <row r="73" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B73" s="14"/>
       <c r="C73" s="22"/>
       <c r="D73" s="21"/>
@@ -3895,7 +3985,7 @@
       <c r="K73" s="21"/>
       <c r="L73" s="9"/>
     </row>
-    <row r="74" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+    <row r="74" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B74" s="14"/>
       <c r="C74" s="22"/>
       <c r="D74" s="21"/>
@@ -3908,7 +3998,7 @@
       <c r="K74" s="21"/>
       <c r="L74" s="9"/>
     </row>
-    <row r="75" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+    <row r="75" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B75" s="14"/>
       <c r="C75" s="22"/>
       <c r="D75" s="21"/>
@@ -3921,7 +4011,7 @@
       <c r="K75" s="21"/>
       <c r="L75" s="9"/>
     </row>
-    <row r="76" spans="2:12" ht="21.75" customHeight="1">
+    <row r="76" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B76" s="48" t="s">
         <v>15</v>
       </c>
@@ -3939,7 +4029,7 @@
       <c r="K76" s="33"/>
       <c r="L76" s="9"/>
     </row>
-    <row r="78" spans="2:12" ht="75" customHeight="1">
+    <row r="78" spans="2:12" ht="75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B78" s="50"/>
       <c r="C78" s="51"/>
       <c r="D78" s="51"/>
@@ -3953,7 +4043,7 @@
       <c r="L78" s="35"/>
     </row>
   </sheetData>
-  <autoFilter ref="C2:L76"/>
+  <autoFilter ref="C2:L76" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <sortState ref="B3:I41">
     <sortCondition ref="B3"/>
   </sortState>
@@ -3965,75 +4055,77 @@
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J76">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J76" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"H5页面制作,页面跳转修改,页面修改,H5整站制作,PC制作&amp;折成3个H5页面"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J75">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J75" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"H5页面制作,页面跳转修改,页面修改,H5整站制作,PC制作&amp;折成3个H5页面,跳转设置,摘包"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="K4" r:id="rId1" tooltip="https://xhbup.com/sgxcmy/"/>
-    <hyperlink ref="K5" r:id="rId2" tooltip="https://xhbup.com/qb/"/>
-    <hyperlink ref="K6" r:id="rId3"/>
-    <hyperlink ref="K8" r:id="rId4" tooltip="https://xhbup.com/quban"/>
-    <hyperlink ref="K9" r:id="rId5" tooltip="https://www.xhbup.com/gdkpdz/"/>
-    <hyperlink ref="K10" r:id="rId6"/>
-    <hyperlink ref="K12" r:id="rId7" tooltip="https://xhbup.com/maokong/"/>
-    <hyperlink ref="K13" r:id="rId8" tooltip="https://xhbup.com/quban1/"/>
-    <hyperlink ref="K14" r:id="rId9" tooltip="https://xhbup.com/quban2/"/>
-    <hyperlink ref="K15" r:id="rId10" tooltip="https://xhbup.com/huchou/"/>
-    <hyperlink ref="K16" r:id="rId11" tooltip="https://xhbup.com/huchou1/"/>
-    <hyperlink ref="K17" r:id="rId12" tooltip="https://xhbup.com/qhxs/"/>
-    <hyperlink ref="K18" r:id="rId13" tooltip="https://xhbup.com/feicui/"/>
-    <hyperlink ref="K19" r:id="rId14" tooltip="https://xhbup.com/yfmmwljs/tg/"/>
-    <hyperlink ref="K20" r:id="rId15" tooltip="https://xhbup.com/xiyou/"/>
-    <hyperlink ref="K21" r:id="rId16"/>
-    <hyperlink ref="K22" r:id="rId17" tooltip="https://xhbup.com/hdmp/"/>
-    <hyperlink ref="K23" r:id="rId18" tooltip="https://xhbup.com/fds/"/>
-    <hyperlink ref="K24" r:id="rId19" tooltip="https://xhbup.com/fanlv/https://xhbup.com/fanlv/"/>
-    <hyperlink ref="K25" r:id="rId20"/>
-    <hyperlink ref="K26" r:id="rId21" tooltip="https://xhbup.com/danke/"/>
-    <hyperlink ref="K27" r:id="rId22" tooltip="https://xhbup.com/sendu/"/>
-    <hyperlink ref="K28" r:id="rId23" tooltip="https://www.xhbup.com/wcwl/"/>
-    <hyperlink ref="K29" r:id="rId24"/>
-    <hyperlink ref="K30" r:id="rId25" tooltip="https://www.xhbup.com/jianfu/"/>
-    <hyperlink ref="K31" r:id="rId26" tooltip="https://www.xhbup.com/yixing/"/>
-    <hyperlink ref="K32" r:id="rId27" tooltip="https://xhbup.com/quban1/"/>
-    <hyperlink ref="K33" r:id="rId28" tooltip="https://xhbup.com/quban1/"/>
-    <hyperlink ref="K34" r:id="rId29" tooltip="https://xhbup.com/yfmmwljs/tg/"/>
-    <hyperlink ref="K35" r:id="rId30" tooltip="https://xhbup.com/yinxiuer/"/>
-    <hyperlink ref="K36" r:id="rId31" tooltip="https://xhbup.com/tingcai/"/>
-    <hyperlink ref="K37" r:id="rId32"/>
-    <hyperlink ref="K39" r:id="rId33"/>
-    <hyperlink ref="K40" r:id="rId34"/>
-    <hyperlink ref="K41" r:id="rId35" tooltip="https://xhbup.com/hylys/"/>
-    <hyperlink ref="K42" r:id="rId36" tooltip="https://xhbup.com/jzzkj2/tp/"/>
-    <hyperlink ref="K43" r:id="rId37" tooltip="https://xhbup.com/tiancheng/"/>
-    <hyperlink ref="K44" r:id="rId38"/>
-    <hyperlink ref="K45" r:id="rId39"/>
-    <hyperlink ref="K46" r:id="rId40"/>
-    <hyperlink ref="K47" r:id="rId41"/>
-    <hyperlink ref="K48" r:id="rId42"/>
-    <hyperlink ref="K49" r:id="rId43"/>
-    <hyperlink ref="K50" r:id="rId44"/>
-    <hyperlink ref="K51" r:id="rId45"/>
-    <hyperlink ref="K52" r:id="rId46"/>
-    <hyperlink ref="K53" r:id="rId47"/>
-    <hyperlink ref="K54" r:id="rId48"/>
-    <hyperlink ref="K55" r:id="rId49"/>
-    <hyperlink ref="K56" r:id="rId50"/>
-    <hyperlink ref="K57" r:id="rId51"/>
-    <hyperlink ref="K58" r:id="rId52"/>
-    <hyperlink ref="K59" r:id="rId53"/>
-    <hyperlink ref="K61" r:id="rId54"/>
-    <hyperlink ref="K62" r:id="rId55" display="https://xhbup.com/hdws1/"/>
-    <hyperlink ref="K63" r:id="rId56"/>
-    <hyperlink ref="K64" r:id="rId57"/>
-    <hyperlink ref="K65" r:id="rId58"/>
+    <hyperlink ref="K4" r:id="rId1" tooltip="https://xhbup.com/sgxcmy/" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="K5" r:id="rId2" tooltip="https://xhbup.com/qb/" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="K6" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="K8" r:id="rId4" tooltip="https://xhbup.com/quban" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="K9" r:id="rId5" tooltip="https://www.xhbup.com/gdkpdz/" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="K10" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="K12" r:id="rId7" tooltip="https://xhbup.com/maokong/" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="K13" r:id="rId8" tooltip="https://xhbup.com/quban1/" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="K14" r:id="rId9" tooltip="https://xhbup.com/quban2/" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="K15" r:id="rId10" tooltip="https://xhbup.com/huchou/" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="K16" r:id="rId11" tooltip="https://xhbup.com/huchou1/" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="K17" r:id="rId12" tooltip="https://xhbup.com/qhxs/" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="K18" r:id="rId13" tooltip="https://xhbup.com/feicui/" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="K19" r:id="rId14" tooltip="https://xhbup.com/yfmmwljs/tg/" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="K20" r:id="rId15" tooltip="https://xhbup.com/xiyou/" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="K21" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="K22" r:id="rId17" tooltip="https://xhbup.com/hdmp/" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="K23" r:id="rId18" tooltip="https://xhbup.com/fds/" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="K24" r:id="rId19" tooltip="https://xhbup.com/fanlv/https://xhbup.com/fanlv/" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="K25" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="K26" r:id="rId21" tooltip="https://xhbup.com/danke/" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="K27" r:id="rId22" tooltip="https://xhbup.com/sendu/" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="K28" r:id="rId23" tooltip="https://www.xhbup.com/wcwl/" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="K29" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="K30" r:id="rId25" tooltip="https://www.xhbup.com/jianfu/" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="K31" r:id="rId26" tooltip="https://www.xhbup.com/yixing/" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="K32" r:id="rId27" tooltip="https://xhbup.com/quban1/" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="K33" r:id="rId28" tooltip="https://xhbup.com/quban1/" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="K34" r:id="rId29" tooltip="https://xhbup.com/yfmmwljs/tg/" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="K35" r:id="rId30" tooltip="https://xhbup.com/yinxiuer/" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="K36" r:id="rId31" tooltip="https://xhbup.com/tingcai/" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="K37" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="K39" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="K40" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="K41" r:id="rId35" tooltip="https://xhbup.com/hylys/" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="K42" r:id="rId36" tooltip="https://xhbup.com/jzzkj2/tp/" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="K43" r:id="rId37" tooltip="https://xhbup.com/tiancheng/" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="K44" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="K45" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="K46" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="K47" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="K48" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="K49" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="K50" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="K51" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="K52" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="K53" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="K54" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="K55" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="K56" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="K57" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="K58" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="K59" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="K61" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="K62" r:id="rId55" display="https://xhbup.com/hdws1/" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="K63" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="K64" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="K65" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="K66" r:id="rId59" xr:uid="{6A81AB29-D284-47AA-B505-CBE373234170}"/>
+    <hyperlink ref="K67" r:id="rId60" xr:uid="{76D5765D-E547-4C27-8929-56BF67545A5C}"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId59"/>
-  <drawing r:id="rId60"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId61"/>
+  <drawing r:id="rId62"/>
 </worksheet>
 </file>
--- a/业务线技术支持登记表格式.xlsx
+++ b/业务线技术支持登记表格式.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\phpStudy\WWW\myWork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBA5FDCF-663C-4C8F-A57B-2C278F070C91}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87A7C50B-AC26-4BA7-9481-44C4828F6E8A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="224">
   <si>
     <t>业务线支持登记表</t>
   </si>
@@ -709,8 +709,56 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
+    <t>肇庆深度日用化妆品有限公司</t>
+  </si>
+  <si>
+    <t>东莞市兰姿化妆品有限公司</t>
+  </si>
+  <si>
+    <t>丰胸</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.xhbup.com/gdkpdz/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>https://www.xhbup.com/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lanzi/</t>
+    </r>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>https://xhbup.com/xi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nhan/</t>
+    </r>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>https://www.xhbup.com/</t>
     </r>
     <r>
       <rPr>
@@ -721,8 +769,32 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>nhan/</t>
+      <t>lanzi1/</t>
     </r>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/zhimei/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.xhbup.com/lefeng1/</t>
+  </si>
+  <si>
+    <t>广州瓷妆化妆品有限公司 </t>
+  </si>
+  <si>
+    <t>汕尾市康思诺贸易有限公司</t>
+  </si>
+  <si>
+    <t>陈志宇 </t>
+  </si>
+  <si>
+    <t>https://xhbup.com/swksn/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/sgxcmy/</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
@@ -1078,7 +1150,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1202,21 +1274,12 @@
     <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1239,7 +1302,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1612,10 +1675,10 @@
   <dimension ref="B1:Q78"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="F61" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="F63" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="N62" sqref="N62"/>
+      <selection pane="bottomRight" activeCell="K74" sqref="K74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1640,24 +1703,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:17" s="1" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
       <c r="K1" s="25"/>
       <c r="L1" s="7"/>
-      <c r="N1" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
+      <c r="N1" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="44"/>
     </row>
     <row r="2" spans="2:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="8" t="s">
@@ -3648,10 +3711,10 @@
       <c r="C60" s="10">
         <v>43573</v>
       </c>
-      <c r="D60" s="42" t="s">
+      <c r="D60" s="41" t="s">
         <v>187</v>
       </c>
-      <c r="E60" s="42" t="s">
+      <c r="E60" s="41" t="s">
         <v>187</v>
       </c>
       <c r="F60" s="37" t="s">
@@ -3663,13 +3726,13 @@
       <c r="H60" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I60" s="43" t="s">
+      <c r="I60" s="42" t="s">
         <v>20</v>
       </c>
       <c r="J60" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="K60" s="42" t="s">
+      <c r="K60" t="s">
         <v>188</v>
       </c>
       <c r="L60" s="9" t="s">
@@ -3681,10 +3744,10 @@
       <c r="C61" s="10">
         <v>43573</v>
       </c>
-      <c r="D61" s="43" t="s">
+      <c r="D61" s="42" t="s">
         <v>189</v>
       </c>
-      <c r="E61" s="43" t="s">
+      <c r="E61" s="42" t="s">
         <v>190</v>
       </c>
       <c r="F61" s="37" t="s">
@@ -3696,13 +3759,13 @@
       <c r="H61" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I61" s="43" t="s">
+      <c r="I61" s="42" t="s">
         <v>38</v>
       </c>
       <c r="J61" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="K61" s="40" t="s">
+      <c r="K61" t="s">
         <v>197</v>
       </c>
       <c r="L61" s="9" t="s">
@@ -3735,7 +3798,7 @@
       <c r="J62" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="K62" s="44" t="s">
+      <c r="K62" t="s">
         <v>193</v>
       </c>
       <c r="L62" s="9" t="s">
@@ -3768,7 +3831,7 @@
       <c r="J63" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="K63" s="45" t="s">
+      <c r="K63" t="s">
         <v>198</v>
       </c>
       <c r="L63" s="9" t="s">
@@ -3801,7 +3864,7 @@
       <c r="J64" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="K64" s="53" t="s">
+      <c r="K64" t="s">
         <v>203</v>
       </c>
       <c r="L64" s="9" t="s">
@@ -3834,7 +3897,7 @@
       <c r="J65" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="K65" s="45" t="s">
+      <c r="K65" t="s">
         <v>204</v>
       </c>
       <c r="L65" s="9" t="s">
@@ -3846,10 +3909,10 @@
       <c r="C66" s="10">
         <v>43574</v>
       </c>
-      <c r="D66" s="43" t="s">
+      <c r="D66" s="42" t="s">
         <v>205</v>
       </c>
-      <c r="E66" s="43" t="s">
+      <c r="E66" s="42" t="s">
         <v>206</v>
       </c>
       <c r="F66" s="37" t="s">
@@ -3861,13 +3924,13 @@
       <c r="H66" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I66" s="43" t="s">
+      <c r="I66" s="42" t="s">
         <v>20</v>
       </c>
       <c r="J66" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="K66" s="45" t="s">
+      <c r="K66" t="s">
         <v>209</v>
       </c>
       <c r="L66" s="9" t="s">
@@ -3879,14 +3942,14 @@
       <c r="C67" s="10">
         <v>43574</v>
       </c>
-      <c r="D67" s="43" t="s">
+      <c r="D67" s="42" t="s">
         <v>205</v>
       </c>
-      <c r="E67" s="43" t="s">
+      <c r="E67" s="42" t="s">
         <v>207</v>
       </c>
       <c r="F67" s="37" t="s">
-        <v>208</v>
+        <v>163</v>
       </c>
       <c r="G67" s="9">
         <v>1</v>
@@ -3894,14 +3957,14 @@
       <c r="H67" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I67" s="43" t="s">
+      <c r="I67" s="42" t="s">
         <v>20</v>
       </c>
       <c r="J67" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="K67" s="45" t="s">
-        <v>210</v>
+      <c r="K67" t="s">
+        <v>215</v>
       </c>
       <c r="L67" s="9" t="s">
         <v>23</v>
@@ -3909,94 +3972,234 @@
     </row>
     <row r="68" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B68" s="14"/>
-      <c r="C68" s="22"/>
-      <c r="D68" s="21"/>
-      <c r="E68" s="21"/>
-      <c r="F68" s="37"/>
-      <c r="G68" s="9"/>
-      <c r="H68" s="9"/>
-      <c r="I68" s="21"/>
-      <c r="J68" s="9"/>
-      <c r="K68" s="41"/>
-      <c r="L68" s="9"/>
+      <c r="C68" s="10">
+        <v>43575</v>
+      </c>
+      <c r="D68" t="s">
+        <v>40</v>
+      </c>
+      <c r="E68" t="s">
+        <v>210</v>
+      </c>
+      <c r="F68" s="37" t="s">
+        <v>163</v>
+      </c>
+      <c r="G68" s="9">
+        <v>1</v>
+      </c>
+      <c r="H68" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I68" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="J68" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="K68" t="s">
+        <v>213</v>
+      </c>
+      <c r="L68" s="9" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="69" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B69" s="14"/>
-      <c r="C69" s="22"/>
-      <c r="D69" s="21"/>
-      <c r="E69" s="21"/>
-      <c r="F69" s="37"/>
-      <c r="G69" s="9"/>
-      <c r="H69" s="9"/>
-      <c r="I69" s="21"/>
-      <c r="J69" s="9"/>
-      <c r="K69" s="41"/>
-      <c r="L69" s="9"/>
+      <c r="C69" s="10">
+        <v>43575</v>
+      </c>
+      <c r="D69" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="E69" s="41" t="s">
+        <v>211</v>
+      </c>
+      <c r="F69" s="37" t="s">
+        <v>212</v>
+      </c>
+      <c r="G69" s="9">
+        <v>1</v>
+      </c>
+      <c r="H69" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I69" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="J69" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="K69" t="s">
+        <v>214</v>
+      </c>
+      <c r="L69" s="9" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="70" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B70" s="14"/>
-      <c r="C70" s="22"/>
-      <c r="D70" s="21"/>
-      <c r="E70" s="21"/>
-      <c r="F70" s="37"/>
-      <c r="G70" s="9"/>
-      <c r="H70" s="9"/>
-      <c r="I70" s="21"/>
-      <c r="J70" s="9"/>
-      <c r="K70" s="41"/>
-      <c r="L70" s="9"/>
+      <c r="C70" s="10">
+        <v>43575</v>
+      </c>
+      <c r="D70" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="E70" s="41" t="s">
+        <v>211</v>
+      </c>
+      <c r="F70" s="37" t="s">
+        <v>212</v>
+      </c>
+      <c r="G70" s="9">
+        <v>1</v>
+      </c>
+      <c r="H70" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I70" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="J70" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="K70" s="50" t="s">
+        <v>216</v>
+      </c>
+      <c r="L70" s="9" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="71" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B71" s="14"/>
-      <c r="C71" s="22"/>
-      <c r="D71" s="21"/>
-      <c r="E71" s="21"/>
-      <c r="F71" s="37"/>
-      <c r="G71" s="9"/>
-      <c r="H71" s="9"/>
-      <c r="I71" s="21"/>
-      <c r="J71" s="9"/>
-      <c r="K71" s="41"/>
-      <c r="L71" s="9"/>
+      <c r="C71" s="10">
+        <v>43575</v>
+      </c>
+      <c r="D71" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="E71" s="41" t="s">
+        <v>129</v>
+      </c>
+      <c r="F71" s="37" t="s">
+        <v>212</v>
+      </c>
+      <c r="G71" s="9">
+        <v>1</v>
+      </c>
+      <c r="H71" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I71" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="J71" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K71" s="50" t="s">
+        <v>217</v>
+      </c>
+      <c r="L71" s="9" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="72" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B72" s="14"/>
-      <c r="C72" s="22"/>
-      <c r="D72" s="21"/>
-      <c r="E72" s="21"/>
-      <c r="F72" s="37"/>
-      <c r="G72" s="9"/>
-      <c r="H72" s="9"/>
-      <c r="I72" s="21"/>
-      <c r="J72" s="9"/>
-      <c r="K72" s="41"/>
-      <c r="L72" s="9"/>
+      <c r="C72" s="10">
+        <v>43575</v>
+      </c>
+      <c r="D72" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="E72" s="41" t="s">
+        <v>109</v>
+      </c>
+      <c r="F72" s="37" t="s">
+        <v>212</v>
+      </c>
+      <c r="G72" s="9">
+        <v>1</v>
+      </c>
+      <c r="H72" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I72" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="J72" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K72" s="41" t="s">
+        <v>218</v>
+      </c>
+      <c r="L72" s="9" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="73" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B73" s="14"/>
-      <c r="C73" s="22"/>
-      <c r="D73" s="21"/>
-      <c r="E73" s="21"/>
-      <c r="F73" s="37"/>
-      <c r="G73" s="9"/>
-      <c r="H73" s="9"/>
-      <c r="I73" s="21"/>
-      <c r="J73" s="9"/>
-      <c r="K73" s="21"/>
-      <c r="L73" s="9"/>
+      <c r="C73" s="10">
+        <v>43575</v>
+      </c>
+      <c r="D73" s="41" t="s">
+        <v>219</v>
+      </c>
+      <c r="E73" s="41" t="s">
+        <v>220</v>
+      </c>
+      <c r="F73" s="37" t="s">
+        <v>155</v>
+      </c>
+      <c r="G73" s="9">
+        <v>1</v>
+      </c>
+      <c r="H73" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I73" s="41" t="s">
+        <v>221</v>
+      </c>
+      <c r="J73" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K73" s="50" t="s">
+        <v>222</v>
+      </c>
+      <c r="L73" s="9" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="74" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B74" s="14"/>
-      <c r="C74" s="22"/>
-      <c r="D74" s="21"/>
-      <c r="E74" s="21"/>
-      <c r="F74" s="37"/>
-      <c r="G74" s="9"/>
-      <c r="H74" s="9"/>
-      <c r="I74" s="21"/>
-      <c r="J74" s="9"/>
-      <c r="K74" s="21"/>
-      <c r="L74" s="9"/>
+      <c r="C74" s="10">
+        <v>43575</v>
+      </c>
+      <c r="D74" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="E74" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="F74" s="37" t="s">
+        <v>155</v>
+      </c>
+      <c r="G74" s="9">
+        <v>1</v>
+      </c>
+      <c r="H74" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I74" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="J74" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K74" s="50" t="s">
+        <v>223</v>
+      </c>
+      <c r="L74" s="9" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="75" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B75" s="14"/>
@@ -4012,10 +4215,10 @@
       <c r="L75" s="9"/>
     </row>
     <row r="76" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B76" s="48" t="s">
+      <c r="B76" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="C76" s="49"/>
+      <c r="C76" s="46"/>
       <c r="D76" s="23"/>
       <c r="E76" s="23"/>
       <c r="F76" s="24"/>
@@ -4030,15 +4233,15 @@
       <c r="L76" s="9"/>
     </row>
     <row r="78" spans="2:12" ht="75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B78" s="50"/>
-      <c r="C78" s="51"/>
-      <c r="D78" s="51"/>
-      <c r="E78" s="51"/>
-      <c r="F78" s="51"/>
-      <c r="G78" s="51"/>
-      <c r="H78" s="51"/>
-      <c r="I78" s="51"/>
-      <c r="J78" s="52"/>
+      <c r="B78" s="47"/>
+      <c r="C78" s="48"/>
+      <c r="D78" s="48"/>
+      <c r="E78" s="48"/>
+      <c r="F78" s="48"/>
+      <c r="G78" s="48"/>
+      <c r="H78" s="48"/>
+      <c r="I78" s="48"/>
+      <c r="J78" s="49"/>
       <c r="K78" s="34"/>
       <c r="L78" s="35"/>
     </row>
@@ -4123,9 +4326,15 @@
     <hyperlink ref="K65" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
     <hyperlink ref="K66" r:id="rId59" xr:uid="{6A81AB29-D284-47AA-B505-CBE373234170}"/>
     <hyperlink ref="K67" r:id="rId60" xr:uid="{76D5765D-E547-4C27-8929-56BF67545A5C}"/>
+    <hyperlink ref="K68" r:id="rId61" xr:uid="{23650A3D-3039-43DA-95D6-F75CA0E601EC}"/>
+    <hyperlink ref="K69" r:id="rId62" xr:uid="{DCA4E6EB-FE58-470C-BD88-FFA7F9B13FCC}"/>
+    <hyperlink ref="K70" r:id="rId63" xr:uid="{C0654FC1-E5A7-48D7-80D0-B55A4EC3C0C9}"/>
+    <hyperlink ref="K71" r:id="rId64" xr:uid="{156699C4-96E9-4BC4-9468-73B439124871}"/>
+    <hyperlink ref="K73" r:id="rId65" xr:uid="{3E595DC2-0E27-410A-A561-0176E4801F46}"/>
+    <hyperlink ref="K74" r:id="rId66" xr:uid="{536E9DC9-F13A-4A69-BBE7-7D1F348CFAD8}"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId61"/>
-  <drawing r:id="rId62"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId67"/>
+  <drawing r:id="rId68"/>
 </worksheet>
 </file>
--- a/业务线技术支持登记表格式.xlsx
+++ b/业务线技术支持登记表格式.xlsx
@@ -1,29 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\phpStudy\WWW\myWork\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87A7C50B-AC26-4BA7-9481-44C4828F6E8A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$2:$L$76</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$2:$L$91</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="253">
   <si>
     <t>业务线支持登记表</t>
   </si>
@@ -107,9 +101,6 @@
     <t>杨昱</t>
   </si>
   <si>
-    <t>https://xhbup.com/sgxcmy/</t>
-  </si>
-  <si>
     <t>李德赟</t>
   </si>
   <si>
@@ -417,15 +408,9 @@
     <t>紫金县智美化妆品有限公司</t>
   </si>
   <si>
-    <t>https://xhbup.com/zhimei/</t>
-  </si>
-  <si>
     <t>河源兰颜氏化妆品有限公司</t>
   </si>
   <si>
-    <t>https://xhbup.com/hylys/</t>
-  </si>
-  <si>
     <t>江门市蓬江区聚智众科技有限公司</t>
   </si>
   <si>
@@ -507,10 +492,6 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>https://xhbup.com/zhishang/</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
     <t>https://xhbup.com/zhishang1/</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
@@ -530,10 +511,6 @@
   </si>
   <si>
     <t>祛斑</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://xhbup.com/quban4/</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
@@ -592,10 +569,6 @@
 https://xhbup.com/mizhua2/
 https://xhbup.com/mizhua3/
 https://xhbup.com/mizhua4/</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.xhbup.com/lefeng/</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
@@ -702,10 +675,6 @@
   </si>
   <si>
     <t>祛斑</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://xhbup.com/xilan/</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
@@ -740,40 +709,6 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>https://xhbup.com/xi</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>nhan/</t>
-    </r>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>https://www.xhbup.com/</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>lanzi1/</t>
-    </r>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
     <t>https://xhbup.com/zhimei/</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
@@ -795,14 +730,151 @@
   </si>
   <si>
     <t>https://xhbup.com/sgxcmy/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈梦</t>
+  </si>
+  <si>
+    <t>广东乐婷化妆品实业有限公司（乐婷298页面）</t>
+  </si>
+  <si>
+    <t>韩美肌</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/leting/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳转设置</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/leting1/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>东莞市康倪化妆品有限公司（298页面）</t>
+  </si>
+  <si>
+    <t>广东乐婷化妆品实业有限公司（乐婷198页面）</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/leting2/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱涛</t>
+  </si>
+  <si>
+    <t>广州市欧佩化妆品有限公司</t>
+  </si>
+  <si>
+    <t>碧素堂</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/oupei/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐运河</t>
+  </si>
+  <si>
+    <t>东莞市可丽化妆品贸易有限公司</t>
+  </si>
+  <si>
+    <t>减肥</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.xhbup.com/klhzp3</t>
+  </si>
+  <si>
+    <t>钟史尧</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/zhimei/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>张总</t>
+  </si>
+  <si>
+    <t>东莞市清溪蜂缘蜂蜜店</t>
+  </si>
+  <si>
+    <t>蜂蜜</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>美容</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/meilianb/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.xhbup.com/qingfengy/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/zhishang1/</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/sgxcmy/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.xhbup.com/lanzi1/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/xilan/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/xinhan/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/quban4/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/zhishang/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/hylys/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.xhbup.com/lefeng/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘建平</t>
+  </si>
+  <si>
+    <t>佛山市港亿贸易有限公司</t>
+  </si>
+  <si>
+    <t>肌肤</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/gangyi/</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -948,6 +1020,14 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1150,7 +1230,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1271,15 +1351,15 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1301,7 +1381,19 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1336,13 +1428,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>234950</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>111125</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>1574</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1350,7 +1442,7 @@
         <xdr:cNvPr id="6" name="图片 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1362,7 +1454,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1671,17 +1763,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:Q78"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:Q93"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="F63" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="F78" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K74" sqref="K74"/>
+      <selection pane="bottomRight" activeCell="K84" sqref="K84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="1.25" style="3" customWidth="1"/>
     <col min="2" max="2" width="7" style="3" customWidth="1"/>
@@ -1702,7 +1794,7 @@
     <col min="21" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" s="1" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:17" s="1" customFormat="1" ht="46.5" customHeight="1">
       <c r="C1" s="43" t="s">
         <v>0</v>
       </c>
@@ -1722,7 +1814,7 @@
       <c r="P1" s="44"/>
       <c r="Q1" s="44"/>
     </row>
-    <row r="2" spans="2:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:17" ht="21.75" customHeight="1">
       <c r="B2" s="8" t="s">
         <v>2</v>
       </c>
@@ -1769,7 +1861,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="2:17" ht="33" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:17" ht="33">
       <c r="B3" s="9">
         <v>1</v>
       </c>
@@ -1813,7 +1905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:17" ht="21.75" customHeight="1">
       <c r="B4" s="9">
         <v>5</v>
       </c>
@@ -1841,8 +1933,8 @@
       <c r="J4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="K4" s="9" t="s">
-        <v>27</v>
+      <c r="K4" s="52" t="s">
+        <v>241</v>
       </c>
       <c r="L4" s="9" t="s">
         <v>23</v>
@@ -1863,7 +1955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:17" ht="21.75" customHeight="1">
       <c r="B5" s="9">
         <v>6</v>
       </c>
@@ -1871,67 +1963,67 @@
         <v>43570</v>
       </c>
       <c r="D5" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="F5" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="G5" s="9">
+        <v>1</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="9">
-        <v>1</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" s="9" t="s">
+      <c r="J5" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="K5" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="K5" s="9" t="s">
-        <v>33</v>
-      </c>
       <c r="L5" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="2:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:17" ht="21.75" customHeight="1">
       <c r="B6" s="9"/>
       <c r="C6" s="10">
         <v>43570</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E6" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="9">
+        <v>1</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="9">
-        <v>1</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="K6" s="9" t="s">
-        <v>35</v>
-      </c>
       <c r="L6" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="2:17" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:17" ht="39.75" customHeight="1">
       <c r="B7" s="9"/>
       <c r="C7" s="10">
         <v>43570</v>
@@ -1964,86 +2056,86 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="2:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:17" ht="21.75" customHeight="1">
       <c r="B8" s="9"/>
       <c r="C8" s="10">
         <v>43570</v>
       </c>
       <c r="D8" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="F8" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="9">
+        <v>1</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" s="9">
-        <v>1</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I8" s="9" t="s">
+      <c r="J8" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K8" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="J8" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="K8" s="9" t="s">
-        <v>39</v>
-      </c>
       <c r="L8" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="2:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:17" ht="21.75" customHeight="1">
       <c r="B9" s="9"/>
       <c r="C9" s="10">
         <v>43570</v>
       </c>
       <c r="D9" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="F9" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="G9" s="9">
+        <v>1</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="9" t="s">
         <v>42</v>
-      </c>
-      <c r="G9" s="9">
-        <v>1</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>43</v>
       </c>
       <c r="J9" s="9" t="s">
         <v>21</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L9" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="2:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:17" ht="21.75" customHeight="1">
       <c r="B10" s="9"/>
       <c r="C10" s="10">
         <v>43570</v>
       </c>
       <c r="D10" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="E10" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>46</v>
-      </c>
       <c r="G10" s="9">
         <v>1</v>
       </c>
@@ -2051,31 +2143,31 @@
         <v>19</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J10" s="9" t="s">
         <v>21</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L10" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="2:17" ht="87" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:17" ht="87" customHeight="1">
       <c r="B11" s="9"/>
       <c r="C11" s="10">
         <v>43570</v>
       </c>
       <c r="D11" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="F11" s="9" t="s">
         <v>49</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>50</v>
       </c>
       <c r="G11" s="9">
         <v>4</v>
@@ -2087,260 +2179,260 @@
         <v>26</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K11" s="31" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="L11" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="2:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:17" ht="21.75" customHeight="1">
       <c r="B12" s="9"/>
       <c r="C12" s="10">
         <v>43570</v>
       </c>
       <c r="D12" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="F12" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="G12" s="9">
+        <v>1</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="G12" s="9">
-        <v>1</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I12" s="9" t="s">
+      <c r="J12" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="K12" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="J12" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="K12" s="9" t="s">
-        <v>56</v>
-      </c>
       <c r="L12" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="2:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:17" ht="21.75" customHeight="1">
       <c r="B13" s="9"/>
       <c r="C13" s="10">
         <v>43570</v>
       </c>
       <c r="D13" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="F13" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="9">
+        <v>1</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="F13" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="G13" s="9">
-        <v>1</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I13" s="9" t="s">
+      <c r="J13" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="K13" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="J13" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="K13" s="9" t="s">
-        <v>60</v>
-      </c>
       <c r="L13" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="2:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:17" ht="21.75" customHeight="1">
       <c r="B14" s="9"/>
       <c r="C14" s="10">
         <v>43570</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E14" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="9">
+        <v>1</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="K14" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="F14" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="G14" s="9">
-        <v>1</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I14" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="J14" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="K14" s="9" t="s">
-        <v>62</v>
-      </c>
       <c r="L14" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="2:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:17" ht="21.75" customHeight="1">
       <c r="B15" s="9"/>
       <c r="C15" s="10">
         <v>43570</v>
       </c>
       <c r="D15" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="F15" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="G15" s="9">
+        <v>1</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="K15" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="G15" s="9">
-        <v>1</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I15" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="J15" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="K15" s="9" t="s">
-        <v>66</v>
-      </c>
       <c r="L15" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="2:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:17" ht="21.75" customHeight="1">
       <c r="B16" s="9"/>
       <c r="C16" s="10">
         <v>43570</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E16" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="G16" s="9">
+        <v>1</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="K16" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="F16" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="G16" s="9">
-        <v>1</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I16" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="J16" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="K16" s="9" t="s">
-        <v>68</v>
-      </c>
       <c r="L16" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:12" ht="21.75" customHeight="1">
       <c r="B17" s="9"/>
       <c r="C17" s="10">
         <v>43570</v>
       </c>
       <c r="D17" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="E17" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="F17" s="9" t="s">
+      <c r="G17" s="9">
+        <v>1</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="K17" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="G17" s="9">
-        <v>1</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I17" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="J17" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="K17" s="9" t="s">
-        <v>71</v>
-      </c>
       <c r="L17" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:12" ht="21.75" customHeight="1">
       <c r="B18" s="9"/>
       <c r="C18" s="10">
         <v>43571</v>
       </c>
       <c r="D18" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="F18" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="G18" s="9">
+        <v>1</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="K18" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="G18" s="9">
-        <v>1</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I18" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="J18" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="K18" s="9" t="s">
-        <v>75</v>
-      </c>
       <c r="L18" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:12" ht="21.75" customHeight="1">
       <c r="B19" s="9"/>
       <c r="C19" s="10">
         <v>43571</v>
       </c>
       <c r="D19" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E19" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="F19" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="F19" s="9" t="s">
-        <v>78</v>
-      </c>
       <c r="G19" s="9">
         <v>1</v>
       </c>
@@ -2348,97 +2440,97 @@
         <v>19</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J19" s="9" t="s">
         <v>21</v>
       </c>
       <c r="K19" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L19" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:12" ht="21.75" customHeight="1">
       <c r="B20" s="9"/>
       <c r="C20" s="10">
         <v>43571</v>
       </c>
       <c r="D20" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="E20" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="F20" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="G20" s="9">
+        <v>1</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="K20" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="G20" s="9">
-        <v>1</v>
-      </c>
-      <c r="H20" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I20" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="J20" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="K20" s="9" t="s">
-        <v>83</v>
-      </c>
       <c r="L20" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:12" ht="21.75" customHeight="1">
       <c r="B21" s="9"/>
       <c r="C21" s="10">
         <v>43571</v>
       </c>
       <c r="D21" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E21" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="F21" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="G21" s="9">
+        <v>1</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I21" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="J21" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="K21" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="G21" s="9">
-        <v>1</v>
-      </c>
-      <c r="H21" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I21" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="J21" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="K21" s="9" t="s">
-        <v>87</v>
-      </c>
       <c r="L21" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:12" ht="21.75" customHeight="1">
       <c r="B22" s="9"/>
       <c r="C22" s="10">
         <v>43571</v>
       </c>
       <c r="D22" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E22" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="E22" s="13" t="s">
-        <v>89</v>
-      </c>
       <c r="F22" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G22" s="9">
         <v>1</v>
@@ -2450,61 +2542,61 @@
         <v>26</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K22" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L22" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:12" ht="21.75" customHeight="1">
       <c r="B23" s="9"/>
       <c r="C23" s="10">
         <v>43571</v>
       </c>
       <c r="D23" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G23" s="9">
+        <v>1</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="J23" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="K23" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="E23" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="G23" s="9">
-        <v>1</v>
-      </c>
-      <c r="H23" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I23" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="J23" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="K23" s="9" t="s">
-        <v>92</v>
-      </c>
       <c r="L23" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="2:12" ht="42.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:12" ht="42.95" customHeight="1">
       <c r="B24" s="9"/>
       <c r="C24" s="10">
         <v>43571</v>
       </c>
       <c r="D24" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="E24" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="E24" s="9" t="s">
+      <c r="F24" s="9" t="s">
         <v>94</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>95</v>
       </c>
       <c r="G24" s="9">
         <v>2</v>
@@ -2513,64 +2605,64 @@
         <v>19</v>
       </c>
       <c r="I24" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K24" s="32" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L24" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:12" ht="21.75" customHeight="1">
       <c r="B25" s="9"/>
       <c r="C25" s="10">
         <v>43571</v>
       </c>
       <c r="D25" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="E25" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="F25" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G25" s="9">
+        <v>1</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I25" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="J25" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="K25" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="F25" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="G25" s="9">
-        <v>1</v>
-      </c>
-      <c r="H25" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I25" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="J25" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="K25" s="9" t="s">
-        <v>99</v>
-      </c>
       <c r="L25" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:12" ht="21.75" customHeight="1">
       <c r="B26" s="9"/>
       <c r="C26" s="10">
         <v>43571</v>
       </c>
       <c r="D26" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="E26" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="E26" s="9" t="s">
-        <v>98</v>
-      </c>
       <c r="F26" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G26" s="9">
         <v>1</v>
@@ -2579,85 +2671,85 @@
         <v>19</v>
       </c>
       <c r="I26" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J26" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K26" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L26" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:12" ht="21.75" customHeight="1">
       <c r="B27" s="9"/>
       <c r="C27" s="10">
         <v>43571</v>
       </c>
       <c r="D27" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E27" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="E27" s="9" t="s">
+      <c r="F27" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="F27" s="9" t="s">
+      <c r="G27" s="9">
+        <v>1</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I27" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="G27" s="9">
-        <v>1</v>
-      </c>
-      <c r="H27" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I27" s="9" t="s">
-        <v>55</v>
-      </c>
       <c r="J27" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K27" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L27" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:12" ht="21.75" customHeight="1">
       <c r="B28" s="9"/>
       <c r="C28" s="10">
         <v>43571</v>
       </c>
       <c r="D28" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E28" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="E28" s="9" t="s">
+      <c r="F28" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="F28" s="9" t="s">
+      <c r="G28" s="9">
+        <v>1</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I28" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="G28" s="9">
-        <v>1</v>
-      </c>
-      <c r="H28" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I28" s="9" t="s">
+      <c r="J28" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="J28" s="9" t="s">
+      <c r="K28" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="K28" s="9" t="s">
-        <v>107</v>
-      </c>
       <c r="L28" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:12" ht="21.75" customHeight="1">
       <c r="B29" s="9">
         <v>78</v>
       </c>
@@ -2665,13 +2757,13 @@
         <v>43571</v>
       </c>
       <c r="D29" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E29" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="E29" s="9" t="s">
-        <v>109</v>
-      </c>
       <c r="F29" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G29" s="9">
         <v>1</v>
@@ -2683,49 +2775,49 @@
         <v>26</v>
       </c>
       <c r="J29" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="K29" s="40" t="s">
-        <v>180</v>
+        <v>31</v>
+      </c>
+      <c r="K29" s="52" t="s">
+        <v>248</v>
       </c>
       <c r="L29" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:12" ht="21.75" customHeight="1">
       <c r="B30" s="14"/>
       <c r="C30" s="10">
         <v>43571</v>
       </c>
       <c r="D30" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="E30" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="E30" s="9" t="s">
+      <c r="F30" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="F30" s="9" t="s">
+      <c r="G30" s="9">
+        <v>1</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I30" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="J30" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="K30" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="G30" s="9">
-        <v>1</v>
-      </c>
-      <c r="H30" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I30" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="J30" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="K30" s="9" t="s">
-        <v>113</v>
-      </c>
       <c r="L30" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:12" ht="21.75" customHeight="1">
       <c r="B31" s="9">
         <v>79</v>
       </c>
@@ -2733,13 +2825,13 @@
         <v>43571</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G31" s="9">
         <v>1</v>
@@ -2751,16 +2843,16 @@
         <v>20</v>
       </c>
       <c r="J31" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K31" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L31" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:12" ht="21.75" customHeight="1">
       <c r="B32" s="9">
         <v>80</v>
       </c>
@@ -2768,34 +2860,34 @@
         <v>43571</v>
       </c>
       <c r="D32" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E32" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E32" s="9" t="s">
+      <c r="F32" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G32" s="9">
+        <v>1</v>
+      </c>
+      <c r="H32" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I32" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="F32" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="G32" s="9">
-        <v>1</v>
-      </c>
-      <c r="H32" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I32" s="9" t="s">
+      <c r="J32" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="K32" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="J32" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="K32" s="9" t="s">
-        <v>60</v>
-      </c>
       <c r="L32" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:12" ht="21.75" customHeight="1">
       <c r="B33" s="9">
         <v>81</v>
       </c>
@@ -2803,34 +2895,34 @@
         <v>43571</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E33" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G33" s="9">
+        <v>1</v>
+      </c>
+      <c r="H33" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I33" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="J33" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="K33" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="F33" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="G33" s="9">
-        <v>1</v>
-      </c>
-      <c r="H33" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I33" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="J33" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="K33" s="9" t="s">
-        <v>62</v>
-      </c>
       <c r="L33" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:12" ht="21.75" customHeight="1">
       <c r="B34" s="9">
         <v>82</v>
       </c>
@@ -2838,14 +2930,14 @@
         <v>43571</v>
       </c>
       <c r="D34" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E34" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E34" s="9" t="s">
+      <c r="F34" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="F34" s="9" t="s">
-        <v>78</v>
-      </c>
       <c r="G34" s="9">
         <v>1</v>
       </c>
@@ -2853,19 +2945,19 @@
         <v>19</v>
       </c>
       <c r="I34" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J34" s="9" t="s">
         <v>21</v>
       </c>
       <c r="K34" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L34" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:12" ht="21.75" customHeight="1">
       <c r="B35" s="9">
         <v>83</v>
       </c>
@@ -2873,34 +2965,34 @@
         <v>43571</v>
       </c>
       <c r="D35" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="E35" t="s">
         <v>116</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G35" s="9">
+        <v>1</v>
+      </c>
+      <c r="H35" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I35" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="J35" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="K35" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="F35" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="G35" s="9">
-        <v>1</v>
-      </c>
-      <c r="H35" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I35" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="J35" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="K35" s="9" t="s">
-        <v>118</v>
-      </c>
       <c r="L35" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:12" ht="21.75" customHeight="1">
       <c r="B36" s="9">
         <v>84</v>
       </c>
@@ -2908,13 +3000,13 @@
         <v>43571</v>
       </c>
       <c r="D36" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="E36" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="E36" s="15" t="s">
+      <c r="F36" s="9" t="s">
         <v>120</v>
-      </c>
-      <c r="F36" s="9" t="s">
-        <v>121</v>
       </c>
       <c r="G36" s="9">
         <v>1</v>
@@ -2926,16 +3018,16 @@
         <v>20</v>
       </c>
       <c r="J36" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K36" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L36" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:12" ht="21.75" customHeight="1">
       <c r="B37" s="9">
         <v>85</v>
       </c>
@@ -2943,13 +3035,13 @@
         <v>43571</v>
       </c>
       <c r="D37" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G37" s="9">
         <v>1</v>
@@ -2958,19 +3050,19 @@
         <v>19</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K37" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L37" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:12" ht="21.75" customHeight="1">
       <c r="B38" s="9">
         <v>86</v>
       </c>
@@ -2978,34 +3070,34 @@
         <v>43571</v>
       </c>
       <c r="D38" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E38" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="G38" s="9">
+        <v>1</v>
+      </c>
+      <c r="H38" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I38" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="J38" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="K38" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="F38" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="G38" s="9">
-        <v>1</v>
-      </c>
-      <c r="H38" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I38" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="J38" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="K38" s="9" t="s">
-        <v>125</v>
-      </c>
       <c r="L38" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:12" ht="21.75" customHeight="1">
       <c r="B39" s="9">
         <v>87</v>
       </c>
@@ -3013,34 +3105,34 @@
         <v>43571</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E39" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="G39" s="9">
+        <v>1</v>
+      </c>
+      <c r="H39" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I39" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="J39" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="K39" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="F39" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="G39" s="9">
-        <v>1</v>
-      </c>
-      <c r="H39" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I39" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="J39" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="K39" s="9" t="s">
-        <v>127</v>
-      </c>
       <c r="L39" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B40" s="9">
         <v>88</v>
       </c>
@@ -3048,13 +3140,13 @@
         <v>43571</v>
       </c>
       <c r="D40" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="E40" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="E40" s="18" t="s">
-        <v>129</v>
-      </c>
       <c r="F40" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G40" s="9">
         <v>1</v>
@@ -3063,19 +3155,19 @@
         <v>19</v>
       </c>
       <c r="I40" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J40" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="K40" s="18" t="s">
-        <v>130</v>
+        <v>31</v>
+      </c>
+      <c r="K40" s="53" t="s">
+        <v>233</v>
       </c>
       <c r="L40" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B41" s="9">
         <v>89</v>
       </c>
@@ -3083,10 +3175,10 @@
         <v>43571</v>
       </c>
       <c r="D41" s="18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E41" s="19" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F41" s="9" t="s">
         <v>18</v>
@@ -3101,16 +3193,16 @@
         <v>26</v>
       </c>
       <c r="J41" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="K41" s="19" t="s">
-        <v>132</v>
+        <v>31</v>
+      </c>
+      <c r="K41" s="53" t="s">
+        <v>247</v>
       </c>
       <c r="L41" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B42" s="9">
         <v>90</v>
       </c>
@@ -3118,13 +3210,13 @@
         <v>43572</v>
       </c>
       <c r="D42" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E42" s="20" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G42" s="9">
         <v>1</v>
@@ -3133,31 +3225,31 @@
         <v>19</v>
       </c>
       <c r="I42" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J42" s="9" t="s">
         <v>21</v>
       </c>
       <c r="K42" s="19" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L42" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="43" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B43" s="14"/>
       <c r="C43" s="10">
         <v>43572</v>
       </c>
       <c r="D43" s="15" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E43" s="15" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G43" s="9">
         <v>1</v>
@@ -3169,28 +3261,28 @@
         <v>20</v>
       </c>
       <c r="J43" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K43" s="9" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="L43" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:12" ht="21.75" customHeight="1">
       <c r="B44" s="14"/>
       <c r="C44" s="10">
         <v>43572</v>
       </c>
       <c r="D44" s="21" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E44" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G44" s="9">
         <v>1</v>
@@ -3205,91 +3297,91 @@
         <v>21</v>
       </c>
       <c r="K44" s="9" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="L44" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="45" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B45" s="14"/>
       <c r="C45" s="10">
         <v>43572</v>
       </c>
       <c r="D45" s="21" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E45" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="F45" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="G45" s="9">
+        <v>1</v>
+      </c>
+      <c r="H45" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I45" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="J45" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="K45" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="F45" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="G45" s="9">
-        <v>1</v>
-      </c>
-      <c r="H45" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I45" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="J45" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="K45" s="9" t="s">
-        <v>145</v>
-      </c>
       <c r="L45" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B46" s="14"/>
       <c r="C46" s="10">
         <v>43572</v>
       </c>
       <c r="D46" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="E46" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="F46" s="38" t="s">
+        <v>146</v>
+      </c>
+      <c r="G46" s="9">
+        <v>1</v>
+      </c>
+      <c r="H46" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I46" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="J46" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="K46" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="E46" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="F46" s="38" t="s">
-        <v>149</v>
-      </c>
-      <c r="G46" s="9">
-        <v>1</v>
-      </c>
-      <c r="H46" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I46" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="J46" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="K46" s="9" t="s">
-        <v>150</v>
-      </c>
       <c r="L46" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:12" ht="21.75" customHeight="1">
       <c r="B47" s="14"/>
       <c r="C47" s="10">
         <v>43572</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E47" s="21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G47" s="9">
         <v>1</v>
@@ -3298,31 +3390,31 @@
         <v>19</v>
       </c>
       <c r="I47" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J47" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K47" s="21" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="L47" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:12" ht="21.75" customHeight="1">
       <c r="B48" s="14"/>
       <c r="C48" s="10">
         <v>43572</v>
       </c>
       <c r="D48" s="39" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E48" s="39" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F48" s="37" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="G48" s="9">
         <v>1</v>
@@ -3334,28 +3426,28 @@
         <v>20</v>
       </c>
       <c r="J48" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="K48" s="38" t="s">
-        <v>157</v>
+        <v>31</v>
+      </c>
+      <c r="K48" s="53" t="s">
+        <v>246</v>
       </c>
       <c r="L48" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="49" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:12" ht="21.75" customHeight="1">
       <c r="B49" s="14"/>
       <c r="C49" s="10">
         <v>43573</v>
       </c>
       <c r="D49" s="21" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E49" s="21" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F49" s="37" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="G49" s="9">
         <v>1</v>
@@ -3367,28 +3459,28 @@
         <v>20</v>
       </c>
       <c r="J49" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K49" s="9" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="L49" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="50" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:12" ht="21.75" customHeight="1">
       <c r="B50" s="14"/>
       <c r="C50" s="10">
         <v>43573</v>
       </c>
       <c r="D50" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="E50" t="s">
         <v>110</v>
       </c>
-      <c r="E50" t="s">
-        <v>111</v>
-      </c>
       <c r="F50" s="37" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="G50" s="9">
         <v>1</v>
@@ -3397,31 +3489,31 @@
         <v>19</v>
       </c>
       <c r="I50" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J50" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K50" s="9" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="L50" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B51" s="14"/>
       <c r="C51" s="10">
         <v>43573</v>
       </c>
       <c r="D51" s="21" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E51" s="21" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F51" s="37" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G51" s="9">
         <v>1</v>
@@ -3430,31 +3522,31 @@
         <v>19</v>
       </c>
       <c r="I51" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J51" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="K51" s="21" t="s">
-        <v>164</v>
+        <v>31</v>
+      </c>
+      <c r="K51" s="53" t="s">
+        <v>245</v>
       </c>
       <c r="L51" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="52" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B52" s="14"/>
       <c r="C52" s="10">
         <v>43573</v>
       </c>
       <c r="D52" s="21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E52" s="21" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="F52" s="37" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="G52" s="9">
         <v>1</v>
@@ -3463,31 +3555,31 @@
         <v>19</v>
       </c>
       <c r="I52" s="21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J52" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K52" s="21" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="L52" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="53" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B53" s="14"/>
       <c r="C53" s="10">
         <v>43573</v>
       </c>
       <c r="D53" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E53" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F53" s="37" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="G53" s="9">
         <v>1</v>
@@ -3496,31 +3588,31 @@
         <v>19</v>
       </c>
       <c r="I53" s="21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J53" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K53" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="L53" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="54" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B54" s="14"/>
       <c r="C54" s="10">
         <v>43573</v>
       </c>
       <c r="D54" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E54" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="E54" s="21" t="s">
-        <v>29</v>
-      </c>
       <c r="F54" s="37" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G54" s="9">
         <v>1</v>
@@ -3529,31 +3621,31 @@
         <v>19</v>
       </c>
       <c r="I54" s="21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J54" s="9" t="s">
         <v>21</v>
       </c>
       <c r="K54" s="21" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="L54" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="55" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B55" s="14"/>
       <c r="C55" s="10">
         <v>43573</v>
       </c>
       <c r="D55" s="21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E55" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F55" s="37" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G55" s="9">
         <v>1</v>
@@ -3562,31 +3654,31 @@
         <v>19</v>
       </c>
       <c r="I55" s="21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J55" s="9" t="s">
         <v>21</v>
       </c>
       <c r="K55" s="21" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="L55" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="56" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B56" s="14"/>
       <c r="C56" s="10">
         <v>43573</v>
       </c>
       <c r="D56" s="21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E56" s="21" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="F56" s="37" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="G56" s="9">
         <v>1</v>
@@ -3595,31 +3687,31 @@
         <v>19</v>
       </c>
       <c r="I56" s="21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J56" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K56" s="21" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="L56" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="57" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B57" s="14"/>
       <c r="C57" s="10">
         <v>43573</v>
       </c>
       <c r="D57" s="21" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="E57" s="21" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="F57" s="37" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="G57" s="9">
         <v>1</v>
@@ -3628,31 +3720,31 @@
         <v>19</v>
       </c>
       <c r="I57" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J57" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K57" s="21" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="L57" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="58" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B58" s="14"/>
       <c r="C58" s="10">
         <v>43573</v>
       </c>
       <c r="D58" s="21" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="E58" s="21" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="F58" s="37" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="G58" s="9">
         <v>1</v>
@@ -3661,31 +3753,31 @@
         <v>19</v>
       </c>
       <c r="I58" s="21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J58" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K58" s="21" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="L58" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="59" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B59" s="14"/>
       <c r="C59" s="10">
         <v>43573</v>
       </c>
       <c r="D59" s="21" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="E59" s="21" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="F59" s="37" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="G59" s="9">
         <v>1</v>
@@ -3694,31 +3786,31 @@
         <v>19</v>
       </c>
       <c r="I59" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J59" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K59" s="9" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="L59" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="60" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B60" s="14"/>
       <c r="C60" s="10">
         <v>43573</v>
       </c>
-      <c r="D60" s="41" t="s">
-        <v>187</v>
-      </c>
-      <c r="E60" s="41" t="s">
-        <v>187</v>
+      <c r="D60" s="40" t="s">
+        <v>181</v>
+      </c>
+      <c r="E60" s="40" t="s">
+        <v>181</v>
       </c>
       <c r="F60" s="37" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="G60" s="9">
         <v>1</v>
@@ -3726,32 +3818,32 @@
       <c r="H60" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I60" s="42" t="s">
+      <c r="I60" s="41" t="s">
         <v>20</v>
       </c>
       <c r="J60" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K60" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="L60" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="61" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B61" s="14"/>
       <c r="C61" s="10">
         <v>43573</v>
       </c>
-      <c r="D61" s="42" t="s">
-        <v>189</v>
-      </c>
-      <c r="E61" s="42" t="s">
-        <v>190</v>
+      <c r="D61" s="41" t="s">
+        <v>183</v>
+      </c>
+      <c r="E61" s="41" t="s">
+        <v>184</v>
       </c>
       <c r="F61" s="37" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="G61" s="9">
         <v>1</v>
@@ -3759,32 +3851,32 @@
       <c r="H61" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I61" s="42" t="s">
-        <v>38</v>
+      <c r="I61" s="41" t="s">
+        <v>37</v>
       </c>
       <c r="J61" s="9" t="s">
         <v>21</v>
       </c>
       <c r="K61" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="L61" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="62" spans="2:12" s="2" customFormat="1" ht="172.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:12" s="2" customFormat="1" ht="172.5" customHeight="1">
       <c r="B62" s="14"/>
       <c r="C62" s="10">
         <v>43574</v>
       </c>
       <c r="D62" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="E62" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="F62" s="37" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="G62" s="9">
         <v>10</v>
@@ -3793,31 +3885,31 @@
         <v>19</v>
       </c>
       <c r="I62" s="21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J62" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K62" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="L62" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="63" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B63" s="14"/>
       <c r="C63" s="10">
         <v>43574</v>
       </c>
       <c r="D63" s="21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E63" s="21" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="F63" s="37" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="G63" s="9">
         <v>1</v>
@@ -3826,31 +3918,31 @@
         <v>19</v>
       </c>
       <c r="I63" s="21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J63" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K63" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="L63" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="64" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B64" s="14"/>
       <c r="C64" s="10">
         <v>43574</v>
       </c>
       <c r="D64" s="21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E64" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F64" s="37" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="G64" s="9">
         <v>1</v>
@@ -3862,28 +3954,28 @@
         <v>20</v>
       </c>
       <c r="J64" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K64" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="L64" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="65" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B65" s="14"/>
       <c r="C65" s="10">
         <v>43574</v>
       </c>
       <c r="D65" s="21" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="E65" s="21" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="F65" s="37" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="G65" s="9">
         <v>1</v>
@@ -3892,31 +3984,31 @@
         <v>19</v>
       </c>
       <c r="I65" s="21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J65" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K65" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="L65" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="66" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B66" s="14"/>
       <c r="C66" s="10">
         <v>43574</v>
       </c>
-      <c r="D66" s="42" t="s">
-        <v>205</v>
-      </c>
-      <c r="E66" s="42" t="s">
-        <v>206</v>
+      <c r="D66" s="41" t="s">
+        <v>199</v>
+      </c>
+      <c r="E66" s="41" t="s">
+        <v>200</v>
       </c>
       <c r="F66" s="37" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="G66" s="9">
         <v>1</v>
@@ -3924,32 +4016,32 @@
       <c r="H66" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I66" s="42" t="s">
+      <c r="I66" s="41" t="s">
         <v>20</v>
       </c>
       <c r="J66" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="K66" t="s">
-        <v>209</v>
+        <v>31</v>
+      </c>
+      <c r="K66" s="51" t="s">
+        <v>243</v>
       </c>
       <c r="L66" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="67" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B67" s="14"/>
       <c r="C67" s="10">
         <v>43574</v>
       </c>
-      <c r="D67" s="42" t="s">
-        <v>205</v>
-      </c>
-      <c r="E67" s="42" t="s">
-        <v>207</v>
+      <c r="D67" s="41" t="s">
+        <v>199</v>
+      </c>
+      <c r="E67" s="41" t="s">
+        <v>201</v>
       </c>
       <c r="F67" s="37" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G67" s="9">
         <v>1</v>
@@ -3957,32 +4049,32 @@
       <c r="H67" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I67" s="42" t="s">
+      <c r="I67" s="41" t="s">
         <v>20</v>
       </c>
       <c r="J67" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="K67" t="s">
-        <v>215</v>
+        <v>31</v>
+      </c>
+      <c r="K67" s="51" t="s">
+        <v>244</v>
       </c>
       <c r="L67" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="68" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B68" s="14"/>
       <c r="C68" s="10">
         <v>43575</v>
       </c>
       <c r="D68" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E68" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="F68" s="37" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G68" s="9">
         <v>1</v>
@@ -3990,32 +4082,32 @@
       <c r="H68" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I68" s="41" t="s">
-        <v>43</v>
+      <c r="I68" s="40" t="s">
+        <v>42</v>
       </c>
       <c r="J68" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K68" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="L68" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="69" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B69" s="14"/>
       <c r="C69" s="10">
         <v>43575</v>
       </c>
-      <c r="D69" s="41" t="s">
-        <v>72</v>
-      </c>
-      <c r="E69" s="41" t="s">
-        <v>211</v>
+      <c r="D69" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="E69" s="40" t="s">
+        <v>204</v>
       </c>
       <c r="F69" s="37" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="G69" s="9">
         <v>1</v>
@@ -4023,32 +4115,32 @@
       <c r="H69" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I69" s="41" t="s">
-        <v>38</v>
+      <c r="I69" s="40" t="s">
+        <v>37</v>
       </c>
       <c r="J69" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K69" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="L69" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="70" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B70" s="14"/>
       <c r="C70" s="10">
         <v>43575</v>
       </c>
-      <c r="D70" s="41" t="s">
-        <v>72</v>
-      </c>
-      <c r="E70" s="41" t="s">
-        <v>211</v>
+      <c r="D70" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="E70" s="40" t="s">
+        <v>204</v>
       </c>
       <c r="F70" s="37" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="G70" s="9">
         <v>1</v>
@@ -4056,32 +4148,32 @@
       <c r="H70" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I70" s="41" t="s">
-        <v>38</v>
+      <c r="I70" s="40" t="s">
+        <v>37</v>
       </c>
       <c r="J70" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="K70" s="50" t="s">
-        <v>216</v>
+        <v>31</v>
+      </c>
+      <c r="K70" s="51" t="s">
+        <v>242</v>
       </c>
       <c r="L70" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="71" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B71" s="14"/>
       <c r="C71" s="10">
         <v>43575</v>
       </c>
-      <c r="D71" s="41" t="s">
+      <c r="D71" s="40" t="s">
+        <v>127</v>
+      </c>
+      <c r="E71" s="40" t="s">
         <v>128</v>
       </c>
-      <c r="E71" s="41" t="s">
-        <v>129</v>
-      </c>
       <c r="F71" s="37" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="G71" s="9">
         <v>1</v>
@@ -4089,32 +4181,32 @@
       <c r="H71" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I71" s="41" t="s">
-        <v>43</v>
+      <c r="I71" s="40" t="s">
+        <v>42</v>
       </c>
       <c r="J71" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="K71" s="50" t="s">
-        <v>217</v>
+      <c r="K71" s="42" t="s">
+        <v>208</v>
       </c>
       <c r="L71" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="72" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B72" s="14"/>
       <c r="C72" s="10">
         <v>43575</v>
       </c>
-      <c r="D72" s="41" t="s">
-        <v>128</v>
-      </c>
-      <c r="E72" s="41" t="s">
-        <v>109</v>
+      <c r="D72" s="40" t="s">
+        <v>127</v>
+      </c>
+      <c r="E72" s="40" t="s">
+        <v>108</v>
       </c>
       <c r="F72" s="37" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="G72" s="9">
         <v>1</v>
@@ -4122,32 +4214,32 @@
       <c r="H72" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I72" s="41" t="s">
+      <c r="I72" s="40" t="s">
         <v>26</v>
       </c>
       <c r="J72" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="K72" s="41" t="s">
-        <v>218</v>
+      <c r="K72" s="40" t="s">
+        <v>209</v>
       </c>
       <c r="L72" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="73" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B73" s="14"/>
       <c r="C73" s="10">
         <v>43575</v>
       </c>
-      <c r="D73" s="41" t="s">
-        <v>219</v>
-      </c>
-      <c r="E73" s="41" t="s">
-        <v>220</v>
+      <c r="D73" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="E73" s="40" t="s">
+        <v>211</v>
       </c>
       <c r="F73" s="37" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="G73" s="9">
         <v>1</v>
@@ -4155,32 +4247,32 @@
       <c r="H73" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I73" s="41" t="s">
-        <v>221</v>
+      <c r="I73" s="40" t="s">
+        <v>212</v>
       </c>
       <c r="J73" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="K73" s="50" t="s">
-        <v>222</v>
+      <c r="K73" s="42" t="s">
+        <v>213</v>
       </c>
       <c r="L73" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="74" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B74" s="14"/>
       <c r="C74" s="10">
         <v>43575</v>
       </c>
-      <c r="D74" s="41" t="s">
+      <c r="D74" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="E74" s="41" t="s">
+      <c r="E74" s="40" t="s">
         <v>25</v>
       </c>
       <c r="F74" s="37" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="G74" s="9">
         <v>1</v>
@@ -4188,153 +4280,554 @@
       <c r="H74" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I74" s="41" t="s">
+      <c r="I74" s="40" t="s">
         <v>26</v>
       </c>
       <c r="J74" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="K74" s="50" t="s">
+      <c r="K74" s="42" t="s">
+        <v>214</v>
+      </c>
+      <c r="L74" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B75" s="14"/>
+      <c r="C75" s="10">
+        <v>43577</v>
+      </c>
+      <c r="D75" t="s">
+        <v>215</v>
+      </c>
+      <c r="E75" t="s">
+        <v>216</v>
+      </c>
+      <c r="F75" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="G75" s="9">
+        <v>1</v>
+      </c>
+      <c r="H75" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I75" t="s">
+        <v>30</v>
+      </c>
+      <c r="J75" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="K75" s="42" t="s">
+        <v>218</v>
+      </c>
+      <c r="L75" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B76" s="14"/>
+      <c r="C76" s="10">
+        <v>43577</v>
+      </c>
+      <c r="D76" t="s">
+        <v>215</v>
+      </c>
+      <c r="E76" t="s">
+        <v>222</v>
+      </c>
+      <c r="F76" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="G76" s="9">
+        <v>1</v>
+      </c>
+      <c r="H76" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I76" t="s">
+        <v>30</v>
+      </c>
+      <c r="J76" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="K76" s="42" t="s">
+        <v>220</v>
+      </c>
+      <c r="L76" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B77" s="14"/>
+      <c r="C77" s="10">
+        <v>43577</v>
+      </c>
+      <c r="D77" t="s">
+        <v>215</v>
+      </c>
+      <c r="E77" t="s">
+        <v>221</v>
+      </c>
+      <c r="F77" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="G77" s="9">
+        <v>1</v>
+      </c>
+      <c r="H77" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I77" t="s">
+        <v>30</v>
+      </c>
+      <c r="J77" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="K77" s="42" t="s">
         <v>223</v>
       </c>
-      <c r="L74" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="75" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B75" s="14"/>
-      <c r="C75" s="22"/>
-      <c r="D75" s="21"/>
-      <c r="E75" s="21"/>
-      <c r="F75" s="37"/>
-      <c r="G75" s="9"/>
-      <c r="H75" s="9"/>
-      <c r="I75" s="21"/>
-      <c r="J75" s="9"/>
-      <c r="K75" s="21"/>
-      <c r="L75" s="9"/>
-    </row>
-    <row r="76" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B76" s="45" t="s">
+      <c r="L77" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="78" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B78" s="14"/>
+      <c r="C78" s="10">
+        <v>43577</v>
+      </c>
+      <c r="D78" t="s">
+        <v>224</v>
+      </c>
+      <c r="E78" t="s">
+        <v>225</v>
+      </c>
+      <c r="F78" s="37" t="s">
+        <v>226</v>
+      </c>
+      <c r="G78" s="9">
+        <v>1</v>
+      </c>
+      <c r="H78" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I78" t="s">
+        <v>30</v>
+      </c>
+      <c r="J78" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="K78" s="42" t="s">
+        <v>227</v>
+      </c>
+      <c r="L78" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B79" s="14"/>
+      <c r="C79" s="10">
+        <v>43577</v>
+      </c>
+      <c r="D79" t="s">
+        <v>228</v>
+      </c>
+      <c r="E79" t="s">
+        <v>229</v>
+      </c>
+      <c r="F79" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="G79" s="9">
+        <v>1</v>
+      </c>
+      <c r="H79" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I79" t="s">
+        <v>26</v>
+      </c>
+      <c r="J79" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K79" s="42" t="s">
+        <v>231</v>
+      </c>
+      <c r="L79" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="80" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B80" s="14"/>
+      <c r="C80" s="10">
+        <v>43577</v>
+      </c>
+      <c r="D80" t="s">
+        <v>232</v>
+      </c>
+      <c r="E80" t="s">
+        <v>128</v>
+      </c>
+      <c r="F80" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="G80" s="9">
+        <v>1</v>
+      </c>
+      <c r="H80" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I80" t="s">
+        <v>42</v>
+      </c>
+      <c r="J80" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K80" s="42" t="s">
+        <v>233</v>
+      </c>
+      <c r="L80" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="81" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B81" s="14"/>
+      <c r="C81" s="10">
+        <v>43577</v>
+      </c>
+      <c r="D81" s="50" t="s">
+        <v>234</v>
+      </c>
+      <c r="E81" s="50" t="s">
+        <v>235</v>
+      </c>
+      <c r="F81" s="37" t="s">
+        <v>236</v>
+      </c>
+      <c r="G81" s="9">
+        <v>1</v>
+      </c>
+      <c r="H81" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I81" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="J81" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K81" s="51" t="s">
+        <v>239</v>
+      </c>
+      <c r="L81" s="9"/>
+    </row>
+    <row r="82" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B82" s="14"/>
+      <c r="C82" s="10">
+        <v>43577</v>
+      </c>
+      <c r="D82" t="s">
+        <v>68</v>
+      </c>
+      <c r="E82" t="s">
+        <v>123</v>
+      </c>
+      <c r="F82" s="37" t="s">
+        <v>237</v>
+      </c>
+      <c r="G82" s="9">
+        <v>1</v>
+      </c>
+      <c r="H82" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I82" t="s">
+        <v>58</v>
+      </c>
+      <c r="J82" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="K82" s="51" t="s">
+        <v>238</v>
+      </c>
+      <c r="L82" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="83" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B83" s="14"/>
+      <c r="C83" s="10">
+        <v>43577</v>
+      </c>
+      <c r="D83" t="s">
+        <v>150</v>
+      </c>
+      <c r="E83" t="s">
+        <v>151</v>
+      </c>
+      <c r="F83" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="G83" s="9">
+        <v>1</v>
+      </c>
+      <c r="H83" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I83" t="s">
+        <v>20</v>
+      </c>
+      <c r="J83" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K83" s="51" t="s">
+        <v>240</v>
+      </c>
+      <c r="L83" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="84" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B84" s="14"/>
+      <c r="C84" s="10">
+        <v>43577</v>
+      </c>
+      <c r="D84" s="54" t="s">
+        <v>249</v>
+      </c>
+      <c r="E84" s="54" t="s">
+        <v>250</v>
+      </c>
+      <c r="F84" s="37" t="s">
+        <v>251</v>
+      </c>
+      <c r="G84" s="9">
+        <v>1</v>
+      </c>
+      <c r="H84" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I84" t="s">
+        <v>20</v>
+      </c>
+      <c r="J84" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K84" s="51" t="s">
+        <v>252</v>
+      </c>
+      <c r="L84" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="85" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B85" s="14"/>
+      <c r="C85" s="22"/>
+      <c r="D85" s="40"/>
+      <c r="E85" s="40"/>
+      <c r="F85" s="37"/>
+      <c r="G85" s="9"/>
+      <c r="H85" s="9"/>
+      <c r="I85" s="40"/>
+      <c r="J85" s="9"/>
+      <c r="K85" s="42"/>
+      <c r="L85" s="9"/>
+    </row>
+    <row r="86" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B86" s="14"/>
+      <c r="C86" s="22"/>
+      <c r="D86" s="40"/>
+      <c r="E86" s="40"/>
+      <c r="F86" s="37"/>
+      <c r="G86" s="9"/>
+      <c r="H86" s="9"/>
+      <c r="I86" s="40"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="42"/>
+      <c r="L86" s="9"/>
+    </row>
+    <row r="87" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B87" s="14"/>
+      <c r="C87" s="22"/>
+      <c r="D87" s="40"/>
+      <c r="E87" s="40"/>
+      <c r="F87" s="37"/>
+      <c r="G87" s="9"/>
+      <c r="H87" s="9"/>
+      <c r="I87" s="40"/>
+      <c r="J87" s="9"/>
+      <c r="K87" s="42"/>
+      <c r="L87" s="9"/>
+    </row>
+    <row r="88" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B88" s="14"/>
+      <c r="C88" s="22"/>
+      <c r="D88" s="40"/>
+      <c r="E88" s="40"/>
+      <c r="F88" s="37"/>
+      <c r="G88" s="9"/>
+      <c r="H88" s="9"/>
+      <c r="I88" s="40"/>
+      <c r="J88" s="9"/>
+      <c r="K88" s="42"/>
+      <c r="L88" s="9"/>
+    </row>
+    <row r="89" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B89" s="14"/>
+      <c r="C89" s="22"/>
+      <c r="D89" s="40"/>
+      <c r="E89" s="40"/>
+      <c r="F89" s="37"/>
+      <c r="G89" s="9"/>
+      <c r="H89" s="9"/>
+      <c r="I89" s="40"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="42"/>
+      <c r="L89" s="9"/>
+    </row>
+    <row r="90" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B90" s="14"/>
+      <c r="C90" s="22"/>
+      <c r="D90" s="21"/>
+      <c r="E90" s="21"/>
+      <c r="F90" s="37"/>
+      <c r="G90" s="9"/>
+      <c r="H90" s="9"/>
+      <c r="I90" s="21"/>
+      <c r="J90" s="9"/>
+      <c r="K90" s="21"/>
+      <c r="L90" s="9"/>
+    </row>
+    <row r="91" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B91" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="C76" s="46"/>
-      <c r="D76" s="23"/>
-      <c r="E76" s="23"/>
-      <c r="F76" s="24"/>
-      <c r="G76" s="24">
+      <c r="C91" s="46"/>
+      <c r="D91" s="23"/>
+      <c r="E91" s="23"/>
+      <c r="F91" s="24"/>
+      <c r="G91" s="24">
         <f>SUM(G3:G29)</f>
         <v>33</v>
       </c>
-      <c r="H76" s="24"/>
-      <c r="I76" s="24"/>
-      <c r="J76" s="9"/>
-      <c r="K76" s="33"/>
-      <c r="L76" s="9"/>
-    </row>
-    <row r="78" spans="2:12" ht="75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B78" s="47"/>
-      <c r="C78" s="48"/>
-      <c r="D78" s="48"/>
-      <c r="E78" s="48"/>
-      <c r="F78" s="48"/>
-      <c r="G78" s="48"/>
-      <c r="H78" s="48"/>
-      <c r="I78" s="48"/>
-      <c r="J78" s="49"/>
-      <c r="K78" s="34"/>
-      <c r="L78" s="35"/>
+      <c r="H91" s="24"/>
+      <c r="I91" s="24"/>
+      <c r="J91" s="9"/>
+      <c r="K91" s="33"/>
+      <c r="L91" s="9"/>
+    </row>
+    <row r="93" spans="2:12" ht="75" customHeight="1">
+      <c r="B93" s="47"/>
+      <c r="C93" s="48"/>
+      <c r="D93" s="48"/>
+      <c r="E93" s="48"/>
+      <c r="F93" s="48"/>
+      <c r="G93" s="48"/>
+      <c r="H93" s="48"/>
+      <c r="I93" s="48"/>
+      <c r="J93" s="49"/>
+      <c r="K93" s="34"/>
+      <c r="L93" s="35"/>
     </row>
   </sheetData>
-  <autoFilter ref="C2:L76" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="C2:L91"/>
   <sortState ref="B3:I41">
     <sortCondition ref="B3"/>
   </sortState>
   <mergeCells count="4">
     <mergeCell ref="C1:J1"/>
     <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B78:J78"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B93:J93"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J76" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J91">
       <formula1>"H5页面制作,页面跳转修改,页面修改,H5整站制作,PC制作&amp;折成3个H5页面"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J75" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J90">
       <formula1>"H5页面制作,页面跳转修改,页面修改,H5整站制作,PC制作&amp;折成3个H5页面,跳转设置,摘包"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="K4" r:id="rId1" tooltip="https://xhbup.com/sgxcmy/" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="K5" r:id="rId2" tooltip="https://xhbup.com/qb/" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="K6" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="K8" r:id="rId4" tooltip="https://xhbup.com/quban" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="K9" r:id="rId5" tooltip="https://www.xhbup.com/gdkpdz/" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="K10" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="K12" r:id="rId7" tooltip="https://xhbup.com/maokong/" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="K13" r:id="rId8" tooltip="https://xhbup.com/quban1/" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="K14" r:id="rId9" tooltip="https://xhbup.com/quban2/" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="K15" r:id="rId10" tooltip="https://xhbup.com/huchou/" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="K16" r:id="rId11" tooltip="https://xhbup.com/huchou1/" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="K17" r:id="rId12" tooltip="https://xhbup.com/qhxs/" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="K18" r:id="rId13" tooltip="https://xhbup.com/feicui/" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="K19" r:id="rId14" tooltip="https://xhbup.com/yfmmwljs/tg/" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="K20" r:id="rId15" tooltip="https://xhbup.com/xiyou/" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="K21" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="K22" r:id="rId17" tooltip="https://xhbup.com/hdmp/" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="K23" r:id="rId18" tooltip="https://xhbup.com/fds/" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="K24" r:id="rId19" tooltip="https://xhbup.com/fanlv/https://xhbup.com/fanlv/" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="K25" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="K26" r:id="rId21" tooltip="https://xhbup.com/danke/" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="K27" r:id="rId22" tooltip="https://xhbup.com/sendu/" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="K28" r:id="rId23" tooltip="https://www.xhbup.com/wcwl/" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="K29" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="K30" r:id="rId25" tooltip="https://www.xhbup.com/jianfu/" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="K31" r:id="rId26" tooltip="https://www.xhbup.com/yixing/" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="K32" r:id="rId27" tooltip="https://xhbup.com/quban1/" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="K33" r:id="rId28" tooltip="https://xhbup.com/quban1/" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="K34" r:id="rId29" tooltip="https://xhbup.com/yfmmwljs/tg/" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="K35" r:id="rId30" tooltip="https://xhbup.com/yinxiuer/" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="K36" r:id="rId31" tooltip="https://xhbup.com/tingcai/" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="K37" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="K39" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="K40" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="K41" r:id="rId35" tooltip="https://xhbup.com/hylys/" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="K42" r:id="rId36" tooltip="https://xhbup.com/jzzkj2/tp/" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="K43" r:id="rId37" tooltip="https://xhbup.com/tiancheng/" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="K44" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="K45" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="K46" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="K47" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="K48" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="K49" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="K50" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="K51" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="K52" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="K53" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="K54" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="K55" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="K56" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="K57" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="K58" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="K59" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="K61" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="K62" r:id="rId55" display="https://xhbup.com/hdws1/" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="K63" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="K64" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="K65" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="K66" r:id="rId59" xr:uid="{6A81AB29-D284-47AA-B505-CBE373234170}"/>
-    <hyperlink ref="K67" r:id="rId60" xr:uid="{76D5765D-E547-4C27-8929-56BF67545A5C}"/>
-    <hyperlink ref="K68" r:id="rId61" xr:uid="{23650A3D-3039-43DA-95D6-F75CA0E601EC}"/>
-    <hyperlink ref="K69" r:id="rId62" xr:uid="{DCA4E6EB-FE58-470C-BD88-FFA7F9B13FCC}"/>
-    <hyperlink ref="K70" r:id="rId63" xr:uid="{C0654FC1-E5A7-48D7-80D0-B55A4EC3C0C9}"/>
-    <hyperlink ref="K71" r:id="rId64" xr:uid="{156699C4-96E9-4BC4-9468-73B439124871}"/>
-    <hyperlink ref="K73" r:id="rId65" xr:uid="{3E595DC2-0E27-410A-A561-0176E4801F46}"/>
-    <hyperlink ref="K74" r:id="rId66" xr:uid="{536E9DC9-F13A-4A69-BBE7-7D1F348CFAD8}"/>
+    <hyperlink ref="K4" r:id="rId1"/>
+    <hyperlink ref="K5" r:id="rId2" tooltip="https://xhbup.com/qb/"/>
+    <hyperlink ref="K6" r:id="rId3"/>
+    <hyperlink ref="K8" r:id="rId4" tooltip="https://xhbup.com/quban"/>
+    <hyperlink ref="K9" r:id="rId5" tooltip="https://www.xhbup.com/gdkpdz/"/>
+    <hyperlink ref="K10" r:id="rId6"/>
+    <hyperlink ref="K12" r:id="rId7" tooltip="https://xhbup.com/maokong/"/>
+    <hyperlink ref="K13" r:id="rId8" tooltip="https://xhbup.com/quban1/"/>
+    <hyperlink ref="K14" r:id="rId9" tooltip="https://xhbup.com/quban2/"/>
+    <hyperlink ref="K15" r:id="rId10" tooltip="https://xhbup.com/huchou/"/>
+    <hyperlink ref="K16" r:id="rId11" tooltip="https://xhbup.com/huchou1/"/>
+    <hyperlink ref="K17" r:id="rId12" tooltip="https://xhbup.com/qhxs/"/>
+    <hyperlink ref="K18" r:id="rId13" tooltip="https://xhbup.com/feicui/"/>
+    <hyperlink ref="K19" r:id="rId14" tooltip="https://xhbup.com/yfmmwljs/tg/"/>
+    <hyperlink ref="K20" r:id="rId15" tooltip="https://xhbup.com/xiyou/"/>
+    <hyperlink ref="K21" r:id="rId16"/>
+    <hyperlink ref="K22" r:id="rId17" tooltip="https://xhbup.com/hdmp/"/>
+    <hyperlink ref="K23" r:id="rId18" tooltip="https://xhbup.com/fds/"/>
+    <hyperlink ref="K24" r:id="rId19" tooltip="https://xhbup.com/fanlv/https://xhbup.com/fanlv/"/>
+    <hyperlink ref="K25" r:id="rId20"/>
+    <hyperlink ref="K26" r:id="rId21" tooltip="https://xhbup.com/danke/"/>
+    <hyperlink ref="K27" r:id="rId22" tooltip="https://xhbup.com/sendu/"/>
+    <hyperlink ref="K28" r:id="rId23" tooltip="https://www.xhbup.com/wcwl/"/>
+    <hyperlink ref="K29" r:id="rId24"/>
+    <hyperlink ref="K30" r:id="rId25" tooltip="https://www.xhbup.com/jianfu/"/>
+    <hyperlink ref="K31" r:id="rId26" tooltip="https://www.xhbup.com/yixing/"/>
+    <hyperlink ref="K32" r:id="rId27" tooltip="https://xhbup.com/quban1/"/>
+    <hyperlink ref="K33" r:id="rId28" tooltip="https://xhbup.com/quban1/"/>
+    <hyperlink ref="K34" r:id="rId29" tooltip="https://xhbup.com/yfmmwljs/tg/"/>
+    <hyperlink ref="K35" r:id="rId30" tooltip="https://xhbup.com/yinxiuer/"/>
+    <hyperlink ref="K36" r:id="rId31" tooltip="https://xhbup.com/tingcai/"/>
+    <hyperlink ref="K37" r:id="rId32"/>
+    <hyperlink ref="K39" r:id="rId33"/>
+    <hyperlink ref="K40" r:id="rId34"/>
+    <hyperlink ref="K41" r:id="rId35"/>
+    <hyperlink ref="K42" r:id="rId36" tooltip="https://xhbup.com/jzzkj2/tp/"/>
+    <hyperlink ref="K43" r:id="rId37" tooltip="https://xhbup.com/tiancheng/"/>
+    <hyperlink ref="K44" r:id="rId38"/>
+    <hyperlink ref="K45" r:id="rId39"/>
+    <hyperlink ref="K46" r:id="rId40"/>
+    <hyperlink ref="K47" r:id="rId41"/>
+    <hyperlink ref="K48" r:id="rId42"/>
+    <hyperlink ref="K49" r:id="rId43"/>
+    <hyperlink ref="K50" r:id="rId44"/>
+    <hyperlink ref="K51" r:id="rId45"/>
+    <hyperlink ref="K52" r:id="rId46"/>
+    <hyperlink ref="K53" r:id="rId47"/>
+    <hyperlink ref="K54" r:id="rId48"/>
+    <hyperlink ref="K55" r:id="rId49"/>
+    <hyperlink ref="K56" r:id="rId50"/>
+    <hyperlink ref="K57" r:id="rId51"/>
+    <hyperlink ref="K58" r:id="rId52"/>
+    <hyperlink ref="K59" r:id="rId53"/>
+    <hyperlink ref="K61" r:id="rId54"/>
+    <hyperlink ref="K62" r:id="rId55" display="https://xhbup.com/hdws1/"/>
+    <hyperlink ref="K63" r:id="rId56"/>
+    <hyperlink ref="K64" r:id="rId57"/>
+    <hyperlink ref="K65" r:id="rId58"/>
+    <hyperlink ref="K66" r:id="rId59"/>
+    <hyperlink ref="K67" r:id="rId60"/>
+    <hyperlink ref="K68" r:id="rId61"/>
+    <hyperlink ref="K69" r:id="rId62"/>
+    <hyperlink ref="K70" r:id="rId63"/>
+    <hyperlink ref="K71" r:id="rId64"/>
+    <hyperlink ref="K73" r:id="rId65"/>
+    <hyperlink ref="K74" r:id="rId66"/>
+    <hyperlink ref="K75" r:id="rId67"/>
+    <hyperlink ref="K76" r:id="rId68"/>
+    <hyperlink ref="K77" r:id="rId69"/>
+    <hyperlink ref="K78" r:id="rId70"/>
+    <hyperlink ref="K80" r:id="rId71"/>
+    <hyperlink ref="K82" r:id="rId72"/>
+    <hyperlink ref="K81" r:id="rId73"/>
+    <hyperlink ref="K84" r:id="rId74"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId67"/>
-  <drawing r:id="rId68"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId75"/>
+  <drawing r:id="rId76"/>
 </worksheet>
 </file>
--- a/业务线技术支持登记表格式.xlsx
+++ b/业务线技术支持登记表格式.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="263">
   <si>
     <t>业务线支持登记表</t>
   </si>
@@ -867,6 +867,43 @@
   </si>
   <si>
     <t>https://xhbup.com/gangyi/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/yinxiuer/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>好享瘦</t>
+  </si>
+  <si>
+    <t>揭阳市天元日用品有限公司</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/tianyuan/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>减肥</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>丰满</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.xhbup.com/lanzi/</t>
+  </si>
+  <si>
+    <t>东莞市瑞梦鞋业有限公司</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲁巴哥</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.xhbup.com/ruimeng/</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
@@ -1360,6 +1397,21 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1380,21 +1432,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1442,7 +1479,7 @@
         <xdr:cNvPr id="6" name="图片 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1454,7 +1491,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1770,7 +1807,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="F78" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K84" sqref="K84"/>
+      <selection pane="bottomRight" activeCell="K88" sqref="K88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1795,24 +1832,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:17" s="1" customFormat="1" ht="46.5" customHeight="1">
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
       <c r="K1" s="25"/>
       <c r="L1" s="7"/>
-      <c r="N1" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="O1" s="44"/>
-      <c r="P1" s="44"/>
-      <c r="Q1" s="44"/>
+      <c r="N1" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
     </row>
     <row r="2" spans="2:17" ht="21.75" customHeight="1">
       <c r="B2" s="8" t="s">
@@ -1933,7 +1970,7 @@
       <c r="J4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="K4" s="52" t="s">
+      <c r="K4" s="45" t="s">
         <v>241</v>
       </c>
       <c r="L4" s="9" t="s">
@@ -2777,7 +2814,7 @@
       <c r="J29" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="K29" s="52" t="s">
+      <c r="K29" s="45" t="s">
         <v>248</v>
       </c>
       <c r="L29" s="9" t="s">
@@ -3160,7 +3197,7 @@
       <c r="J40" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="K40" s="53" t="s">
+      <c r="K40" s="46" t="s">
         <v>233</v>
       </c>
       <c r="L40" s="9" t="s">
@@ -3195,7 +3232,7 @@
       <c r="J41" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="K41" s="53" t="s">
+      <c r="K41" s="46" t="s">
         <v>247</v>
       </c>
       <c r="L41" s="9" t="s">
@@ -3428,7 +3465,7 @@
       <c r="J48" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="K48" s="53" t="s">
+      <c r="K48" s="46" t="s">
         <v>246</v>
       </c>
       <c r="L48" s="9" t="s">
@@ -3527,7 +3564,7 @@
       <c r="J51" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="K51" s="53" t="s">
+      <c r="K51" s="46" t="s">
         <v>245</v>
       </c>
       <c r="L51" s="9" t="s">
@@ -4022,7 +4059,7 @@
       <c r="J66" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="K66" s="51" t="s">
+      <c r="K66" s="44" t="s">
         <v>243</v>
       </c>
       <c r="L66" s="9" t="s">
@@ -4055,7 +4092,7 @@
       <c r="J67" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="K67" s="51" t="s">
+      <c r="K67" s="44" t="s">
         <v>244</v>
       </c>
       <c r="L67" s="9" t="s">
@@ -4154,7 +4191,7 @@
       <c r="J70" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="K70" s="51" t="s">
+      <c r="K70" s="44" t="s">
         <v>242</v>
       </c>
       <c r="L70" s="9" t="s">
@@ -4496,10 +4533,10 @@
       <c r="C81" s="10">
         <v>43577</v>
       </c>
-      <c r="D81" s="50" t="s">
+      <c r="D81" s="43" t="s">
         <v>234</v>
       </c>
-      <c r="E81" s="50" t="s">
+      <c r="E81" s="43" t="s">
         <v>235</v>
       </c>
       <c r="F81" s="37" t="s">
@@ -4511,13 +4548,13 @@
       <c r="H81" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I81" s="50" t="s">
+      <c r="I81" s="43" t="s">
         <v>54</v>
       </c>
       <c r="J81" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="K81" s="51" t="s">
+      <c r="K81" s="44" t="s">
         <v>239</v>
       </c>
       <c r="L81" s="9"/>
@@ -4548,7 +4585,7 @@
       <c r="J82" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K82" s="51" t="s">
+      <c r="K82" s="44" t="s">
         <v>238</v>
       </c>
       <c r="L82" s="9" t="s">
@@ -4581,7 +4618,7 @@
       <c r="J83" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="K83" s="51" t="s">
+      <c r="K83" s="44" t="s">
         <v>240</v>
       </c>
       <c r="L83" s="9" t="s">
@@ -4593,10 +4630,10 @@
       <c r="C84" s="10">
         <v>43577</v>
       </c>
-      <c r="D84" s="54" t="s">
+      <c r="D84" s="47" t="s">
         <v>249</v>
       </c>
-      <c r="E84" s="54" t="s">
+      <c r="E84" s="47" t="s">
         <v>250</v>
       </c>
       <c r="F84" s="37" t="s">
@@ -4614,7 +4651,7 @@
       <c r="J84" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="K84" s="51" t="s">
+      <c r="K84" s="44" t="s">
         <v>252</v>
       </c>
       <c r="L84" s="9" t="s">
@@ -4623,55 +4660,135 @@
     </row>
     <row r="85" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B85" s="14"/>
-      <c r="C85" s="22"/>
-      <c r="D85" s="40"/>
-      <c r="E85" s="40"/>
-      <c r="F85" s="37"/>
-      <c r="G85" s="9"/>
-      <c r="H85" s="9"/>
-      <c r="I85" s="40"/>
-      <c r="J85" s="9"/>
-      <c r="K85" s="42"/>
-      <c r="L85" s="9"/>
+      <c r="C85" s="10">
+        <v>43578</v>
+      </c>
+      <c r="D85" s="47" t="s">
+        <v>115</v>
+      </c>
+      <c r="E85" s="47" t="s">
+        <v>116</v>
+      </c>
+      <c r="F85" s="37" t="s">
+        <v>251</v>
+      </c>
+      <c r="G85" s="9">
+        <v>1</v>
+      </c>
+      <c r="H85" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I85" t="s">
+        <v>58</v>
+      </c>
+      <c r="J85" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K85" s="42" t="s">
+        <v>253</v>
+      </c>
+      <c r="L85" s="9" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="86" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B86" s="14"/>
-      <c r="C86" s="22"/>
-      <c r="D86" s="40"/>
-      <c r="E86" s="40"/>
-      <c r="F86" s="37"/>
-      <c r="G86" s="9"/>
-      <c r="H86" s="9"/>
-      <c r="I86" s="40"/>
-      <c r="J86" s="9"/>
-      <c r="K86" s="42"/>
-      <c r="L86" s="9"/>
+      <c r="C86" s="10">
+        <v>43578</v>
+      </c>
+      <c r="D86" s="47" t="s">
+        <v>254</v>
+      </c>
+      <c r="E86" s="47" t="s">
+        <v>255</v>
+      </c>
+      <c r="F86" s="37" t="s">
+        <v>257</v>
+      </c>
+      <c r="G86" s="9">
+        <v>1</v>
+      </c>
+      <c r="H86" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I86" t="s">
+        <v>58</v>
+      </c>
+      <c r="J86" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="K86" s="42" t="s">
+        <v>256</v>
+      </c>
+      <c r="L86" s="9" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="87" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B87" s="14"/>
-      <c r="C87" s="22"/>
-      <c r="D87" s="40"/>
-      <c r="E87" s="40"/>
-      <c r="F87" s="37"/>
-      <c r="G87" s="9"/>
-      <c r="H87" s="9"/>
-      <c r="I87" s="40"/>
-      <c r="J87" s="9"/>
-      <c r="K87" s="42"/>
-      <c r="L87" s="9"/>
+      <c r="C87" s="10">
+        <v>43578</v>
+      </c>
+      <c r="D87" t="s">
+        <v>71</v>
+      </c>
+      <c r="E87" t="s">
+        <v>204</v>
+      </c>
+      <c r="F87" s="37" t="s">
+        <v>258</v>
+      </c>
+      <c r="G87" s="9">
+        <v>1</v>
+      </c>
+      <c r="H87" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I87" t="s">
+        <v>37</v>
+      </c>
+      <c r="J87" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="K87" t="s">
+        <v>259</v>
+      </c>
+      <c r="L87" s="9" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="88" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B88" s="14"/>
-      <c r="C88" s="22"/>
-      <c r="D88" s="40"/>
-      <c r="E88" s="40"/>
-      <c r="F88" s="37"/>
-      <c r="G88" s="9"/>
-      <c r="H88" s="9"/>
-      <c r="I88" s="40"/>
-      <c r="J88" s="9"/>
-      <c r="K88" s="42"/>
-      <c r="L88" s="9"/>
+      <c r="C88" s="10">
+        <v>43578</v>
+      </c>
+      <c r="D88" t="s">
+        <v>47</v>
+      </c>
+      <c r="E88" t="s">
+        <v>260</v>
+      </c>
+      <c r="F88" s="37" t="s">
+        <v>261</v>
+      </c>
+      <c r="G88" s="9">
+        <v>1</v>
+      </c>
+      <c r="H88" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I88" t="s">
+        <v>54</v>
+      </c>
+      <c r="J88" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="K88" s="42" t="s">
+        <v>262</v>
+      </c>
+      <c r="L88" s="9" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="89" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B89" s="14"/>
@@ -4700,10 +4817,10 @@
       <c r="L90" s="9"/>
     </row>
     <row r="91" spans="2:12" ht="21.75" customHeight="1">
-      <c r="B91" s="45" t="s">
+      <c r="B91" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="C91" s="46"/>
+      <c r="C91" s="51"/>
       <c r="D91" s="23"/>
       <c r="E91" s="23"/>
       <c r="F91" s="24"/>
@@ -4718,15 +4835,15 @@
       <c r="L91" s="9"/>
     </row>
     <row r="93" spans="2:12" ht="75" customHeight="1">
-      <c r="B93" s="47"/>
-      <c r="C93" s="48"/>
-      <c r="D93" s="48"/>
-      <c r="E93" s="48"/>
-      <c r="F93" s="48"/>
-      <c r="G93" s="48"/>
-      <c r="H93" s="48"/>
-      <c r="I93" s="48"/>
-      <c r="J93" s="49"/>
+      <c r="B93" s="52"/>
+      <c r="C93" s="53"/>
+      <c r="D93" s="53"/>
+      <c r="E93" s="53"/>
+      <c r="F93" s="53"/>
+      <c r="G93" s="53"/>
+      <c r="H93" s="53"/>
+      <c r="I93" s="53"/>
+      <c r="J93" s="54"/>
       <c r="K93" s="34"/>
       <c r="L93" s="35"/>
     </row>
@@ -4825,9 +4942,12 @@
     <hyperlink ref="K82" r:id="rId72"/>
     <hyperlink ref="K81" r:id="rId73"/>
     <hyperlink ref="K84" r:id="rId74"/>
+    <hyperlink ref="K85" r:id="rId75"/>
+    <hyperlink ref="K86" r:id="rId76"/>
+    <hyperlink ref="K88" r:id="rId77"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId75"/>
-  <drawing r:id="rId76"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId78"/>
+  <drawing r:id="rId79"/>
 </worksheet>
 </file>
--- a/业务线技术支持登记表格式.xlsx
+++ b/业务线技术支持登记表格式.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="263">
   <si>
     <t>业务线支持登记表</t>
   </si>
@@ -1479,7 +1479,7 @@
         <xdr:cNvPr id="6" name="图片 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1491,7 +1491,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1807,7 +1807,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="F78" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K88" sqref="K88"/>
+      <selection pane="bottomRight" activeCell="F89" sqref="F89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -4792,16 +4792,36 @@
     </row>
     <row r="89" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B89" s="14"/>
-      <c r="C89" s="22"/>
-      <c r="D89" s="40"/>
-      <c r="E89" s="40"/>
-      <c r="F89" s="37"/>
-      <c r="G89" s="9"/>
-      <c r="H89" s="9"/>
-      <c r="I89" s="40"/>
-      <c r="J89" s="9"/>
-      <c r="K89" s="42"/>
-      <c r="L89" s="9"/>
+      <c r="C89" s="10">
+        <v>43578</v>
+      </c>
+      <c r="D89" t="s">
+        <v>71</v>
+      </c>
+      <c r="E89" t="s">
+        <v>204</v>
+      </c>
+      <c r="F89" s="37" t="s">
+        <v>258</v>
+      </c>
+      <c r="G89" s="9">
+        <v>1</v>
+      </c>
+      <c r="H89" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I89" t="s">
+        <v>37</v>
+      </c>
+      <c r="J89" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K89" t="s">
+        <v>259</v>
+      </c>
+      <c r="L89" s="9" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="90" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B90" s="14"/>

--- a/业务线技术支持登记表格式.xlsx
+++ b/业务线技术支持登记表格式.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$2:$L$91</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$2:$L$102</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="285">
   <si>
     <t>业务线支持登记表</t>
   </si>
@@ -445,10 +445,6 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>https://xhbup.com/sxhzp/</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
     <t>https://xhbup.com/qudou/</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
@@ -488,14 +484,6 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>https://xhbup.com/danke/</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://xhbup.com/zhishang1/</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
     <t>皮肤</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
@@ -532,18 +520,6 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>https://xhbup.com/xiyou/</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://xhbup.com/qb/</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://xhbup.com/kehong/</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
     <t>易联支付有限公司</t>
   </si>
   <si>
@@ -565,13 +541,6 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>https://xhbup.com/mizhua1/
-https://xhbup.com/mizhua2/
-https://xhbup.com/mizhua3/
-https://xhbup.com/mizhua4/</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
     <t>朱鹏程</t>
   </si>
   <si>
@@ -579,10 +548,6 @@
   </si>
   <si>
     <t>平胸</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://xhbup.com/yuehe/</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
@@ -635,6 +600,256 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
+    <t>祛斑</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>执象(上海)有限公司</t>
+  </si>
+  <si>
+    <t>佛山市雷米高动物营养保健科技有限公司</t>
+  </si>
+  <si>
+    <t>犬粮</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.xhbup.com/kehong1/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>张纯</t>
+  </si>
+  <si>
+    <t>珠海熙岚春天化妆品有限公司</t>
+  </si>
+  <si>
+    <t>珠海市鑫瀚生物科技有限公司</t>
+  </si>
+  <si>
+    <t>祛斑</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>肇庆深度日用化妆品有限公司</t>
+  </si>
+  <si>
+    <t>东莞市兰姿化妆品有限公司</t>
+  </si>
+  <si>
+    <t>丰胸</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.xhbup.com/gdkpdz/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/zhimei/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.xhbup.com/lefeng1/</t>
+  </si>
+  <si>
+    <t>广州瓷妆化妆品有限公司 </t>
+  </si>
+  <si>
+    <t>汕尾市康思诺贸易有限公司</t>
+  </si>
+  <si>
+    <t>陈志宇 </t>
+  </si>
+  <si>
+    <t>https://xhbup.com/swksn/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈梦</t>
+  </si>
+  <si>
+    <t>广东乐婷化妆品实业有限公司（乐婷298页面）</t>
+  </si>
+  <si>
+    <t>韩美肌</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳转设置</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/leting1/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>东莞市康倪化妆品有限公司（298页面）</t>
+  </si>
+  <si>
+    <t>广东乐婷化妆品实业有限公司（乐婷198页面）</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/leting2/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱涛</t>
+  </si>
+  <si>
+    <t>广州市欧佩化妆品有限公司</t>
+  </si>
+  <si>
+    <t>碧素堂</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐运河</t>
+  </si>
+  <si>
+    <t>东莞市可丽化妆品贸易有限公司</t>
+  </si>
+  <si>
+    <t>减肥</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.xhbup.com/klhzp3</t>
+  </si>
+  <si>
+    <t>钟史尧</t>
+  </si>
+  <si>
+    <t>张总</t>
+  </si>
+  <si>
+    <t>东莞市清溪蜂缘蜂蜜店</t>
+  </si>
+  <si>
+    <t>蜂蜜</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>美容</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/meilianb/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.xhbup.com/qingfengy/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/zhishang1/</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/sgxcmy/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.xhbup.com/lanzi1/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/xilan/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/quban4/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/zhishang/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/hylys/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.xhbup.com/lefeng/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘建平</t>
+  </si>
+  <si>
+    <t>佛山市港亿贸易有限公司</t>
+  </si>
+  <si>
+    <t>肌肤</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/gangyi/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>好享瘦</t>
+  </si>
+  <si>
+    <t>揭阳市天元日用品有限公司</t>
+  </si>
+  <si>
+    <t>减肥</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>丰满</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.xhbup.com/lanzi/</t>
+  </si>
+  <si>
+    <t>东莞市瑞梦鞋业有限公司</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲁巴哥</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.xhbup.com/ruimeng/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>减肥</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>陆丰市万格维贸易有限公司 </t>
+  </si>
+  <si>
+    <t>https://xhbup.com/sxhzp/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/danke/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/zhishang1/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/xiyou/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/qb/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/kehong/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/yuehe/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
     <t>https://xhbup.com/gzlstyy/tg/</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
@@ -643,52 +858,11 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>祛斑</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>执象(上海)有限公司</t>
-  </si>
-  <si>
-    <t>佛山市雷米高动物营养保健科技有限公司</t>
-  </si>
-  <si>
-    <t>犬粮</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.xhbup.com/kehong1/</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
     <t>https://www.xhbup.com/leimigao/</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>张纯</t>
-  </si>
-  <si>
-    <t>珠海熙岚春天化妆品有限公司</t>
-  </si>
-  <si>
-    <t>珠海市鑫瀚生物科技有限公司</t>
-  </si>
-  <si>
-    <t>祛斑</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>肇庆深度日用化妆品有限公司</t>
-  </si>
-  <si>
-    <t>东莞市兰姿化妆品有限公司</t>
-  </si>
-  <si>
-    <t>丰胸</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.xhbup.com/gdkpdz/</t>
+    <t>https://xhbup.com/xinhan/</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
@@ -700,7 +874,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -709,201 +882,106 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>https://xhbup.com/zhimei/</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.xhbup.com/lefeng1/</t>
-  </si>
-  <si>
-    <t>广州瓷妆化妆品有限公司 </t>
-  </si>
-  <si>
-    <t>汕尾市康思诺贸易有限公司</t>
-  </si>
-  <si>
-    <t>陈志宇 </t>
-  </si>
-  <si>
-    <t>https://xhbup.com/swksn/</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://xhbup.com/sgxcmy/</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈梦</t>
-  </si>
-  <si>
-    <t>广东乐婷化妆品实业有限公司（乐婷298页面）</t>
-  </si>
-  <si>
-    <t>韩美肌</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
     <t>https://xhbup.com/leting/</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>跳转设置</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://xhbup.com/leting1/</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>东莞市康倪化妆品有限公司（298页面）</t>
-  </si>
-  <si>
-    <t>广东乐婷化妆品实业有限公司（乐婷198页面）</t>
-  </si>
-  <si>
-    <t>https://xhbup.com/leting2/</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>朱涛</t>
-  </si>
-  <si>
-    <t>广州市欧佩化妆品有限公司</t>
-  </si>
-  <si>
-    <t>碧素堂</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
     <t>https://xhbup.com/oupei/</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>徐运河</t>
-  </si>
-  <si>
-    <t>东莞市可丽化妆品贸易有限公司</t>
+    <t>https://xhbup.com/yinxiuer/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/tianyuan/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.xhbup.com/ylzf2/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/mizhua1/
+https://xhbup.com/mizhua2/
+https://xhbup.com/mizhua3/
+https://xhbup.com/mizhua4/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.xhbup.com/ylzf3/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.xhbup.com/kuige/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>狐臭</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>恒坚</t>
+  </si>
+  <si>
+    <t>江门市鑫兰商贸有限公司</t>
+  </si>
+  <si>
+    <t>胸部</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>大白鸽</t>
+  </si>
+  <si>
+    <t>惠州市雅洁化妆品有限公司</t>
   </si>
   <si>
     <t>减肥</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.xhbup.com/klhzp3</t>
-  </si>
-  <si>
-    <t>钟史尧</t>
-  </si>
-  <si>
-    <t>https://xhbup.com/zhimei/</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>张总</t>
-  </si>
-  <si>
-    <t>东莞市清溪蜂缘蜂蜜店</t>
-  </si>
-  <si>
-    <t>蜂蜜</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>美容</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://xhbup.com/meilianb/</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.xhbup.com/qingfengy/</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://xhbup.com/zhishang1/</t>
-  </si>
-  <si>
-    <t>https://xhbup.com/sgxcmy/</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.xhbup.com/lanzi1/</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://xhbup.com/xilan/</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://xhbup.com/xinhan/</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://xhbup.com/quban4/</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://xhbup.com/zhishang/</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://xhbup.com/hylys/</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.xhbup.com/lefeng/</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘建平</t>
-  </si>
-  <si>
-    <t>佛山市港亿贸易有限公司</t>
-  </si>
-  <si>
-    <t>肌肤</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://xhbup.com/gangyi/</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://xhbup.com/yinxiuer/</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>好享瘦</t>
-  </si>
-  <si>
-    <t>揭阳市天元日用品有限公司</t>
-  </si>
-  <si>
-    <t>https://xhbup.com/tianyuan/</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>减肥</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>丰满</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.xhbup.com/lanzi/</t>
-  </si>
-  <si>
-    <t>东莞市瑞梦鞋业有限公司</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>鲁巴哥</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.xhbup.com/ruimeng/</t>
+    <t>广东惠芯健康科技有限公司</t>
+  </si>
+  <si>
+    <t>护理</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.xhbup.com/wanggew/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.xhbup.com/xinlan/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.xhbup.com/yajie/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.xhbup.com/huixin/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>汕尾市诚捷贸易有限公司</t>
+  </si>
+  <si>
+    <t>页面包</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>摘包</t>
+  </si>
+  <si>
+    <t>https://www.xhbup.com/zip-demo/index.zip</t>
+  </si>
+  <si>
+    <t>玻尿酸</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.xhbup.com/oupei1/</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
@@ -911,7 +989,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1036,14 +1114,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color theme="10"/>
+      <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10.5"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -1055,16 +1134,7 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1262,12 +1332,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1352,20 +1422,11 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1388,28 +1449,13 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1465,13 +1511,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>234950</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>111125</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>1574</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1479,7 +1525,7 @@
         <xdr:cNvPr id="6" name="图片 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1491,7 +1537,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1801,13 +1847,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:Q93"/>
+  <dimension ref="B1:Q104"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="F78" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="F90" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F89" sqref="F89"/>
+      <selection pane="bottomRight" activeCell="K98" sqref="K98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1832,24 +1878,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:17" s="1" customFormat="1" ht="46.5" customHeight="1">
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
       <c r="K1" s="25"/>
       <c r="L1" s="7"/>
-      <c r="N1" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
+      <c r="N1" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
     </row>
     <row r="2" spans="2:17" ht="21.75" customHeight="1">
       <c r="B2" s="8" t="s">
@@ -1898,7 +1944,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="2:17" ht="33">
+    <row r="3" spans="2:17">
       <c r="B3" s="9">
         <v>1</v>
       </c>
@@ -1926,18 +1972,18 @@
       <c r="J3" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="28" t="s">
+      <c r="K3" t="s">
         <v>22</v>
       </c>
       <c r="L3" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="N3" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="O3" s="29"/>
-      <c r="P3" s="29"/>
-      <c r="Q3" s="36">
+      <c r="N3" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="O3" s="28"/>
+      <c r="P3" s="28"/>
+      <c r="Q3" s="33">
         <f>O3+P3</f>
         <v>0</v>
       </c>
@@ -1970,24 +2016,24 @@
       <c r="J4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="K4" s="45" t="s">
-        <v>241</v>
+      <c r="K4" t="s">
+        <v>225</v>
       </c>
       <c r="L4" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="N4" s="30" t="s">
+      <c r="N4" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="O4" s="30">
+      <c r="O4" s="29">
         <f>SUM(O3:O3)</f>
         <v>0</v>
       </c>
-      <c r="P4" s="30">
+      <c r="P4" s="29">
         <f>SUM(P3:P3)</f>
         <v>0</v>
       </c>
-      <c r="Q4" s="30">
+      <c r="Q4" s="29">
         <f>SUM(Q3:Q3)</f>
         <v>0</v>
       </c>
@@ -2020,7 +2066,7 @@
       <c r="J5" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="K5" s="9" t="s">
+      <c r="K5" t="s">
         <v>32</v>
       </c>
       <c r="L5" s="9" t="s">
@@ -2053,7 +2099,7 @@
       <c r="J6" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="K6" s="9" t="s">
+      <c r="K6" t="s">
         <v>34</v>
       </c>
       <c r="L6" s="9" t="s">
@@ -2086,7 +2132,7 @@
       <c r="J7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="K7" s="31" t="s">
+      <c r="K7" t="s">
         <v>22</v>
       </c>
       <c r="L7" s="9" t="s">
@@ -2119,7 +2165,7 @@
       <c r="J8" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="K8" s="9" t="s">
+      <c r="K8" t="s">
         <v>38</v>
       </c>
       <c r="L8" s="9" t="s">
@@ -2152,7 +2198,7 @@
       <c r="J9" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="K9" s="9" t="s">
+      <c r="K9" t="s">
         <v>43</v>
       </c>
       <c r="L9" s="9" t="s">
@@ -2185,7 +2231,7 @@
       <c r="J10" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="K10" s="9" t="s">
+      <c r="K10" t="s">
         <v>46</v>
       </c>
       <c r="L10" s="9" t="s">
@@ -2218,8 +2264,8 @@
       <c r="J11" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K11" s="31" t="s">
-        <v>174</v>
+      <c r="K11" t="s">
+        <v>263</v>
       </c>
       <c r="L11" s="9" t="s">
         <v>23</v>
@@ -2251,7 +2297,7 @@
       <c r="J12" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K12" s="9" t="s">
+      <c r="K12" t="s">
         <v>55</v>
       </c>
       <c r="L12" s="9" t="s">
@@ -2284,7 +2330,7 @@
       <c r="J13" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K13" s="9" t="s">
+      <c r="K13" t="s">
         <v>59</v>
       </c>
       <c r="L13" s="9" t="s">
@@ -2317,7 +2363,7 @@
       <c r="J14" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K14" s="9" t="s">
+      <c r="K14" t="s">
         <v>61</v>
       </c>
       <c r="L14" s="9" t="s">
@@ -2350,7 +2396,7 @@
       <c r="J15" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K15" s="9" t="s">
+      <c r="K15" t="s">
         <v>65</v>
       </c>
       <c r="L15" s="9" t="s">
@@ -2383,7 +2429,7 @@
       <c r="J16" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K16" s="9" t="s">
+      <c r="K16" t="s">
         <v>67</v>
       </c>
       <c r="L16" s="9" t="s">
@@ -2416,7 +2462,7 @@
       <c r="J17" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K17" s="9" t="s">
+      <c r="K17" t="s">
         <v>70</v>
       </c>
       <c r="L17" s="9" t="s">
@@ -2449,7 +2495,7 @@
       <c r="J18" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K18" s="9" t="s">
+      <c r="K18" t="s">
         <v>74</v>
       </c>
       <c r="L18" s="9" t="s">
@@ -2482,7 +2528,7 @@
       <c r="J19" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="K19" s="9" t="s">
+      <c r="K19" t="s">
         <v>78</v>
       </c>
       <c r="L19" s="9" t="s">
@@ -2515,7 +2561,7 @@
       <c r="J20" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K20" s="9" t="s">
+      <c r="K20" t="s">
         <v>82</v>
       </c>
       <c r="L20" s="9" t="s">
@@ -2548,7 +2594,7 @@
       <c r="J21" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K21" s="9" t="s">
+      <c r="K21" t="s">
         <v>86</v>
       </c>
       <c r="L21" s="9" t="s">
@@ -2581,7 +2627,7 @@
       <c r="J22" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K22" s="9" t="s">
+      <c r="K22" t="s">
         <v>89</v>
       </c>
       <c r="L22" s="9" t="s">
@@ -2614,7 +2660,7 @@
       <c r="J23" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K23" s="9" t="s">
+      <c r="K23" t="s">
         <v>91</v>
       </c>
       <c r="L23" s="9" t="s">
@@ -2647,7 +2693,7 @@
       <c r="J24" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K24" s="32" t="s">
+      <c r="K24" t="s">
         <v>95</v>
       </c>
       <c r="L24" s="9" t="s">
@@ -2680,7 +2726,7 @@
       <c r="J25" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K25" s="9" t="s">
+      <c r="K25" t="s">
         <v>98</v>
       </c>
       <c r="L25" s="9" t="s">
@@ -2713,7 +2759,7 @@
       <c r="J26" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K26" s="9" t="s">
+      <c r="K26" t="s">
         <v>99</v>
       </c>
       <c r="L26" s="9" t="s">
@@ -2746,7 +2792,7 @@
       <c r="J27" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K27" s="9" t="s">
+      <c r="K27" t="s">
         <v>100</v>
       </c>
       <c r="L27" s="9" t="s">
@@ -2779,7 +2825,7 @@
       <c r="J28" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="K28" s="9" t="s">
+      <c r="K28" t="s">
         <v>106</v>
       </c>
       <c r="L28" s="9" t="s">
@@ -2814,8 +2860,8 @@
       <c r="J29" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="K29" s="45" t="s">
-        <v>248</v>
+      <c r="K29" t="s">
+        <v>231</v>
       </c>
       <c r="L29" s="9" t="s">
         <v>23</v>
@@ -2847,7 +2893,7 @@
       <c r="J30" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K30" s="9" t="s">
+      <c r="K30" t="s">
         <v>112</v>
       </c>
       <c r="L30" s="9" t="s">
@@ -2882,7 +2928,7 @@
       <c r="J31" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K31" s="9" t="s">
+      <c r="K31" t="s">
         <v>114</v>
       </c>
       <c r="L31" s="9" t="s">
@@ -2917,7 +2963,7 @@
       <c r="J32" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="K32" s="9" t="s">
+      <c r="K32" t="s">
         <v>59</v>
       </c>
       <c r="L32" s="9" t="s">
@@ -2952,7 +2998,7 @@
       <c r="J33" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="K33" s="9" t="s">
+      <c r="K33" t="s">
         <v>61</v>
       </c>
       <c r="L33" s="9" t="s">
@@ -2987,7 +3033,7 @@
       <c r="J34" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="K34" s="9" t="s">
+      <c r="K34" t="s">
         <v>78</v>
       </c>
       <c r="L34" s="9" t="s">
@@ -3022,7 +3068,7 @@
       <c r="J35" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K35" s="9" t="s">
+      <c r="K35" t="s">
         <v>117</v>
       </c>
       <c r="L35" s="9" t="s">
@@ -3057,7 +3103,7 @@
       <c r="J36" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K36" s="9" t="s">
+      <c r="K36" t="s">
         <v>121</v>
       </c>
       <c r="L36" s="9" t="s">
@@ -3092,7 +3138,7 @@
       <c r="J37" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="K37" s="9" t="s">
+      <c r="K37" t="s">
         <v>70</v>
       </c>
       <c r="L37" s="9" t="s">
@@ -3127,14 +3173,14 @@
       <c r="J38" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="K38" s="9" t="s">
+      <c r="K38" t="s">
         <v>124</v>
       </c>
       <c r="L38" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="2:12" ht="21.75" customHeight="1">
+    <row r="39" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B39" s="9">
         <v>87</v>
       </c>
@@ -3144,7 +3190,7 @@
       <c r="D39" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="E39" s="16" t="s">
+      <c r="E39" s="17" t="s">
         <v>125</v>
       </c>
       <c r="F39" s="9" t="s">
@@ -3162,7 +3208,7 @@
       <c r="J39" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K39" s="9" t="s">
+      <c r="K39" t="s">
         <v>126</v>
       </c>
       <c r="L39" s="9" t="s">
@@ -3197,8 +3243,8 @@
       <c r="J40" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="K40" s="46" t="s">
-        <v>233</v>
+      <c r="K40" t="s">
+        <v>196</v>
       </c>
       <c r="L40" s="9" t="s">
         <v>23</v>
@@ -3232,8 +3278,8 @@
       <c r="J41" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="K41" s="46" t="s">
-        <v>247</v>
+      <c r="K41" t="s">
+        <v>230</v>
       </c>
       <c r="L41" s="9" t="s">
         <v>23</v>
@@ -3267,7 +3313,7 @@
       <c r="J42" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="K42" s="19" t="s">
+      <c r="K42" t="s">
         <v>131</v>
       </c>
       <c r="L42" s="9" t="s">
@@ -3279,10 +3325,10 @@
       <c r="C43" s="10">
         <v>43572</v>
       </c>
-      <c r="D43" s="15" t="s">
+      <c r="D43" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="E43" s="15" t="s">
+      <c r="E43" s="21" t="s">
         <v>133</v>
       </c>
       <c r="F43" s="9" t="s">
@@ -3294,20 +3340,20 @@
       <c r="H43" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I43" s="15" t="s">
+      <c r="I43" s="21" t="s">
         <v>20</v>
       </c>
       <c r="J43" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K43" s="9" t="s">
+      <c r="K43" t="s">
         <v>135</v>
       </c>
       <c r="L43" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="2:12" ht="21.75" customHeight="1">
+    <row r="44" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B44" s="14"/>
       <c r="C44" s="10">
         <v>43572</v>
@@ -3315,7 +3361,7 @@
       <c r="D44" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E44" s="21" t="s">
         <v>137</v>
       </c>
       <c r="F44" s="9" t="s">
@@ -3327,14 +3373,14 @@
       <c r="H44" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I44" s="15" t="s">
+      <c r="I44" s="21" t="s">
         <v>20</v>
       </c>
       <c r="J44" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="K44" s="9" t="s">
-        <v>141</v>
+      <c r="K44" t="s">
+        <v>246</v>
       </c>
       <c r="L44" s="9" t="s">
         <v>23</v>
@@ -3361,13 +3407,13 @@
         <v>19</v>
       </c>
       <c r="I45" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J45" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K45" s="9" t="s">
-        <v>142</v>
+      <c r="K45" t="s">
+        <v>141</v>
       </c>
       <c r="L45" s="9" t="s">
         <v>23</v>
@@ -3379,13 +3425,13 @@
         <v>43572</v>
       </c>
       <c r="D46" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="E46" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="E46" s="21" t="s">
+      <c r="F46" s="35" t="s">
         <v>145</v>
-      </c>
-      <c r="F46" s="38" t="s">
-        <v>146</v>
       </c>
       <c r="G46" s="9">
         <v>1</v>
@@ -3399,26 +3445,26 @@
       <c r="J46" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K46" s="9" t="s">
-        <v>147</v>
+      <c r="K46" t="s">
+        <v>146</v>
       </c>
       <c r="L46" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="2:12" ht="21.75" customHeight="1">
+    <row r="47" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B47" s="14"/>
       <c r="C47" s="10">
         <v>43572</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E47" s="21" t="s">
         <v>97</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G47" s="9">
         <v>1</v>
@@ -3432,80 +3478,80 @@
       <c r="J47" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="K47" s="21" t="s">
-        <v>153</v>
+      <c r="K47" t="s">
+        <v>247</v>
       </c>
       <c r="L47" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="2:12" ht="21.75" customHeight="1">
+    <row r="48" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B48" s="14"/>
       <c r="C48" s="10">
         <v>43572</v>
       </c>
-      <c r="D48" s="39" t="s">
+      <c r="D48" s="36" t="s">
+        <v>149</v>
+      </c>
+      <c r="E48" s="36" t="s">
         <v>150</v>
       </c>
-      <c r="E48" s="39" t="s">
+      <c r="F48" s="34" t="s">
         <v>151</v>
       </c>
-      <c r="F48" s="37" t="s">
-        <v>152</v>
-      </c>
       <c r="G48" s="9">
         <v>1</v>
       </c>
       <c r="H48" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I48" s="39" t="s">
+      <c r="I48" s="36" t="s">
         <v>20</v>
       </c>
       <c r="J48" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="K48" s="46" t="s">
-        <v>246</v>
+      <c r="K48" t="s">
+        <v>229</v>
       </c>
       <c r="L48" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="49" spans="2:12" ht="21.75" customHeight="1">
+    <row r="49" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B49" s="14"/>
       <c r="C49" s="10">
         <v>43573</v>
       </c>
       <c r="D49" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="E49" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="E49" s="21" t="s">
+      <c r="F49" s="34" t="s">
         <v>151</v>
       </c>
-      <c r="F49" s="37" t="s">
-        <v>152</v>
-      </c>
       <c r="G49" s="9">
         <v>1</v>
       </c>
       <c r="H49" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I49" s="39" t="s">
+      <c r="I49" s="36" t="s">
         <v>20</v>
       </c>
       <c r="J49" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K49" s="9" t="s">
-        <v>154</v>
+      <c r="K49" t="s">
+        <v>248</v>
       </c>
       <c r="L49" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="50" spans="2:12" ht="21.75" customHeight="1">
+    <row r="50" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B50" s="14"/>
       <c r="C50" s="10">
         <v>43573</v>
@@ -3513,11 +3559,11 @@
       <c r="D50" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E50" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="F50" s="37" t="s">
-        <v>155</v>
+      <c r="F50" s="34" t="s">
+        <v>152</v>
       </c>
       <c r="G50" s="9">
         <v>1</v>
@@ -3531,8 +3577,8 @@
       <c r="J50" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K50" s="9" t="s">
-        <v>156</v>
+      <c r="K50" t="s">
+        <v>153</v>
       </c>
       <c r="L50" s="9" t="s">
         <v>23</v>
@@ -3544,13 +3590,13 @@
         <v>43573</v>
       </c>
       <c r="D51" s="21" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E51" s="21" t="s">
-        <v>158</v>
-      </c>
-      <c r="F51" s="37" t="s">
-        <v>159</v>
+        <v>155</v>
+      </c>
+      <c r="F51" s="34" t="s">
+        <v>156</v>
       </c>
       <c r="G51" s="9">
         <v>1</v>
@@ -3564,8 +3610,8 @@
       <c r="J51" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="K51" s="46" t="s">
-        <v>245</v>
+      <c r="K51" t="s">
+        <v>228</v>
       </c>
       <c r="L51" s="9" t="s">
         <v>23</v>
@@ -3580,10 +3626,10 @@
         <v>101</v>
       </c>
       <c r="E52" s="21" t="s">
-        <v>160</v>
-      </c>
-      <c r="F52" s="37" t="s">
-        <v>161</v>
+        <v>157</v>
+      </c>
+      <c r="F52" s="34" t="s">
+        <v>158</v>
       </c>
       <c r="G52" s="9">
         <v>1</v>
@@ -3597,8 +3643,8 @@
       <c r="J52" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K52" s="21" t="s">
-        <v>162</v>
+      <c r="K52" t="s">
+        <v>159</v>
       </c>
       <c r="L52" s="9" t="s">
         <v>23</v>
@@ -3609,14 +3655,14 @@
       <c r="C53" s="10">
         <v>43573</v>
       </c>
-      <c r="D53" t="s">
-        <v>163</v>
-      </c>
-      <c r="E53" t="s">
+      <c r="D53" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="E53" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="F53" s="37" t="s">
-        <v>164</v>
+      <c r="F53" s="34" t="s">
+        <v>161</v>
       </c>
       <c r="G53" s="9">
         <v>1</v>
@@ -3631,7 +3677,7 @@
         <v>105</v>
       </c>
       <c r="K53" t="s">
-        <v>165</v>
+        <v>249</v>
       </c>
       <c r="L53" s="9" t="s">
         <v>23</v>
@@ -3648,8 +3694,8 @@
       <c r="E54" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="F54" s="37" t="s">
-        <v>159</v>
+      <c r="F54" s="34" t="s">
+        <v>156</v>
       </c>
       <c r="G54" s="9">
         <v>1</v>
@@ -3663,8 +3709,8 @@
       <c r="J54" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="K54" s="21" t="s">
-        <v>166</v>
+      <c r="K54" t="s">
+        <v>250</v>
       </c>
       <c r="L54" s="9" t="s">
         <v>23</v>
@@ -3681,8 +3727,8 @@
       <c r="E55" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="F55" s="37" t="s">
-        <v>159</v>
+      <c r="F55" s="34" t="s">
+        <v>156</v>
       </c>
       <c r="G55" s="9">
         <v>1</v>
@@ -3696,8 +3742,8 @@
       <c r="J55" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="K55" s="21" t="s">
-        <v>167</v>
+      <c r="K55" t="s">
+        <v>251</v>
       </c>
       <c r="L55" s="9" t="s">
         <v>23</v>
@@ -3712,10 +3758,10 @@
         <v>101</v>
       </c>
       <c r="E56" s="21" t="s">
-        <v>168</v>
-      </c>
-      <c r="F56" s="37" t="s">
-        <v>169</v>
+        <v>162</v>
+      </c>
+      <c r="F56" s="34" t="s">
+        <v>163</v>
       </c>
       <c r="G56" s="9">
         <v>1</v>
@@ -3729,8 +3775,8 @@
       <c r="J56" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K56" s="21" t="s">
-        <v>170</v>
+      <c r="K56" t="s">
+        <v>164</v>
       </c>
       <c r="L56" s="9" t="s">
         <v>23</v>
@@ -3742,13 +3788,13 @@
         <v>43573</v>
       </c>
       <c r="D57" s="21" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="E57" s="21" t="s">
-        <v>172</v>
-      </c>
-      <c r="F57" s="37" t="s">
-        <v>169</v>
+        <v>166</v>
+      </c>
+      <c r="F57" s="34" t="s">
+        <v>163</v>
       </c>
       <c r="G57" s="9">
         <v>1</v>
@@ -3762,8 +3808,8 @@
       <c r="J57" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K57" s="21" t="s">
-        <v>173</v>
+      <c r="K57" t="s">
+        <v>167</v>
       </c>
       <c r="L57" s="9" t="s">
         <v>23</v>
@@ -3775,13 +3821,13 @@
         <v>43573</v>
       </c>
       <c r="D58" s="21" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="E58" s="21" t="s">
-        <v>176</v>
-      </c>
-      <c r="F58" s="37" t="s">
-        <v>177</v>
+        <v>169</v>
+      </c>
+      <c r="F58" s="34" t="s">
+        <v>170</v>
       </c>
       <c r="G58" s="9">
         <v>1</v>
@@ -3795,8 +3841,8 @@
       <c r="J58" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K58" s="21" t="s">
-        <v>178</v>
+      <c r="K58" t="s">
+        <v>252</v>
       </c>
       <c r="L58" s="9" t="s">
         <v>23</v>
@@ -3808,13 +3854,13 @@
         <v>43573</v>
       </c>
       <c r="D59" s="21" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="E59" s="21" t="s">
-        <v>179</v>
-      </c>
-      <c r="F59" s="37" t="s">
-        <v>177</v>
+        <v>171</v>
+      </c>
+      <c r="F59" s="34" t="s">
+        <v>170</v>
       </c>
       <c r="G59" s="9">
         <v>1</v>
@@ -3828,8 +3874,8 @@
       <c r="J59" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K59" s="9" t="s">
-        <v>180</v>
+      <c r="K59" t="s">
+        <v>172</v>
       </c>
       <c r="L59" s="9" t="s">
         <v>23</v>
@@ -3840,14 +3886,14 @@
       <c r="C60" s="10">
         <v>43573</v>
       </c>
-      <c r="D60" s="40" t="s">
-        <v>181</v>
-      </c>
-      <c r="E60" s="40" t="s">
-        <v>181</v>
-      </c>
-      <c r="F60" s="37" t="s">
-        <v>177</v>
+      <c r="D60" s="37" t="s">
+        <v>173</v>
+      </c>
+      <c r="E60" s="37" t="s">
+        <v>173</v>
+      </c>
+      <c r="F60" s="34" t="s">
+        <v>170</v>
       </c>
       <c r="G60" s="9">
         <v>1</v>
@@ -3855,14 +3901,14 @@
       <c r="H60" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I60" s="41" t="s">
+      <c r="I60" s="37" t="s">
         <v>20</v>
       </c>
       <c r="J60" s="9" t="s">
         <v>50</v>
       </c>
       <c r="K60" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="L60" s="9" t="s">
         <v>23</v>
@@ -3873,14 +3919,14 @@
       <c r="C61" s="10">
         <v>43573</v>
       </c>
-      <c r="D61" s="41" t="s">
-        <v>183</v>
-      </c>
-      <c r="E61" s="41" t="s">
-        <v>184</v>
-      </c>
-      <c r="F61" s="37" t="s">
-        <v>155</v>
+      <c r="D61" s="37" t="s">
+        <v>175</v>
+      </c>
+      <c r="E61" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="F61" s="34" t="s">
+        <v>152</v>
       </c>
       <c r="G61" s="9">
         <v>1</v>
@@ -3888,14 +3934,14 @@
       <c r="H61" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I61" s="41" t="s">
+      <c r="I61" s="37" t="s">
         <v>37</v>
       </c>
       <c r="J61" s="9" t="s">
         <v>21</v>
       </c>
       <c r="K61" t="s">
-        <v>191</v>
+        <v>253</v>
       </c>
       <c r="L61" s="9" t="s">
         <v>23</v>
@@ -3906,14 +3952,14 @@
       <c r="C62" s="10">
         <v>43574</v>
       </c>
-      <c r="D62" t="s">
-        <v>185</v>
-      </c>
-      <c r="E62" t="s">
-        <v>186</v>
-      </c>
-      <c r="F62" s="37" t="s">
-        <v>188</v>
+      <c r="D62" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="E62" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="F62" s="34" t="s">
+        <v>180</v>
       </c>
       <c r="G62" s="9">
         <v>10</v>
@@ -3928,7 +3974,7 @@
         <v>50</v>
       </c>
       <c r="K62" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="L62" s="9" t="s">
         <v>23</v>
@@ -3943,10 +3989,10 @@
         <v>101</v>
       </c>
       <c r="E63" s="21" t="s">
-        <v>189</v>
-      </c>
-      <c r="F63" s="37" t="s">
-        <v>190</v>
+        <v>181</v>
+      </c>
+      <c r="F63" s="34" t="s">
+        <v>182</v>
       </c>
       <c r="G63" s="9">
         <v>1</v>
@@ -3961,7 +4007,7 @@
         <v>50</v>
       </c>
       <c r="K63" t="s">
-        <v>192</v>
+        <v>254</v>
       </c>
       <c r="L63" s="9" t="s">
         <v>23</v>
@@ -3978,8 +4024,8 @@
       <c r="E64" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="F64" s="37" t="s">
-        <v>193</v>
+      <c r="F64" s="34" t="s">
+        <v>183</v>
       </c>
       <c r="G64" s="9">
         <v>1</v>
@@ -3994,7 +4040,7 @@
         <v>50</v>
       </c>
       <c r="K64" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="L64" s="9" t="s">
         <v>23</v>
@@ -4006,13 +4052,13 @@
         <v>43574</v>
       </c>
       <c r="D65" s="21" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="E65" s="21" t="s">
-        <v>195</v>
-      </c>
-      <c r="F65" s="37" t="s">
-        <v>196</v>
+        <v>185</v>
+      </c>
+      <c r="F65" s="34" t="s">
+        <v>186</v>
       </c>
       <c r="G65" s="9">
         <v>1</v>
@@ -4027,7 +4073,7 @@
         <v>50</v>
       </c>
       <c r="K65" t="s">
-        <v>198</v>
+        <v>255</v>
       </c>
       <c r="L65" s="9" t="s">
         <v>23</v>
@@ -4038,14 +4084,14 @@
       <c r="C66" s="10">
         <v>43574</v>
       </c>
-      <c r="D66" s="41" t="s">
-        <v>199</v>
-      </c>
-      <c r="E66" s="41" t="s">
-        <v>200</v>
-      </c>
-      <c r="F66" s="37" t="s">
-        <v>202</v>
+      <c r="D66" s="37" t="s">
+        <v>188</v>
+      </c>
+      <c r="E66" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="F66" s="34" t="s">
+        <v>191</v>
       </c>
       <c r="G66" s="9">
         <v>1</v>
@@ -4053,14 +4099,14 @@
       <c r="H66" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I66" s="41" t="s">
+      <c r="I66" s="37" t="s">
         <v>20</v>
       </c>
       <c r="J66" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="K66" s="44" t="s">
-        <v>243</v>
+      <c r="K66" t="s">
+        <v>227</v>
       </c>
       <c r="L66" s="9" t="s">
         <v>23</v>
@@ -4071,14 +4117,14 @@
       <c r="C67" s="10">
         <v>43574</v>
       </c>
-      <c r="D67" s="41" t="s">
-        <v>199</v>
-      </c>
-      <c r="E67" s="41" t="s">
-        <v>201</v>
-      </c>
-      <c r="F67" s="37" t="s">
-        <v>159</v>
+      <c r="D67" s="37" t="s">
+        <v>188</v>
+      </c>
+      <c r="E67" s="37" t="s">
+        <v>190</v>
+      </c>
+      <c r="F67" s="34" t="s">
+        <v>156</v>
       </c>
       <c r="G67" s="9">
         <v>1</v>
@@ -4086,14 +4132,14 @@
       <c r="H67" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I67" s="41" t="s">
+      <c r="I67" s="37" t="s">
         <v>20</v>
       </c>
       <c r="J67" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="K67" s="44" t="s">
-        <v>244</v>
+      <c r="K67" t="s">
+        <v>256</v>
       </c>
       <c r="L67" s="9" t="s">
         <v>23</v>
@@ -4104,14 +4150,14 @@
       <c r="C68" s="10">
         <v>43575</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D68" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="E68" t="s">
-        <v>203</v>
-      </c>
-      <c r="F68" s="37" t="s">
-        <v>159</v>
+      <c r="E68" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="F68" s="34" t="s">
+        <v>156</v>
       </c>
       <c r="G68" s="9">
         <v>1</v>
@@ -4119,14 +4165,14 @@
       <c r="H68" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I68" s="40" t="s">
+      <c r="I68" s="37" t="s">
         <v>42</v>
       </c>
       <c r="J68" s="9" t="s">
         <v>105</v>
       </c>
       <c r="K68" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="L68" s="9" t="s">
         <v>23</v>
@@ -4137,14 +4183,14 @@
       <c r="C69" s="10">
         <v>43575</v>
       </c>
-      <c r="D69" s="40" t="s">
+      <c r="D69" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="E69" s="40" t="s">
-        <v>204</v>
-      </c>
-      <c r="F69" s="37" t="s">
-        <v>205</v>
+      <c r="E69" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="F69" s="34" t="s">
+        <v>194</v>
       </c>
       <c r="G69" s="9">
         <v>1</v>
@@ -4152,14 +4198,14 @@
       <c r="H69" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I69" s="40" t="s">
+      <c r="I69" s="37" t="s">
         <v>37</v>
       </c>
       <c r="J69" s="9" t="s">
         <v>31</v>
       </c>
       <c r="K69" t="s">
-        <v>207</v>
+        <v>257</v>
       </c>
       <c r="L69" s="9" t="s">
         <v>23</v>
@@ -4170,14 +4216,14 @@
       <c r="C70" s="10">
         <v>43575</v>
       </c>
-      <c r="D70" s="40" t="s">
+      <c r="D70" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="E70" s="40" t="s">
-        <v>204</v>
-      </c>
-      <c r="F70" s="37" t="s">
-        <v>205</v>
+      <c r="E70" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="F70" s="34" t="s">
+        <v>194</v>
       </c>
       <c r="G70" s="9">
         <v>1</v>
@@ -4185,14 +4231,14 @@
       <c r="H70" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I70" s="40" t="s">
+      <c r="I70" s="37" t="s">
         <v>37</v>
       </c>
       <c r="J70" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="K70" s="44" t="s">
-        <v>242</v>
+      <c r="K70" t="s">
+        <v>226</v>
       </c>
       <c r="L70" s="9" t="s">
         <v>23</v>
@@ -4203,14 +4249,14 @@
       <c r="C71" s="10">
         <v>43575</v>
       </c>
-      <c r="D71" s="40" t="s">
+      <c r="D71" s="37" t="s">
         <v>127</v>
       </c>
-      <c r="E71" s="40" t="s">
+      <c r="E71" s="37" t="s">
         <v>128</v>
       </c>
-      <c r="F71" s="37" t="s">
-        <v>205</v>
+      <c r="F71" s="34" t="s">
+        <v>194</v>
       </c>
       <c r="G71" s="9">
         <v>1</v>
@@ -4218,14 +4264,14 @@
       <c r="H71" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I71" s="40" t="s">
+      <c r="I71" s="37" t="s">
         <v>42</v>
       </c>
       <c r="J71" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="K71" s="42" t="s">
-        <v>208</v>
+      <c r="K71" t="s">
+        <v>196</v>
       </c>
       <c r="L71" s="9" t="s">
         <v>23</v>
@@ -4236,14 +4282,14 @@
       <c r="C72" s="10">
         <v>43575</v>
       </c>
-      <c r="D72" s="40" t="s">
+      <c r="D72" s="37" t="s">
         <v>127</v>
       </c>
-      <c r="E72" s="40" t="s">
+      <c r="E72" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="F72" s="37" t="s">
-        <v>205</v>
+      <c r="F72" s="34" t="s">
+        <v>194</v>
       </c>
       <c r="G72" s="9">
         <v>1</v>
@@ -4251,14 +4297,14 @@
       <c r="H72" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I72" s="40" t="s">
+      <c r="I72" s="37" t="s">
         <v>26</v>
       </c>
       <c r="J72" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="K72" s="40" t="s">
-        <v>209</v>
+      <c r="K72" t="s">
+        <v>197</v>
       </c>
       <c r="L72" s="9" t="s">
         <v>23</v>
@@ -4269,14 +4315,14 @@
       <c r="C73" s="10">
         <v>43575</v>
       </c>
-      <c r="D73" s="40" t="s">
-        <v>210</v>
-      </c>
-      <c r="E73" s="40" t="s">
-        <v>211</v>
-      </c>
-      <c r="F73" s="37" t="s">
-        <v>152</v>
+      <c r="D73" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="E73" s="37" t="s">
+        <v>199</v>
+      </c>
+      <c r="F73" s="34" t="s">
+        <v>151</v>
       </c>
       <c r="G73" s="9">
         <v>1</v>
@@ -4284,14 +4330,14 @@
       <c r="H73" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I73" s="40" t="s">
-        <v>212</v>
+      <c r="I73" s="37" t="s">
+        <v>200</v>
       </c>
       <c r="J73" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="K73" s="42" t="s">
-        <v>213</v>
+      <c r="K73" t="s">
+        <v>201</v>
       </c>
       <c r="L73" s="9" t="s">
         <v>23</v>
@@ -4302,14 +4348,14 @@
       <c r="C74" s="10">
         <v>43575</v>
       </c>
-      <c r="D74" s="40" t="s">
+      <c r="D74" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="E74" s="40" t="s">
+      <c r="E74" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="F74" s="37" t="s">
-        <v>152</v>
+      <c r="F74" s="34" t="s">
+        <v>151</v>
       </c>
       <c r="G74" s="9">
         <v>1</v>
@@ -4317,14 +4363,14 @@
       <c r="H74" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I74" s="40" t="s">
+      <c r="I74" s="37" t="s">
         <v>26</v>
       </c>
       <c r="J74" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="K74" s="42" t="s">
-        <v>214</v>
+      <c r="K74" t="s">
+        <v>225</v>
       </c>
       <c r="L74" s="9" t="s">
         <v>23</v>
@@ -4335,14 +4381,14 @@
       <c r="C75" s="10">
         <v>43577</v>
       </c>
-      <c r="D75" t="s">
-        <v>215</v>
-      </c>
-      <c r="E75" t="s">
-        <v>216</v>
-      </c>
-      <c r="F75" s="37" t="s">
-        <v>217</v>
+      <c r="D75" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="E75" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="F75" s="34" t="s">
+        <v>204</v>
       </c>
       <c r="G75" s="9">
         <v>1</v>
@@ -4350,14 +4396,14 @@
       <c r="H75" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I75" t="s">
+      <c r="I75" s="21" t="s">
         <v>30</v>
       </c>
       <c r="J75" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K75" s="42" t="s">
-        <v>218</v>
+      <c r="K75" t="s">
+        <v>258</v>
       </c>
       <c r="L75" s="9" t="s">
         <v>23</v>
@@ -4368,14 +4414,14 @@
       <c r="C76" s="10">
         <v>43577</v>
       </c>
-      <c r="D76" t="s">
-        <v>215</v>
-      </c>
-      <c r="E76" t="s">
-        <v>222</v>
-      </c>
-      <c r="F76" s="37" t="s">
-        <v>217</v>
+      <c r="D76" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="E76" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="F76" s="34" t="s">
+        <v>204</v>
       </c>
       <c r="G76" s="9">
         <v>1</v>
@@ -4383,14 +4429,14 @@
       <c r="H76" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I76" t="s">
+      <c r="I76" s="21" t="s">
         <v>30</v>
       </c>
       <c r="J76" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="K76" s="42" t="s">
-        <v>220</v>
+        <v>205</v>
+      </c>
+      <c r="K76" t="s">
+        <v>206</v>
       </c>
       <c r="L76" s="9" t="s">
         <v>23</v>
@@ -4401,14 +4447,14 @@
       <c r="C77" s="10">
         <v>43577</v>
       </c>
-      <c r="D77" t="s">
-        <v>215</v>
-      </c>
-      <c r="E77" t="s">
-        <v>221</v>
-      </c>
-      <c r="F77" s="37" t="s">
-        <v>217</v>
+      <c r="D77" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="E77" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="F77" s="34" t="s">
+        <v>204</v>
       </c>
       <c r="G77" s="9">
         <v>1</v>
@@ -4416,14 +4462,14 @@
       <c r="H77" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I77" t="s">
+      <c r="I77" s="21" t="s">
         <v>30</v>
       </c>
       <c r="J77" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K77" s="42" t="s">
-        <v>223</v>
+      <c r="K77" t="s">
+        <v>209</v>
       </c>
       <c r="L77" s="9" t="s">
         <v>23</v>
@@ -4434,14 +4480,14 @@
       <c r="C78" s="10">
         <v>43577</v>
       </c>
-      <c r="D78" t="s">
-        <v>224</v>
-      </c>
-      <c r="E78" t="s">
-        <v>225</v>
-      </c>
-      <c r="F78" s="37" t="s">
-        <v>226</v>
+      <c r="D78" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="E78" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="F78" s="34" t="s">
+        <v>212</v>
       </c>
       <c r="G78" s="9">
         <v>1</v>
@@ -4449,14 +4495,14 @@
       <c r="H78" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I78" t="s">
+      <c r="I78" s="21" t="s">
         <v>30</v>
       </c>
       <c r="J78" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K78" s="42" t="s">
-        <v>227</v>
+      <c r="K78" t="s">
+        <v>259</v>
       </c>
       <c r="L78" s="9" t="s">
         <v>23</v>
@@ -4467,14 +4513,14 @@
       <c r="C79" s="10">
         <v>43577</v>
       </c>
-      <c r="D79" t="s">
-        <v>228</v>
-      </c>
-      <c r="E79" t="s">
-        <v>229</v>
-      </c>
-      <c r="F79" s="37" t="s">
-        <v>230</v>
+      <c r="D79" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="E79" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="F79" s="34" t="s">
+        <v>215</v>
       </c>
       <c r="G79" s="9">
         <v>1</v>
@@ -4482,14 +4528,14 @@
       <c r="H79" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I79" t="s">
+      <c r="I79" s="21" t="s">
         <v>26</v>
       </c>
       <c r="J79" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="K79" s="42" t="s">
-        <v>231</v>
+      <c r="K79" t="s">
+        <v>216</v>
       </c>
       <c r="L79" s="9" t="s">
         <v>23</v>
@@ -4500,14 +4546,14 @@
       <c r="C80" s="10">
         <v>43577</v>
       </c>
-      <c r="D80" t="s">
-        <v>232</v>
-      </c>
-      <c r="E80" t="s">
+      <c r="D80" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="E80" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="F80" s="37" t="s">
-        <v>230</v>
+      <c r="F80" s="34" t="s">
+        <v>215</v>
       </c>
       <c r="G80" s="9">
         <v>1</v>
@@ -4515,14 +4561,14 @@
       <c r="H80" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I80" t="s">
+      <c r="I80" s="21" t="s">
         <v>42</v>
       </c>
       <c r="J80" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="K80" s="42" t="s">
-        <v>233</v>
+      <c r="K80" t="s">
+        <v>196</v>
       </c>
       <c r="L80" s="9" t="s">
         <v>23</v>
@@ -4533,14 +4579,14 @@
       <c r="C81" s="10">
         <v>43577</v>
       </c>
-      <c r="D81" s="43" t="s">
-        <v>234</v>
-      </c>
-      <c r="E81" s="43" t="s">
-        <v>235</v>
-      </c>
-      <c r="F81" s="37" t="s">
-        <v>236</v>
+      <c r="D81" s="38" t="s">
+        <v>218</v>
+      </c>
+      <c r="E81" s="38" t="s">
+        <v>219</v>
+      </c>
+      <c r="F81" s="34" t="s">
+        <v>220</v>
       </c>
       <c r="G81" s="9">
         <v>1</v>
@@ -4548,14 +4594,14 @@
       <c r="H81" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I81" s="43" t="s">
+      <c r="I81" s="38" t="s">
         <v>54</v>
       </c>
       <c r="J81" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="K81" s="44" t="s">
-        <v>239</v>
+      <c r="K81" t="s">
+        <v>223</v>
       </c>
       <c r="L81" s="9"/>
     </row>
@@ -4564,14 +4610,14 @@
       <c r="C82" s="10">
         <v>43577</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D82" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="E82" t="s">
+      <c r="E82" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="F82" s="37" t="s">
-        <v>237</v>
+      <c r="F82" s="34" t="s">
+        <v>221</v>
       </c>
       <c r="G82" s="9">
         <v>1</v>
@@ -4579,14 +4625,14 @@
       <c r="H82" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I82" t="s">
+      <c r="I82" s="21" t="s">
         <v>58</v>
       </c>
       <c r="J82" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K82" s="44" t="s">
-        <v>238</v>
+      <c r="K82" t="s">
+        <v>222</v>
       </c>
       <c r="L82" s="9" t="s">
         <v>23</v>
@@ -4597,14 +4643,14 @@
       <c r="C83" s="10">
         <v>43577</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D83" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="E83" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="E83" t="s">
-        <v>151</v>
-      </c>
-      <c r="F83" s="37" t="s">
-        <v>230</v>
+      <c r="F83" s="34" t="s">
+        <v>215</v>
       </c>
       <c r="G83" s="9">
         <v>1</v>
@@ -4612,14 +4658,14 @@
       <c r="H83" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I83" t="s">
+      <c r="I83" s="21" t="s">
         <v>20</v>
       </c>
       <c r="J83" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="K83" s="44" t="s">
-        <v>240</v>
+      <c r="K83" t="s">
+        <v>224</v>
       </c>
       <c r="L83" s="9" t="s">
         <v>23</v>
@@ -4630,14 +4676,14 @@
       <c r="C84" s="10">
         <v>43577</v>
       </c>
-      <c r="D84" s="47" t="s">
-        <v>249</v>
-      </c>
-      <c r="E84" s="47" t="s">
-        <v>250</v>
-      </c>
-      <c r="F84" s="37" t="s">
-        <v>251</v>
+      <c r="D84" s="36" t="s">
+        <v>232</v>
+      </c>
+      <c r="E84" s="36" t="s">
+        <v>233</v>
+      </c>
+      <c r="F84" s="34" t="s">
+        <v>234</v>
       </c>
       <c r="G84" s="9">
         <v>1</v>
@@ -4645,14 +4691,14 @@
       <c r="H84" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I84" t="s">
+      <c r="I84" s="21" t="s">
         <v>20</v>
       </c>
       <c r="J84" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="K84" s="44" t="s">
-        <v>252</v>
+      <c r="K84" t="s">
+        <v>235</v>
       </c>
       <c r="L84" s="9" t="s">
         <v>23</v>
@@ -4663,14 +4709,14 @@
       <c r="C85" s="10">
         <v>43578</v>
       </c>
-      <c r="D85" s="47" t="s">
+      <c r="D85" s="36" t="s">
         <v>115</v>
       </c>
-      <c r="E85" s="47" t="s">
+      <c r="E85" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="F85" s="37" t="s">
-        <v>251</v>
+      <c r="F85" s="34" t="s">
+        <v>234</v>
       </c>
       <c r="G85" s="9">
         <v>1</v>
@@ -4678,14 +4724,14 @@
       <c r="H85" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I85" t="s">
+      <c r="I85" s="21" t="s">
         <v>58</v>
       </c>
       <c r="J85" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="K85" s="42" t="s">
-        <v>253</v>
+      <c r="K85" t="s">
+        <v>260</v>
       </c>
       <c r="L85" s="9" t="s">
         <v>23</v>
@@ -4696,14 +4742,14 @@
       <c r="C86" s="10">
         <v>43578</v>
       </c>
-      <c r="D86" s="47" t="s">
-        <v>254</v>
-      </c>
-      <c r="E86" s="47" t="s">
-        <v>255</v>
-      </c>
-      <c r="F86" s="37" t="s">
-        <v>257</v>
+      <c r="D86" s="36" t="s">
+        <v>236</v>
+      </c>
+      <c r="E86" s="36" t="s">
+        <v>237</v>
+      </c>
+      <c r="F86" s="34" t="s">
+        <v>238</v>
       </c>
       <c r="G86" s="9">
         <v>1</v>
@@ -4711,14 +4757,14 @@
       <c r="H86" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I86" t="s">
+      <c r="I86" s="21" t="s">
         <v>58</v>
       </c>
       <c r="J86" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K86" s="42" t="s">
-        <v>256</v>
+      <c r="K86" t="s">
+        <v>261</v>
       </c>
       <c r="L86" s="9" t="s">
         <v>23</v>
@@ -4729,14 +4775,14 @@
       <c r="C87" s="10">
         <v>43578</v>
       </c>
-      <c r="D87" t="s">
+      <c r="D87" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="E87" t="s">
-        <v>204</v>
-      </c>
-      <c r="F87" s="37" t="s">
-        <v>258</v>
+      <c r="E87" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="F87" s="34" t="s">
+        <v>239</v>
       </c>
       <c r="G87" s="9">
         <v>1</v>
@@ -4744,14 +4790,14 @@
       <c r="H87" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I87" t="s">
+      <c r="I87" s="21" t="s">
         <v>37</v>
       </c>
       <c r="J87" s="9" t="s">
         <v>50</v>
       </c>
       <c r="K87" t="s">
-        <v>259</v>
+        <v>240</v>
       </c>
       <c r="L87" s="9" t="s">
         <v>23</v>
@@ -4762,14 +4808,14 @@
       <c r="C88" s="10">
         <v>43578</v>
       </c>
-      <c r="D88" t="s">
+      <c r="D88" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="E88" t="s">
-        <v>260</v>
-      </c>
-      <c r="F88" s="37" t="s">
-        <v>261</v>
+      <c r="E88" s="21" t="s">
+        <v>241</v>
+      </c>
+      <c r="F88" s="34" t="s">
+        <v>242</v>
       </c>
       <c r="G88" s="9">
         <v>1</v>
@@ -4777,14 +4823,14 @@
       <c r="H88" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I88" t="s">
+      <c r="I88" s="21" t="s">
         <v>54</v>
       </c>
       <c r="J88" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K88" s="42" t="s">
-        <v>262</v>
+      <c r="K88" t="s">
+        <v>243</v>
       </c>
       <c r="L88" s="9" t="s">
         <v>23</v>
@@ -4795,14 +4841,14 @@
       <c r="C89" s="10">
         <v>43578</v>
       </c>
-      <c r="D89" t="s">
+      <c r="D89" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="E89" t="s">
-        <v>204</v>
-      </c>
-      <c r="F89" s="37" t="s">
-        <v>258</v>
+      <c r="E89" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="F89" s="34" t="s">
+        <v>239</v>
       </c>
       <c r="G89" s="9">
         <v>1</v>
@@ -4810,14 +4856,14 @@
       <c r="H89" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I89" t="s">
+      <c r="I89" s="21" t="s">
         <v>37</v>
       </c>
       <c r="J89" s="9" t="s">
         <v>21</v>
       </c>
       <c r="K89" t="s">
-        <v>259</v>
+        <v>240</v>
       </c>
       <c r="L89" s="9" t="s">
         <v>23</v>
@@ -4825,65 +4871,388 @@
     </row>
     <row r="90" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B90" s="14"/>
-      <c r="C90" s="22"/>
-      <c r="D90" s="21"/>
-      <c r="E90" s="21"/>
-      <c r="F90" s="37"/>
-      <c r="G90" s="9"/>
-      <c r="H90" s="9"/>
-      <c r="I90" s="21"/>
-      <c r="J90" s="9"/>
-      <c r="K90" s="21"/>
-      <c r="L90" s="9"/>
-    </row>
-    <row r="91" spans="2:12" ht="21.75" customHeight="1">
-      <c r="B91" s="50" t="s">
+      <c r="C90" s="10">
+        <v>43578</v>
+      </c>
+      <c r="D90" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="E90" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="F90" s="34" t="s">
+        <v>244</v>
+      </c>
+      <c r="G90" s="9">
+        <v>1</v>
+      </c>
+      <c r="H90" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I90" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="J90" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K90" t="s">
+        <v>275</v>
+      </c>
+      <c r="L90" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="91" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B91" s="14"/>
+      <c r="C91" s="10">
+        <v>43578</v>
+      </c>
+      <c r="D91" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="E91" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="F91" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="G91" s="9">
+        <v>1</v>
+      </c>
+      <c r="H91" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I91" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="J91" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="K91" t="s">
+        <v>262</v>
+      </c>
+      <c r="L91" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="92" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B92" s="14"/>
+      <c r="C92" s="10">
+        <v>43578</v>
+      </c>
+      <c r="D92" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="E92" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="F92" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="G92" s="9">
+        <v>1</v>
+      </c>
+      <c r="H92" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I92" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="J92" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="K92" t="s">
+        <v>264</v>
+      </c>
+      <c r="L92" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="93" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B93" s="14"/>
+      <c r="C93" s="10">
+        <v>43578</v>
+      </c>
+      <c r="D93" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="E93" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="F93" s="34" t="s">
+        <v>266</v>
+      </c>
+      <c r="G93" s="9">
+        <v>1</v>
+      </c>
+      <c r="H93" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I93" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="J93" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K93" t="s">
+        <v>265</v>
+      </c>
+      <c r="L93" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="94" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B94" s="14"/>
+      <c r="C94" s="10">
+        <v>43578</v>
+      </c>
+      <c r="D94" s="21" t="s">
+        <v>267</v>
+      </c>
+      <c r="E94" s="21" t="s">
+        <v>268</v>
+      </c>
+      <c r="F94" s="34" t="s">
+        <v>269</v>
+      </c>
+      <c r="G94" s="9">
+        <v>1</v>
+      </c>
+      <c r="H94" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I94" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="J94" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="K94" t="s">
+        <v>276</v>
+      </c>
+      <c r="L94" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="95" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B95" s="14"/>
+      <c r="C95" s="10">
+        <v>43578</v>
+      </c>
+      <c r="D95" s="21" t="s">
+        <v>270</v>
+      </c>
+      <c r="E95" s="21" t="s">
+        <v>271</v>
+      </c>
+      <c r="F95" s="34" t="s">
+        <v>272</v>
+      </c>
+      <c r="G95" s="9">
+        <v>1</v>
+      </c>
+      <c r="H95" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I95" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="J95" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K95" t="s">
+        <v>277</v>
+      </c>
+      <c r="L95" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="96" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B96" s="14"/>
+      <c r="C96" s="10">
+        <v>43578</v>
+      </c>
+      <c r="D96" s="21" t="s">
+        <v>273</v>
+      </c>
+      <c r="E96" s="21" t="s">
+        <v>273</v>
+      </c>
+      <c r="F96" s="34" t="s">
+        <v>274</v>
+      </c>
+      <c r="G96" s="9">
+        <v>1</v>
+      </c>
+      <c r="H96" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I96" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="J96" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="K96" t="s">
+        <v>278</v>
+      </c>
+      <c r="L96" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="97" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B97" s="14"/>
+      <c r="C97" s="10">
+        <v>43578</v>
+      </c>
+      <c r="D97" t="s">
+        <v>47</v>
+      </c>
+      <c r="E97" t="s">
+        <v>279</v>
+      </c>
+      <c r="F97" s="34" t="s">
+        <v>280</v>
+      </c>
+      <c r="G97" s="9">
+        <v>1</v>
+      </c>
+      <c r="H97" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I97" t="s">
+        <v>37</v>
+      </c>
+      <c r="J97" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="K97" t="s">
+        <v>282</v>
+      </c>
+      <c r="L97" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="98" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B98" s="14"/>
+      <c r="C98" s="10">
+        <v>43578</v>
+      </c>
+      <c r="D98" t="s">
+        <v>210</v>
+      </c>
+      <c r="E98" t="s">
+        <v>211</v>
+      </c>
+      <c r="F98" s="34" t="s">
+        <v>283</v>
+      </c>
+      <c r="G98" s="9">
+        <v>1</v>
+      </c>
+      <c r="H98" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I98" t="s">
+        <v>30</v>
+      </c>
+      <c r="J98" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="K98" s="39" t="s">
+        <v>284</v>
+      </c>
+      <c r="L98" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="99" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B99" s="14"/>
+      <c r="C99" s="22"/>
+      <c r="D99"/>
+      <c r="E99"/>
+      <c r="F99" s="34"/>
+      <c r="G99" s="9"/>
+      <c r="H99" s="9"/>
+      <c r="I99"/>
+      <c r="J99" s="9"/>
+      <c r="K99"/>
+      <c r="L99" s="9"/>
+    </row>
+    <row r="100" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B100" s="14"/>
+      <c r="C100" s="22"/>
+      <c r="D100"/>
+      <c r="E100"/>
+      <c r="F100" s="34"/>
+      <c r="G100" s="9"/>
+      <c r="H100" s="9"/>
+      <c r="I100"/>
+      <c r="J100" s="9"/>
+      <c r="K100"/>
+      <c r="L100" s="9"/>
+    </row>
+    <row r="101" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B101" s="14"/>
+      <c r="C101" s="22"/>
+      <c r="D101" s="21"/>
+      <c r="E101" s="21"/>
+      <c r="F101" s="34"/>
+      <c r="G101" s="9"/>
+      <c r="H101" s="9"/>
+      <c r="I101" s="21"/>
+      <c r="J101" s="9"/>
+      <c r="K101" s="21"/>
+      <c r="L101" s="9"/>
+    </row>
+    <row r="102" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B102" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="C91" s="51"/>
-      <c r="D91" s="23"/>
-      <c r="E91" s="23"/>
-      <c r="F91" s="24"/>
-      <c r="G91" s="24">
+      <c r="C102" s="43"/>
+      <c r="D102" s="23"/>
+      <c r="E102" s="23"/>
+      <c r="F102" s="24"/>
+      <c r="G102" s="24">
         <f>SUM(G3:G29)</f>
         <v>33</v>
       </c>
-      <c r="H91" s="24"/>
-      <c r="I91" s="24"/>
-      <c r="J91" s="9"/>
-      <c r="K91" s="33"/>
-      <c r="L91" s="9"/>
-    </row>
-    <row r="93" spans="2:12" ht="75" customHeight="1">
-      <c r="B93" s="52"/>
-      <c r="C93" s="53"/>
-      <c r="D93" s="53"/>
-      <c r="E93" s="53"/>
-      <c r="F93" s="53"/>
-      <c r="G93" s="53"/>
-      <c r="H93" s="53"/>
-      <c r="I93" s="53"/>
-      <c r="J93" s="54"/>
-      <c r="K93" s="34"/>
-      <c r="L93" s="35"/>
+      <c r="H102" s="24"/>
+      <c r="I102" s="24"/>
+      <c r="J102" s="9"/>
+      <c r="K102" s="30"/>
+      <c r="L102" s="9"/>
+    </row>
+    <row r="104" spans="2:12" ht="75" customHeight="1">
+      <c r="B104" s="44"/>
+      <c r="C104" s="45"/>
+      <c r="D104" s="45"/>
+      <c r="E104" s="45"/>
+      <c r="F104" s="45"/>
+      <c r="G104" s="45"/>
+      <c r="H104" s="45"/>
+      <c r="I104" s="45"/>
+      <c r="J104" s="46"/>
+      <c r="K104" s="31"/>
+      <c r="L104" s="32"/>
     </row>
   </sheetData>
-  <autoFilter ref="C2:L91"/>
+  <autoFilter ref="C2:L102"/>
   <sortState ref="B3:I41">
     <sortCondition ref="B3"/>
   </sortState>
   <mergeCells count="4">
     <mergeCell ref="C1:J1"/>
     <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="B93:J93"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="B104:J104"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J91">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J102">
       <formula1>"H5页面制作,页面跳转修改,页面修改,H5整站制作,PC制作&amp;折成3个H5页面"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J90">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J101">
       <formula1>"H5页面制作,页面跳转修改,页面修改,H5整站制作,PC制作&amp;折成3个H5页面,跳转设置,摘包"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4965,9 +5334,17 @@
     <hyperlink ref="K85" r:id="rId75"/>
     <hyperlink ref="K86" r:id="rId76"/>
     <hyperlink ref="K88" r:id="rId77"/>
+    <hyperlink ref="K91" r:id="rId78"/>
+    <hyperlink ref="K90" r:id="rId79"/>
+    <hyperlink ref="K92" r:id="rId80"/>
+    <hyperlink ref="K93" r:id="rId81"/>
+    <hyperlink ref="K94" r:id="rId82"/>
+    <hyperlink ref="K95" r:id="rId83"/>
+    <hyperlink ref="K96" r:id="rId84"/>
+    <hyperlink ref="K98" r:id="rId85"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId78"/>
-  <drawing r:id="rId79"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId86"/>
+  <drawing r:id="rId87"/>
 </worksheet>
 </file>
--- a/业务线技术支持登记表格式.xlsx
+++ b/业务线技术支持登记表格式.xlsx
@@ -1,23 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21425"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\phpStudy\WWW\myWork\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65ABAF5E-C90C-4930-814A-D2E55651499C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$2:$L$102</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$2:$L$108</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="292">
   <si>
     <t>业务线支持登记表</t>
   </si>
@@ -984,12 +990,34 @@
     <t>https://www.xhbup.com/oupei1/</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
+  <si>
+    <t>https://xhbup.com/leting2/</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/leting1/</t>
+  </si>
+  <si>
+    <t>广东乐婷化妆品实业有限公司（乐婷199页面）</t>
+  </si>
+  <si>
+    <t>小白鸽</t>
+  </si>
+  <si>
+    <t>广东丹匠化妆品有限公司</t>
+  </si>
+  <si>
+    <t>https://www.xhbup.com/kehong1/</t>
+  </si>
+  <si>
+    <t>https://www.xhbup.com/danjiang/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1337,7 +1365,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1479,6 +1507,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1511,13 +1542,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>234950</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>111125</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>110</xdr:row>
       <xdr:rowOff>1574</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1525,7 +1556,7 @@
         <xdr:cNvPr id="6" name="图片 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1537,7 +1568,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1846,17 +1877,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:Q104"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:Q110"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="F90" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="F98" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K98" sqref="K98"/>
+      <selection pane="bottomRight" activeCell="K101" sqref="K101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="1.25" style="3" customWidth="1"/>
     <col min="2" max="2" width="7" style="3" customWidth="1"/>
@@ -1877,7 +1908,7 @@
     <col min="21" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" s="1" customFormat="1" ht="46.5" customHeight="1">
+    <row r="1" spans="2:17" s="1" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C1" s="40" t="s">
         <v>0</v>
       </c>
@@ -1897,7 +1928,7 @@
       <c r="P1" s="41"/>
       <c r="Q1" s="41"/>
     </row>
-    <row r="2" spans="2:17" ht="21.75" customHeight="1">
+    <row r="2" spans="2:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="8" t="s">
         <v>2</v>
       </c>
@@ -1944,7 +1975,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="2:17">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B3" s="9">
         <v>1</v>
       </c>
@@ -1988,7 +2019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:17" ht="21.75" customHeight="1">
+    <row r="4" spans="2:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="9">
         <v>5</v>
       </c>
@@ -2038,7 +2069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:17" ht="21.75" customHeight="1">
+    <row r="5" spans="2:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="9">
         <v>6</v>
       </c>
@@ -2073,7 +2104,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="2:17" ht="21.75" customHeight="1">
+    <row r="6" spans="2:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="9"/>
       <c r="C6" s="10">
         <v>43570</v>
@@ -2106,7 +2137,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="2:17" ht="39.75" customHeight="1">
+    <row r="7" spans="2:17" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="9"/>
       <c r="C7" s="10">
         <v>43570</v>
@@ -2139,7 +2170,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="2:17" ht="21.75" customHeight="1">
+    <row r="8" spans="2:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="9"/>
       <c r="C8" s="10">
         <v>43570</v>
@@ -2172,7 +2203,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="2:17" ht="21.75" customHeight="1">
+    <row r="9" spans="2:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="9"/>
       <c r="C9" s="10">
         <v>43570</v>
@@ -2205,7 +2236,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="2:17" ht="21.75" customHeight="1">
+    <row r="10" spans="2:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="9"/>
       <c r="C10" s="10">
         <v>43570</v>
@@ -2238,7 +2269,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="2:17" ht="87" customHeight="1">
+    <row r="11" spans="2:17" ht="87" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="9"/>
       <c r="C11" s="10">
         <v>43570</v>
@@ -2271,7 +2302,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="2:17" ht="21.75" customHeight="1">
+    <row r="12" spans="2:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="9"/>
       <c r="C12" s="10">
         <v>43570</v>
@@ -2304,7 +2335,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="2:17" ht="21.75" customHeight="1">
+    <row r="13" spans="2:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="9"/>
       <c r="C13" s="10">
         <v>43570</v>
@@ -2337,7 +2368,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="2:17" ht="21.75" customHeight="1">
+    <row r="14" spans="2:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="9"/>
       <c r="C14" s="10">
         <v>43570</v>
@@ -2370,7 +2401,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="2:17" ht="21.75" customHeight="1">
+    <row r="15" spans="2:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="9"/>
       <c r="C15" s="10">
         <v>43570</v>
@@ -2403,7 +2434,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="2:17" ht="21.75" customHeight="1">
+    <row r="16" spans="2:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="9"/>
       <c r="C16" s="10">
         <v>43570</v>
@@ -2436,7 +2467,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="2:12" ht="21.75" customHeight="1">
+    <row r="17" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="9"/>
       <c r="C17" s="10">
         <v>43570</v>
@@ -2469,7 +2500,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="2:12" ht="21.75" customHeight="1">
+    <row r="18" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="9"/>
       <c r="C18" s="10">
         <v>43571</v>
@@ -2502,7 +2533,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="2:12" ht="21.75" customHeight="1">
+    <row r="19" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="9"/>
       <c r="C19" s="10">
         <v>43571</v>
@@ -2535,7 +2566,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="2:12" ht="21.75" customHeight="1">
+    <row r="20" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="9"/>
       <c r="C20" s="10">
         <v>43571</v>
@@ -2568,7 +2599,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="2:12" ht="21.75" customHeight="1">
+    <row r="21" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="9"/>
       <c r="C21" s="10">
         <v>43571</v>
@@ -2601,7 +2632,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="2:12" ht="21.75" customHeight="1">
+    <row r="22" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="9"/>
       <c r="C22" s="10">
         <v>43571</v>
@@ -2634,7 +2665,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="2:12" ht="21.75" customHeight="1">
+    <row r="23" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="9"/>
       <c r="C23" s="10">
         <v>43571</v>
@@ -2667,7 +2698,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="2:12" ht="42.95" customHeight="1">
+    <row r="24" spans="2:12" ht="42.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="9"/>
       <c r="C24" s="10">
         <v>43571</v>
@@ -2700,7 +2731,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="2:12" ht="21.75" customHeight="1">
+    <row r="25" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="9"/>
       <c r="C25" s="10">
         <v>43571</v>
@@ -2733,7 +2764,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="2:12" ht="21.75" customHeight="1">
+    <row r="26" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="9"/>
       <c r="C26" s="10">
         <v>43571</v>
@@ -2766,7 +2797,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="2:12" ht="21.75" customHeight="1">
+    <row r="27" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="9"/>
       <c r="C27" s="10">
         <v>43571</v>
@@ -2799,7 +2830,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="2:12" ht="21.75" customHeight="1">
+    <row r="28" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="9"/>
       <c r="C28" s="10">
         <v>43571</v>
@@ -2832,7 +2863,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="2:12" ht="21.75" customHeight="1">
+    <row r="29" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="9">
         <v>78</v>
       </c>
@@ -2867,7 +2898,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="2:12" ht="21.75" customHeight="1">
+    <row r="30" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="14"/>
       <c r="C30" s="10">
         <v>43571</v>
@@ -2900,7 +2931,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="2:12" ht="21.75" customHeight="1">
+    <row r="31" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="9">
         <v>79</v>
       </c>
@@ -2935,7 +2966,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="2:12" ht="21.75" customHeight="1">
+    <row r="32" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="9">
         <v>80</v>
       </c>
@@ -2970,7 +3001,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="2:12" ht="21.75" customHeight="1">
+    <row r="33" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="9">
         <v>81</v>
       </c>
@@ -3005,7 +3036,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="2:12" ht="21.75" customHeight="1">
+    <row r="34" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" s="9">
         <v>82</v>
       </c>
@@ -3040,7 +3071,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="2:12" ht="21.75" customHeight="1">
+    <row r="35" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B35" s="9">
         <v>83</v>
       </c>
@@ -3075,7 +3106,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="2:12" ht="21.75" customHeight="1">
+    <row r="36" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="9">
         <v>84</v>
       </c>
@@ -3110,7 +3141,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="2:12" ht="21.75" customHeight="1">
+    <row r="37" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="9">
         <v>85</v>
       </c>
@@ -3145,7 +3176,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="2:12" ht="21.75" customHeight="1">
+    <row r="38" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="9">
         <v>86</v>
       </c>
@@ -3180,7 +3211,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+    <row r="39" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" s="9">
         <v>87</v>
       </c>
@@ -3215,7 +3246,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+    <row r="40" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="9">
         <v>88</v>
       </c>
@@ -3250,7 +3281,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+    <row r="41" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="9">
         <v>89</v>
       </c>
@@ -3285,7 +3316,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+    <row r="42" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" s="9">
         <v>90</v>
       </c>
@@ -3320,7 +3351,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="43" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+    <row r="43" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B43" s="14"/>
       <c r="C43" s="10">
         <v>43572</v>
@@ -3353,7 +3384,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+    <row r="44" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="14"/>
       <c r="C44" s="10">
         <v>43572</v>
@@ -3386,7 +3417,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="45" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+    <row r="45" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" s="14"/>
       <c r="C45" s="10">
         <v>43572</v>
@@ -3419,7 +3450,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+    <row r="46" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" s="14"/>
       <c r="C46" s="10">
         <v>43572</v>
@@ -3452,7 +3483,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+    <row r="47" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" s="14"/>
       <c r="C47" s="10">
         <v>43572</v>
@@ -3485,7 +3516,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+    <row r="48" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B48" s="14"/>
       <c r="C48" s="10">
         <v>43572</v>
@@ -3518,7 +3549,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="49" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+    <row r="49" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B49" s="14"/>
       <c r="C49" s="10">
         <v>43573</v>
@@ -3551,7 +3582,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="50" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+    <row r="50" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B50" s="14"/>
       <c r="C50" s="10">
         <v>43573</v>
@@ -3584,7 +3615,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+    <row r="51" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B51" s="14"/>
       <c r="C51" s="10">
         <v>43573</v>
@@ -3617,7 +3648,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="52" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+    <row r="52" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B52" s="14"/>
       <c r="C52" s="10">
         <v>43573</v>
@@ -3650,7 +3681,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="53" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+    <row r="53" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B53" s="14"/>
       <c r="C53" s="10">
         <v>43573</v>
@@ -3683,7 +3714,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="54" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+    <row r="54" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B54" s="14"/>
       <c r="C54" s="10">
         <v>43573</v>
@@ -3716,7 +3747,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="55" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+    <row r="55" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B55" s="14"/>
       <c r="C55" s="10">
         <v>43573</v>
@@ -3749,7 +3780,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="56" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+    <row r="56" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B56" s="14"/>
       <c r="C56" s="10">
         <v>43573</v>
@@ -3782,7 +3813,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="57" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+    <row r="57" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B57" s="14"/>
       <c r="C57" s="10">
         <v>43573</v>
@@ -3815,7 +3846,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="58" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+    <row r="58" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B58" s="14"/>
       <c r="C58" s="10">
         <v>43573</v>
@@ -3848,7 +3879,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="59" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+    <row r="59" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B59" s="14"/>
       <c r="C59" s="10">
         <v>43573</v>
@@ -3881,7 +3912,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="60" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+    <row r="60" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B60" s="14"/>
       <c r="C60" s="10">
         <v>43573</v>
@@ -3914,7 +3945,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="61" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+    <row r="61" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B61" s="14"/>
       <c r="C61" s="10">
         <v>43573</v>
@@ -3947,7 +3978,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="62" spans="2:12" s="2" customFormat="1" ht="172.5" customHeight="1">
+    <row r="62" spans="2:12" s="2" customFormat="1" ht="172.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B62" s="14"/>
       <c r="C62" s="10">
         <v>43574</v>
@@ -3980,7 +4011,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="63" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+    <row r="63" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B63" s="14"/>
       <c r="C63" s="10">
         <v>43574</v>
@@ -4013,7 +4044,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="64" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+    <row r="64" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B64" s="14"/>
       <c r="C64" s="10">
         <v>43574</v>
@@ -4046,7 +4077,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="65" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+    <row r="65" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B65" s="14"/>
       <c r="C65" s="10">
         <v>43574</v>
@@ -4079,7 +4110,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="66" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+    <row r="66" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B66" s="14"/>
       <c r="C66" s="10">
         <v>43574</v>
@@ -4112,7 +4143,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="67" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+    <row r="67" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B67" s="14"/>
       <c r="C67" s="10">
         <v>43574</v>
@@ -4145,7 +4176,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="68" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+    <row r="68" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B68" s="14"/>
       <c r="C68" s="10">
         <v>43575</v>
@@ -4178,7 +4209,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="69" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+    <row r="69" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B69" s="14"/>
       <c r="C69" s="10">
         <v>43575</v>
@@ -4211,7 +4242,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="70" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+    <row r="70" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B70" s="14"/>
       <c r="C70" s="10">
         <v>43575</v>
@@ -4244,7 +4275,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="71" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+    <row r="71" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B71" s="14"/>
       <c r="C71" s="10">
         <v>43575</v>
@@ -4277,7 +4308,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="72" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+    <row r="72" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B72" s="14"/>
       <c r="C72" s="10">
         <v>43575</v>
@@ -4310,7 +4341,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="73" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+    <row r="73" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B73" s="14"/>
       <c r="C73" s="10">
         <v>43575</v>
@@ -4343,7 +4374,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="74" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+    <row r="74" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B74" s="14"/>
       <c r="C74" s="10">
         <v>43575</v>
@@ -4376,7 +4407,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="75" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+    <row r="75" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B75" s="14"/>
       <c r="C75" s="10">
         <v>43577</v>
@@ -4409,7 +4440,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="76" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+    <row r="76" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B76" s="14"/>
       <c r="C76" s="10">
         <v>43577</v>
@@ -4442,7 +4473,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="77" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+    <row r="77" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B77" s="14"/>
       <c r="C77" s="10">
         <v>43577</v>
@@ -4475,7 +4506,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="78" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+    <row r="78" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B78" s="14"/>
       <c r="C78" s="10">
         <v>43577</v>
@@ -4508,7 +4539,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="79" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+    <row r="79" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B79" s="14"/>
       <c r="C79" s="10">
         <v>43577</v>
@@ -4541,7 +4572,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="80" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+    <row r="80" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B80" s="14"/>
       <c r="C80" s="10">
         <v>43577</v>
@@ -4574,7 +4605,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="81" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+    <row r="81" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B81" s="14"/>
       <c r="C81" s="10">
         <v>43577</v>
@@ -4605,7 +4636,7 @@
       </c>
       <c r="L81" s="9"/>
     </row>
-    <row r="82" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+    <row r="82" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B82" s="14"/>
       <c r="C82" s="10">
         <v>43577</v>
@@ -4638,7 +4669,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="83" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+    <row r="83" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B83" s="14"/>
       <c r="C83" s="10">
         <v>43577</v>
@@ -4671,7 +4702,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="84" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+    <row r="84" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B84" s="14"/>
       <c r="C84" s="10">
         <v>43577</v>
@@ -4704,7 +4735,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="85" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+    <row r="85" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B85" s="14"/>
       <c r="C85" s="10">
         <v>43578</v>
@@ -4737,7 +4768,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="86" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+    <row r="86" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B86" s="14"/>
       <c r="C86" s="10">
         <v>43578</v>
@@ -4770,7 +4801,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="87" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+    <row r="87" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B87" s="14"/>
       <c r="C87" s="10">
         <v>43578</v>
@@ -4803,7 +4834,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="88" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+    <row r="88" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B88" s="14"/>
       <c r="C88" s="10">
         <v>43578</v>
@@ -4836,7 +4867,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="89" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+    <row r="89" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B89" s="14"/>
       <c r="C89" s="10">
         <v>43578</v>
@@ -4869,7 +4900,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="90" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+    <row r="90" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B90" s="14"/>
       <c r="C90" s="10">
         <v>43578</v>
@@ -4902,7 +4933,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="91" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+    <row r="91" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B91" s="14"/>
       <c r="C91" s="10">
         <v>43578</v>
@@ -4935,7 +4966,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="92" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+    <row r="92" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B92" s="14"/>
       <c r="C92" s="10">
         <v>43578</v>
@@ -4968,7 +4999,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="93" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+    <row r="93" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B93" s="14"/>
       <c r="C93" s="10">
         <v>43578</v>
@@ -5001,7 +5032,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="94" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+    <row r="94" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B94" s="14"/>
       <c r="C94" s="10">
         <v>43578</v>
@@ -5034,7 +5065,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="95" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+    <row r="95" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B95" s="14"/>
       <c r="C95" s="10">
         <v>43578</v>
@@ -5067,7 +5098,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="96" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+    <row r="96" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B96" s="14"/>
       <c r="C96" s="10">
         <v>43578</v>
@@ -5100,7 +5131,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="97" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+    <row r="97" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B97" s="14"/>
       <c r="C97" s="10">
         <v>43578</v>
@@ -5133,7 +5164,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="98" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+    <row r="98" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B98" s="14"/>
       <c r="C98" s="10">
         <v>43578</v>
@@ -5157,7 +5188,7 @@
         <v>30</v>
       </c>
       <c r="J98" s="9" t="s">
-        <v>281</v>
+        <v>50</v>
       </c>
       <c r="K98" s="39" t="s">
         <v>284</v>
@@ -5166,185 +5197,344 @@
         <v>23</v>
       </c>
     </row>
-    <row r="99" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+    <row r="99" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B99" s="14"/>
-      <c r="C99" s="22"/>
-      <c r="D99"/>
-      <c r="E99"/>
-      <c r="F99" s="34"/>
-      <c r="G99" s="9"/>
-      <c r="H99" s="9"/>
-      <c r="I99"/>
-      <c r="J99" s="9"/>
-      <c r="K99"/>
-      <c r="L99" s="9"/>
-    </row>
-    <row r="100" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="C99" s="10">
+        <v>43578</v>
+      </c>
+      <c r="D99" s="47" t="s">
+        <v>202</v>
+      </c>
+      <c r="E99" s="47" t="s">
+        <v>208</v>
+      </c>
+      <c r="F99" s="34" t="s">
+        <v>204</v>
+      </c>
+      <c r="G99" s="9">
+        <v>1</v>
+      </c>
+      <c r="H99" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I99" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="J99" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="K99" s="47" t="s">
+        <v>285</v>
+      </c>
+      <c r="L99" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="100" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B100" s="14"/>
-      <c r="C100" s="22"/>
-      <c r="D100"/>
-      <c r="E100"/>
-      <c r="F100" s="34"/>
-      <c r="G100" s="9"/>
-      <c r="H100" s="9"/>
-      <c r="I100"/>
-      <c r="J100" s="9"/>
-      <c r="K100"/>
-      <c r="L100" s="9"/>
-    </row>
-    <row r="101" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="C100" s="10">
+        <v>43578</v>
+      </c>
+      <c r="D100" s="47" t="s">
+        <v>202</v>
+      </c>
+      <c r="E100" s="47" t="s">
+        <v>287</v>
+      </c>
+      <c r="F100" s="34" t="s">
+        <v>204</v>
+      </c>
+      <c r="G100" s="9">
+        <v>1</v>
+      </c>
+      <c r="H100" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I100" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="J100" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="K100" s="47" t="s">
+        <v>286</v>
+      </c>
+      <c r="L100" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="101" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B101" s="14"/>
-      <c r="C101" s="22"/>
-      <c r="D101" s="21"/>
-      <c r="E101" s="21"/>
-      <c r="F101" s="34"/>
-      <c r="G101" s="9"/>
-      <c r="H101" s="9"/>
-      <c r="I101" s="21"/>
-      <c r="J101" s="9"/>
-      <c r="K101" s="21"/>
-      <c r="L101" s="9"/>
-    </row>
-    <row r="102" spans="2:12" ht="21.75" customHeight="1">
-      <c r="B102" s="42" t="s">
+      <c r="C101" s="10">
+        <v>43578</v>
+      </c>
+      <c r="D101" s="47" t="s">
+        <v>288</v>
+      </c>
+      <c r="E101" s="47" t="s">
+        <v>289</v>
+      </c>
+      <c r="F101" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="G101" s="9">
+        <v>1</v>
+      </c>
+      <c r="H101" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I101" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="J101" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K101" s="39" t="s">
+        <v>291</v>
+      </c>
+      <c r="L101" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="102" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B102" s="14"/>
+      <c r="C102" s="10">
+        <v>43578</v>
+      </c>
+      <c r="D102" s="47" t="s">
+        <v>33</v>
+      </c>
+      <c r="E102" s="47" t="s">
+        <v>33</v>
+      </c>
+      <c r="F102" s="34" t="s">
+        <v>156</v>
+      </c>
+      <c r="G102" s="9">
+        <v>1</v>
+      </c>
+      <c r="H102" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I102" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="J102" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K102" s="47" t="s">
+        <v>290</v>
+      </c>
+      <c r="L102" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="103" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B103" s="14"/>
+      <c r="C103" s="22"/>
+      <c r="D103"/>
+      <c r="E103"/>
+      <c r="F103" s="34"/>
+      <c r="G103" s="9"/>
+      <c r="H103" s="9"/>
+      <c r="I103"/>
+      <c r="J103" s="9"/>
+      <c r="K103" s="39"/>
+      <c r="L103" s="9"/>
+    </row>
+    <row r="104" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B104" s="14"/>
+      <c r="C104" s="22"/>
+      <c r="D104"/>
+      <c r="E104"/>
+      <c r="F104" s="34"/>
+      <c r="G104" s="9"/>
+      <c r="H104" s="9"/>
+      <c r="I104"/>
+      <c r="J104" s="9"/>
+      <c r="K104" s="39"/>
+      <c r="L104" s="9"/>
+    </row>
+    <row r="105" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B105" s="14"/>
+      <c r="C105" s="22"/>
+      <c r="D105"/>
+      <c r="E105"/>
+      <c r="F105" s="34"/>
+      <c r="G105" s="9"/>
+      <c r="H105" s="9"/>
+      <c r="I105"/>
+      <c r="J105" s="9"/>
+      <c r="K105"/>
+      <c r="L105" s="9"/>
+    </row>
+    <row r="106" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B106" s="14"/>
+      <c r="C106" s="22"/>
+      <c r="D106"/>
+      <c r="E106"/>
+      <c r="F106" s="34"/>
+      <c r="G106" s="9"/>
+      <c r="H106" s="9"/>
+      <c r="I106"/>
+      <c r="J106" s="9"/>
+      <c r="K106"/>
+      <c r="L106" s="9"/>
+    </row>
+    <row r="107" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B107" s="14"/>
+      <c r="C107" s="22"/>
+      <c r="D107" s="21"/>
+      <c r="E107" s="21"/>
+      <c r="F107" s="34"/>
+      <c r="G107" s="9"/>
+      <c r="H107" s="9"/>
+      <c r="I107" s="21"/>
+      <c r="J107" s="9"/>
+      <c r="K107" s="21"/>
+      <c r="L107" s="9"/>
+    </row>
+    <row r="108" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B108" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="C102" s="43"/>
-      <c r="D102" s="23"/>
-      <c r="E102" s="23"/>
-      <c r="F102" s="24"/>
-      <c r="G102" s="24">
+      <c r="C108" s="43"/>
+      <c r="D108" s="23"/>
+      <c r="E108" s="23"/>
+      <c r="F108" s="24"/>
+      <c r="G108" s="24">
         <f>SUM(G3:G29)</f>
         <v>33</v>
       </c>
-      <c r="H102" s="24"/>
-      <c r="I102" s="24"/>
-      <c r="J102" s="9"/>
-      <c r="K102" s="30"/>
-      <c r="L102" s="9"/>
-    </row>
-    <row r="104" spans="2:12" ht="75" customHeight="1">
-      <c r="B104" s="44"/>
-      <c r="C104" s="45"/>
-      <c r="D104" s="45"/>
-      <c r="E104" s="45"/>
-      <c r="F104" s="45"/>
-      <c r="G104" s="45"/>
-      <c r="H104" s="45"/>
-      <c r="I104" s="45"/>
-      <c r="J104" s="46"/>
-      <c r="K104" s="31"/>
-      <c r="L104" s="32"/>
+      <c r="H108" s="24"/>
+      <c r="I108" s="24"/>
+      <c r="J108" s="9"/>
+      <c r="K108" s="30"/>
+      <c r="L108" s="9"/>
+    </row>
+    <row r="110" spans="2:12" ht="75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B110" s="44"/>
+      <c r="C110" s="45"/>
+      <c r="D110" s="45"/>
+      <c r="E110" s="45"/>
+      <c r="F110" s="45"/>
+      <c r="G110" s="45"/>
+      <c r="H110" s="45"/>
+      <c r="I110" s="45"/>
+      <c r="J110" s="46"/>
+      <c r="K110" s="31"/>
+      <c r="L110" s="32"/>
     </row>
   </sheetData>
-  <autoFilter ref="C2:L102"/>
+  <autoFilter ref="C2:L108" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <sortState ref="B3:I41">
     <sortCondition ref="B3"/>
   </sortState>
   <mergeCells count="4">
     <mergeCell ref="C1:J1"/>
     <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="B104:J104"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="B110:J110"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J102">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J108" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"H5页面制作,页面跳转修改,页面修改,H5整站制作,PC制作&amp;折成3个H5页面"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J107" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"H5页面制作,页面跳转修改,页面修改,H5整站制作,PC制作&amp;折成3个H5页面,跳转设置,摘包"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="K4" r:id="rId1"/>
-    <hyperlink ref="K5" r:id="rId2" tooltip="https://xhbup.com/qb/"/>
-    <hyperlink ref="K6" r:id="rId3"/>
-    <hyperlink ref="K8" r:id="rId4" tooltip="https://xhbup.com/quban"/>
-    <hyperlink ref="K9" r:id="rId5" tooltip="https://www.xhbup.com/gdkpdz/"/>
-    <hyperlink ref="K10" r:id="rId6"/>
-    <hyperlink ref="K12" r:id="rId7" tooltip="https://xhbup.com/maokong/"/>
-    <hyperlink ref="K13" r:id="rId8" tooltip="https://xhbup.com/quban1/"/>
-    <hyperlink ref="K14" r:id="rId9" tooltip="https://xhbup.com/quban2/"/>
-    <hyperlink ref="K15" r:id="rId10" tooltip="https://xhbup.com/huchou/"/>
-    <hyperlink ref="K16" r:id="rId11" tooltip="https://xhbup.com/huchou1/"/>
-    <hyperlink ref="K17" r:id="rId12" tooltip="https://xhbup.com/qhxs/"/>
-    <hyperlink ref="K18" r:id="rId13" tooltip="https://xhbup.com/feicui/"/>
-    <hyperlink ref="K19" r:id="rId14" tooltip="https://xhbup.com/yfmmwljs/tg/"/>
-    <hyperlink ref="K20" r:id="rId15" tooltip="https://xhbup.com/xiyou/"/>
-    <hyperlink ref="K21" r:id="rId16"/>
-    <hyperlink ref="K22" r:id="rId17" tooltip="https://xhbup.com/hdmp/"/>
-    <hyperlink ref="K23" r:id="rId18" tooltip="https://xhbup.com/fds/"/>
-    <hyperlink ref="K24" r:id="rId19" tooltip="https://xhbup.com/fanlv/https://xhbup.com/fanlv/"/>
-    <hyperlink ref="K25" r:id="rId20"/>
-    <hyperlink ref="K26" r:id="rId21" tooltip="https://xhbup.com/danke/"/>
-    <hyperlink ref="K27" r:id="rId22" tooltip="https://xhbup.com/sendu/"/>
-    <hyperlink ref="K28" r:id="rId23" tooltip="https://www.xhbup.com/wcwl/"/>
-    <hyperlink ref="K29" r:id="rId24"/>
-    <hyperlink ref="K30" r:id="rId25" tooltip="https://www.xhbup.com/jianfu/"/>
-    <hyperlink ref="K31" r:id="rId26" tooltip="https://www.xhbup.com/yixing/"/>
-    <hyperlink ref="K32" r:id="rId27" tooltip="https://xhbup.com/quban1/"/>
-    <hyperlink ref="K33" r:id="rId28" tooltip="https://xhbup.com/quban1/"/>
-    <hyperlink ref="K34" r:id="rId29" tooltip="https://xhbup.com/yfmmwljs/tg/"/>
-    <hyperlink ref="K35" r:id="rId30" tooltip="https://xhbup.com/yinxiuer/"/>
-    <hyperlink ref="K36" r:id="rId31" tooltip="https://xhbup.com/tingcai/"/>
-    <hyperlink ref="K37" r:id="rId32"/>
-    <hyperlink ref="K39" r:id="rId33"/>
-    <hyperlink ref="K40" r:id="rId34"/>
-    <hyperlink ref="K41" r:id="rId35"/>
-    <hyperlink ref="K42" r:id="rId36" tooltip="https://xhbup.com/jzzkj2/tp/"/>
-    <hyperlink ref="K43" r:id="rId37" tooltip="https://xhbup.com/tiancheng/"/>
-    <hyperlink ref="K44" r:id="rId38"/>
-    <hyperlink ref="K45" r:id="rId39"/>
-    <hyperlink ref="K46" r:id="rId40"/>
-    <hyperlink ref="K47" r:id="rId41"/>
-    <hyperlink ref="K48" r:id="rId42"/>
-    <hyperlink ref="K49" r:id="rId43"/>
-    <hyperlink ref="K50" r:id="rId44"/>
-    <hyperlink ref="K51" r:id="rId45"/>
-    <hyperlink ref="K52" r:id="rId46"/>
-    <hyperlink ref="K53" r:id="rId47"/>
-    <hyperlink ref="K54" r:id="rId48"/>
-    <hyperlink ref="K55" r:id="rId49"/>
-    <hyperlink ref="K56" r:id="rId50"/>
-    <hyperlink ref="K57" r:id="rId51"/>
-    <hyperlink ref="K58" r:id="rId52"/>
-    <hyperlink ref="K59" r:id="rId53"/>
-    <hyperlink ref="K61" r:id="rId54"/>
-    <hyperlink ref="K62" r:id="rId55" display="https://xhbup.com/hdws1/"/>
-    <hyperlink ref="K63" r:id="rId56"/>
-    <hyperlink ref="K64" r:id="rId57"/>
-    <hyperlink ref="K65" r:id="rId58"/>
-    <hyperlink ref="K66" r:id="rId59"/>
-    <hyperlink ref="K67" r:id="rId60"/>
-    <hyperlink ref="K68" r:id="rId61"/>
-    <hyperlink ref="K69" r:id="rId62"/>
-    <hyperlink ref="K70" r:id="rId63"/>
-    <hyperlink ref="K71" r:id="rId64"/>
-    <hyperlink ref="K73" r:id="rId65"/>
-    <hyperlink ref="K74" r:id="rId66"/>
-    <hyperlink ref="K75" r:id="rId67"/>
-    <hyperlink ref="K76" r:id="rId68"/>
-    <hyperlink ref="K77" r:id="rId69"/>
-    <hyperlink ref="K78" r:id="rId70"/>
-    <hyperlink ref="K80" r:id="rId71"/>
-    <hyperlink ref="K82" r:id="rId72"/>
-    <hyperlink ref="K81" r:id="rId73"/>
-    <hyperlink ref="K84" r:id="rId74"/>
-    <hyperlink ref="K85" r:id="rId75"/>
-    <hyperlink ref="K86" r:id="rId76"/>
-    <hyperlink ref="K88" r:id="rId77"/>
-    <hyperlink ref="K91" r:id="rId78"/>
-    <hyperlink ref="K90" r:id="rId79"/>
-    <hyperlink ref="K92" r:id="rId80"/>
-    <hyperlink ref="K93" r:id="rId81"/>
-    <hyperlink ref="K94" r:id="rId82"/>
-    <hyperlink ref="K95" r:id="rId83"/>
-    <hyperlink ref="K96" r:id="rId84"/>
-    <hyperlink ref="K98" r:id="rId85"/>
+    <hyperlink ref="K4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="K5" r:id="rId2" tooltip="https://xhbup.com/qb/" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="K6" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="K8" r:id="rId4" tooltip="https://xhbup.com/quban" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="K9" r:id="rId5" tooltip="https://www.xhbup.com/gdkpdz/" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="K10" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="K12" r:id="rId7" tooltip="https://xhbup.com/maokong/" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="K13" r:id="rId8" tooltip="https://xhbup.com/quban1/" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="K14" r:id="rId9" tooltip="https://xhbup.com/quban2/" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="K15" r:id="rId10" tooltip="https://xhbup.com/huchou/" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="K16" r:id="rId11" tooltip="https://xhbup.com/huchou1/" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="K17" r:id="rId12" tooltip="https://xhbup.com/qhxs/" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="K18" r:id="rId13" tooltip="https://xhbup.com/feicui/" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="K19" r:id="rId14" tooltip="https://xhbup.com/yfmmwljs/tg/" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="K20" r:id="rId15" tooltip="https://xhbup.com/xiyou/" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="K21" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="K22" r:id="rId17" tooltip="https://xhbup.com/hdmp/" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="K23" r:id="rId18" tooltip="https://xhbup.com/fds/" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="K24" r:id="rId19" tooltip="https://xhbup.com/fanlv/https://xhbup.com/fanlv/" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="K25" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="K26" r:id="rId21" tooltip="https://xhbup.com/danke/" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="K27" r:id="rId22" tooltip="https://xhbup.com/sendu/" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="K28" r:id="rId23" tooltip="https://www.xhbup.com/wcwl/" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="K29" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="K30" r:id="rId25" tooltip="https://www.xhbup.com/jianfu/" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="K31" r:id="rId26" tooltip="https://www.xhbup.com/yixing/" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="K32" r:id="rId27" tooltip="https://xhbup.com/quban1/" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="K33" r:id="rId28" tooltip="https://xhbup.com/quban1/" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="K34" r:id="rId29" tooltip="https://xhbup.com/yfmmwljs/tg/" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="K35" r:id="rId30" tooltip="https://xhbup.com/yinxiuer/" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="K36" r:id="rId31" tooltip="https://xhbup.com/tingcai/" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="K37" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="K39" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="K40" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="K41" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="K42" r:id="rId36" tooltip="https://xhbup.com/jzzkj2/tp/" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="K43" r:id="rId37" tooltip="https://xhbup.com/tiancheng/" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="K44" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="K45" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="K46" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="K47" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="K48" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="K49" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="K50" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="K51" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="K52" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="K53" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="K54" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="K55" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="K56" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="K57" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="K58" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="K59" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="K61" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="K62" r:id="rId55" display="https://xhbup.com/hdws1/" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="K63" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="K64" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="K65" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="K66" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="K67" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="K68" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="K69" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="K70" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="K71" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="K73" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="K74" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="K75" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="K76" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="K77" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="K78" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="K80" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="K82" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="K81" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="K84" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="K85" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="K86" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="K88" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="K91" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="K90" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="K92" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="K93" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="K94" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="K95" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="K96" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="K98" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="K101" r:id="rId86" xr:uid="{826E2E2D-0152-4A51-AC99-65E1A12AA8EC}"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId86"/>
-  <drawing r:id="rId87"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId87"/>
+  <drawing r:id="rId88"/>
 </worksheet>
 </file>
--- a/业务线技术支持登记表格式.xlsx
+++ b/业务线技术支持登记表格式.xlsx
@@ -1,29 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\phpStudy\WWW\myWork\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65ABAF5E-C90C-4930-814A-D2E55651499C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$2:$L$108</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$2:$L$138</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="317">
   <si>
     <t>业务线支持登记表</t>
   </si>
@@ -1012,12 +1006,103 @@
     <t>https://www.xhbup.com/danjiang/</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
+  <si>
+    <t>武汉飓风</t>
+  </si>
+  <si>
+    <t>丰胸</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/zhimei/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>小艾</t>
+  </si>
+  <si>
+    <t>清远市艾米时尚美容美发有限公司</t>
+  </si>
+  <si>
+    <t>淡斑</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/aimi/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>韶关雯斯特商贸有限公司</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/wensite/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>新客户</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>英德市芊朵化妆品有限公司</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/qianduo/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>大宝</t>
+  </si>
+  <si>
+    <t>广州雪暴电子科技有限公司</t>
+  </si>
+  <si>
+    <t>口红</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/xuebao/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>瘦身</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/zhishang2/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>台山市索达日用化妆品有限公司</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/suoda/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/xuebao1/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>杭州微起点文化传播有限公司</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>广东猴强大互联网科技有限公司</t>
+  </si>
+  <si>
+    <t>小说</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/houqiangd/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1162,6 +1247,14 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1365,7 +1458,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1486,6 +1579,9 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1507,7 +1603,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1542,13 +1644,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>234950</xdr:colOff>
-      <xdr:row>109</xdr:row>
+      <xdr:row>139</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>111125</xdr:colOff>
-      <xdr:row>110</xdr:row>
+      <xdr:row>140</xdr:row>
       <xdr:rowOff>1574</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1556,7 +1658,7 @@
         <xdr:cNvPr id="6" name="图片 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1568,7 +1670,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1877,17 +1979,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:Q110"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:Q140"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="F98" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="F104" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K101" sqref="K101"/>
+      <selection pane="bottomRight" activeCell="K111" sqref="K111"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="1.25" style="3" customWidth="1"/>
     <col min="2" max="2" width="7" style="3" customWidth="1"/>
@@ -1908,27 +2010,27 @@
     <col min="21" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" s="1" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C1" s="40" t="s">
+    <row r="1" spans="2:17" s="1" customFormat="1" ht="46.5" customHeight="1">
+      <c r="C1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
       <c r="K1" s="25"/>
       <c r="L1" s="7"/>
-      <c r="N1" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
-    </row>
-    <row r="2" spans="2:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N1" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
+    </row>
+    <row r="2" spans="2:17" ht="21.75" customHeight="1">
       <c r="B2" s="8" t="s">
         <v>2</v>
       </c>
@@ -1975,7 +2077,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:17">
       <c r="B3" s="9">
         <v>1</v>
       </c>
@@ -2019,7 +2121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:17" ht="21.75" customHeight="1">
       <c r="B4" s="9">
         <v>5</v>
       </c>
@@ -2069,7 +2171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:17" ht="21.75" customHeight="1">
       <c r="B5" s="9">
         <v>6</v>
       </c>
@@ -2104,7 +2206,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="2:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:17" ht="21.75" customHeight="1">
       <c r="B6" s="9"/>
       <c r="C6" s="10">
         <v>43570</v>
@@ -2137,7 +2239,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="2:17" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:17" ht="39.75" customHeight="1">
       <c r="B7" s="9"/>
       <c r="C7" s="10">
         <v>43570</v>
@@ -2170,7 +2272,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="2:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:17" ht="21.75" customHeight="1">
       <c r="B8" s="9"/>
       <c r="C8" s="10">
         <v>43570</v>
@@ -2203,7 +2305,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="2:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:17" ht="21.75" customHeight="1">
       <c r="B9" s="9"/>
       <c r="C9" s="10">
         <v>43570</v>
@@ -2236,7 +2338,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="2:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:17" ht="21.75" customHeight="1">
       <c r="B10" s="9"/>
       <c r="C10" s="10">
         <v>43570</v>
@@ -2269,7 +2371,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="2:17" ht="87" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:17" ht="87" customHeight="1">
       <c r="B11" s="9"/>
       <c r="C11" s="10">
         <v>43570</v>
@@ -2302,7 +2404,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="2:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:17" ht="21.75" customHeight="1">
       <c r="B12" s="9"/>
       <c r="C12" s="10">
         <v>43570</v>
@@ -2335,7 +2437,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="2:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:17" ht="21.75" customHeight="1">
       <c r="B13" s="9"/>
       <c r="C13" s="10">
         <v>43570</v>
@@ -2368,7 +2470,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="2:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:17" ht="21.75" customHeight="1">
       <c r="B14" s="9"/>
       <c r="C14" s="10">
         <v>43570</v>
@@ -2401,7 +2503,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="2:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:17" ht="21.75" customHeight="1">
       <c r="B15" s="9"/>
       <c r="C15" s="10">
         <v>43570</v>
@@ -2434,7 +2536,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="2:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:17" ht="21.75" customHeight="1">
       <c r="B16" s="9"/>
       <c r="C16" s="10">
         <v>43570</v>
@@ -2467,7 +2569,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:12" ht="21.75" customHeight="1">
       <c r="B17" s="9"/>
       <c r="C17" s="10">
         <v>43570</v>
@@ -2500,7 +2602,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:12" ht="21.75" customHeight="1">
       <c r="B18" s="9"/>
       <c r="C18" s="10">
         <v>43571</v>
@@ -2533,7 +2635,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:12" ht="21.75" customHeight="1">
       <c r="B19" s="9"/>
       <c r="C19" s="10">
         <v>43571</v>
@@ -2566,7 +2668,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:12" ht="21.75" customHeight="1">
       <c r="B20" s="9"/>
       <c r="C20" s="10">
         <v>43571</v>
@@ -2599,7 +2701,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:12" ht="21.75" customHeight="1">
       <c r="B21" s="9"/>
       <c r="C21" s="10">
         <v>43571</v>
@@ -2632,7 +2734,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:12" ht="21.75" customHeight="1">
       <c r="B22" s="9"/>
       <c r="C22" s="10">
         <v>43571</v>
@@ -2665,7 +2767,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:12" ht="21.75" customHeight="1">
       <c r="B23" s="9"/>
       <c r="C23" s="10">
         <v>43571</v>
@@ -2698,7 +2800,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="2:12" ht="42.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:12" ht="42.95" customHeight="1">
       <c r="B24" s="9"/>
       <c r="C24" s="10">
         <v>43571</v>
@@ -2731,7 +2833,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:12" ht="21.75" customHeight="1">
       <c r="B25" s="9"/>
       <c r="C25" s="10">
         <v>43571</v>
@@ -2764,7 +2866,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:12" ht="21.75" customHeight="1">
       <c r="B26" s="9"/>
       <c r="C26" s="10">
         <v>43571</v>
@@ -2797,7 +2899,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:12" ht="21.75" customHeight="1">
       <c r="B27" s="9"/>
       <c r="C27" s="10">
         <v>43571</v>
@@ -2830,7 +2932,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:12" ht="21.75" customHeight="1">
       <c r="B28" s="9"/>
       <c r="C28" s="10">
         <v>43571</v>
@@ -2863,7 +2965,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:12" ht="21.75" customHeight="1">
       <c r="B29" s="9">
         <v>78</v>
       </c>
@@ -2898,7 +3000,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:12" ht="21.75" customHeight="1">
       <c r="B30" s="14"/>
       <c r="C30" s="10">
         <v>43571</v>
@@ -2931,7 +3033,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:12" ht="21.75" customHeight="1">
       <c r="B31" s="9">
         <v>79</v>
       </c>
@@ -2966,7 +3068,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:12" ht="21.75" customHeight="1">
       <c r="B32" s="9">
         <v>80</v>
       </c>
@@ -3001,7 +3103,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:12" ht="21.75" customHeight="1">
       <c r="B33" s="9">
         <v>81</v>
       </c>
@@ -3036,7 +3138,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:12" ht="21.75" customHeight="1">
       <c r="B34" s="9">
         <v>82</v>
       </c>
@@ -3071,7 +3173,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:12" ht="21.75" customHeight="1">
       <c r="B35" s="9">
         <v>83</v>
       </c>
@@ -3106,7 +3208,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:12" ht="21.75" customHeight="1">
       <c r="B36" s="9">
         <v>84</v>
       </c>
@@ -3141,7 +3243,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:12" ht="21.75" customHeight="1">
       <c r="B37" s="9">
         <v>85</v>
       </c>
@@ -3176,7 +3278,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:12" ht="21.75" customHeight="1">
       <c r="B38" s="9">
         <v>86</v>
       </c>
@@ -3211,7 +3313,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B39" s="9">
         <v>87</v>
       </c>
@@ -3246,7 +3348,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B40" s="9">
         <v>88</v>
       </c>
@@ -3281,7 +3383,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B41" s="9">
         <v>89</v>
       </c>
@@ -3316,7 +3418,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B42" s="9">
         <v>90</v>
       </c>
@@ -3351,7 +3453,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="43" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B43" s="14"/>
       <c r="C43" s="10">
         <v>43572</v>
@@ -3384,7 +3486,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B44" s="14"/>
       <c r="C44" s="10">
         <v>43572</v>
@@ -3417,7 +3519,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="45" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B45" s="14"/>
       <c r="C45" s="10">
         <v>43572</v>
@@ -3450,7 +3552,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B46" s="14"/>
       <c r="C46" s="10">
         <v>43572</v>
@@ -3483,7 +3585,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B47" s="14"/>
       <c r="C47" s="10">
         <v>43572</v>
@@ -3516,7 +3618,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B48" s="14"/>
       <c r="C48" s="10">
         <v>43572</v>
@@ -3549,7 +3651,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="49" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B49" s="14"/>
       <c r="C49" s="10">
         <v>43573</v>
@@ -3582,7 +3684,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="50" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B50" s="14"/>
       <c r="C50" s="10">
         <v>43573</v>
@@ -3615,7 +3717,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B51" s="14"/>
       <c r="C51" s="10">
         <v>43573</v>
@@ -3648,7 +3750,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="52" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B52" s="14"/>
       <c r="C52" s="10">
         <v>43573</v>
@@ -3681,7 +3783,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="53" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B53" s="14"/>
       <c r="C53" s="10">
         <v>43573</v>
@@ -3714,7 +3816,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="54" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B54" s="14"/>
       <c r="C54" s="10">
         <v>43573</v>
@@ -3747,7 +3849,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="55" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B55" s="14"/>
       <c r="C55" s="10">
         <v>43573</v>
@@ -3780,7 +3882,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="56" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B56" s="14"/>
       <c r="C56" s="10">
         <v>43573</v>
@@ -3813,7 +3915,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="57" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B57" s="14"/>
       <c r="C57" s="10">
         <v>43573</v>
@@ -3846,7 +3948,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="58" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B58" s="14"/>
       <c r="C58" s="10">
         <v>43573</v>
@@ -3879,7 +3981,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="59" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B59" s="14"/>
       <c r="C59" s="10">
         <v>43573</v>
@@ -3912,7 +4014,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="60" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B60" s="14"/>
       <c r="C60" s="10">
         <v>43573</v>
@@ -3945,7 +4047,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="61" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B61" s="14"/>
       <c r="C61" s="10">
         <v>43573</v>
@@ -3978,7 +4080,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="62" spans="2:12" s="2" customFormat="1" ht="172.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:12" s="2" customFormat="1" ht="172.5" customHeight="1">
       <c r="B62" s="14"/>
       <c r="C62" s="10">
         <v>43574</v>
@@ -4011,7 +4113,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="63" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B63" s="14"/>
       <c r="C63" s="10">
         <v>43574</v>
@@ -4044,7 +4146,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="64" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B64" s="14"/>
       <c r="C64" s="10">
         <v>43574</v>
@@ -4077,7 +4179,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="65" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B65" s="14"/>
       <c r="C65" s="10">
         <v>43574</v>
@@ -4110,7 +4212,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="66" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B66" s="14"/>
       <c r="C66" s="10">
         <v>43574</v>
@@ -4143,7 +4245,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="67" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B67" s="14"/>
       <c r="C67" s="10">
         <v>43574</v>
@@ -4176,7 +4278,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="68" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B68" s="14"/>
       <c r="C68" s="10">
         <v>43575</v>
@@ -4209,7 +4311,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="69" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B69" s="14"/>
       <c r="C69" s="10">
         <v>43575</v>
@@ -4242,7 +4344,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="70" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B70" s="14"/>
       <c r="C70" s="10">
         <v>43575</v>
@@ -4275,7 +4377,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="71" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B71" s="14"/>
       <c r="C71" s="10">
         <v>43575</v>
@@ -4308,7 +4410,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="72" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B72" s="14"/>
       <c r="C72" s="10">
         <v>43575</v>
@@ -4341,7 +4443,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="73" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B73" s="14"/>
       <c r="C73" s="10">
         <v>43575</v>
@@ -4374,7 +4476,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="74" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B74" s="14"/>
       <c r="C74" s="10">
         <v>43575</v>
@@ -4407,7 +4509,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="75" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B75" s="14"/>
       <c r="C75" s="10">
         <v>43577</v>
@@ -4440,7 +4542,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="76" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B76" s="14"/>
       <c r="C76" s="10">
         <v>43577</v>
@@ -4473,7 +4575,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="77" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B77" s="14"/>
       <c r="C77" s="10">
         <v>43577</v>
@@ -4506,7 +4608,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="78" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B78" s="14"/>
       <c r="C78" s="10">
         <v>43577</v>
@@ -4539,7 +4641,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="79" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B79" s="14"/>
       <c r="C79" s="10">
         <v>43577</v>
@@ -4572,7 +4674,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="80" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B80" s="14"/>
       <c r="C80" s="10">
         <v>43577</v>
@@ -4605,7 +4707,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="81" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B81" s="14"/>
       <c r="C81" s="10">
         <v>43577</v>
@@ -4636,7 +4738,7 @@
       </c>
       <c r="L81" s="9"/>
     </row>
-    <row r="82" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B82" s="14"/>
       <c r="C82" s="10">
         <v>43577</v>
@@ -4669,7 +4771,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="83" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B83" s="14"/>
       <c r="C83" s="10">
         <v>43577</v>
@@ -4702,7 +4804,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="84" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B84" s="14"/>
       <c r="C84" s="10">
         <v>43577</v>
@@ -4735,7 +4837,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="85" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B85" s="14"/>
       <c r="C85" s="10">
         <v>43578</v>
@@ -4768,7 +4870,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="86" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B86" s="14"/>
       <c r="C86" s="10">
         <v>43578</v>
@@ -4801,7 +4903,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="87" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B87" s="14"/>
       <c r="C87" s="10">
         <v>43578</v>
@@ -4834,7 +4936,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="88" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B88" s="14"/>
       <c r="C88" s="10">
         <v>43578</v>
@@ -4867,7 +4969,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="89" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B89" s="14"/>
       <c r="C89" s="10">
         <v>43578</v>
@@ -4900,7 +5002,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="90" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B90" s="14"/>
       <c r="C90" s="10">
         <v>43578</v>
@@ -4933,7 +5035,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="91" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B91" s="14"/>
       <c r="C91" s="10">
         <v>43578</v>
@@ -4966,7 +5068,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="92" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B92" s="14"/>
       <c r="C92" s="10">
         <v>43578</v>
@@ -4999,7 +5101,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="93" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B93" s="14"/>
       <c r="C93" s="10">
         <v>43578</v>
@@ -5032,7 +5134,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="94" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B94" s="14"/>
       <c r="C94" s="10">
         <v>43578</v>
@@ -5065,7 +5167,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="95" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B95" s="14"/>
       <c r="C95" s="10">
         <v>43578</v>
@@ -5098,7 +5200,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="96" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B96" s="14"/>
       <c r="C96" s="10">
         <v>43578</v>
@@ -5131,7 +5233,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="97" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B97" s="14"/>
       <c r="C97" s="10">
         <v>43578</v>
@@ -5164,7 +5266,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="98" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B98" s="14"/>
       <c r="C98" s="10">
         <v>43578</v>
@@ -5197,15 +5299,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="99" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B99" s="14"/>
       <c r="C99" s="10">
         <v>43578</v>
       </c>
-      <c r="D99" s="47" t="s">
+      <c r="D99" s="40" t="s">
         <v>202</v>
       </c>
-      <c r="E99" s="47" t="s">
+      <c r="E99" s="40" t="s">
         <v>208</v>
       </c>
       <c r="F99" s="34" t="s">
@@ -5217,28 +5319,28 @@
       <c r="H99" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I99" s="47" t="s">
+      <c r="I99" s="40" t="s">
         <v>30</v>
       </c>
       <c r="J99" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="K99" s="47" t="s">
+      <c r="K99" s="40" t="s">
         <v>285</v>
       </c>
       <c r="L99" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="100" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B100" s="14"/>
       <c r="C100" s="10">
         <v>43578</v>
       </c>
-      <c r="D100" s="47" t="s">
+      <c r="D100" s="40" t="s">
         <v>202</v>
       </c>
-      <c r="E100" s="47" t="s">
+      <c r="E100" s="40" t="s">
         <v>287</v>
       </c>
       <c r="F100" s="34" t="s">
@@ -5250,28 +5352,28 @@
       <c r="H100" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I100" s="47" t="s">
+      <c r="I100" s="40" t="s">
         <v>30</v>
       </c>
       <c r="J100" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="K100" s="47" t="s">
+      <c r="K100" s="40" t="s">
         <v>286</v>
       </c>
       <c r="L100" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="101" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B101" s="14"/>
       <c r="C101" s="10">
         <v>43578</v>
       </c>
-      <c r="D101" s="47" t="s">
+      <c r="D101" s="40" t="s">
         <v>288</v>
       </c>
-      <c r="E101" s="47" t="s">
+      <c r="E101" s="40" t="s">
         <v>289</v>
       </c>
       <c r="F101" s="34" t="s">
@@ -5283,7 +5385,7 @@
       <c r="H101" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I101" s="47" t="s">
+      <c r="I101" s="40" t="s">
         <v>37</v>
       </c>
       <c r="J101" s="9" t="s">
@@ -5296,15 +5398,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="102" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B102" s="14"/>
       <c r="C102" s="10">
         <v>43578</v>
       </c>
-      <c r="D102" s="47" t="s">
+      <c r="D102" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="E102" s="47" t="s">
+      <c r="E102" s="40" t="s">
         <v>33</v>
       </c>
       <c r="F102" s="34" t="s">
@@ -5316,225 +5418,804 @@
       <c r="H102" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I102" s="47" t="s">
+      <c r="I102" s="40" t="s">
         <v>20</v>
       </c>
       <c r="J102" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="K102" s="47" t="s">
+      <c r="K102" s="40" t="s">
         <v>290</v>
       </c>
       <c r="L102" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="103" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B103" s="14"/>
-      <c r="C103" s="22"/>
-      <c r="D103"/>
-      <c r="E103"/>
-      <c r="F103" s="34"/>
-      <c r="G103" s="9"/>
-      <c r="H103" s="9"/>
-      <c r="I103"/>
-      <c r="J103" s="9"/>
-      <c r="K103" s="39"/>
-      <c r="L103" s="9"/>
-    </row>
-    <row r="104" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C103" s="10">
+        <v>43579</v>
+      </c>
+      <c r="D103" t="s">
+        <v>292</v>
+      </c>
+      <c r="E103" t="s">
+        <v>128</v>
+      </c>
+      <c r="F103" s="34" t="s">
+        <v>293</v>
+      </c>
+      <c r="G103" s="9">
+        <v>1</v>
+      </c>
+      <c r="H103" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I103" t="s">
+        <v>42</v>
+      </c>
+      <c r="J103" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K103" s="39" t="s">
+        <v>294</v>
+      </c>
+      <c r="L103" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="104" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B104" s="14"/>
-      <c r="C104" s="22"/>
-      <c r="D104"/>
-      <c r="E104"/>
-      <c r="F104" s="34"/>
-      <c r="G104" s="9"/>
-      <c r="H104" s="9"/>
-      <c r="I104"/>
-      <c r="J104" s="9"/>
-      <c r="K104" s="39"/>
-      <c r="L104" s="9"/>
-    </row>
-    <row r="105" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C104" s="10">
+        <v>43579</v>
+      </c>
+      <c r="D104" t="s">
+        <v>295</v>
+      </c>
+      <c r="E104" t="s">
+        <v>296</v>
+      </c>
+      <c r="F104" s="34" t="s">
+        <v>297</v>
+      </c>
+      <c r="G104" s="9">
+        <v>1</v>
+      </c>
+      <c r="H104" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I104" t="s">
+        <v>37</v>
+      </c>
+      <c r="J104" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="K104" s="39" t="s">
+        <v>298</v>
+      </c>
+      <c r="L104" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="105" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B105" s="14"/>
-      <c r="C105" s="22"/>
-      <c r="D105"/>
-      <c r="E105"/>
-      <c r="F105" s="34"/>
-      <c r="G105" s="9"/>
-      <c r="H105" s="9"/>
-      <c r="I105"/>
-      <c r="J105" s="9"/>
-      <c r="K105"/>
-      <c r="L105" s="9"/>
-    </row>
-    <row r="106" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C105" s="10">
+        <v>43579</v>
+      </c>
+      <c r="D105" s="48" t="s">
+        <v>107</v>
+      </c>
+      <c r="E105" s="49" t="s">
+        <v>299</v>
+      </c>
+      <c r="F105" s="34" t="s">
+        <v>293</v>
+      </c>
+      <c r="G105" s="9">
+        <v>1</v>
+      </c>
+      <c r="H105" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I105" t="s">
+        <v>42</v>
+      </c>
+      <c r="J105" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K105" s="50" t="s">
+        <v>300</v>
+      </c>
+      <c r="L105" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="106" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B106" s="14"/>
-      <c r="C106" s="22"/>
-      <c r="D106"/>
-      <c r="E106"/>
-      <c r="F106" s="34"/>
-      <c r="G106" s="9"/>
-      <c r="H106" s="9"/>
-      <c r="I106"/>
-      <c r="J106" s="9"/>
-      <c r="K106"/>
-      <c r="L106" s="9"/>
-    </row>
-    <row r="107" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C106" s="10">
+        <v>43579</v>
+      </c>
+      <c r="D106" s="48" t="s">
+        <v>301</v>
+      </c>
+      <c r="E106" s="40" t="s">
+        <v>302</v>
+      </c>
+      <c r="F106" s="34" t="s">
+        <v>293</v>
+      </c>
+      <c r="G106" s="9">
+        <v>1</v>
+      </c>
+      <c r="H106" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I106" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="J106" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="K106" s="50" t="s">
+        <v>303</v>
+      </c>
+      <c r="L106" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="107" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B107" s="14"/>
-      <c r="C107" s="22"/>
-      <c r="D107" s="21"/>
-      <c r="E107" s="21"/>
-      <c r="F107" s="34"/>
-      <c r="G107" s="9"/>
-      <c r="H107" s="9"/>
-      <c r="I107" s="21"/>
-      <c r="J107" s="9"/>
-      <c r="K107" s="21"/>
-      <c r="L107" s="9"/>
-    </row>
-    <row r="108" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B108" s="42" t="s">
+      <c r="C107" s="10">
+        <v>43579</v>
+      </c>
+      <c r="D107" s="40" t="s">
+        <v>304</v>
+      </c>
+      <c r="E107" s="40" t="s">
+        <v>305</v>
+      </c>
+      <c r="F107" s="34" t="s">
+        <v>306</v>
+      </c>
+      <c r="G107" s="9">
+        <v>1</v>
+      </c>
+      <c r="H107" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I107" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="J107" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K107" s="50" t="s">
+        <v>307</v>
+      </c>
+      <c r="L107" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="108" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B108" s="14"/>
+      <c r="C108" s="10">
+        <v>43579</v>
+      </c>
+      <c r="D108" s="40" t="s">
+        <v>149</v>
+      </c>
+      <c r="E108" s="40" t="s">
+        <v>150</v>
+      </c>
+      <c r="F108" s="34" t="s">
+        <v>308</v>
+      </c>
+      <c r="G108" s="9">
+        <v>1</v>
+      </c>
+      <c r="H108" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I108" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="J108" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K108" s="50" t="s">
+        <v>309</v>
+      </c>
+      <c r="L108" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="109" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B109" s="14"/>
+      <c r="C109" s="10">
+        <v>43579</v>
+      </c>
+      <c r="D109" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="E109" s="40" t="s">
+        <v>310</v>
+      </c>
+      <c r="F109" s="34" t="s">
+        <v>293</v>
+      </c>
+      <c r="G109" s="9">
+        <v>1</v>
+      </c>
+      <c r="H109" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I109" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="J109" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K109" s="50" t="s">
+        <v>311</v>
+      </c>
+      <c r="L109" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="110" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B110" s="14"/>
+      <c r="C110" s="10">
+        <v>43579</v>
+      </c>
+      <c r="D110" s="40" t="s">
+        <v>304</v>
+      </c>
+      <c r="E110" s="40" t="s">
+        <v>305</v>
+      </c>
+      <c r="F110" s="34" t="s">
+        <v>306</v>
+      </c>
+      <c r="G110" s="9">
+        <v>1</v>
+      </c>
+      <c r="H110" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I110" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="J110" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="K110" s="50" t="s">
+        <v>312</v>
+      </c>
+      <c r="L110" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="111" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B111" s="14"/>
+      <c r="C111" s="10">
+        <v>43579</v>
+      </c>
+      <c r="D111" t="s">
+        <v>313</v>
+      </c>
+      <c r="E111" t="s">
+        <v>314</v>
+      </c>
+      <c r="F111" s="34" t="s">
+        <v>315</v>
+      </c>
+      <c r="G111" s="9">
+        <v>1</v>
+      </c>
+      <c r="H111" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I111" t="s">
+        <v>30</v>
+      </c>
+      <c r="J111" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="K111" s="39" t="s">
+        <v>316</v>
+      </c>
+      <c r="L111" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="112" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B112" s="14"/>
+      <c r="C112" s="22"/>
+      <c r="D112" s="48"/>
+      <c r="E112" s="40"/>
+      <c r="F112" s="34"/>
+      <c r="G112" s="9"/>
+      <c r="H112" s="9"/>
+      <c r="I112" s="40"/>
+      <c r="J112" s="9"/>
+      <c r="K112" s="50"/>
+      <c r="L112" s="9"/>
+    </row>
+    <row r="113" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B113" s="14"/>
+      <c r="C113" s="22"/>
+      <c r="D113" s="48"/>
+      <c r="E113" s="40"/>
+      <c r="F113" s="34"/>
+      <c r="G113" s="9"/>
+      <c r="H113" s="9"/>
+      <c r="I113" s="40"/>
+      <c r="J113" s="9"/>
+      <c r="K113" s="50"/>
+      <c r="L113" s="9"/>
+    </row>
+    <row r="114" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B114" s="14"/>
+      <c r="C114" s="22"/>
+      <c r="D114" s="48"/>
+      <c r="E114" s="40"/>
+      <c r="F114" s="34"/>
+      <c r="G114" s="9"/>
+      <c r="H114" s="9"/>
+      <c r="I114" s="40"/>
+      <c r="J114" s="9"/>
+      <c r="K114" s="50"/>
+      <c r="L114" s="9"/>
+    </row>
+    <row r="115" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B115" s="14"/>
+      <c r="C115" s="22"/>
+      <c r="D115" s="48"/>
+      <c r="E115" s="40"/>
+      <c r="F115" s="34"/>
+      <c r="G115" s="9"/>
+      <c r="H115" s="9"/>
+      <c r="I115" s="40"/>
+      <c r="J115" s="9"/>
+      <c r="K115" s="50"/>
+      <c r="L115" s="9"/>
+    </row>
+    <row r="116" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B116" s="14"/>
+      <c r="C116" s="22"/>
+      <c r="D116" s="48"/>
+      <c r="E116" s="40"/>
+      <c r="F116" s="34"/>
+      <c r="G116" s="9"/>
+      <c r="H116" s="9"/>
+      <c r="I116" s="40"/>
+      <c r="J116" s="9"/>
+      <c r="K116" s="50"/>
+      <c r="L116" s="9"/>
+    </row>
+    <row r="117" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B117" s="14"/>
+      <c r="C117" s="22"/>
+      <c r="D117" s="48"/>
+      <c r="E117" s="40"/>
+      <c r="F117" s="34"/>
+      <c r="G117" s="9"/>
+      <c r="H117" s="9"/>
+      <c r="I117" s="40"/>
+      <c r="J117" s="9"/>
+      <c r="K117" s="50"/>
+      <c r="L117" s="9"/>
+    </row>
+    <row r="118" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B118" s="14"/>
+      <c r="C118" s="22"/>
+      <c r="D118" s="48"/>
+      <c r="E118" s="40"/>
+      <c r="F118" s="34"/>
+      <c r="G118" s="9"/>
+      <c r="H118" s="9"/>
+      <c r="I118" s="40"/>
+      <c r="J118" s="9"/>
+      <c r="K118" s="50"/>
+      <c r="L118" s="9"/>
+    </row>
+    <row r="119" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B119" s="14"/>
+      <c r="C119" s="22"/>
+      <c r="D119" s="48"/>
+      <c r="E119" s="40"/>
+      <c r="F119" s="34"/>
+      <c r="G119" s="9"/>
+      <c r="H119" s="9"/>
+      <c r="I119" s="40"/>
+      <c r="J119" s="9"/>
+      <c r="K119" s="50"/>
+      <c r="L119" s="9"/>
+    </row>
+    <row r="120" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B120" s="14"/>
+      <c r="C120" s="22"/>
+      <c r="D120" s="48"/>
+      <c r="E120" s="40"/>
+      <c r="F120" s="34"/>
+      <c r="G120" s="9"/>
+      <c r="H120" s="9"/>
+      <c r="I120" s="40"/>
+      <c r="J120" s="9"/>
+      <c r="K120" s="50"/>
+      <c r="L120" s="9"/>
+    </row>
+    <row r="121" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B121" s="14"/>
+      <c r="C121" s="22"/>
+      <c r="D121" s="48"/>
+      <c r="E121" s="40"/>
+      <c r="F121" s="34"/>
+      <c r="G121" s="9"/>
+      <c r="H121" s="9"/>
+      <c r="I121" s="40"/>
+      <c r="J121" s="9"/>
+      <c r="K121" s="50"/>
+      <c r="L121" s="9"/>
+    </row>
+    <row r="122" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B122" s="14"/>
+      <c r="C122" s="22"/>
+      <c r="D122" s="48"/>
+      <c r="E122" s="40"/>
+      <c r="F122" s="34"/>
+      <c r="G122" s="9"/>
+      <c r="H122" s="9"/>
+      <c r="I122" s="40"/>
+      <c r="J122" s="9"/>
+      <c r="K122" s="50"/>
+      <c r="L122" s="9"/>
+    </row>
+    <row r="123" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B123" s="14"/>
+      <c r="C123" s="22"/>
+      <c r="D123" s="48"/>
+      <c r="E123" s="40"/>
+      <c r="F123" s="34"/>
+      <c r="G123" s="9"/>
+      <c r="H123" s="9"/>
+      <c r="I123" s="40"/>
+      <c r="J123" s="9"/>
+      <c r="K123" s="50"/>
+      <c r="L123" s="9"/>
+    </row>
+    <row r="124" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B124" s="14"/>
+      <c r="C124" s="22"/>
+      <c r="D124" s="48"/>
+      <c r="E124" s="40"/>
+      <c r="F124" s="34"/>
+      <c r="G124" s="9"/>
+      <c r="H124" s="9"/>
+      <c r="I124" s="40"/>
+      <c r="J124" s="9"/>
+      <c r="K124" s="50"/>
+      <c r="L124" s="9"/>
+    </row>
+    <row r="125" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B125" s="14"/>
+      <c r="C125" s="22"/>
+      <c r="D125" s="48"/>
+      <c r="E125" s="40"/>
+      <c r="F125" s="34"/>
+      <c r="G125" s="9"/>
+      <c r="H125" s="9"/>
+      <c r="I125" s="40"/>
+      <c r="J125" s="9"/>
+      <c r="K125" s="50"/>
+      <c r="L125" s="9"/>
+    </row>
+    <row r="126" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B126" s="14"/>
+      <c r="C126" s="22"/>
+      <c r="D126" s="48"/>
+      <c r="E126" s="40"/>
+      <c r="F126" s="34"/>
+      <c r="G126" s="9"/>
+      <c r="H126" s="9"/>
+      <c r="I126" s="40"/>
+      <c r="J126" s="9"/>
+      <c r="K126" s="50"/>
+      <c r="L126" s="9"/>
+    </row>
+    <row r="127" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B127" s="14"/>
+      <c r="C127" s="22"/>
+      <c r="D127" s="48"/>
+      <c r="E127" s="40"/>
+      <c r="F127" s="34"/>
+      <c r="G127" s="9"/>
+      <c r="H127" s="9"/>
+      <c r="I127" s="40"/>
+      <c r="J127" s="9"/>
+      <c r="K127" s="50"/>
+      <c r="L127" s="9"/>
+    </row>
+    <row r="128" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B128" s="14"/>
+      <c r="C128" s="22"/>
+      <c r="D128" s="48"/>
+      <c r="E128" s="40"/>
+      <c r="F128" s="34"/>
+      <c r="G128" s="9"/>
+      <c r="H128" s="9"/>
+      <c r="I128" s="40"/>
+      <c r="J128" s="9"/>
+      <c r="K128" s="50"/>
+      <c r="L128" s="9"/>
+    </row>
+    <row r="129" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B129" s="14"/>
+      <c r="C129" s="22"/>
+      <c r="D129" s="48"/>
+      <c r="E129" s="40"/>
+      <c r="F129" s="34"/>
+      <c r="G129" s="9"/>
+      <c r="H129" s="9"/>
+      <c r="I129" s="40"/>
+      <c r="J129" s="9"/>
+      <c r="K129" s="50"/>
+      <c r="L129" s="9"/>
+    </row>
+    <row r="130" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B130" s="14"/>
+      <c r="C130" s="22"/>
+      <c r="D130" s="48"/>
+      <c r="E130" s="40"/>
+      <c r="F130" s="34"/>
+      <c r="G130" s="9"/>
+      <c r="H130" s="9"/>
+      <c r="I130" s="40"/>
+      <c r="J130" s="9"/>
+      <c r="K130" s="50"/>
+      <c r="L130" s="9"/>
+    </row>
+    <row r="131" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B131" s="14"/>
+      <c r="C131" s="22"/>
+      <c r="D131" s="48"/>
+      <c r="E131" s="40"/>
+      <c r="F131" s="34"/>
+      <c r="G131" s="9"/>
+      <c r="H131" s="9"/>
+      <c r="I131" s="40"/>
+      <c r="J131" s="9"/>
+      <c r="K131" s="50"/>
+      <c r="L131" s="9"/>
+    </row>
+    <row r="132" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B132" s="14"/>
+      <c r="C132" s="22"/>
+      <c r="D132" s="48"/>
+      <c r="E132" s="40"/>
+      <c r="F132" s="34"/>
+      <c r="G132" s="9"/>
+      <c r="H132" s="9"/>
+      <c r="I132" s="40"/>
+      <c r="J132" s="9"/>
+      <c r="K132" s="50"/>
+      <c r="L132" s="9"/>
+    </row>
+    <row r="133" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B133" s="14"/>
+      <c r="C133" s="22"/>
+      <c r="D133" s="48"/>
+      <c r="E133" s="40"/>
+      <c r="F133" s="34"/>
+      <c r="G133" s="9"/>
+      <c r="H133" s="9"/>
+      <c r="I133" s="40"/>
+      <c r="J133" s="9"/>
+      <c r="K133" s="50"/>
+      <c r="L133" s="9"/>
+    </row>
+    <row r="134" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B134" s="14"/>
+      <c r="C134" s="22"/>
+      <c r="D134" s="48"/>
+      <c r="E134" s="40"/>
+      <c r="F134" s="34"/>
+      <c r="G134" s="9"/>
+      <c r="H134" s="9"/>
+      <c r="I134" s="40"/>
+      <c r="J134" s="9"/>
+      <c r="K134" s="50"/>
+      <c r="L134" s="9"/>
+    </row>
+    <row r="135" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B135" s="14"/>
+      <c r="C135" s="22"/>
+      <c r="D135" s="48"/>
+      <c r="E135" s="40"/>
+      <c r="F135" s="34"/>
+      <c r="G135" s="9"/>
+      <c r="H135" s="9"/>
+      <c r="I135" s="40"/>
+      <c r="J135" s="9"/>
+      <c r="K135" s="50"/>
+      <c r="L135" s="9"/>
+    </row>
+    <row r="136" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B136" s="14"/>
+      <c r="C136" s="22"/>
+      <c r="D136" s="48"/>
+      <c r="E136" s="40"/>
+      <c r="F136" s="34"/>
+      <c r="G136" s="9"/>
+      <c r="H136" s="9"/>
+      <c r="I136" s="40"/>
+      <c r="J136" s="9"/>
+      <c r="K136" s="50"/>
+      <c r="L136" s="9"/>
+    </row>
+    <row r="137" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B137" s="14"/>
+      <c r="C137" s="22"/>
+      <c r="D137" s="21"/>
+      <c r="E137" s="21"/>
+      <c r="F137" s="34"/>
+      <c r="G137" s="9"/>
+      <c r="H137" s="9"/>
+      <c r="I137" s="21"/>
+      <c r="J137" s="9"/>
+      <c r="K137" s="21"/>
+      <c r="L137" s="9"/>
+    </row>
+    <row r="138" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B138" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="C108" s="43"/>
-      <c r="D108" s="23"/>
-      <c r="E108" s="23"/>
-      <c r="F108" s="24"/>
-      <c r="G108" s="24">
+      <c r="C138" s="44"/>
+      <c r="D138" s="23"/>
+      <c r="E138" s="23"/>
+      <c r="F138" s="24"/>
+      <c r="G138" s="24">
         <f>SUM(G3:G29)</f>
         <v>33</v>
       </c>
-      <c r="H108" s="24"/>
-      <c r="I108" s="24"/>
-      <c r="J108" s="9"/>
-      <c r="K108" s="30"/>
-      <c r="L108" s="9"/>
-    </row>
-    <row r="110" spans="2:12" ht="75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B110" s="44"/>
-      <c r="C110" s="45"/>
-      <c r="D110" s="45"/>
-      <c r="E110" s="45"/>
-      <c r="F110" s="45"/>
-      <c r="G110" s="45"/>
-      <c r="H110" s="45"/>
-      <c r="I110" s="45"/>
-      <c r="J110" s="46"/>
-      <c r="K110" s="31"/>
-      <c r="L110" s="32"/>
+      <c r="H138" s="24"/>
+      <c r="I138" s="24"/>
+      <c r="J138" s="9"/>
+      <c r="K138" s="30"/>
+      <c r="L138" s="9"/>
+    </row>
+    <row r="140" spans="2:12" ht="75" customHeight="1">
+      <c r="B140" s="45"/>
+      <c r="C140" s="46"/>
+      <c r="D140" s="46"/>
+      <c r="E140" s="46"/>
+      <c r="F140" s="46"/>
+      <c r="G140" s="46"/>
+      <c r="H140" s="46"/>
+      <c r="I140" s="46"/>
+      <c r="J140" s="47"/>
+      <c r="K140" s="31"/>
+      <c r="L140" s="32"/>
     </row>
   </sheetData>
-  <autoFilter ref="C2:L108" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="C2:L138"/>
   <sortState ref="B3:I41">
     <sortCondition ref="B3"/>
   </sortState>
   <mergeCells count="4">
     <mergeCell ref="C1:J1"/>
     <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="B110:J110"/>
+    <mergeCell ref="B138:C138"/>
+    <mergeCell ref="B140:J140"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J108" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J138">
       <formula1>"H5页面制作,页面跳转修改,页面修改,H5整站制作,PC制作&amp;折成3个H5页面"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J107" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J137">
       <formula1>"H5页面制作,页面跳转修改,页面修改,H5整站制作,PC制作&amp;折成3个H5页面,跳转设置,摘包"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="K4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="K5" r:id="rId2" tooltip="https://xhbup.com/qb/" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="K6" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="K8" r:id="rId4" tooltip="https://xhbup.com/quban" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="K9" r:id="rId5" tooltip="https://www.xhbup.com/gdkpdz/" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="K10" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="K12" r:id="rId7" tooltip="https://xhbup.com/maokong/" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="K13" r:id="rId8" tooltip="https://xhbup.com/quban1/" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="K14" r:id="rId9" tooltip="https://xhbup.com/quban2/" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="K15" r:id="rId10" tooltip="https://xhbup.com/huchou/" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="K16" r:id="rId11" tooltip="https://xhbup.com/huchou1/" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="K17" r:id="rId12" tooltip="https://xhbup.com/qhxs/" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="K18" r:id="rId13" tooltip="https://xhbup.com/feicui/" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="K19" r:id="rId14" tooltip="https://xhbup.com/yfmmwljs/tg/" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="K20" r:id="rId15" tooltip="https://xhbup.com/xiyou/" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="K21" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="K22" r:id="rId17" tooltip="https://xhbup.com/hdmp/" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="K23" r:id="rId18" tooltip="https://xhbup.com/fds/" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="K24" r:id="rId19" tooltip="https://xhbup.com/fanlv/https://xhbup.com/fanlv/" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="K25" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="K26" r:id="rId21" tooltip="https://xhbup.com/danke/" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="K27" r:id="rId22" tooltip="https://xhbup.com/sendu/" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="K28" r:id="rId23" tooltip="https://www.xhbup.com/wcwl/" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="K29" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="K30" r:id="rId25" tooltip="https://www.xhbup.com/jianfu/" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="K31" r:id="rId26" tooltip="https://www.xhbup.com/yixing/" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="K32" r:id="rId27" tooltip="https://xhbup.com/quban1/" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="K33" r:id="rId28" tooltip="https://xhbup.com/quban1/" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="K34" r:id="rId29" tooltip="https://xhbup.com/yfmmwljs/tg/" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="K35" r:id="rId30" tooltip="https://xhbup.com/yinxiuer/" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="K36" r:id="rId31" tooltip="https://xhbup.com/tingcai/" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="K37" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="K39" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="K40" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="K41" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="K42" r:id="rId36" tooltip="https://xhbup.com/jzzkj2/tp/" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="K43" r:id="rId37" tooltip="https://xhbup.com/tiancheng/" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="K44" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="K45" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="K46" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="K47" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="K48" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="K49" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="K50" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="K51" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="K52" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="K53" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="K54" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="K55" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="K56" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="K57" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="K58" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="K59" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="K61" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="K62" r:id="rId55" display="https://xhbup.com/hdws1/" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="K63" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="K64" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="K65" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="K66" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="K67" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="K68" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="K69" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="K70" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="K71" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="K73" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="K74" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="K75" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="K76" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="K77" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="K78" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="K80" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="K82" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="K81" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="K84" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="K85" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="K86" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="K88" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="K91" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="K90" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="K92" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="K93" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="K94" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="K95" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="K96" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="K98" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="K101" r:id="rId86" xr:uid="{826E2E2D-0152-4A51-AC99-65E1A12AA8EC}"/>
+    <hyperlink ref="K4" r:id="rId1"/>
+    <hyperlink ref="K5" r:id="rId2" tooltip="https://xhbup.com/qb/"/>
+    <hyperlink ref="K6" r:id="rId3"/>
+    <hyperlink ref="K8" r:id="rId4" tooltip="https://xhbup.com/quban"/>
+    <hyperlink ref="K9" r:id="rId5" tooltip="https://www.xhbup.com/gdkpdz/"/>
+    <hyperlink ref="K10" r:id="rId6"/>
+    <hyperlink ref="K12" r:id="rId7" tooltip="https://xhbup.com/maokong/"/>
+    <hyperlink ref="K13" r:id="rId8" tooltip="https://xhbup.com/quban1/"/>
+    <hyperlink ref="K14" r:id="rId9" tooltip="https://xhbup.com/quban2/"/>
+    <hyperlink ref="K15" r:id="rId10" tooltip="https://xhbup.com/huchou/"/>
+    <hyperlink ref="K16" r:id="rId11" tooltip="https://xhbup.com/huchou1/"/>
+    <hyperlink ref="K17" r:id="rId12" tooltip="https://xhbup.com/qhxs/"/>
+    <hyperlink ref="K18" r:id="rId13" tooltip="https://xhbup.com/feicui/"/>
+    <hyperlink ref="K19" r:id="rId14" tooltip="https://xhbup.com/yfmmwljs/tg/"/>
+    <hyperlink ref="K20" r:id="rId15" tooltip="https://xhbup.com/xiyou/"/>
+    <hyperlink ref="K21" r:id="rId16"/>
+    <hyperlink ref="K22" r:id="rId17" tooltip="https://xhbup.com/hdmp/"/>
+    <hyperlink ref="K23" r:id="rId18" tooltip="https://xhbup.com/fds/"/>
+    <hyperlink ref="K24" r:id="rId19" tooltip="https://xhbup.com/fanlv/https://xhbup.com/fanlv/"/>
+    <hyperlink ref="K25" r:id="rId20"/>
+    <hyperlink ref="K26" r:id="rId21" tooltip="https://xhbup.com/danke/"/>
+    <hyperlink ref="K27" r:id="rId22" tooltip="https://xhbup.com/sendu/"/>
+    <hyperlink ref="K28" r:id="rId23" tooltip="https://www.xhbup.com/wcwl/"/>
+    <hyperlink ref="K29" r:id="rId24"/>
+    <hyperlink ref="K30" r:id="rId25" tooltip="https://www.xhbup.com/jianfu/"/>
+    <hyperlink ref="K31" r:id="rId26" tooltip="https://www.xhbup.com/yixing/"/>
+    <hyperlink ref="K32" r:id="rId27" tooltip="https://xhbup.com/quban1/"/>
+    <hyperlink ref="K33" r:id="rId28" tooltip="https://xhbup.com/quban1/"/>
+    <hyperlink ref="K34" r:id="rId29" tooltip="https://xhbup.com/yfmmwljs/tg/"/>
+    <hyperlink ref="K35" r:id="rId30" tooltip="https://xhbup.com/yinxiuer/"/>
+    <hyperlink ref="K36" r:id="rId31" tooltip="https://xhbup.com/tingcai/"/>
+    <hyperlink ref="K37" r:id="rId32"/>
+    <hyperlink ref="K39" r:id="rId33"/>
+    <hyperlink ref="K40" r:id="rId34"/>
+    <hyperlink ref="K41" r:id="rId35"/>
+    <hyperlink ref="K42" r:id="rId36" tooltip="https://xhbup.com/jzzkj2/tp/"/>
+    <hyperlink ref="K43" r:id="rId37" tooltip="https://xhbup.com/tiancheng/"/>
+    <hyperlink ref="K44" r:id="rId38"/>
+    <hyperlink ref="K45" r:id="rId39"/>
+    <hyperlink ref="K46" r:id="rId40"/>
+    <hyperlink ref="K47" r:id="rId41"/>
+    <hyperlink ref="K48" r:id="rId42"/>
+    <hyperlink ref="K49" r:id="rId43"/>
+    <hyperlink ref="K50" r:id="rId44"/>
+    <hyperlink ref="K51" r:id="rId45"/>
+    <hyperlink ref="K52" r:id="rId46"/>
+    <hyperlink ref="K53" r:id="rId47"/>
+    <hyperlink ref="K54" r:id="rId48"/>
+    <hyperlink ref="K55" r:id="rId49"/>
+    <hyperlink ref="K56" r:id="rId50"/>
+    <hyperlink ref="K57" r:id="rId51"/>
+    <hyperlink ref="K58" r:id="rId52"/>
+    <hyperlink ref="K59" r:id="rId53"/>
+    <hyperlink ref="K61" r:id="rId54"/>
+    <hyperlink ref="K62" r:id="rId55" display="https://xhbup.com/hdws1/"/>
+    <hyperlink ref="K63" r:id="rId56"/>
+    <hyperlink ref="K64" r:id="rId57"/>
+    <hyperlink ref="K65" r:id="rId58"/>
+    <hyperlink ref="K66" r:id="rId59"/>
+    <hyperlink ref="K67" r:id="rId60"/>
+    <hyperlink ref="K68" r:id="rId61"/>
+    <hyperlink ref="K69" r:id="rId62"/>
+    <hyperlink ref="K70" r:id="rId63"/>
+    <hyperlink ref="K71" r:id="rId64"/>
+    <hyperlink ref="K73" r:id="rId65"/>
+    <hyperlink ref="K74" r:id="rId66"/>
+    <hyperlink ref="K75" r:id="rId67"/>
+    <hyperlink ref="K76" r:id="rId68"/>
+    <hyperlink ref="K77" r:id="rId69"/>
+    <hyperlink ref="K78" r:id="rId70"/>
+    <hyperlink ref="K80" r:id="rId71"/>
+    <hyperlink ref="K82" r:id="rId72"/>
+    <hyperlink ref="K81" r:id="rId73"/>
+    <hyperlink ref="K84" r:id="rId74"/>
+    <hyperlink ref="K85" r:id="rId75"/>
+    <hyperlink ref="K86" r:id="rId76"/>
+    <hyperlink ref="K88" r:id="rId77"/>
+    <hyperlink ref="K91" r:id="rId78"/>
+    <hyperlink ref="K90" r:id="rId79"/>
+    <hyperlink ref="K92" r:id="rId80"/>
+    <hyperlink ref="K93" r:id="rId81"/>
+    <hyperlink ref="K94" r:id="rId82"/>
+    <hyperlink ref="K95" r:id="rId83"/>
+    <hyperlink ref="K96" r:id="rId84"/>
+    <hyperlink ref="K98" r:id="rId85"/>
+    <hyperlink ref="K101" r:id="rId86"/>
+    <hyperlink ref="K103" r:id="rId87"/>
+    <hyperlink ref="K104" r:id="rId88"/>
+    <hyperlink ref="K105" r:id="rId89"/>
+    <hyperlink ref="K106" r:id="rId90"/>
+    <hyperlink ref="K107" r:id="rId91"/>
+    <hyperlink ref="K108" r:id="rId92"/>
+    <hyperlink ref="K109" r:id="rId93"/>
+    <hyperlink ref="K110" r:id="rId94"/>
+    <hyperlink ref="K111" r:id="rId95"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId87"/>
-  <drawing r:id="rId88"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId96"/>
+  <drawing r:id="rId97"/>
 </worksheet>
 </file>
--- a/业务线技术支持登记表格式.xlsx
+++ b/业务线技术支持登记表格式.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$2:$L$138</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$2:$L$171</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1251" uniqueCount="415">
   <si>
     <t>业务线支持登记表</t>
   </si>
@@ -779,10 +779,6 @@
   </si>
   <si>
     <t>肌肤</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://xhbup.com/gangyi/</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
@@ -913,188 +909,542 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
+    <t>狐臭</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>恒坚</t>
+  </si>
+  <si>
+    <t>江门市鑫兰商贸有限公司</t>
+  </si>
+  <si>
+    <t>胸部</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>大白鸽</t>
+  </si>
+  <si>
+    <t>惠州市雅洁化妆品有限公司</t>
+  </si>
+  <si>
+    <t>减肥</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>广东惠芯健康科技有限公司</t>
+  </si>
+  <si>
+    <t>护理</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.xhbup.com/wanggew/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.xhbup.com/xinlan/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.xhbup.com/yajie/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.xhbup.com/huixin/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>汕尾市诚捷贸易有限公司</t>
+  </si>
+  <si>
+    <t>页面包</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>摘包</t>
+  </si>
+  <si>
+    <t>https://www.xhbup.com/zip-demo/index.zip</t>
+  </si>
+  <si>
+    <t>玻尿酸</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.xhbup.com/oupei1/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/leting2/</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/leting1/</t>
+  </si>
+  <si>
+    <t>广东乐婷化妆品实业有限公司（乐婷199页面）</t>
+  </si>
+  <si>
+    <t>小白鸽</t>
+  </si>
+  <si>
+    <t>广东丹匠化妆品有限公司</t>
+  </si>
+  <si>
+    <t>https://www.xhbup.com/kehong1/</t>
+  </si>
+  <si>
+    <t>https://www.xhbup.com/danjiang/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉飓风</t>
+  </si>
+  <si>
+    <t>丰胸</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/zhimei/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>小艾</t>
+  </si>
+  <si>
+    <t>清远市艾米时尚美容美发有限公司</t>
+  </si>
+  <si>
+    <t>淡斑</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/aimi/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>韶关雯斯特商贸有限公司</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/wensite/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>新客户</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>英德市芊朵化妆品有限公司</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/qianduo/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>大宝</t>
+  </si>
+  <si>
+    <t>广州雪暴电子科技有限公司</t>
+  </si>
+  <si>
+    <t>口红</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/xuebao/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>瘦身</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/zhishang2/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>台山市索达日用化妆品有限公司</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/suoda/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/xuebao1/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>杭州微起点文化传播有限公司</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>广东猴强大互联网科技有限公司</t>
+  </si>
+  <si>
+    <t>小说</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/houqiangd/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/oupei01/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉飓风</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/zhimei/</t>
+  </si>
+  <si>
+    <t>珠海黛芙莱化妆品有限公司</t>
+  </si>
+  <si>
+    <t>跳转设置</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>何丰腾</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/daiful/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/huiju1/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>中白鸽</t>
+  </si>
+  <si>
+    <t>广州九合国际生物科技有限公司</t>
+  </si>
+  <si>
+    <t>创业</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/jiuhe/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/qingfengy1/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>小小白鸽</t>
+  </si>
+  <si>
+    <t>江门市蓬江区竹田美容管理有限公司</t>
+  </si>
+  <si>
+    <t>丰胸</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/zhutian/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>曾玉琼</t>
+  </si>
+  <si>
+    <t>揭阳市好购多贸易有限公司</t>
+  </si>
+  <si>
+    <t>美白</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/haogoud/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>广东郑明明化妆品科技有限公司</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/zhengmingm/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
     <t>https://www.xhbup.com/kuige/</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>狐臭</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>恒坚</t>
-  </si>
-  <si>
-    <t>江门市鑫兰商贸有限公司</t>
-  </si>
-  <si>
-    <t>胸部</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>大白鸽</t>
-  </si>
-  <si>
-    <t>惠州市雅洁化妆品有限公司</t>
+  </si>
+  <si>
+    <t>陈杜灵</t>
+  </si>
+  <si>
+    <t>唯伊商贸(云浮郁南县)有限公司</t>
+  </si>
+  <si>
+    <t>https://www.xhbup.com/weiyi/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>陆丰市王一米贸易有限公司</t>
   </si>
   <si>
     <t>减肥</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>广东惠芯健康科技有限公司</t>
-  </si>
-  <si>
-    <t>护理</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.xhbup.com/wanggew/</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.xhbup.com/xinlan/</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.xhbup.com/yajie/</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.xhbup.com/huixin/</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>汕尾市诚捷贸易有限公司</t>
-  </si>
-  <si>
-    <t>页面包</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>摘包</t>
-  </si>
-  <si>
-    <t>https://www.xhbup.com/zip-demo/index.zip</t>
-  </si>
-  <si>
-    <t>玻尿酸</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.xhbup.com/oupei1/</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://xhbup.com/leting2/</t>
-  </si>
-  <si>
-    <t>https://xhbup.com/leting1/</t>
-  </si>
-  <si>
-    <t>广东乐婷化妆品实业有限公司（乐婷199页面）</t>
-  </si>
-  <si>
-    <t>小白鸽</t>
-  </si>
-  <si>
-    <t>广东丹匠化妆品有限公司</t>
-  </si>
-  <si>
-    <t>https://www.xhbup.com/kehong1/</t>
-  </si>
-  <si>
-    <t>https://www.xhbup.com/danjiang/</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>武汉飓风</t>
+    <t>姚芳</t>
+  </si>
+  <si>
+    <t>https://www.xhbup.com/wangyim/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>大大白鸽</t>
+  </si>
+  <si>
+    <t>九江爱尚美化妆品有限公司</t>
+  </si>
+  <si>
+    <t>洁面乳</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.xhbup.com/aishang/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.xhbup.com/kuige/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/gangyi/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/swksn/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>西安诚优</t>
+  </si>
+  <si>
+    <t>广州优阅网络科技有限公司</t>
+  </si>
+  <si>
+    <t>小说</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/youyue/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>小中鸽</t>
   </si>
   <si>
     <t>丰胸</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>https://xhbup.com/zhimei/</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>小艾</t>
-  </si>
-  <si>
-    <t>清远市艾米时尚美容美发有限公司</t>
-  </si>
-  <si>
-    <t>淡斑</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://xhbup.com/aimi/</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>韶关雯斯特商贸有限公司</t>
+    <t>浙江荣军印业有限公司</t>
+  </si>
+  <si>
+    <t>广州亿奇创绘商务服务有限公司 </t>
+  </si>
+  <si>
+    <t>https://www.xhbup.com/yqch/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>视频</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>小说</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.xhbup.com/ruixuan/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>长沙吉米</t>
+  </si>
+  <si>
+    <t>广州市白云区茜妃化妆品厂11  </t>
+  </si>
+  <si>
+    <t>https://www.xhbup.com/qianfei/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京卓泰</t>
+  </si>
+  <si>
+    <t>广东南方直播传媒有限公司</t>
+  </si>
+  <si>
+    <t>app</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.xhbup.com/nfzb/
+https://www.xhbup.com/nfzb1/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.xhbup.com/lanzi3/</t>
+  </si>
+  <si>
+    <t>https://www.xhbup.com/lanzi2/</t>
+  </si>
+  <si>
+    <t>郑州鑫恒信息技术有限公司</t>
+  </si>
+  <si>
+    <t>嘉联支付有限公司广州分公司</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>pos机</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/jlzf2/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/oupei2/</t>
+  </si>
+  <si>
+    <t>广东乐婷化妆品实业有限公司</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/leting298/
+https://xhbup.com/leting199/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>中山市乐道信息技术有限公司</t>
+  </si>
+  <si>
+    <t>小说</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/ledao/</t>
+  </si>
+  <si>
+    <t>佛山市梦家园美容有限公司</t>
+  </si>
+  <si>
+    <t>祛斑</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/mengjiay/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>创业</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/jiuhe1/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇牛</t>
+  </si>
+  <si>
+    <t xml:space="preserve">景德镇市宝儿优购化妆品有限公司 </t>
+  </si>
+  <si>
+    <t>https://xhbup.com/beyg/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>飓风</t>
+  </si>
+  <si>
+    <t>河源市壹柒美容服务有限公司</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/yiqi/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>哦呀呀</t>
+  </si>
+  <si>
+    <t>潮州市安娜丝化妆品有限公司</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/annas/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>杭州多义乐网络科技有限公司</t>
+  </si>
+  <si>
+    <t>广州奇盛信息技术服务有限公司</t>
+  </si>
+  <si>
+    <t>小说</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/qisheng/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>丰胸</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/xinlan1/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>https://xhbup.com/wensite/</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>新客户</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>英德市芊朵化妆品有限公司</t>
-  </si>
-  <si>
-    <t>https://xhbup.com/qianduo/</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>大宝</t>
-  </si>
-  <si>
-    <t>广州雪暴电子科技有限公司</t>
-  </si>
-  <si>
-    <t>口红</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://xhbup.com/xuebao/</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>瘦身</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://xhbup.com/zhishang2/</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>台山市索达日用化妆品有限公司</t>
-  </si>
-  <si>
-    <t>https://xhbup.com/suoda/</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://xhbup.com/xuebao1/</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>杭州微起点文化传播有限公司</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>广东猴强大互联网科技有限公司</t>
-  </si>
-  <si>
-    <t>小说</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://xhbup.com/houqiangd/</t>
+    <t>李霖泉</t>
+  </si>
+  <si>
+    <t>东莞市顺势互联网科技有限公司</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/shunshi/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>祛斑</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/almj/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿瘦健康产业集团有限公司</t>
+  </si>
+  <si>
+    <t>减肥</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/lvshou/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>惠州市美雨彤心贸易有限公司</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/mltx/</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
@@ -1102,7 +1452,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1256,6 +1606,14 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1458,7 +1816,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1582,6 +1940,24 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1602,15 +1978,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1644,13 +2011,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>234950</xdr:colOff>
-      <xdr:row>139</xdr:row>
+      <xdr:row>172</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>111125</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>173</xdr:row>
       <xdr:rowOff>1574</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1658,7 +2025,7 @@
         <xdr:cNvPr id="6" name="图片 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1670,7 +2037,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1980,13 +2347,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:Q140"/>
+  <dimension ref="B1:Q173"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="F104" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="F142" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K111" sqref="K111"/>
+      <selection pane="bottomRight" activeCell="K156" sqref="K156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -2011,24 +2378,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:17" s="1" customFormat="1" ht="46.5" customHeight="1">
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
       <c r="K1" s="25"/>
       <c r="L1" s="7"/>
-      <c r="N1" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="O1" s="42"/>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="42"/>
+      <c r="N1" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" s="48"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="48"/>
     </row>
     <row r="2" spans="2:17" ht="21.75" customHeight="1">
       <c r="B2" s="8" t="s">
@@ -2398,7 +2765,7 @@
         <v>50</v>
       </c>
       <c r="K11" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L11" s="9" t="s">
         <v>23</v>
@@ -3513,7 +3880,7 @@
         <v>21</v>
       </c>
       <c r="K44" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="L44" s="9" t="s">
         <v>23</v>
@@ -3612,7 +3979,7 @@
         <v>105</v>
       </c>
       <c r="K47" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="L47" s="9" t="s">
         <v>23</v>
@@ -3678,7 +4045,7 @@
         <v>50</v>
       </c>
       <c r="K49" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="L49" s="9" t="s">
         <v>23</v>
@@ -3810,7 +4177,7 @@
         <v>105</v>
       </c>
       <c r="K53" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="L53" s="9" t="s">
         <v>23</v>
@@ -3843,7 +4210,7 @@
         <v>21</v>
       </c>
       <c r="K54" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L54" s="9" t="s">
         <v>23</v>
@@ -3876,7 +4243,7 @@
         <v>21</v>
       </c>
       <c r="K55" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="L55" s="9" t="s">
         <v>23</v>
@@ -3975,7 +4342,7 @@
         <v>50</v>
       </c>
       <c r="K58" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L58" s="9" t="s">
         <v>23</v>
@@ -4074,7 +4441,7 @@
         <v>21</v>
       </c>
       <c r="K61" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L61" s="9" t="s">
         <v>23</v>
@@ -4140,7 +4507,7 @@
         <v>50</v>
       </c>
       <c r="K63" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="L63" s="9" t="s">
         <v>23</v>
@@ -4206,7 +4573,7 @@
         <v>50</v>
       </c>
       <c r="K65" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="L65" s="9" t="s">
         <v>23</v>
@@ -4272,7 +4639,7 @@
         <v>31</v>
       </c>
       <c r="K67" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="L67" s="9" t="s">
         <v>23</v>
@@ -4338,7 +4705,7 @@
         <v>31</v>
       </c>
       <c r="K69" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="L69" s="9" t="s">
         <v>23</v>
@@ -4536,7 +4903,7 @@
         <v>50</v>
       </c>
       <c r="K75" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="L75" s="9" t="s">
         <v>23</v>
@@ -4635,7 +5002,7 @@
         <v>50</v>
       </c>
       <c r="K78" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="L78" s="9" t="s">
         <v>23</v>
@@ -4830,8 +5197,8 @@
       <c r="J84" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="K84" t="s">
-        <v>235</v>
+      <c r="K84" s="43" t="s">
+        <v>351</v>
       </c>
       <c r="L84" s="9" t="s">
         <v>23</v>
@@ -4864,7 +5231,7 @@
         <v>21</v>
       </c>
       <c r="K85" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="L85" s="9" t="s">
         <v>23</v>
@@ -4876,13 +5243,13 @@
         <v>43578</v>
       </c>
       <c r="D86" s="36" t="s">
+        <v>235</v>
+      </c>
+      <c r="E86" s="36" t="s">
         <v>236</v>
       </c>
-      <c r="E86" s="36" t="s">
+      <c r="F86" s="34" t="s">
         <v>237</v>
-      </c>
-      <c r="F86" s="34" t="s">
-        <v>238</v>
       </c>
       <c r="G86" s="9">
         <v>1</v>
@@ -4897,7 +5264,7 @@
         <v>50</v>
       </c>
       <c r="K86" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="L86" s="9" t="s">
         <v>23</v>
@@ -4915,7 +5282,7 @@
         <v>193</v>
       </c>
       <c r="F87" s="34" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G87" s="9">
         <v>1</v>
@@ -4930,7 +5297,7 @@
         <v>50</v>
       </c>
       <c r="K87" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="L87" s="9" t="s">
         <v>23</v>
@@ -4945,10 +5312,10 @@
         <v>47</v>
       </c>
       <c r="E88" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="F88" s="34" t="s">
         <v>241</v>
-      </c>
-      <c r="F88" s="34" t="s">
-        <v>242</v>
       </c>
       <c r="G88" s="9">
         <v>1</v>
@@ -4963,7 +5330,7 @@
         <v>50</v>
       </c>
       <c r="K88" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L88" s="9" t="s">
         <v>23</v>
@@ -4981,7 +5348,7 @@
         <v>193</v>
       </c>
       <c r="F89" s="34" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G89" s="9">
         <v>1</v>
@@ -4996,7 +5363,7 @@
         <v>21</v>
       </c>
       <c r="K89" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="L89" s="9" t="s">
         <v>23</v>
@@ -5011,10 +5378,10 @@
         <v>58</v>
       </c>
       <c r="E90" s="21" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F90" s="34" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G90" s="9">
         <v>1</v>
@@ -5029,7 +5396,7 @@
         <v>31</v>
       </c>
       <c r="K90" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="L90" s="9" t="s">
         <v>23</v>
@@ -5062,7 +5429,7 @@
         <v>50</v>
       </c>
       <c r="K91" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="L91" s="9" t="s">
         <v>23</v>
@@ -5095,7 +5462,7 @@
         <v>50</v>
       </c>
       <c r="K92" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L92" s="9" t="s">
         <v>23</v>
@@ -5113,7 +5480,7 @@
         <v>66</v>
       </c>
       <c r="F93" s="34" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G93" s="9">
         <v>1</v>
@@ -5127,8 +5494,8 @@
       <c r="J93" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="K93" t="s">
-        <v>265</v>
+      <c r="K93" s="43" t="s">
+        <v>350</v>
       </c>
       <c r="L93" s="9" t="s">
         <v>23</v>
@@ -5140,13 +5507,13 @@
         <v>43578</v>
       </c>
       <c r="D94" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="E94" s="21" t="s">
+        <v>266</v>
+      </c>
+      <c r="F94" s="34" t="s">
         <v>267</v>
-      </c>
-      <c r="E94" s="21" t="s">
-        <v>268</v>
-      </c>
-      <c r="F94" s="34" t="s">
-        <v>269</v>
       </c>
       <c r="G94" s="9">
         <v>1</v>
@@ -5161,7 +5528,7 @@
         <v>50</v>
       </c>
       <c r="K94" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="L94" s="9" t="s">
         <v>23</v>
@@ -5173,13 +5540,13 @@
         <v>43578</v>
       </c>
       <c r="D95" s="21" t="s">
+        <v>268</v>
+      </c>
+      <c r="E95" s="21" t="s">
+        <v>269</v>
+      </c>
+      <c r="F95" s="34" t="s">
         <v>270</v>
-      </c>
-      <c r="E95" s="21" t="s">
-        <v>271</v>
-      </c>
-      <c r="F95" s="34" t="s">
-        <v>272</v>
       </c>
       <c r="G95" s="9">
         <v>1</v>
@@ -5194,7 +5561,7 @@
         <v>31</v>
       </c>
       <c r="K95" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="L95" s="9" t="s">
         <v>23</v>
@@ -5206,13 +5573,13 @@
         <v>43578</v>
       </c>
       <c r="D96" s="21" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E96" s="21" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F96" s="34" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G96" s="9">
         <v>1</v>
@@ -5227,7 +5594,7 @@
         <v>50</v>
       </c>
       <c r="K96" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="L96" s="9" t="s">
         <v>23</v>
@@ -5242,10 +5609,10 @@
         <v>47</v>
       </c>
       <c r="E97" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F97" s="34" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G97" s="9">
         <v>1</v>
@@ -5257,10 +5624,10 @@
         <v>37</v>
       </c>
       <c r="J97" s="9" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K97" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="L97" s="9" t="s">
         <v>23</v>
@@ -5278,7 +5645,7 @@
         <v>211</v>
       </c>
       <c r="F98" s="34" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G98" s="9">
         <v>1</v>
@@ -5293,7 +5660,7 @@
         <v>50</v>
       </c>
       <c r="K98" s="39" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="L98" s="9" t="s">
         <v>23</v>
@@ -5326,7 +5693,7 @@
         <v>105</v>
       </c>
       <c r="K99" s="40" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="L99" s="9" t="s">
         <v>23</v>
@@ -5341,7 +5708,7 @@
         <v>202</v>
       </c>
       <c r="E100" s="40" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F100" s="34" t="s">
         <v>204</v>
@@ -5359,7 +5726,7 @@
         <v>105</v>
       </c>
       <c r="K100" s="40" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="L100" s="9" t="s">
         <v>23</v>
@@ -5371,13 +5738,13 @@
         <v>43578</v>
       </c>
       <c r="D101" s="40" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E101" s="40" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F101" s="34" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G101" s="9">
         <v>1</v>
@@ -5392,7 +5759,7 @@
         <v>31</v>
       </c>
       <c r="K101" s="39" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="L101" s="9" t="s">
         <v>23</v>
@@ -5425,7 +5792,7 @@
         <v>21</v>
       </c>
       <c r="K102" s="40" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="L102" s="9" t="s">
         <v>23</v>
@@ -5437,13 +5804,13 @@
         <v>43579</v>
       </c>
       <c r="D103" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E103" t="s">
         <v>128</v>
       </c>
       <c r="F103" s="34" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G103" s="9">
         <v>1</v>
@@ -5458,7 +5825,7 @@
         <v>21</v>
       </c>
       <c r="K103" s="39" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="L103" s="9" t="s">
         <v>23</v>
@@ -5470,13 +5837,13 @@
         <v>43579</v>
       </c>
       <c r="D104" t="s">
+        <v>293</v>
+      </c>
+      <c r="E104" t="s">
+        <v>294</v>
+      </c>
+      <c r="F104" s="34" t="s">
         <v>295</v>
-      </c>
-      <c r="E104" t="s">
-        <v>296</v>
-      </c>
-      <c r="F104" s="34" t="s">
-        <v>297</v>
       </c>
       <c r="G104" s="9">
         <v>1</v>
@@ -5491,7 +5858,7 @@
         <v>50</v>
       </c>
       <c r="K104" s="39" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="L104" s="9" t="s">
         <v>23</v>
@@ -5502,14 +5869,14 @@
       <c r="C105" s="10">
         <v>43579</v>
       </c>
-      <c r="D105" s="48" t="s">
+      <c r="D105" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="E105" s="49" t="s">
-        <v>299</v>
+      <c r="E105" s="42" t="s">
+        <v>297</v>
       </c>
       <c r="F105" s="34" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G105" s="9">
         <v>1</v>
@@ -5523,8 +5890,8 @@
       <c r="J105" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="K105" s="50" t="s">
-        <v>300</v>
+      <c r="K105" s="43" t="s">
+        <v>298</v>
       </c>
       <c r="L105" s="9" t="s">
         <v>23</v>
@@ -5535,14 +5902,14 @@
       <c r="C106" s="10">
         <v>43579</v>
       </c>
-      <c r="D106" s="48" t="s">
-        <v>301</v>
+      <c r="D106" s="41" t="s">
+        <v>299</v>
       </c>
       <c r="E106" s="40" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F106" s="34" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G106" s="9">
         <v>1</v>
@@ -5556,8 +5923,8 @@
       <c r="J106" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K106" s="50" t="s">
-        <v>303</v>
+      <c r="K106" s="43" t="s">
+        <v>301</v>
       </c>
       <c r="L106" s="9" t="s">
         <v>23</v>
@@ -5569,13 +5936,13 @@
         <v>43579</v>
       </c>
       <c r="D107" s="40" t="s">
+        <v>302</v>
+      </c>
+      <c r="E107" s="40" t="s">
+        <v>303</v>
+      </c>
+      <c r="F107" s="34" t="s">
         <v>304</v>
-      </c>
-      <c r="E107" s="40" t="s">
-        <v>305</v>
-      </c>
-      <c r="F107" s="34" t="s">
-        <v>306</v>
       </c>
       <c r="G107" s="9">
         <v>1</v>
@@ -5589,8 +5956,8 @@
       <c r="J107" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="K107" s="50" t="s">
-        <v>307</v>
+      <c r="K107" s="43" t="s">
+        <v>305</v>
       </c>
       <c r="L107" s="9" t="s">
         <v>23</v>
@@ -5608,7 +5975,7 @@
         <v>150</v>
       </c>
       <c r="F108" s="34" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G108" s="9">
         <v>1</v>
@@ -5622,8 +5989,8 @@
       <c r="J108" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="K108" s="50" t="s">
-        <v>309</v>
+      <c r="K108" s="43" t="s">
+        <v>307</v>
       </c>
       <c r="L108" s="9" t="s">
         <v>23</v>
@@ -5638,10 +6005,10 @@
         <v>87</v>
       </c>
       <c r="E109" s="40" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F109" s="34" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G109" s="9">
         <v>1</v>
@@ -5655,8 +6022,8 @@
       <c r="J109" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="K109" s="50" t="s">
-        <v>311</v>
+      <c r="K109" s="43" t="s">
+        <v>309</v>
       </c>
       <c r="L109" s="9" t="s">
         <v>23</v>
@@ -5668,13 +6035,13 @@
         <v>43579</v>
       </c>
       <c r="D110" s="40" t="s">
+        <v>302</v>
+      </c>
+      <c r="E110" s="40" t="s">
+        <v>303</v>
+      </c>
+      <c r="F110" s="34" t="s">
         <v>304</v>
-      </c>
-      <c r="E110" s="40" t="s">
-        <v>305</v>
-      </c>
-      <c r="F110" s="34" t="s">
-        <v>306</v>
       </c>
       <c r="G110" s="9">
         <v>1</v>
@@ -5688,8 +6055,8 @@
       <c r="J110" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K110" s="50" t="s">
-        <v>312</v>
+      <c r="K110" s="43" t="s">
+        <v>310</v>
       </c>
       <c r="L110" s="9" t="s">
         <v>23</v>
@@ -5701,13 +6068,13 @@
         <v>43579</v>
       </c>
       <c r="D111" t="s">
+        <v>311</v>
+      </c>
+      <c r="E111" t="s">
+        <v>312</v>
+      </c>
+      <c r="F111" s="34" t="s">
         <v>313</v>
-      </c>
-      <c r="E111" t="s">
-        <v>314</v>
-      </c>
-      <c r="F111" s="34" t="s">
-        <v>315</v>
       </c>
       <c r="G111" s="9">
         <v>1</v>
@@ -5722,7 +6089,7 @@
         <v>50</v>
       </c>
       <c r="K111" s="39" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="L111" s="9" t="s">
         <v>23</v>
@@ -5730,390 +6097,1719 @@
     </row>
     <row r="112" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B112" s="14"/>
-      <c r="C112" s="22"/>
-      <c r="D112" s="48"/>
-      <c r="E112" s="40"/>
-      <c r="F112" s="34"/>
-      <c r="G112" s="9"/>
-      <c r="H112" s="9"/>
-      <c r="I112" s="40"/>
-      <c r="J112" s="9"/>
-      <c r="K112" s="50"/>
-      <c r="L112" s="9"/>
+      <c r="C112" s="10">
+        <v>43579</v>
+      </c>
+      <c r="D112" t="s">
+        <v>210</v>
+      </c>
+      <c r="E112" t="s">
+        <v>211</v>
+      </c>
+      <c r="F112" s="34" t="s">
+        <v>212</v>
+      </c>
+      <c r="G112" s="9">
+        <v>1</v>
+      </c>
+      <c r="H112" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I112" t="s">
+        <v>30</v>
+      </c>
+      <c r="J112" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="K112" s="39" t="s">
+        <v>315</v>
+      </c>
+      <c r="L112" s="9" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="113" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B113" s="14"/>
-      <c r="C113" s="22"/>
-      <c r="D113" s="48"/>
-      <c r="E113" s="40"/>
-      <c r="F113" s="34"/>
-      <c r="G113" s="9"/>
-      <c r="H113" s="9"/>
-      <c r="I113" s="40"/>
-      <c r="J113" s="9"/>
-      <c r="K113" s="50"/>
-      <c r="L113" s="9"/>
+      <c r="C113" s="10">
+        <v>43579</v>
+      </c>
+      <c r="D113" t="s">
+        <v>316</v>
+      </c>
+      <c r="E113" t="s">
+        <v>128</v>
+      </c>
+      <c r="F113" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="G113" s="9">
+        <v>1</v>
+      </c>
+      <c r="H113" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I113" t="s">
+        <v>42</v>
+      </c>
+      <c r="J113" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K113" t="s">
+        <v>317</v>
+      </c>
+      <c r="L113" s="9" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="114" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B114" s="14"/>
-      <c r="C114" s="22"/>
-      <c r="D114" s="48"/>
-      <c r="E114" s="40"/>
-      <c r="F114" s="34"/>
-      <c r="G114" s="9"/>
-      <c r="H114" s="9"/>
-      <c r="I114" s="40"/>
-      <c r="J114" s="9"/>
-      <c r="K114" s="50"/>
-      <c r="L114" s="9"/>
+      <c r="C114" s="10">
+        <v>43580</v>
+      </c>
+      <c r="D114" t="s">
+        <v>235</v>
+      </c>
+      <c r="E114" t="s">
+        <v>318</v>
+      </c>
+      <c r="F114" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="G114" s="9">
+        <v>1</v>
+      </c>
+      <c r="H114" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I114" t="s">
+        <v>54</v>
+      </c>
+      <c r="J114" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="K114" s="39" t="s">
+        <v>321</v>
+      </c>
+      <c r="L114" s="9" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="115" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B115" s="14"/>
-      <c r="C115" s="22"/>
-      <c r="D115" s="48"/>
-      <c r="E115" s="40"/>
-      <c r="F115" s="34"/>
-      <c r="G115" s="9"/>
-      <c r="H115" s="9"/>
-      <c r="I115" s="40"/>
-      <c r="J115" s="9"/>
-      <c r="K115" s="50"/>
-      <c r="L115" s="9"/>
+      <c r="C115" s="10">
+        <v>43580</v>
+      </c>
+      <c r="D115" t="s">
+        <v>320</v>
+      </c>
+      <c r="E115" t="s">
+        <v>166</v>
+      </c>
+      <c r="F115" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="G115" s="9">
+        <v>1</v>
+      </c>
+      <c r="H115" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I115" t="s">
+        <v>54</v>
+      </c>
+      <c r="J115" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="K115" s="39" t="s">
+        <v>322</v>
+      </c>
+      <c r="L115" s="9" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="116" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B116" s="14"/>
-      <c r="C116" s="22"/>
-      <c r="D116" s="48"/>
-      <c r="E116" s="40"/>
-      <c r="F116" s="34"/>
-      <c r="G116" s="9"/>
-      <c r="H116" s="9"/>
-      <c r="I116" s="40"/>
-      <c r="J116" s="9"/>
-      <c r="K116" s="50"/>
-      <c r="L116" s="9"/>
+      <c r="C116" s="10">
+        <v>43580</v>
+      </c>
+      <c r="D116" t="s">
+        <v>323</v>
+      </c>
+      <c r="E116" t="s">
+        <v>324</v>
+      </c>
+      <c r="F116" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="G116" s="9">
+        <v>1</v>
+      </c>
+      <c r="H116" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I116" t="s">
+        <v>37</v>
+      </c>
+      <c r="J116" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="K116" s="39" t="s">
+        <v>326</v>
+      </c>
+      <c r="L116" s="9" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="117" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B117" s="14"/>
-      <c r="C117" s="22"/>
-      <c r="D117" s="48"/>
-      <c r="E117" s="40"/>
-      <c r="F117" s="34"/>
-      <c r="G117" s="9"/>
-      <c r="H117" s="9"/>
-      <c r="I117" s="40"/>
-      <c r="J117" s="9"/>
-      <c r="K117" s="50"/>
-      <c r="L117" s="9"/>
+      <c r="C117" s="10">
+        <v>43580</v>
+      </c>
+      <c r="D117" t="s">
+        <v>165</v>
+      </c>
+      <c r="E117" t="s">
+        <v>219</v>
+      </c>
+      <c r="F117" s="34" t="s">
+        <v>220</v>
+      </c>
+      <c r="G117" s="9">
+        <v>1</v>
+      </c>
+      <c r="H117" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I117" t="s">
+        <v>54</v>
+      </c>
+      <c r="J117" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K117" s="39" t="s">
+        <v>327</v>
+      </c>
+      <c r="L117" s="9" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="118" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B118" s="14"/>
-      <c r="C118" s="22"/>
-      <c r="D118" s="48"/>
-      <c r="E118" s="40"/>
-      <c r="F118" s="34"/>
-      <c r="G118" s="9"/>
-      <c r="H118" s="9"/>
-      <c r="I118" s="40"/>
-      <c r="J118" s="9"/>
-      <c r="K118" s="50"/>
-      <c r="L118" s="9"/>
+      <c r="C118" s="10">
+        <v>43580</v>
+      </c>
+      <c r="D118" t="s">
+        <v>328</v>
+      </c>
+      <c r="E118" t="s">
+        <v>329</v>
+      </c>
+      <c r="F118" s="34" t="s">
+        <v>330</v>
+      </c>
+      <c r="G118" s="9">
+        <v>1</v>
+      </c>
+      <c r="H118" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I118" t="s">
+        <v>37</v>
+      </c>
+      <c r="J118" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K118" s="39" t="s">
+        <v>331</v>
+      </c>
+      <c r="L118" s="9" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="119" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B119" s="14"/>
-      <c r="C119" s="22"/>
-      <c r="D119" s="48"/>
-      <c r="E119" s="40"/>
-      <c r="F119" s="34"/>
-      <c r="G119" s="9"/>
-      <c r="H119" s="9"/>
-      <c r="I119" s="40"/>
-      <c r="J119" s="9"/>
-      <c r="K119" s="50"/>
-      <c r="L119" s="9"/>
+      <c r="C119" s="10">
+        <v>43580</v>
+      </c>
+      <c r="D119" t="s">
+        <v>332</v>
+      </c>
+      <c r="E119" t="s">
+        <v>333</v>
+      </c>
+      <c r="F119" s="34" t="s">
+        <v>334</v>
+      </c>
+      <c r="G119" s="9">
+        <v>1</v>
+      </c>
+      <c r="H119" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I119" t="s">
+        <v>20</v>
+      </c>
+      <c r="J119" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K119" s="39" t="s">
+        <v>335</v>
+      </c>
+      <c r="L119" s="9" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="120" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B120" s="14"/>
-      <c r="C120" s="22"/>
-      <c r="D120" s="48"/>
-      <c r="E120" s="40"/>
-      <c r="F120" s="34"/>
-      <c r="G120" s="9"/>
-      <c r="H120" s="9"/>
-      <c r="I120" s="40"/>
-      <c r="J120" s="9"/>
-      <c r="K120" s="50"/>
-      <c r="L120" s="9"/>
+      <c r="C120" s="10">
+        <v>43580</v>
+      </c>
+      <c r="D120" t="s">
+        <v>290</v>
+      </c>
+      <c r="E120" t="s">
+        <v>336</v>
+      </c>
+      <c r="F120" s="34" t="s">
+        <v>334</v>
+      </c>
+      <c r="G120" s="9">
+        <v>1</v>
+      </c>
+      <c r="H120" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I120" t="s">
+        <v>58</v>
+      </c>
+      <c r="J120" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="K120" s="39" t="s">
+        <v>337</v>
+      </c>
+      <c r="L120" s="9" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="121" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B121" s="14"/>
-      <c r="C121" s="22"/>
-      <c r="D121" s="48"/>
-      <c r="E121" s="40"/>
-      <c r="F121" s="34"/>
-      <c r="G121" s="9"/>
-      <c r="H121" s="9"/>
-      <c r="I121" s="40"/>
-      <c r="J121" s="9"/>
-      <c r="K121" s="50"/>
-      <c r="L121" s="9"/>
+      <c r="C121" s="10">
+        <v>43580</v>
+      </c>
+      <c r="D121" t="s">
+        <v>107</v>
+      </c>
+      <c r="E121" t="s">
+        <v>66</v>
+      </c>
+      <c r="F121" s="34" t="s">
+        <v>264</v>
+      </c>
+      <c r="G121" s="9">
+        <v>1</v>
+      </c>
+      <c r="H121" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I121" t="s">
+        <v>58</v>
+      </c>
+      <c r="J121" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K121" t="s">
+        <v>338</v>
+      </c>
+      <c r="L121" s="9" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="122" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B122" s="14"/>
-      <c r="C122" s="22"/>
-      <c r="D122" s="48"/>
-      <c r="E122" s="40"/>
-      <c r="F122" s="34"/>
-      <c r="G122" s="9"/>
-      <c r="H122" s="9"/>
-      <c r="I122" s="40"/>
-      <c r="J122" s="9"/>
-      <c r="K122" s="50"/>
-      <c r="L122" s="9"/>
+      <c r="C122" s="10">
+        <v>43580</v>
+      </c>
+      <c r="D122" t="s">
+        <v>339</v>
+      </c>
+      <c r="E122" t="s">
+        <v>340</v>
+      </c>
+      <c r="F122" s="34" t="s">
+        <v>343</v>
+      </c>
+      <c r="G122" s="9">
+        <v>1</v>
+      </c>
+      <c r="H122" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I122" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="J122" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K122" s="39" t="s">
+        <v>341</v>
+      </c>
+      <c r="L122" s="9" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="123" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B123" s="14"/>
-      <c r="C123" s="22"/>
-      <c r="D123" s="48"/>
-      <c r="E123" s="40"/>
-      <c r="F123" s="34"/>
-      <c r="G123" s="9"/>
-      <c r="H123" s="9"/>
-      <c r="I123" s="40"/>
-      <c r="J123" s="9"/>
-      <c r="K123" s="50"/>
-      <c r="L123" s="9"/>
+      <c r="C123" s="10">
+        <v>43580</v>
+      </c>
+      <c r="D123" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="E123" s="44" t="s">
+        <v>342</v>
+      </c>
+      <c r="F123" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="G123" s="9">
+        <v>1</v>
+      </c>
+      <c r="H123" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I123" s="44" t="s">
+        <v>344</v>
+      </c>
+      <c r="J123" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K123" s="43" t="s">
+        <v>345</v>
+      </c>
+      <c r="L123" s="9" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="124" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B124" s="14"/>
-      <c r="C124" s="22"/>
-      <c r="D124" s="48"/>
-      <c r="E124" s="40"/>
-      <c r="F124" s="34"/>
-      <c r="G124" s="9"/>
-      <c r="H124" s="9"/>
-      <c r="I124" s="40"/>
-      <c r="J124" s="9"/>
-      <c r="K124" s="50"/>
-      <c r="L124" s="9"/>
+      <c r="C124" s="10">
+        <v>43580</v>
+      </c>
+      <c r="D124" s="40" t="s">
+        <v>346</v>
+      </c>
+      <c r="E124" s="40" t="s">
+        <v>347</v>
+      </c>
+      <c r="F124" s="34" t="s">
+        <v>348</v>
+      </c>
+      <c r="G124" s="9">
+        <v>1</v>
+      </c>
+      <c r="H124" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I124" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="J124" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="K124" s="43" t="s">
+        <v>349</v>
+      </c>
+      <c r="L124" s="9" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="125" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B125" s="14"/>
-      <c r="C125" s="22"/>
-      <c r="D125" s="48"/>
-      <c r="E125" s="40"/>
-      <c r="F125" s="34"/>
-      <c r="G125" s="9"/>
-      <c r="H125" s="9"/>
-      <c r="I125" s="40"/>
-      <c r="J125" s="9"/>
-      <c r="K125" s="50"/>
-      <c r="L125" s="9"/>
+      <c r="C125" s="10">
+        <v>43580</v>
+      </c>
+      <c r="D125" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="E125" s="44" t="s">
+        <v>342</v>
+      </c>
+      <c r="F125" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="G125" s="9">
+        <v>1</v>
+      </c>
+      <c r="H125" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I125" s="44" t="s">
+        <v>344</v>
+      </c>
+      <c r="J125" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K125" s="43" t="s">
+        <v>345</v>
+      </c>
+      <c r="L125" s="9" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="126" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B126" s="14"/>
-      <c r="C126" s="22"/>
-      <c r="D126" s="48"/>
-      <c r="E126" s="40"/>
-      <c r="F126" s="34"/>
-      <c r="G126" s="9"/>
-      <c r="H126" s="9"/>
-      <c r="I126" s="40"/>
-      <c r="J126" s="9"/>
-      <c r="K126" s="50"/>
-      <c r="L126" s="9"/>
+      <c r="C126" s="10">
+        <v>43580</v>
+      </c>
+      <c r="D126" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="E126" s="40" t="s">
+        <v>199</v>
+      </c>
+      <c r="F126" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="G126" s="9">
+        <v>1</v>
+      </c>
+      <c r="H126" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I126" s="40" t="s">
+        <v>200</v>
+      </c>
+      <c r="J126" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K126" s="43" t="s">
+        <v>352</v>
+      </c>
+      <c r="L126" s="9" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="127" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B127" s="14"/>
-      <c r="C127" s="22"/>
-      <c r="D127" s="48"/>
-      <c r="E127" s="40"/>
-      <c r="F127" s="34"/>
-      <c r="G127" s="9"/>
-      <c r="H127" s="9"/>
-      <c r="I127" s="40"/>
-      <c r="J127" s="9"/>
-      <c r="K127" s="50"/>
-      <c r="L127" s="9"/>
+      <c r="C127" s="10">
+        <v>43580</v>
+      </c>
+      <c r="D127" s="40" t="s">
+        <v>353</v>
+      </c>
+      <c r="E127" s="40" t="s">
+        <v>354</v>
+      </c>
+      <c r="F127" s="34" t="s">
+        <v>355</v>
+      </c>
+      <c r="G127" s="9">
+        <v>1</v>
+      </c>
+      <c r="H127" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I127" s="40" t="s">
+        <v>344</v>
+      </c>
+      <c r="J127" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="K127" s="43" t="s">
+        <v>356</v>
+      </c>
+      <c r="L127" s="9" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="128" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B128" s="14"/>
-      <c r="C128" s="22"/>
-      <c r="D128" s="48"/>
-      <c r="E128" s="40"/>
-      <c r="F128" s="34"/>
-      <c r="G128" s="9"/>
-      <c r="H128" s="9"/>
-      <c r="I128" s="40"/>
-      <c r="J128" s="9"/>
-      <c r="K128" s="50"/>
-      <c r="L128" s="9"/>
+      <c r="C128" s="10">
+        <v>43581</v>
+      </c>
+      <c r="D128" t="s">
+        <v>357</v>
+      </c>
+      <c r="E128" t="s">
+        <v>193</v>
+      </c>
+      <c r="F128" s="34" t="s">
+        <v>358</v>
+      </c>
+      <c r="G128" s="9">
+        <v>1</v>
+      </c>
+      <c r="H128" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I128" t="s">
+        <v>37</v>
+      </c>
+      <c r="J128" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="K128" t="s">
+        <v>239</v>
+      </c>
+      <c r="L128" s="9" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="129" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B129" s="14"/>
-      <c r="C129" s="22"/>
-      <c r="D129" s="48"/>
-      <c r="E129" s="40"/>
-      <c r="F129" s="34"/>
-      <c r="G129" s="9"/>
-      <c r="H129" s="9"/>
-      <c r="I129" s="40"/>
-      <c r="J129" s="9"/>
-      <c r="K129" s="50"/>
-      <c r="L129" s="9"/>
+      <c r="C129" s="10">
+        <v>43581</v>
+      </c>
+      <c r="D129" t="s">
+        <v>359</v>
+      </c>
+      <c r="E129" t="s">
+        <v>360</v>
+      </c>
+      <c r="F129" s="34" t="s">
+        <v>362</v>
+      </c>
+      <c r="G129" s="9">
+        <v>1</v>
+      </c>
+      <c r="H129" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I129" t="s">
+        <v>54</v>
+      </c>
+      <c r="J129" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="K129" s="39" t="s">
+        <v>361</v>
+      </c>
+      <c r="L129" s="9" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="130" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B130" s="14"/>
-      <c r="C130" s="22"/>
-      <c r="D130" s="48"/>
-      <c r="E130" s="40"/>
-      <c r="F130" s="34"/>
-      <c r="G130" s="9"/>
-      <c r="H130" s="9"/>
-      <c r="I130" s="40"/>
-      <c r="J130" s="9"/>
-      <c r="K130" s="50"/>
-      <c r="L130" s="9"/>
+      <c r="C130" s="10">
+        <v>43581</v>
+      </c>
+      <c r="D130" t="s">
+        <v>79</v>
+      </c>
+      <c r="E130" t="s">
+        <v>80</v>
+      </c>
+      <c r="F130" s="34" t="s">
+        <v>363</v>
+      </c>
+      <c r="G130" s="9">
+        <v>1</v>
+      </c>
+      <c r="H130" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I130" t="s">
+        <v>30</v>
+      </c>
+      <c r="J130" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="K130" s="39" t="s">
+        <v>364</v>
+      </c>
+      <c r="L130" s="9" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="131" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B131" s="14"/>
-      <c r="C131" s="22"/>
-      <c r="D131" s="48"/>
-      <c r="E131" s="40"/>
-      <c r="F131" s="34"/>
-      <c r="G131" s="9"/>
-      <c r="H131" s="9"/>
-      <c r="I131" s="40"/>
-      <c r="J131" s="9"/>
-      <c r="K131" s="50"/>
-      <c r="L131" s="9"/>
-    </row>
-    <row r="132" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="C131" s="10">
+        <v>43581</v>
+      </c>
+      <c r="D131" t="s">
+        <v>365</v>
+      </c>
+      <c r="E131" t="s">
+        <v>366</v>
+      </c>
+      <c r="F131" s="34" t="s">
+        <v>363</v>
+      </c>
+      <c r="G131" s="9">
+        <v>1</v>
+      </c>
+      <c r="H131" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I131" t="s">
+        <v>30</v>
+      </c>
+      <c r="J131" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="K131" s="39" t="s">
+        <v>367</v>
+      </c>
+      <c r="L131" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="132" spans="2:12" s="2" customFormat="1" ht="65.25" customHeight="1">
       <c r="B132" s="14"/>
-      <c r="C132" s="22"/>
-      <c r="D132" s="48"/>
-      <c r="E132" s="40"/>
-      <c r="F132" s="34"/>
-      <c r="G132" s="9"/>
-      <c r="H132" s="9"/>
-      <c r="I132" s="40"/>
-      <c r="J132" s="9"/>
-      <c r="K132" s="50"/>
-      <c r="L132" s="9"/>
+      <c r="C132" s="10">
+        <v>43581</v>
+      </c>
+      <c r="D132" t="s">
+        <v>368</v>
+      </c>
+      <c r="E132" t="s">
+        <v>369</v>
+      </c>
+      <c r="F132" s="34" t="s">
+        <v>370</v>
+      </c>
+      <c r="G132" s="9">
+        <v>1</v>
+      </c>
+      <c r="H132" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I132" t="s">
+        <v>58</v>
+      </c>
+      <c r="J132" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="K132" s="45" t="s">
+        <v>371</v>
+      </c>
+      <c r="L132" s="9" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="133" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B133" s="14"/>
-      <c r="C133" s="22"/>
-      <c r="D133" s="48"/>
-      <c r="E133" s="40"/>
-      <c r="F133" s="34"/>
-      <c r="G133" s="9"/>
-      <c r="H133" s="9"/>
-      <c r="I133" s="40"/>
-      <c r="J133" s="9"/>
-      <c r="K133" s="50"/>
-      <c r="L133" s="9"/>
+      <c r="C133" s="10">
+        <v>43581</v>
+      </c>
+      <c r="D133" t="s">
+        <v>357</v>
+      </c>
+      <c r="E133" t="s">
+        <v>193</v>
+      </c>
+      <c r="F133" s="34" t="s">
+        <v>194</v>
+      </c>
+      <c r="G133" s="9">
+        <v>1</v>
+      </c>
+      <c r="H133" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I133" t="s">
+        <v>37</v>
+      </c>
+      <c r="J133" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="K133" t="s">
+        <v>373</v>
+      </c>
+      <c r="L133" s="9" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="134" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B134" s="14"/>
-      <c r="C134" s="22"/>
-      <c r="D134" s="48"/>
-      <c r="E134" s="40"/>
-      <c r="F134" s="34"/>
-      <c r="G134" s="9"/>
-      <c r="H134" s="9"/>
-      <c r="I134" s="40"/>
-      <c r="J134" s="9"/>
-      <c r="K134" s="50"/>
-      <c r="L134" s="9"/>
+      <c r="C134" s="10">
+        <v>43581</v>
+      </c>
+      <c r="D134" t="s">
+        <v>374</v>
+      </c>
+      <c r="E134" t="s">
+        <v>375</v>
+      </c>
+      <c r="F134" s="34" t="s">
+        <v>376</v>
+      </c>
+      <c r="G134" s="9">
+        <v>1</v>
+      </c>
+      <c r="H134" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I134" t="s">
+        <v>42</v>
+      </c>
+      <c r="J134" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K134" s="39" t="s">
+        <v>377</v>
+      </c>
+      <c r="L134" s="9" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="135" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B135" s="14"/>
-      <c r="C135" s="22"/>
-      <c r="D135" s="48"/>
-      <c r="E135" s="40"/>
-      <c r="F135" s="34"/>
-      <c r="G135" s="9"/>
-      <c r="H135" s="9"/>
-      <c r="I135" s="40"/>
-      <c r="J135" s="9"/>
-      <c r="K135" s="50"/>
-      <c r="L135" s="9"/>
+      <c r="C135" s="10">
+        <v>43581</v>
+      </c>
+      <c r="D135" t="s">
+        <v>357</v>
+      </c>
+      <c r="E135" t="s">
+        <v>193</v>
+      </c>
+      <c r="F135" s="34" t="s">
+        <v>194</v>
+      </c>
+      <c r="G135" s="9">
+        <v>1</v>
+      </c>
+      <c r="H135" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I135" t="s">
+        <v>58</v>
+      </c>
+      <c r="J135" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="K135" t="s">
+        <v>372</v>
+      </c>
+      <c r="L135" s="9" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="136" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B136" s="14"/>
-      <c r="C136" s="22"/>
-      <c r="D136" s="48"/>
-      <c r="E136" s="40"/>
-      <c r="F136" s="34"/>
-      <c r="G136" s="9"/>
-      <c r="H136" s="9"/>
-      <c r="I136" s="40"/>
-      <c r="J136" s="9"/>
-      <c r="K136" s="50"/>
-      <c r="L136" s="9"/>
+      <c r="C136" s="10">
+        <v>43581</v>
+      </c>
+      <c r="D136" t="s">
+        <v>290</v>
+      </c>
+      <c r="E136" t="s">
+        <v>128</v>
+      </c>
+      <c r="F136" s="34" t="s">
+        <v>194</v>
+      </c>
+      <c r="G136" s="9">
+        <v>1</v>
+      </c>
+      <c r="H136" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I136" t="s">
+        <v>42</v>
+      </c>
+      <c r="J136" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="K136" t="s">
+        <v>317</v>
+      </c>
+      <c r="L136" s="9" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="137" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B137" s="14"/>
-      <c r="C137" s="22"/>
-      <c r="D137" s="21"/>
-      <c r="E137" s="21"/>
-      <c r="F137" s="34"/>
-      <c r="G137" s="9"/>
-      <c r="H137" s="9"/>
-      <c r="I137" s="21"/>
-      <c r="J137" s="9"/>
-      <c r="K137" s="21"/>
-      <c r="L137" s="9"/>
-    </row>
-    <row r="138" spans="2:12" ht="21.75" customHeight="1">
-      <c r="B138" s="43" t="s">
+      <c r="C137" s="10">
+        <v>43581</v>
+      </c>
+      <c r="D137" t="s">
+        <v>210</v>
+      </c>
+      <c r="E137" t="s">
+        <v>211</v>
+      </c>
+      <c r="F137" s="34" t="s">
+        <v>204</v>
+      </c>
+      <c r="G137" s="9">
+        <v>1</v>
+      </c>
+      <c r="H137" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I137" t="s">
+        <v>30</v>
+      </c>
+      <c r="J137" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="K137" t="s">
+        <v>378</v>
+      </c>
+      <c r="L137" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="138" spans="2:12" s="2" customFormat="1" ht="45" customHeight="1">
+      <c r="B138" s="14"/>
+      <c r="C138" s="10">
+        <v>43581</v>
+      </c>
+      <c r="D138" t="s">
+        <v>202</v>
+      </c>
+      <c r="E138" t="s">
+        <v>379</v>
+      </c>
+      <c r="F138" s="34" t="s">
+        <v>204</v>
+      </c>
+      <c r="G138" s="9">
+        <v>2</v>
+      </c>
+      <c r="H138" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I138" t="s">
+        <v>30</v>
+      </c>
+      <c r="J138" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="K138" s="46" t="s">
+        <v>380</v>
+      </c>
+      <c r="L138" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="139" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B139" s="14"/>
+      <c r="C139" s="10">
+        <v>43582</v>
+      </c>
+      <c r="D139" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="E139" s="40" t="s">
+        <v>199</v>
+      </c>
+      <c r="F139" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="G139" s="9">
+        <v>1</v>
+      </c>
+      <c r="H139" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I139" s="40" t="s">
+        <v>200</v>
+      </c>
+      <c r="J139" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K139" s="43" t="s">
+        <v>352</v>
+      </c>
+      <c r="L139" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="140" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B140" s="14"/>
+      <c r="C140" s="10">
+        <v>43582</v>
+      </c>
+      <c r="D140" t="s">
+        <v>290</v>
+      </c>
+      <c r="E140" t="s">
+        <v>128</v>
+      </c>
+      <c r="F140" s="34" t="s">
+        <v>194</v>
+      </c>
+      <c r="G140" s="9">
+        <v>1</v>
+      </c>
+      <c r="H140" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I140" t="s">
+        <v>42</v>
+      </c>
+      <c r="J140" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="K140" t="s">
+        <v>317</v>
+      </c>
+      <c r="L140" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="141" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B141" s="14"/>
+      <c r="C141" s="10">
+        <v>43582</v>
+      </c>
+      <c r="D141" t="s">
+        <v>353</v>
+      </c>
+      <c r="E141" t="s">
+        <v>381</v>
+      </c>
+      <c r="F141" s="34" t="s">
+        <v>382</v>
+      </c>
+      <c r="G141" s="9">
+        <v>1</v>
+      </c>
+      <c r="H141" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I141" t="s">
+        <v>344</v>
+      </c>
+      <c r="J141" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="K141" t="s">
+        <v>383</v>
+      </c>
+      <c r="L141" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="142" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B142" s="14"/>
+      <c r="C142" s="10">
+        <v>43583</v>
+      </c>
+      <c r="D142" t="s">
+        <v>290</v>
+      </c>
+      <c r="E142" t="s">
+        <v>384</v>
+      </c>
+      <c r="F142" s="34" t="s">
+        <v>385</v>
+      </c>
+      <c r="G142" s="9">
+        <v>1</v>
+      </c>
+      <c r="H142" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I142" t="s">
+        <v>42</v>
+      </c>
+      <c r="J142" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="K142" s="39" t="s">
+        <v>386</v>
+      </c>
+      <c r="L142" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="143" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B143" s="14"/>
+      <c r="C143" s="10">
+        <v>43583</v>
+      </c>
+      <c r="D143" t="s">
+        <v>323</v>
+      </c>
+      <c r="E143" t="s">
+        <v>324</v>
+      </c>
+      <c r="F143" s="34" t="s">
+        <v>387</v>
+      </c>
+      <c r="G143" s="9">
+        <v>1</v>
+      </c>
+      <c r="H143" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I143" t="s">
+        <v>37</v>
+      </c>
+      <c r="J143" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="K143" s="39" t="s">
+        <v>388</v>
+      </c>
+      <c r="L143" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="144" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B144" s="14"/>
+      <c r="C144" s="10">
+        <v>43583</v>
+      </c>
+      <c r="D144" t="s">
+        <v>290</v>
+      </c>
+      <c r="E144" t="s">
+        <v>128</v>
+      </c>
+      <c r="F144" s="34" t="s">
+        <v>194</v>
+      </c>
+      <c r="G144" s="9">
+        <v>1</v>
+      </c>
+      <c r="H144" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I144" t="s">
+        <v>42</v>
+      </c>
+      <c r="J144" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="K144" t="s">
+        <v>317</v>
+      </c>
+      <c r="L144" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="145" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B145" s="14"/>
+      <c r="C145" s="10">
+        <v>43583</v>
+      </c>
+      <c r="D145" t="s">
+        <v>389</v>
+      </c>
+      <c r="E145" t="s">
+        <v>390</v>
+      </c>
+      <c r="F145" s="34" t="s">
+        <v>194</v>
+      </c>
+      <c r="G145" s="9">
+        <v>1</v>
+      </c>
+      <c r="H145" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I145" t="s">
+        <v>26</v>
+      </c>
+      <c r="J145" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="K145" s="39" t="s">
+        <v>391</v>
+      </c>
+      <c r="L145" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="146" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B146" s="14"/>
+      <c r="C146" s="10">
+        <v>43583</v>
+      </c>
+      <c r="D146" t="s">
+        <v>392</v>
+      </c>
+      <c r="E146" t="s">
+        <v>393</v>
+      </c>
+      <c r="F146" s="34" t="s">
+        <v>194</v>
+      </c>
+      <c r="G146" s="9">
+        <v>1</v>
+      </c>
+      <c r="H146" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I146" t="s">
+        <v>54</v>
+      </c>
+      <c r="J146" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="K146" s="39" t="s">
+        <v>394</v>
+      </c>
+      <c r="L146" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="147" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B147" s="14"/>
+      <c r="C147" s="10">
+        <v>43583</v>
+      </c>
+      <c r="D147" t="s">
+        <v>395</v>
+      </c>
+      <c r="E147" t="s">
+        <v>396</v>
+      </c>
+      <c r="F147" s="34" t="s">
+        <v>194</v>
+      </c>
+      <c r="G147" s="9">
+        <v>1</v>
+      </c>
+      <c r="H147" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I147" t="s">
+        <v>37</v>
+      </c>
+      <c r="J147" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="K147" s="39" t="s">
+        <v>397</v>
+      </c>
+      <c r="L147" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="148" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B148" s="14"/>
+      <c r="C148" s="10">
+        <v>43583</v>
+      </c>
+      <c r="D148" t="s">
+        <v>398</v>
+      </c>
+      <c r="E148" t="s">
+        <v>399</v>
+      </c>
+      <c r="F148" s="34" t="s">
+        <v>400</v>
+      </c>
+      <c r="G148" s="9">
+        <v>1</v>
+      </c>
+      <c r="H148" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I148" t="s">
+        <v>37</v>
+      </c>
+      <c r="J148" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="K148" s="39" t="s">
+        <v>401</v>
+      </c>
+      <c r="L148" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="149" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B149" s="14"/>
+      <c r="C149" s="10">
+        <v>43583</v>
+      </c>
+      <c r="D149" t="s">
+        <v>265</v>
+      </c>
+      <c r="E149" t="s">
+        <v>266</v>
+      </c>
+      <c r="F149" s="34" t="s">
+        <v>402</v>
+      </c>
+      <c r="G149" s="9">
+        <v>1</v>
+      </c>
+      <c r="H149" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I149" t="s">
+        <v>54</v>
+      </c>
+      <c r="J149" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="K149" s="39" t="s">
+        <v>403</v>
+      </c>
+      <c r="L149" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="150" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B150" s="14"/>
+      <c r="C150" s="10">
+        <v>43583</v>
+      </c>
+      <c r="D150" t="s">
+        <v>107</v>
+      </c>
+      <c r="E150" t="s">
+        <v>297</v>
+      </c>
+      <c r="F150" s="34" t="s">
+        <v>402</v>
+      </c>
+      <c r="G150" s="9">
+        <v>1</v>
+      </c>
+      <c r="H150" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I150" t="s">
+        <v>42</v>
+      </c>
+      <c r="J150" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K150" s="39" t="s">
+        <v>404</v>
+      </c>
+      <c r="L150" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="151" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B151" s="14"/>
+      <c r="C151" s="10">
+        <v>43583</v>
+      </c>
+      <c r="D151" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="E151" s="40" t="s">
+        <v>199</v>
+      </c>
+      <c r="F151" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="G151" s="9">
+        <v>1</v>
+      </c>
+      <c r="H151" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I151" s="40" t="s">
+        <v>200</v>
+      </c>
+      <c r="J151" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K151" s="43" t="s">
+        <v>352</v>
+      </c>
+      <c r="L151" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="152" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B152" s="14"/>
+      <c r="C152" s="10">
+        <v>43583</v>
+      </c>
+      <c r="D152" t="s">
+        <v>405</v>
+      </c>
+      <c r="E152" t="s">
+        <v>406</v>
+      </c>
+      <c r="F152" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="G152" s="9">
+        <v>1</v>
+      </c>
+      <c r="H152" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I152" t="s">
+        <v>30</v>
+      </c>
+      <c r="J152" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="K152" s="39" t="s">
+        <v>407</v>
+      </c>
+      <c r="L152" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="153" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B153" s="14"/>
+      <c r="C153" s="10">
+        <v>43583</v>
+      </c>
+      <c r="D153" t="s">
+        <v>154</v>
+      </c>
+      <c r="E153" t="s">
+        <v>155</v>
+      </c>
+      <c r="F153" s="34" t="s">
+        <v>408</v>
+      </c>
+      <c r="G153" s="9">
+        <v>1</v>
+      </c>
+      <c r="H153" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I153" t="s">
+        <v>37</v>
+      </c>
+      <c r="J153" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="K153" s="39" t="s">
+        <v>409</v>
+      </c>
+      <c r="L153" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="154" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B154" s="14"/>
+      <c r="C154" s="10">
+        <v>43583</v>
+      </c>
+      <c r="D154" t="s">
+        <v>395</v>
+      </c>
+      <c r="E154" t="s">
+        <v>396</v>
+      </c>
+      <c r="F154" s="34" t="s">
+        <v>194</v>
+      </c>
+      <c r="G154" s="9">
+        <v>1</v>
+      </c>
+      <c r="H154" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I154" t="s">
+        <v>37</v>
+      </c>
+      <c r="J154" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="K154" s="39" t="s">
+        <v>397</v>
+      </c>
+      <c r="L154" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="155" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B155" s="14"/>
+      <c r="C155" s="10">
+        <v>43583</v>
+      </c>
+      <c r="D155" t="s">
+        <v>410</v>
+      </c>
+      <c r="E155" t="s">
+        <v>410</v>
+      </c>
+      <c r="F155" s="34" t="s">
+        <v>411</v>
+      </c>
+      <c r="G155" s="9">
+        <v>1</v>
+      </c>
+      <c r="H155" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I155" t="s">
+        <v>20</v>
+      </c>
+      <c r="J155" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="K155" s="39" t="s">
+        <v>412</v>
+      </c>
+      <c r="L155" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="156" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B156" s="14"/>
+      <c r="C156" s="10">
+        <v>43583</v>
+      </c>
+      <c r="D156" t="s">
+        <v>154</v>
+      </c>
+      <c r="E156" t="s">
+        <v>413</v>
+      </c>
+      <c r="F156" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="G156" s="9">
+        <v>1</v>
+      </c>
+      <c r="H156" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I156" t="s">
+        <v>37</v>
+      </c>
+      <c r="J156" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="K156" s="39" t="s">
+        <v>414</v>
+      </c>
+      <c r="L156" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="157" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B157" s="14"/>
+      <c r="C157" s="22"/>
+      <c r="D157"/>
+      <c r="E157"/>
+      <c r="F157" s="34"/>
+      <c r="G157" s="9"/>
+      <c r="H157" s="9"/>
+      <c r="I157"/>
+      <c r="J157" s="9"/>
+      <c r="K157" s="39"/>
+      <c r="L157" s="9"/>
+    </row>
+    <row r="158" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B158" s="14"/>
+      <c r="C158" s="22"/>
+      <c r="D158"/>
+      <c r="E158"/>
+      <c r="F158" s="34"/>
+      <c r="G158" s="9"/>
+      <c r="H158" s="9"/>
+      <c r="I158"/>
+      <c r="J158" s="9"/>
+      <c r="K158" s="39"/>
+      <c r="L158" s="9"/>
+    </row>
+    <row r="159" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B159" s="14"/>
+      <c r="C159" s="22"/>
+      <c r="D159"/>
+      <c r="E159"/>
+      <c r="F159" s="34"/>
+      <c r="G159" s="9"/>
+      <c r="H159" s="9"/>
+      <c r="I159"/>
+      <c r="J159" s="9"/>
+      <c r="K159" s="39"/>
+      <c r="L159" s="9"/>
+    </row>
+    <row r="160" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B160" s="14"/>
+      <c r="C160" s="22"/>
+      <c r="D160"/>
+      <c r="E160"/>
+      <c r="F160" s="34"/>
+      <c r="G160" s="9"/>
+      <c r="H160" s="9"/>
+      <c r="I160"/>
+      <c r="J160" s="9"/>
+      <c r="K160" s="39"/>
+      <c r="L160" s="9"/>
+    </row>
+    <row r="161" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B161" s="14"/>
+      <c r="C161" s="22"/>
+      <c r="D161"/>
+      <c r="E161"/>
+      <c r="F161" s="34"/>
+      <c r="G161" s="9"/>
+      <c r="H161" s="9"/>
+      <c r="I161"/>
+      <c r="J161" s="9"/>
+      <c r="K161" s="39"/>
+      <c r="L161" s="9"/>
+    </row>
+    <row r="162" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B162" s="14"/>
+      <c r="C162" s="22"/>
+      <c r="D162"/>
+      <c r="E162"/>
+      <c r="F162" s="34"/>
+      <c r="G162" s="9"/>
+      <c r="H162" s="9"/>
+      <c r="I162"/>
+      <c r="J162" s="9"/>
+      <c r="K162" s="39"/>
+      <c r="L162" s="9"/>
+    </row>
+    <row r="163" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B163" s="14"/>
+      <c r="C163" s="22"/>
+      <c r="D163"/>
+      <c r="E163"/>
+      <c r="F163" s="34"/>
+      <c r="G163" s="9"/>
+      <c r="H163" s="9"/>
+      <c r="I163"/>
+      <c r="J163" s="9"/>
+      <c r="K163" s="39"/>
+      <c r="L163" s="9"/>
+    </row>
+    <row r="164" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B164" s="14"/>
+      <c r="C164" s="22"/>
+      <c r="D164"/>
+      <c r="E164"/>
+      <c r="F164" s="34"/>
+      <c r="G164" s="9"/>
+      <c r="H164" s="9"/>
+      <c r="I164"/>
+      <c r="J164" s="9"/>
+      <c r="K164" s="39"/>
+      <c r="L164" s="9"/>
+    </row>
+    <row r="165" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B165" s="14"/>
+      <c r="C165" s="22"/>
+      <c r="D165"/>
+      <c r="E165"/>
+      <c r="F165" s="34"/>
+      <c r="G165" s="9"/>
+      <c r="H165" s="9"/>
+      <c r="I165"/>
+      <c r="J165" s="9"/>
+      <c r="K165" s="39"/>
+      <c r="L165" s="9"/>
+    </row>
+    <row r="166" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B166" s="14"/>
+      <c r="C166" s="22"/>
+      <c r="D166"/>
+      <c r="E166"/>
+      <c r="F166" s="34"/>
+      <c r="G166" s="9"/>
+      <c r="H166" s="9"/>
+      <c r="I166"/>
+      <c r="J166" s="9"/>
+      <c r="K166" s="39"/>
+      <c r="L166" s="9"/>
+    </row>
+    <row r="167" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B167" s="14"/>
+      <c r="C167" s="22"/>
+      <c r="D167" s="41"/>
+      <c r="E167" s="40"/>
+      <c r="F167" s="34"/>
+      <c r="G167" s="9"/>
+      <c r="H167" s="9"/>
+      <c r="I167" s="40"/>
+      <c r="J167" s="9"/>
+      <c r="K167" s="43"/>
+      <c r="L167" s="9"/>
+    </row>
+    <row r="168" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B168" s="14"/>
+      <c r="C168" s="22"/>
+      <c r="D168" s="41"/>
+      <c r="E168" s="40"/>
+      <c r="F168" s="34"/>
+      <c r="G168" s="9"/>
+      <c r="H168" s="9"/>
+      <c r="I168" s="40"/>
+      <c r="J168" s="9"/>
+      <c r="K168" s="43"/>
+      <c r="L168" s="9"/>
+    </row>
+    <row r="169" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B169" s="14"/>
+      <c r="C169" s="22"/>
+      <c r="D169" s="41"/>
+      <c r="E169" s="40"/>
+      <c r="F169" s="34"/>
+      <c r="G169" s="9"/>
+      <c r="H169" s="9"/>
+      <c r="I169" s="40"/>
+      <c r="J169" s="9"/>
+      <c r="K169" s="43"/>
+      <c r="L169" s="9"/>
+    </row>
+    <row r="170" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B170" s="14"/>
+      <c r="C170" s="22"/>
+      <c r="D170" s="21"/>
+      <c r="E170" s="21"/>
+      <c r="F170" s="34"/>
+      <c r="G170" s="9"/>
+      <c r="H170" s="9"/>
+      <c r="I170" s="21"/>
+      <c r="J170" s="9"/>
+      <c r="K170" s="21"/>
+      <c r="L170" s="9"/>
+    </row>
+    <row r="171" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B171" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="C138" s="44"/>
-      <c r="D138" s="23"/>
-      <c r="E138" s="23"/>
-      <c r="F138" s="24"/>
-      <c r="G138" s="24">
+      <c r="C171" s="50"/>
+      <c r="D171" s="23"/>
+      <c r="E171" s="23"/>
+      <c r="F171" s="24"/>
+      <c r="G171" s="24">
         <f>SUM(G3:G29)</f>
         <v>33</v>
       </c>
-      <c r="H138" s="24"/>
-      <c r="I138" s="24"/>
-      <c r="J138" s="9"/>
-      <c r="K138" s="30"/>
-      <c r="L138" s="9"/>
-    </row>
-    <row r="140" spans="2:12" ht="75" customHeight="1">
-      <c r="B140" s="45"/>
-      <c r="C140" s="46"/>
-      <c r="D140" s="46"/>
-      <c r="E140" s="46"/>
-      <c r="F140" s="46"/>
-      <c r="G140" s="46"/>
-      <c r="H140" s="46"/>
-      <c r="I140" s="46"/>
-      <c r="J140" s="47"/>
-      <c r="K140" s="31"/>
-      <c r="L140" s="32"/>
+      <c r="H171" s="24"/>
+      <c r="I171" s="24"/>
+      <c r="J171" s="9"/>
+      <c r="K171" s="30"/>
+      <c r="L171" s="9"/>
+    </row>
+    <row r="173" spans="2:12" ht="75" customHeight="1">
+      <c r="B173" s="51"/>
+      <c r="C173" s="52"/>
+      <c r="D173" s="52"/>
+      <c r="E173" s="52"/>
+      <c r="F173" s="52"/>
+      <c r="G173" s="52"/>
+      <c r="H173" s="52"/>
+      <c r="I173" s="52"/>
+      <c r="J173" s="53"/>
+      <c r="K173" s="31"/>
+      <c r="L173" s="32"/>
     </row>
   </sheetData>
-  <autoFilter ref="C2:L138"/>
+  <autoFilter ref="C2:L171"/>
   <sortState ref="B3:I41">
     <sortCondition ref="B3"/>
   </sortState>
   <mergeCells count="4">
     <mergeCell ref="C1:J1"/>
     <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="B138:C138"/>
-    <mergeCell ref="B140:J140"/>
+    <mergeCell ref="B171:C171"/>
+    <mergeCell ref="B173:J173"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J138">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J171">
       <formula1>"H5页面制作,页面跳转修改,页面修改,H5整站制作,PC制作&amp;折成3个H5页面"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J137">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J170">
       <formula1>"H5页面制作,页面跳转修改,页面修改,H5整站制作,PC制作&amp;折成3个H5页面,跳转设置,摘包"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6213,9 +7909,43 @@
     <hyperlink ref="K109" r:id="rId93"/>
     <hyperlink ref="K110" r:id="rId94"/>
     <hyperlink ref="K111" r:id="rId95"/>
+    <hyperlink ref="K112" r:id="rId96"/>
+    <hyperlink ref="K114" r:id="rId97"/>
+    <hyperlink ref="K115" r:id="rId98"/>
+    <hyperlink ref="K116" r:id="rId99"/>
+    <hyperlink ref="K117" r:id="rId100"/>
+    <hyperlink ref="K118" r:id="rId101"/>
+    <hyperlink ref="K119" r:id="rId102"/>
+    <hyperlink ref="K120" r:id="rId103"/>
+    <hyperlink ref="K122" r:id="rId104"/>
+    <hyperlink ref="K123" r:id="rId105"/>
+    <hyperlink ref="K124" r:id="rId106"/>
+    <hyperlink ref="K125" r:id="rId107"/>
+    <hyperlink ref="K126" r:id="rId108"/>
+    <hyperlink ref="K127" r:id="rId109"/>
+    <hyperlink ref="K129" r:id="rId110"/>
+    <hyperlink ref="K130" r:id="rId111"/>
+    <hyperlink ref="K131" r:id="rId112"/>
+    <hyperlink ref="K132" r:id="rId113" display="https://www.xhbup.com/nfzb/"/>
+    <hyperlink ref="K134" r:id="rId114"/>
+    <hyperlink ref="K139" r:id="rId115"/>
+    <hyperlink ref="K142" r:id="rId116"/>
+    <hyperlink ref="K143" r:id="rId117"/>
+    <hyperlink ref="K145" r:id="rId118"/>
+    <hyperlink ref="K146" r:id="rId119"/>
+    <hyperlink ref="K147" r:id="rId120"/>
+    <hyperlink ref="K148" r:id="rId121"/>
+    <hyperlink ref="K149" r:id="rId122"/>
+    <hyperlink ref="K150" r:id="rId123"/>
+    <hyperlink ref="K151" r:id="rId124"/>
+    <hyperlink ref="K152" r:id="rId125"/>
+    <hyperlink ref="K153" r:id="rId126"/>
+    <hyperlink ref="K154" r:id="rId127"/>
+    <hyperlink ref="K155" r:id="rId128"/>
+    <hyperlink ref="K156" r:id="rId129"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId96"/>
-  <drawing r:id="rId97"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId130"/>
+  <drawing r:id="rId131"/>
 </worksheet>
 </file>
--- a/业务线技术支持登记表格式.xlsx
+++ b/业务线技术支持登记表格式.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1251" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1299" uniqueCount="432">
   <si>
     <t>业务线支持登记表</t>
   </si>
@@ -1444,7 +1444,70 @@
     <t>惠州市美雨彤心贸易有限公司</t>
   </si>
   <si>
+    <t>https://xhbup.com/jiuhe3/
+https://xhbup.com/jiuhe4/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>广州合利宝支付科技有限公司（POS机）</t>
+  </si>
+  <si>
+    <t>银联</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
     <t>https://xhbup.com/mltx/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/helib/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>老户</t>
+  </si>
+  <si>
+    <t>匡企小额贷款（珠海）有限公司</t>
+  </si>
+  <si>
+    <t>贷款</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>四会市一研美容有限公司</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/yiyan/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/kqdk/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>减肥</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈华英</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>广州市白云区茜妃化妆品厂17</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/qianfei1/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>清远市安之然贸易有限公司</t>
+  </si>
+  <si>
+    <t>爱奇艺</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/anzhir/</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
@@ -2025,7 +2088,7 @@
         <xdr:cNvPr id="6" name="图片 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2037,7 +2100,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2350,10 +2413,10 @@
   <dimension ref="B1:Q173"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="F142" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="F145" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K156" sqref="K156"/>
+      <selection pane="bottomRight" activeCell="L161" sqref="L161:L162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -6743,7 +6806,7 @@
         <v>19</v>
       </c>
       <c r="I131" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="J131" s="9" t="s">
         <v>50</v>
@@ -7574,89 +7637,209 @@
         <v>50</v>
       </c>
       <c r="K156" s="39" t="s">
+        <v>417</v>
+      </c>
+      <c r="L156" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="157" spans="2:12" s="2" customFormat="1" ht="43.5" customHeight="1">
+      <c r="B157" s="14"/>
+      <c r="C157" s="10">
+        <v>43584</v>
+      </c>
+      <c r="D157" t="s">
+        <v>323</v>
+      </c>
+      <c r="E157" t="s">
+        <v>324</v>
+      </c>
+      <c r="F157" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="G157" s="9">
+        <v>2</v>
+      </c>
+      <c r="H157" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I157" t="s">
+        <v>37</v>
+      </c>
+      <c r="J157" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="K157" s="45" t="s">
         <v>414</v>
       </c>
-      <c r="L156" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="157" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B157" s="14"/>
-      <c r="C157" s="22"/>
-      <c r="D157"/>
-      <c r="E157"/>
-      <c r="F157" s="34"/>
-      <c r="G157" s="9"/>
-      <c r="H157" s="9"/>
-      <c r="I157"/>
-      <c r="J157" s="9"/>
-      <c r="K157" s="39"/>
-      <c r="L157" s="9"/>
+      <c r="L157" s="9" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="158" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B158" s="14"/>
-      <c r="C158" s="22"/>
-      <c r="D158"/>
-      <c r="E158"/>
-      <c r="F158" s="34"/>
-      <c r="G158" s="9"/>
-      <c r="H158" s="9"/>
-      <c r="I158"/>
-      <c r="J158" s="9"/>
-      <c r="K158" s="39"/>
-      <c r="L158" s="9"/>
+      <c r="C158" s="10">
+        <v>43584</v>
+      </c>
+      <c r="D158" t="s">
+        <v>415</v>
+      </c>
+      <c r="E158" t="s">
+        <v>415</v>
+      </c>
+      <c r="F158" s="34" t="s">
+        <v>416</v>
+      </c>
+      <c r="G158" s="9">
+        <v>1</v>
+      </c>
+      <c r="H158" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I158" t="s">
+        <v>20</v>
+      </c>
+      <c r="J158" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="K158" s="39" t="s">
+        <v>418</v>
+      </c>
+      <c r="L158" s="9" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="159" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B159" s="14"/>
-      <c r="C159" s="22"/>
-      <c r="D159"/>
-      <c r="E159"/>
-      <c r="F159" s="34"/>
-      <c r="G159" s="9"/>
-      <c r="H159" s="9"/>
-      <c r="I159"/>
-      <c r="J159" s="9"/>
-      <c r="K159" s="39"/>
-      <c r="L159" s="9"/>
+      <c r="C159" s="10">
+        <v>43584</v>
+      </c>
+      <c r="D159" t="s">
+        <v>419</v>
+      </c>
+      <c r="E159" t="s">
+        <v>420</v>
+      </c>
+      <c r="F159" s="34" t="s">
+        <v>421</v>
+      </c>
+      <c r="G159" s="9">
+        <v>1</v>
+      </c>
+      <c r="H159" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I159" t="s">
+        <v>37</v>
+      </c>
+      <c r="J159" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="K159" s="39" t="s">
+        <v>424</v>
+      </c>
+      <c r="L159" s="9" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="160" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B160" s="14"/>
-      <c r="C160" s="22"/>
-      <c r="D160"/>
-      <c r="E160"/>
-      <c r="F160" s="34"/>
-      <c r="G160" s="9"/>
-      <c r="H160" s="9"/>
-      <c r="I160"/>
-      <c r="J160" s="9"/>
-      <c r="K160" s="39"/>
-      <c r="L160" s="9"/>
+      <c r="C160" s="10">
+        <v>43584</v>
+      </c>
+      <c r="D160" t="s">
+        <v>107</v>
+      </c>
+      <c r="E160" t="s">
+        <v>422</v>
+      </c>
+      <c r="F160" s="34" t="s">
+        <v>425</v>
+      </c>
+      <c r="G160" s="9">
+        <v>1</v>
+      </c>
+      <c r="H160" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I160" t="s">
+        <v>58</v>
+      </c>
+      <c r="J160" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="K160" s="39" t="s">
+        <v>423</v>
+      </c>
+      <c r="L160" s="9" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="161" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B161" s="14"/>
-      <c r="C161" s="22"/>
-      <c r="D161"/>
-      <c r="E161"/>
-      <c r="F161" s="34"/>
-      <c r="G161" s="9"/>
-      <c r="H161" s="9"/>
-      <c r="I161"/>
-      <c r="J161" s="9"/>
-      <c r="K161" s="39"/>
-      <c r="L161" s="9"/>
+      <c r="C161" s="10">
+        <v>43584</v>
+      </c>
+      <c r="D161" t="s">
+        <v>426</v>
+      </c>
+      <c r="E161" t="s">
+        <v>427</v>
+      </c>
+      <c r="F161" s="34" t="s">
+        <v>156</v>
+      </c>
+      <c r="G161" s="9">
+        <v>1</v>
+      </c>
+      <c r="H161" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="I161" t="s">
+        <v>58</v>
+      </c>
+      <c r="J161" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="K161" s="39" t="s">
+        <v>428</v>
+      </c>
+      <c r="L161" s="9" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="162" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B162" s="14"/>
-      <c r="C162" s="22"/>
-      <c r="D162"/>
-      <c r="E162"/>
-      <c r="F162" s="34"/>
-      <c r="G162" s="9"/>
-      <c r="H162" s="9"/>
-      <c r="I162"/>
-      <c r="J162" s="9"/>
-      <c r="K162" s="39"/>
-      <c r="L162" s="9"/>
+      <c r="C162" s="10">
+        <v>43584</v>
+      </c>
+      <c r="D162" t="s">
+        <v>429</v>
+      </c>
+      <c r="E162" t="s">
+        <v>429</v>
+      </c>
+      <c r="F162" s="34" t="s">
+        <v>194</v>
+      </c>
+      <c r="G162" s="9">
+        <v>1</v>
+      </c>
+      <c r="H162" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="I162" t="s">
+        <v>58</v>
+      </c>
+      <c r="J162" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="K162" s="39" t="s">
+        <v>431</v>
+      </c>
+      <c r="L162" s="9" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="163" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B163" s="14"/>
@@ -7943,9 +8126,15 @@
     <hyperlink ref="K154" r:id="rId127"/>
     <hyperlink ref="K155" r:id="rId128"/>
     <hyperlink ref="K156" r:id="rId129"/>
+    <hyperlink ref="K157" r:id="rId130" display="https://xhbup.com/jiuhe1/"/>
+    <hyperlink ref="K158" r:id="rId131"/>
+    <hyperlink ref="K159" r:id="rId132"/>
+    <hyperlink ref="K160" r:id="rId133"/>
+    <hyperlink ref="K161" r:id="rId134"/>
+    <hyperlink ref="K162" r:id="rId135"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId130"/>
-  <drawing r:id="rId131"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId136"/>
+  <drawing r:id="rId137"/>
 </worksheet>
 </file>
--- a/业务线技术支持登记表格式.xlsx
+++ b/业务线技术支持登记表格式.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1299" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1315" uniqueCount="436">
   <si>
     <t>业务线支持登记表</t>
   </si>
@@ -1452,6 +1452,10 @@
     <t>广州合利宝支付科技有限公司（POS机）</t>
   </si>
   <si>
+    <t>pos机</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
     <t>银联</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
@@ -1509,6 +1513,16 @@
   <si>
     <t>https://xhbup.com/anzhir/</t>
     <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘉联支付有限公司广州分公司</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/jlzf3/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>李总</t>
   </si>
 </sst>
 </file>
@@ -2088,7 +2102,7 @@
         <xdr:cNvPr id="6" name="图片 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2100,7 +2114,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2413,10 +2427,10 @@
   <dimension ref="B1:Q173"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="F145" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="F154" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L161" sqref="L161:L162"/>
+      <selection pane="bottomRight" activeCell="J164" sqref="J164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -7637,7 +7651,7 @@
         <v>50</v>
       </c>
       <c r="K156" s="39" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="L156" s="9" t="s">
         <v>23</v>
@@ -7688,7 +7702,7 @@
         <v>415</v>
       </c>
       <c r="F158" s="34" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="G158" s="9">
         <v>1</v>
@@ -7703,7 +7717,7 @@
         <v>50</v>
       </c>
       <c r="K158" s="39" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="L158" s="9" t="s">
         <v>23</v>
@@ -7715,13 +7729,13 @@
         <v>43584</v>
       </c>
       <c r="D159" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E159" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="F159" s="34" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G159" s="9">
         <v>1</v>
@@ -7736,7 +7750,7 @@
         <v>50</v>
       </c>
       <c r="K159" s="39" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="L159" s="9" t="s">
         <v>23</v>
@@ -7751,10 +7765,10 @@
         <v>107</v>
       </c>
       <c r="E160" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="F160" s="34" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="G160" s="9">
         <v>1</v>
@@ -7769,7 +7783,7 @@
         <v>50</v>
       </c>
       <c r="K160" s="39" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="L160" s="9" t="s">
         <v>23</v>
@@ -7781,10 +7795,10 @@
         <v>43584</v>
       </c>
       <c r="D161" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="E161" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="F161" s="34" t="s">
         <v>156</v>
@@ -7793,7 +7807,7 @@
         <v>1</v>
       </c>
       <c r="H161" s="9" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="I161" t="s">
         <v>58</v>
@@ -7802,7 +7816,7 @@
         <v>50</v>
       </c>
       <c r="K161" s="39" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="L161" s="9" t="s">
         <v>23</v>
@@ -7814,10 +7828,10 @@
         <v>43584</v>
       </c>
       <c r="D162" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="E162" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="F162" s="34" t="s">
         <v>194</v>
@@ -7826,7 +7840,7 @@
         <v>1</v>
       </c>
       <c r="H162" s="9" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="I162" t="s">
         <v>58</v>
@@ -7835,7 +7849,7 @@
         <v>50</v>
       </c>
       <c r="K162" s="39" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="L162" s="9" t="s">
         <v>23</v>
@@ -7843,29 +7857,69 @@
     </row>
     <row r="163" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B163" s="14"/>
-      <c r="C163" s="22"/>
-      <c r="D163"/>
-      <c r="E163"/>
-      <c r="F163" s="34"/>
-      <c r="G163" s="9"/>
-      <c r="H163" s="9"/>
-      <c r="I163"/>
-      <c r="J163" s="9"/>
-      <c r="K163" s="39"/>
-      <c r="L163" s="9"/>
+      <c r="C163" s="10">
+        <v>43584</v>
+      </c>
+      <c r="D163" t="s">
+        <v>374</v>
+      </c>
+      <c r="E163" t="s">
+        <v>433</v>
+      </c>
+      <c r="F163" s="34" t="s">
+        <v>416</v>
+      </c>
+      <c r="G163" s="9">
+        <v>1</v>
+      </c>
+      <c r="H163" s="9" t="s">
+        <v>431</v>
+      </c>
+      <c r="I163" t="s">
+        <v>42</v>
+      </c>
+      <c r="J163" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="K163" s="39" t="s">
+        <v>434</v>
+      </c>
+      <c r="L163" s="9" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="164" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B164" s="14"/>
-      <c r="C164" s="22"/>
-      <c r="D164"/>
-      <c r="E164"/>
-      <c r="F164" s="34"/>
-      <c r="G164" s="9"/>
-      <c r="H164" s="9"/>
-      <c r="I164"/>
-      <c r="J164" s="9"/>
-      <c r="K164" s="39"/>
-      <c r="L164" s="9"/>
+      <c r="C164" s="10">
+        <v>43584</v>
+      </c>
+      <c r="D164" t="s">
+        <v>435</v>
+      </c>
+      <c r="E164" s="40" t="s">
+        <v>287</v>
+      </c>
+      <c r="F164" s="34" t="s">
+        <v>238</v>
+      </c>
+      <c r="G164" s="9">
+        <v>1</v>
+      </c>
+      <c r="H164" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I164" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="J164" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K164" s="39" t="s">
+        <v>289</v>
+      </c>
+      <c r="L164" s="9" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="165" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B165" s="14"/>
@@ -8132,9 +8186,11 @@
     <hyperlink ref="K160" r:id="rId133"/>
     <hyperlink ref="K161" r:id="rId134"/>
     <hyperlink ref="K162" r:id="rId135"/>
+    <hyperlink ref="K163" r:id="rId136"/>
+    <hyperlink ref="K164" r:id="rId137"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId136"/>
-  <drawing r:id="rId137"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId138"/>
+  <drawing r:id="rId139"/>
 </worksheet>
 </file>
--- a/业务线技术支持登记表格式.xlsx
+++ b/业务线技术支持登记表格式.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1315" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1323" uniqueCount="439">
   <si>
     <t>业务线支持登记表</t>
   </si>
@@ -1523,6 +1523,18 @@
   </si>
   <si>
     <t>李总</t>
+  </si>
+  <si>
+    <t>减肥</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>佛山市晳美化妆品有限公司</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.xhbup.com/ximei/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2430,7 +2442,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="F154" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J164" sqref="J164"/>
+      <selection pane="bottomRight" activeCell="J167" sqref="J167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -7923,16 +7935,36 @@
     </row>
     <row r="165" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B165" s="14"/>
-      <c r="C165" s="22"/>
-      <c r="D165"/>
-      <c r="E165"/>
-      <c r="F165" s="34"/>
-      <c r="G165" s="9"/>
-      <c r="H165" s="9"/>
-      <c r="I165"/>
-      <c r="J165" s="9"/>
-      <c r="K165" s="39"/>
-      <c r="L165" s="9"/>
+      <c r="C165" s="10">
+        <v>43584</v>
+      </c>
+      <c r="D165" t="s">
+        <v>235</v>
+      </c>
+      <c r="E165" t="s">
+        <v>437</v>
+      </c>
+      <c r="F165" s="34" t="s">
+        <v>436</v>
+      </c>
+      <c r="G165" s="9">
+        <v>1</v>
+      </c>
+      <c r="H165" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I165" t="s">
+        <v>26</v>
+      </c>
+      <c r="J165" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K165" s="39" t="s">
+        <v>438</v>
+      </c>
+      <c r="L165" s="9" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="166" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B166" s="14"/>
@@ -8188,9 +8220,10 @@
     <hyperlink ref="K162" r:id="rId135"/>
     <hyperlink ref="K163" r:id="rId136"/>
     <hyperlink ref="K164" r:id="rId137"/>
+    <hyperlink ref="K165" r:id="rId138"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId138"/>
-  <drawing r:id="rId139"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId139"/>
+  <drawing r:id="rId140"/>
 </worksheet>
 </file>
--- a/业务线技术支持登记表格式.xlsx
+++ b/业务线技术支持登记表格式.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$2:$L$171</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$2:$L$176</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1323" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1347" uniqueCount="438">
   <si>
     <t>业务线支持登记表</t>
   </si>
@@ -445,46 +445,727 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
+    <t>陈建豪</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>浙江胜握信息科技有限公司</t>
+  </si>
+  <si>
+    <t>惠州市互慧互联网络科技有限公司</t>
+  </si>
+  <si>
+    <t>胜握阅读</t>
+  </si>
+  <si>
+    <t>张杰</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>雀斑</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱泽亮</t>
+  </si>
+  <si>
+    <t>九江致尚化妆品有限公司</t>
+  </si>
+  <si>
+    <t>减肥</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>皮肤</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>张立</t>
+  </si>
+  <si>
+    <t>中山市爱菈美肌美容有限公司</t>
+  </si>
+  <si>
+    <t>祛斑</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>广州善林进出口有限责任公司</t>
+  </si>
+  <si>
+    <t>痘印</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>广州市天尚信息技术有限公司</t>
+  </si>
+  <si>
+    <t>西柚阅读</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>易联支付有限公司</t>
+  </si>
+  <si>
+    <t>银联</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>何丰腾</t>
+  </si>
+  <si>
+    <t>广州市汇聚支付电子科技有限公司</t>
+  </si>
+  <si>
+    <t>朱鹏程</t>
+  </si>
+  <si>
+    <t>韶关市悦和贸易有限公司</t>
+  </si>
+  <si>
+    <t>平胸</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>清远市缤纷时代商贸有限公司</t>
+  </si>
+  <si>
+    <t>广州正和药业连锁有限公司</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/zhyy/</t>
+  </si>
+  <si>
+    <t>催铭泉</t>
+  </si>
+  <si>
+    <t>广州礼顺堂医药科技有限公司</t>
+  </si>
+  <si>
+    <t>执象广告（上海）有限公司</t>
+  </si>
+  <si>
+    <t>广州市花都万穗小额贷款股份有限公司</t>
+  </si>
+  <si>
+    <t>贷款</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>阳春市七众网络科技有限公司</t>
+  </si>
+  <si>
+    <t>阅读</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>祛斑</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>执象(上海)有限公司</t>
+  </si>
+  <si>
+    <t>佛山市雷米高动物营养保健科技有限公司</t>
+  </si>
+  <si>
+    <t>犬粮</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>张纯</t>
+  </si>
+  <si>
+    <t>珠海熙岚春天化妆品有限公司</t>
+  </si>
+  <si>
+    <t>珠海市鑫瀚生物科技有限公司</t>
+  </si>
+  <si>
+    <t>祛斑</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>肇庆深度日用化妆品有限公司</t>
+  </si>
+  <si>
+    <t>东莞市兰姿化妆品有限公司</t>
+  </si>
+  <si>
+    <t>丰胸</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.xhbup.com/lefeng1/</t>
+  </si>
+  <si>
+    <t>广州瓷妆化妆品有限公司 </t>
+  </si>
+  <si>
+    <t>汕尾市康思诺贸易有限公司</t>
+  </si>
+  <si>
+    <t>陈志宇 </t>
+  </si>
+  <si>
+    <t>陈梦</t>
+  </si>
+  <si>
+    <t>广东乐婷化妆品实业有限公司（乐婷298页面）</t>
+  </si>
+  <si>
+    <t>韩美肌</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳转设置</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>东莞市康倪化妆品有限公司（298页面）</t>
+  </si>
+  <si>
+    <t>广东乐婷化妆品实业有限公司（乐婷198页面）</t>
+  </si>
+  <si>
+    <t>朱涛</t>
+  </si>
+  <si>
+    <t>广州市欧佩化妆品有限公司</t>
+  </si>
+  <si>
+    <t>碧素堂</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐运河</t>
+  </si>
+  <si>
+    <t>东莞市可丽化妆品贸易有限公司</t>
+  </si>
+  <si>
+    <t>减肥</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.xhbup.com/klhzp3</t>
+  </si>
+  <si>
+    <t>钟史尧</t>
+  </si>
+  <si>
+    <t>张总</t>
+  </si>
+  <si>
+    <t>东莞市清溪蜂缘蜂蜜店</t>
+  </si>
+  <si>
+    <t>蜂蜜</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>美容</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/zhishang1/</t>
+  </si>
+  <si>
+    <t>刘建平</t>
+  </si>
+  <si>
+    <t>佛山市港亿贸易有限公司</t>
+  </si>
+  <si>
+    <t>肌肤</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>好享瘦</t>
+  </si>
+  <si>
+    <t>揭阳市天元日用品有限公司</t>
+  </si>
+  <si>
+    <t>减肥</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>丰满</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.xhbup.com/lanzi/</t>
+  </si>
+  <si>
+    <t>东莞市瑞梦鞋业有限公司</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲁巴哥</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>减肥</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>陆丰市万格维贸易有限公司 </t>
+  </si>
+  <si>
+    <t>狐臭</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>恒坚</t>
+  </si>
+  <si>
+    <t>江门市鑫兰商贸有限公司</t>
+  </si>
+  <si>
+    <t>胸部</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>大白鸽</t>
+  </si>
+  <si>
+    <t>惠州市雅洁化妆品有限公司</t>
+  </si>
+  <si>
+    <t>减肥</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>广东惠芯健康科技有限公司</t>
+  </si>
+  <si>
+    <t>护理</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>汕尾市诚捷贸易有限公司</t>
+  </si>
+  <si>
+    <t>页面包</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>摘包</t>
+  </si>
+  <si>
+    <t>https://www.xhbup.com/zip-demo/index.zip</t>
+  </si>
+  <si>
+    <t>玻尿酸</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/leting2/</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/leting1/</t>
+  </si>
+  <si>
+    <t>广东乐婷化妆品实业有限公司（乐婷199页面）</t>
+  </si>
+  <si>
+    <t>小白鸽</t>
+  </si>
+  <si>
+    <t>广东丹匠化妆品有限公司</t>
+  </si>
+  <si>
+    <t>https://www.xhbup.com/kehong1/</t>
+  </si>
+  <si>
+    <t>武汉飓风</t>
+  </si>
+  <si>
+    <t>丰胸</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>小艾</t>
+  </si>
+  <si>
+    <t>清远市艾米时尚美容美发有限公司</t>
+  </si>
+  <si>
+    <t>淡斑</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>韶关雯斯特商贸有限公司</t>
+  </si>
+  <si>
+    <t>新客户</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>英德市芊朵化妆品有限公司</t>
+  </si>
+  <si>
+    <t>大宝</t>
+  </si>
+  <si>
+    <t>广州雪暴电子科技有限公司</t>
+  </si>
+  <si>
+    <t>口红</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>瘦身</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>台山市索达日用化妆品有限公司</t>
+  </si>
+  <si>
+    <t>杭州微起点文化传播有限公司</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>广东猴强大互联网科技有限公司</t>
+  </si>
+  <si>
+    <t>小说</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉飓风</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/zhimei/</t>
+  </si>
+  <si>
+    <t>珠海黛芙莱化妆品有限公司</t>
+  </si>
+  <si>
+    <t>跳转设置</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>何丰腾</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>中白鸽</t>
+  </si>
+  <si>
+    <t>广州九合国际生物科技有限公司</t>
+  </si>
+  <si>
+    <t>创业</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>小小白鸽</t>
+  </si>
+  <si>
+    <t>江门市蓬江区竹田美容管理有限公司</t>
+  </si>
+  <si>
+    <t>丰胸</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>曾玉琼</t>
+  </si>
+  <si>
+    <t>揭阳市好购多贸易有限公司</t>
+  </si>
+  <si>
+    <t>美白</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>广东郑明明化妆品科技有限公司</t>
+  </si>
+  <si>
+    <t>https://www.xhbup.com/kuige/</t>
+  </si>
+  <si>
+    <t>陈杜灵</t>
+  </si>
+  <si>
+    <t>唯伊商贸(云浮郁南县)有限公司</t>
+  </si>
+  <si>
+    <t>陆丰市王一米贸易有限公司</t>
+  </si>
+  <si>
+    <t>减肥</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>姚芳</t>
+  </si>
+  <si>
+    <t>大大白鸽</t>
+  </si>
+  <si>
+    <t>九江爱尚美化妆品有限公司</t>
+  </si>
+  <si>
+    <t>洁面乳</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>西安诚优</t>
+  </si>
+  <si>
+    <t>广州优阅网络科技有限公司</t>
+  </si>
+  <si>
+    <t>小说</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>小中鸽</t>
+  </si>
+  <si>
+    <t>丰胸</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>浙江荣军印业有限公司</t>
+  </si>
+  <si>
+    <t>广州亿奇创绘商务服务有限公司 </t>
+  </si>
+  <si>
+    <t>视频</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>小说</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>长沙吉米</t>
+  </si>
+  <si>
+    <t>广州市白云区茜妃化妆品厂11  </t>
+  </si>
+  <si>
+    <t>北京卓泰</t>
+  </si>
+  <si>
+    <t>广东南方直播传媒有限公司</t>
+  </si>
+  <si>
+    <t>app</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.xhbup.com/lanzi3/</t>
+  </si>
+  <si>
+    <t>https://www.xhbup.com/lanzi2/</t>
+  </si>
+  <si>
+    <t>郑州鑫恒信息技术有限公司</t>
+  </si>
+  <si>
+    <t>嘉联支付有限公司广州分公司</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>pos机</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/oupei2/</t>
+  </si>
+  <si>
+    <t>广东乐婷化妆品实业有限公司</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>中山市乐道信息技术有限公司</t>
+  </si>
+  <si>
+    <t>小说</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/ledao/</t>
+  </si>
+  <si>
+    <t>佛山市梦家园美容有限公司</t>
+  </si>
+  <si>
+    <t>祛斑</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>创业</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇牛</t>
+  </si>
+  <si>
+    <t xml:space="preserve">景德镇市宝儿优购化妆品有限公司 </t>
+  </si>
+  <si>
+    <t>飓风</t>
+  </si>
+  <si>
+    <t>河源市壹柒美容服务有限公司</t>
+  </si>
+  <si>
+    <t>哦呀呀</t>
+  </si>
+  <si>
+    <t>潮州市安娜丝化妆品有限公司</t>
+  </si>
+  <si>
+    <t>杭州多义乐网络科技有限公司</t>
+  </si>
+  <si>
+    <t>广州奇盛信息技术服务有限公司</t>
+  </si>
+  <si>
+    <t>小说</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>丰胸</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>李霖泉</t>
+  </si>
+  <si>
+    <t>东莞市顺势互联网科技有限公司</t>
+  </si>
+  <si>
+    <t>祛斑</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿瘦健康产业集团有限公司</t>
+  </si>
+  <si>
+    <t>减肥</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>惠州市美雨彤心贸易有限公司</t>
+  </si>
+  <si>
+    <t>广州合利宝支付科技有限公司（POS机）</t>
+  </si>
+  <si>
+    <t>pos机</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>银联</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>老户</t>
+  </si>
+  <si>
+    <t>匡企小额贷款（珠海）有限公司</t>
+  </si>
+  <si>
+    <t>贷款</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>四会市一研美容有限公司</t>
+  </si>
+  <si>
+    <t>减肥</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈华英</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>广州市白云区茜妃化妆品厂17</t>
+  </si>
+  <si>
+    <t>清远市安之然贸易有限公司</t>
+  </si>
+  <si>
+    <t>爱奇艺</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘉联支付有限公司广州分公司</t>
+  </si>
+  <si>
+    <t>李总</t>
+  </si>
+  <si>
+    <t>减肥</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>佛山市晳美化妆品有限公司</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>大白</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.xhbup.com/jiuhe2/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/sgxcmy/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/mizhua1/
+https://xhbup.com/mizhua2/
+https://xhbup.com/mizhua3/
+https://xhbup.com/mizhua4/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.xhbup.com/lefeng/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/zhimei/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/hylys/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/sxhzp/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
     <t>https://xhbup.com/qudou/</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>陈建豪</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>浙江胜握信息科技有限公司</t>
-  </si>
-  <si>
-    <t>惠州市互慧互联网络科技有限公司</t>
-  </si>
-  <si>
-    <t>胜握阅读</t>
-  </si>
-  <si>
     <t>https://xhbup.com/shengwo/</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>张杰</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>雀斑</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>朱泽亮</t>
-  </si>
-  <si>
-    <t>九江致尚化妆品有限公司</t>
-  </si>
-  <si>
-    <t>减肥</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>皮肤</t>
+    <t>https://xhbup.com/danke/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/zhishang/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/zhishang1/</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
@@ -492,20 +1173,7 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>张立</t>
-  </si>
-  <si>
-    <t>中山市爱菈美肌美容有限公司</t>
-  </si>
-  <si>
-    <t>祛斑</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>广州善林进出口有限责任公司</t>
-  </si>
-  <si>
-    <t>痘印</t>
+    <t>https://xhbup.com/quban4/</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
@@ -513,17 +1181,15 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>广州市天尚信息技术有限公司</t>
-  </si>
-  <si>
-    <t>西柚阅读</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>易联支付有限公司</t>
-  </si>
-  <si>
-    <t>银联</t>
+    <t>https://xhbup.com/xiyou/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/qb/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/kehong/</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
@@ -531,49 +1197,20 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>何丰腾</t>
-  </si>
-  <si>
-    <t>广州市汇聚支付电子科技有限公司</t>
-  </si>
-  <si>
     <t>https://xhbup.com/huiju/</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>朱鹏程</t>
-  </si>
-  <si>
-    <t>韶关市悦和贸易有限公司</t>
-  </si>
-  <si>
-    <t>平胸</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>清远市缤纷时代商贸有限公司</t>
+    <t>https://xhbup.com/yuehe/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>https://xhbup.com/bfsd/</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>广州正和药业连锁有限公司</t>
-  </si>
-  <si>
-    <t>https://xhbup.com/zhyy/</t>
-  </si>
-  <si>
-    <t>催铭泉</t>
-  </si>
-  <si>
-    <t>广州礼顺堂医药科技有限公司</t>
-  </si>
-  <si>
-    <t>执象广告（上海）有限公司</t>
-  </si>
-  <si>
-    <t>广州市花都万穗小额贷款股份有限公司</t>
+    <t>https://xhbup.com/gzlstyy/tg/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>https://xhbup.com/hdws1/
@@ -589,28 +1226,7 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>贷款</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>阳春市七众网络科技有限公司</t>
-  </si>
-  <si>
-    <t>阅读</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>祛斑</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>执象(上海)有限公司</t>
-  </si>
-  <si>
-    <t>佛山市雷米高动物营养保健科技有限公司</t>
-  </si>
-  <si>
-    <t>犬粮</t>
+    <t>https://xhbup.com/qizhong/</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
@@ -618,26 +1234,15 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>张纯</t>
-  </si>
-  <si>
-    <t>珠海熙岚春天化妆品有限公司</t>
-  </si>
-  <si>
-    <t>珠海市鑫瀚生物科技有限公司</t>
-  </si>
-  <si>
-    <t>祛斑</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>肇庆深度日用化妆品有限公司</t>
-  </si>
-  <si>
-    <t>东莞市兰姿化妆品有限公司</t>
-  </si>
-  <si>
-    <t>丰胸</t>
+    <t>https://www.xhbup.com/leimigao/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/xilan/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/xinhan/</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
@@ -645,37 +1250,15 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>https://xhbup.com/zhimei/</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.xhbup.com/lefeng1/</t>
-  </si>
-  <si>
-    <t>广州瓷妆化妆品有限公司 </t>
-  </si>
-  <si>
-    <t>汕尾市康思诺贸易有限公司</t>
-  </si>
-  <si>
-    <t>陈志宇 </t>
+    <t>https://www.xhbup.com/lanzi1/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>https://xhbup.com/swksn/</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>陈梦</t>
-  </si>
-  <si>
-    <t>广东乐婷化妆品实业有限公司（乐婷298页面）</t>
-  </si>
-  <si>
-    <t>韩美肌</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>跳转设置</t>
+    <t>https://xhbup.com/leting/</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
@@ -683,53 +1266,15 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>东莞市康倪化妆品有限公司（298页面）</t>
-  </si>
-  <si>
-    <t>广东乐婷化妆品实业有限公司（乐婷198页面）</t>
-  </si>
-  <si>
     <t>https://xhbup.com/leting2/</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>朱涛</t>
-  </si>
-  <si>
-    <t>广州市欧佩化妆品有限公司</t>
-  </si>
-  <si>
-    <t>碧素堂</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>徐运河</t>
-  </si>
-  <si>
-    <t>东莞市可丽化妆品贸易有限公司</t>
-  </si>
-  <si>
-    <t>减肥</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.xhbup.com/klhzp3</t>
-  </si>
-  <si>
-    <t>钟史尧</t>
-  </si>
-  <si>
-    <t>张总</t>
-  </si>
-  <si>
-    <t>东莞市清溪蜂缘蜂蜜店</t>
-  </si>
-  <si>
-    <t>蜂蜜</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>美容</t>
+    <t>https://xhbup.com/oupei/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.xhbup.com/qingfengy/</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
@@ -737,73 +1282,15 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.xhbup.com/qingfengy/</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://xhbup.com/zhishang1/</t>
-  </si>
-  <si>
-    <t>https://xhbup.com/sgxcmy/</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.xhbup.com/lanzi1/</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://xhbup.com/xilan/</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://xhbup.com/quban4/</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://xhbup.com/zhishang/</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://xhbup.com/hylys/</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.xhbup.com/lefeng/</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘建平</t>
-  </si>
-  <si>
-    <t>佛山市港亿贸易有限公司</t>
-  </si>
-  <si>
-    <t>肌肤</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>好享瘦</t>
-  </si>
-  <si>
-    <t>揭阳市天元日用品有限公司</t>
-  </si>
-  <si>
-    <t>减肥</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>丰满</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.xhbup.com/lanzi/</t>
-  </si>
-  <si>
-    <t>东莞市瑞梦鞋业有限公司</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>鲁巴哥</t>
+    <t>https://xhbup.com/gangyi/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/yinxiuer/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/tianyuan/</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
@@ -811,54 +1298,222 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>减肥</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>陆丰市万格维贸易有限公司 </t>
-  </si>
-  <si>
-    <t>https://xhbup.com/sxhzp/</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://xhbup.com/danke/</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://xhbup.com/zhishang1/</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://xhbup.com/xiyou/</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://xhbup.com/qb/</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://xhbup.com/kehong/</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://xhbup.com/yuehe/</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://xhbup.com/gzlstyy/tg/</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://xhbup.com/qizhong/</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.xhbup.com/leimigao/</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://xhbup.com/xinhan/</t>
+    <t>https://www.xhbup.com/wanggew/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.xhbup.com/ylzf2/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.xhbup.com/ylzf3/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.xhbup.com/kuige/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.xhbup.com/xinlan/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.xhbup.com/yajie/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.xhbup.com/huixin/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.xhbup.com/oupei1/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.xhbup.com/danjiang/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/aimi/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/wensite/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/qianduo/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/xuebao/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/zhishang2/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/suoda/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/xuebao1/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/houqiangd/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/oupei01/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/daiful/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/huiju1/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/jiuhe/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/qingfengy1/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/zhutian/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/haogoud/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/zhengmingm/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.xhbup.com/weiyi/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.xhbup.com/wangyim/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.xhbup.com/aishang/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/youyue/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.xhbup.com/yqch/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.xhbup.com/ruixuan/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.xhbup.com/qianfei/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.xhbup.com/nfzb/
+https://www.xhbup.com/nfzb1/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/jlzf2/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/leting298/
+https://xhbup.com/leting199/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/mengjiay/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/jiuhe1/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/beyg/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/yiqi/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/annas/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/qisheng/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/xinlan1/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/shunshi/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/almj/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/lvshou/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/mltx/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/jiuhe3/
+https://xhbup.com/jiuhe4/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/helib/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/kqdk/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/yiyan/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/qianfei1/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/anzhir/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/jlzf3/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.xhbup.com/ximei/</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
@@ -875,665 +1530,6 @@
       </rPr>
       <t>lanzi/</t>
     </r>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://xhbup.com/leting/</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://xhbup.com/oupei/</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://xhbup.com/yinxiuer/</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://xhbup.com/tianyuan/</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.xhbup.com/ylzf2/</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://xhbup.com/mizhua1/
-https://xhbup.com/mizhua2/
-https://xhbup.com/mizhua3/
-https://xhbup.com/mizhua4/</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.xhbup.com/ylzf3/</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>狐臭</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>恒坚</t>
-  </si>
-  <si>
-    <t>江门市鑫兰商贸有限公司</t>
-  </si>
-  <si>
-    <t>胸部</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>大白鸽</t>
-  </si>
-  <si>
-    <t>惠州市雅洁化妆品有限公司</t>
-  </si>
-  <si>
-    <t>减肥</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>广东惠芯健康科技有限公司</t>
-  </si>
-  <si>
-    <t>护理</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.xhbup.com/wanggew/</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.xhbup.com/xinlan/</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.xhbup.com/yajie/</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.xhbup.com/huixin/</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>汕尾市诚捷贸易有限公司</t>
-  </si>
-  <si>
-    <t>页面包</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>摘包</t>
-  </si>
-  <si>
-    <t>https://www.xhbup.com/zip-demo/index.zip</t>
-  </si>
-  <si>
-    <t>玻尿酸</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.xhbup.com/oupei1/</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://xhbup.com/leting2/</t>
-  </si>
-  <si>
-    <t>https://xhbup.com/leting1/</t>
-  </si>
-  <si>
-    <t>广东乐婷化妆品实业有限公司（乐婷199页面）</t>
-  </si>
-  <si>
-    <t>小白鸽</t>
-  </si>
-  <si>
-    <t>广东丹匠化妆品有限公司</t>
-  </si>
-  <si>
-    <t>https://www.xhbup.com/kehong1/</t>
-  </si>
-  <si>
-    <t>https://www.xhbup.com/danjiang/</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>武汉飓风</t>
-  </si>
-  <si>
-    <t>丰胸</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://xhbup.com/zhimei/</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>小艾</t>
-  </si>
-  <si>
-    <t>清远市艾米时尚美容美发有限公司</t>
-  </si>
-  <si>
-    <t>淡斑</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://xhbup.com/aimi/</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>韶关雯斯特商贸有限公司</t>
-  </si>
-  <si>
-    <t>https://xhbup.com/wensite/</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>新客户</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>英德市芊朵化妆品有限公司</t>
-  </si>
-  <si>
-    <t>https://xhbup.com/qianduo/</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>大宝</t>
-  </si>
-  <si>
-    <t>广州雪暴电子科技有限公司</t>
-  </si>
-  <si>
-    <t>口红</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://xhbup.com/xuebao/</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>瘦身</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://xhbup.com/zhishang2/</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>台山市索达日用化妆品有限公司</t>
-  </si>
-  <si>
-    <t>https://xhbup.com/suoda/</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://xhbup.com/xuebao1/</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>杭州微起点文化传播有限公司</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>广东猴强大互联网科技有限公司</t>
-  </si>
-  <si>
-    <t>小说</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://xhbup.com/houqiangd/</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://xhbup.com/oupei01/</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>武汉飓风</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://xhbup.com/zhimei/</t>
-  </si>
-  <si>
-    <t>珠海黛芙莱化妆品有限公司</t>
-  </si>
-  <si>
-    <t>跳转设置</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>何丰腾</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://xhbup.com/daiful/</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://xhbup.com/huiju1/</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>中白鸽</t>
-  </si>
-  <si>
-    <t>广州九合国际生物科技有限公司</t>
-  </si>
-  <si>
-    <t>创业</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://xhbup.com/jiuhe/</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://xhbup.com/qingfengy1/</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>小小白鸽</t>
-  </si>
-  <si>
-    <t>江门市蓬江区竹田美容管理有限公司</t>
-  </si>
-  <si>
-    <t>丰胸</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://xhbup.com/zhutian/</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>曾玉琼</t>
-  </si>
-  <si>
-    <t>揭阳市好购多贸易有限公司</t>
-  </si>
-  <si>
-    <t>美白</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://xhbup.com/haogoud/</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>广东郑明明化妆品科技有限公司</t>
-  </si>
-  <si>
-    <t>https://xhbup.com/zhengmingm/</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.xhbup.com/kuige/</t>
-  </si>
-  <si>
-    <t>陈杜灵</t>
-  </si>
-  <si>
-    <t>唯伊商贸(云浮郁南县)有限公司</t>
-  </si>
-  <si>
-    <t>https://www.xhbup.com/weiyi/</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>陆丰市王一米贸易有限公司</t>
-  </si>
-  <si>
-    <t>减肥</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>姚芳</t>
-  </si>
-  <si>
-    <t>https://www.xhbup.com/wangyim/</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>大大白鸽</t>
-  </si>
-  <si>
-    <t>九江爱尚美化妆品有限公司</t>
-  </si>
-  <si>
-    <t>洁面乳</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.xhbup.com/aishang/</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.xhbup.com/kuige/</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://xhbup.com/gangyi/</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://xhbup.com/swksn/</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>西安诚优</t>
-  </si>
-  <si>
-    <t>广州优阅网络科技有限公司</t>
-  </si>
-  <si>
-    <t>小说</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://xhbup.com/youyue/</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>小中鸽</t>
-  </si>
-  <si>
-    <t>丰胸</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>浙江荣军印业有限公司</t>
-  </si>
-  <si>
-    <t>广州亿奇创绘商务服务有限公司 </t>
-  </si>
-  <si>
-    <t>https://www.xhbup.com/yqch/</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>视频</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>小说</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.xhbup.com/ruixuan/</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>长沙吉米</t>
-  </si>
-  <si>
-    <t>广州市白云区茜妃化妆品厂11  </t>
-  </si>
-  <si>
-    <t>https://www.xhbup.com/qianfei/</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>北京卓泰</t>
-  </si>
-  <si>
-    <t>广东南方直播传媒有限公司</t>
-  </si>
-  <si>
-    <t>app</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.xhbup.com/nfzb/
-https://www.xhbup.com/nfzb1/</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.xhbup.com/lanzi3/</t>
-  </si>
-  <si>
-    <t>https://www.xhbup.com/lanzi2/</t>
-  </si>
-  <si>
-    <t>郑州鑫恒信息技术有限公司</t>
-  </si>
-  <si>
-    <t>嘉联支付有限公司广州分公司</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>pos机</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://xhbup.com/jlzf2/</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://xhbup.com/oupei2/</t>
-  </si>
-  <si>
-    <t>广东乐婷化妆品实业有限公司</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://xhbup.com/leting298/
-https://xhbup.com/leting199/</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>中山市乐道信息技术有限公司</t>
-  </si>
-  <si>
-    <t>小说</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://xhbup.com/ledao/</t>
-  </si>
-  <si>
-    <t>佛山市梦家园美容有限公司</t>
-  </si>
-  <si>
-    <t>祛斑</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://xhbup.com/mengjiay/</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>创业</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://xhbup.com/jiuhe1/</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>汇牛</t>
-  </si>
-  <si>
-    <t xml:space="preserve">景德镇市宝儿优购化妆品有限公司 </t>
-  </si>
-  <si>
-    <t>https://xhbup.com/beyg/</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>飓风</t>
-  </si>
-  <si>
-    <t>河源市壹柒美容服务有限公司</t>
-  </si>
-  <si>
-    <t>https://xhbup.com/yiqi/</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>哦呀呀</t>
-  </si>
-  <si>
-    <t>潮州市安娜丝化妆品有限公司</t>
-  </si>
-  <si>
-    <t>https://xhbup.com/annas/</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>杭州多义乐网络科技有限公司</t>
-  </si>
-  <si>
-    <t>广州奇盛信息技术服务有限公司</t>
-  </si>
-  <si>
-    <t>小说</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://xhbup.com/qisheng/</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>丰胸</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://xhbup.com/xinlan1/</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://xhbup.com/wensite/</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>李霖泉</t>
-  </si>
-  <si>
-    <t>东莞市顺势互联网科技有限公司</t>
-  </si>
-  <si>
-    <t>https://xhbup.com/shunshi/</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>祛斑</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://xhbup.com/almj/</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>绿瘦健康产业集团有限公司</t>
-  </si>
-  <si>
-    <t>减肥</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://xhbup.com/lvshou/</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>惠州市美雨彤心贸易有限公司</t>
-  </si>
-  <si>
-    <t>https://xhbup.com/jiuhe3/
-https://xhbup.com/jiuhe4/</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>广州合利宝支付科技有限公司（POS机）</t>
-  </si>
-  <si>
-    <t>pos机</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>银联</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://xhbup.com/mltx/</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://xhbup.com/helib/</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>老户</t>
-  </si>
-  <si>
-    <t>匡企小额贷款（珠海）有限公司</t>
-  </si>
-  <si>
-    <t>贷款</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>四会市一研美容有限公司</t>
-  </si>
-  <si>
-    <t>https://xhbup.com/yiyan/</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://xhbup.com/kqdk/</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>减肥</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈华英</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>广州市白云区茜妃化妆品厂17</t>
-  </si>
-  <si>
-    <t>https://xhbup.com/qianfei1/</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>清远市安之然贸易有限公司</t>
-  </si>
-  <si>
-    <t>爱奇艺</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://xhbup.com/anzhir/</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>嘉联支付有限公司广州分公司</t>
-  </si>
-  <si>
-    <t>https://xhbup.com/jlzf3/</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>李总</t>
-  </si>
-  <si>
-    <t>减肥</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>佛山市晳美化妆品有限公司</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.xhbup.com/ximei/</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
@@ -1905,7 +1901,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1942,20 +1938,8 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2032,20 +2016,8 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2066,6 +2038,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2100,13 +2078,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>234950</xdr:colOff>
-      <xdr:row>172</xdr:row>
+      <xdr:row>177</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>111125</xdr:colOff>
-      <xdr:row>173</xdr:row>
+      <xdr:row>178</xdr:row>
       <xdr:rowOff>1574</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2114,7 +2092,7 @@
         <xdr:cNvPr id="6" name="图片 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2126,7 +2104,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2436,13 +2414,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:Q173"/>
+  <dimension ref="B1:Q178"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="F154" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="F156" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J167" sqref="J167"/>
+      <selection pane="bottomRight" activeCell="E165" sqref="E165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -2467,24 +2445,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:17" s="1" customFormat="1" ht="46.5" customHeight="1">
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="25"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="21"/>
       <c r="L1" s="7"/>
-      <c r="N1" s="48" t="s">
-        <v>1</v>
-      </c>
-      <c r="O1" s="48"/>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="48"/>
+      <c r="N1" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
     </row>
     <row r="2" spans="2:17" ht="21.75" customHeight="1">
       <c r="B2" s="8" t="s">
@@ -2514,26 +2492,26 @@
       <c r="J2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="26" t="s">
+      <c r="K2" s="22" t="s">
         <v>11</v>
       </c>
       <c r="L2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="27" t="s">
+      <c r="N2" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="O2" s="27" t="s">
+      <c r="O2" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="P2" s="27" t="s">
+      <c r="P2" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" s="27" t="s">
+      <c r="Q2" s="23" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="2:17">
+    <row r="3" spans="2:17" s="2" customFormat="1">
       <c r="B3" s="9">
         <v>1</v>
       </c>
@@ -2561,23 +2539,23 @@
       <c r="J3" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="17" t="s">
         <v>22</v>
       </c>
       <c r="L3" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="N3" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="O3" s="28"/>
-      <c r="P3" s="28"/>
-      <c r="Q3" s="33">
+      <c r="N3" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="29">
         <f>O3+P3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:17" ht="21.75" customHeight="1">
+    <row r="4" spans="2:17" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B4" s="9">
         <v>5</v>
       </c>
@@ -2605,29 +2583,29 @@
       <c r="J4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="K4" t="s">
-        <v>225</v>
+      <c r="K4" s="17" t="s">
+        <v>342</v>
       </c>
       <c r="L4" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="N4" s="29" t="s">
+      <c r="N4" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="O4" s="29">
+      <c r="O4" s="25">
         <f>SUM(O3:O3)</f>
         <v>0</v>
       </c>
-      <c r="P4" s="29">
+      <c r="P4" s="25">
         <f>SUM(P3:P3)</f>
         <v>0</v>
       </c>
-      <c r="Q4" s="29">
+      <c r="Q4" s="25">
         <f>SUM(Q3:Q3)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:17" ht="21.75" customHeight="1">
+    <row r="5" spans="2:17" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B5" s="9">
         <v>6</v>
       </c>
@@ -2637,7 +2615,7 @@
       <c r="D5" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="46" t="s">
         <v>28</v>
       </c>
       <c r="F5" s="9" t="s">
@@ -2655,14 +2633,14 @@
       <c r="J5" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="17" t="s">
         <v>32</v>
       </c>
       <c r="L5" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="2:17" ht="21.75" customHeight="1">
+    <row r="6" spans="2:17" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B6" s="9"/>
       <c r="C6" s="10">
         <v>43570</v>
@@ -2688,14 +2666,14 @@
       <c r="J6" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" s="17" t="s">
         <v>34</v>
       </c>
       <c r="L6" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="2:17" ht="39.75" customHeight="1">
+    <row r="7" spans="2:17" s="2" customFormat="1" ht="39.75" customHeight="1">
       <c r="B7" s="9"/>
       <c r="C7" s="10">
         <v>43570</v>
@@ -2721,14 +2699,14 @@
       <c r="J7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" s="17" t="s">
         <v>22</v>
       </c>
       <c r="L7" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="2:17" ht="21.75" customHeight="1">
+    <row r="8" spans="2:17" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B8" s="9"/>
       <c r="C8" s="10">
         <v>43570</v>
@@ -2754,14 +2732,14 @@
       <c r="J8" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" s="17" t="s">
         <v>38</v>
       </c>
       <c r="L8" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="2:17" ht="21.75" customHeight="1">
+    <row r="9" spans="2:17" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B9" s="9"/>
       <c r="C9" s="10">
         <v>43570</v>
@@ -2787,14 +2765,14 @@
       <c r="J9" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9" s="17" t="s">
         <v>43</v>
       </c>
       <c r="L9" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="2:17" ht="21.75" customHeight="1">
+    <row r="10" spans="2:17" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B10" s="9"/>
       <c r="C10" s="10">
         <v>43570</v>
@@ -2820,14 +2798,14 @@
       <c r="J10" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K10" s="17" t="s">
         <v>46</v>
       </c>
       <c r="L10" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="2:17" ht="87" customHeight="1">
+    <row r="11" spans="2:17" s="2" customFormat="1" ht="87" customHeight="1">
       <c r="B11" s="9"/>
       <c r="C11" s="10">
         <v>43570</v>
@@ -2853,14 +2831,14 @@
       <c r="J11" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K11" t="s">
-        <v>262</v>
+      <c r="K11" s="17" t="s">
+        <v>343</v>
       </c>
       <c r="L11" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="2:17" ht="21.75" customHeight="1">
+    <row r="12" spans="2:17" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B12" s="9"/>
       <c r="C12" s="10">
         <v>43570</v>
@@ -2886,14 +2864,14 @@
       <c r="J12" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K12" t="s">
+      <c r="K12" s="17" t="s">
         <v>55</v>
       </c>
       <c r="L12" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="2:17" ht="21.75" customHeight="1">
+    <row r="13" spans="2:17" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B13" s="9"/>
       <c r="C13" s="10">
         <v>43570</v>
@@ -2919,14 +2897,14 @@
       <c r="J13" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K13" t="s">
+      <c r="K13" s="17" t="s">
         <v>59</v>
       </c>
       <c r="L13" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="2:17" ht="21.75" customHeight="1">
+    <row r="14" spans="2:17" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B14" s="9"/>
       <c r="C14" s="10">
         <v>43570</v>
@@ -2952,14 +2930,14 @@
       <c r="J14" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K14" t="s">
+      <c r="K14" s="17" t="s">
         <v>61</v>
       </c>
       <c r="L14" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="2:17" ht="21.75" customHeight="1">
+    <row r="15" spans="2:17" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B15" s="9"/>
       <c r="C15" s="10">
         <v>43570</v>
@@ -2985,14 +2963,14 @@
       <c r="J15" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K15" t="s">
+      <c r="K15" s="17" t="s">
         <v>65</v>
       </c>
       <c r="L15" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="2:17" ht="21.75" customHeight="1">
+    <row r="16" spans="2:17" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B16" s="9"/>
       <c r="C16" s="10">
         <v>43570</v>
@@ -3018,14 +2996,14 @@
       <c r="J16" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K16" t="s">
+      <c r="K16" s="17" t="s">
         <v>67</v>
       </c>
       <c r="L16" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="2:12" ht="21.75" customHeight="1">
+    <row r="17" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B17" s="9"/>
       <c r="C17" s="10">
         <v>43570</v>
@@ -3051,14 +3029,14 @@
       <c r="J17" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K17" t="s">
+      <c r="K17" s="17" t="s">
         <v>70</v>
       </c>
       <c r="L17" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="2:12" ht="21.75" customHeight="1">
+    <row r="18" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B18" s="9"/>
       <c r="C18" s="10">
         <v>43571</v>
@@ -3084,14 +3062,14 @@
       <c r="J18" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K18" t="s">
+      <c r="K18" s="17" t="s">
         <v>74</v>
       </c>
       <c r="L18" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="2:12" ht="21.75" customHeight="1">
+    <row r="19" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B19" s="9"/>
       <c r="C19" s="10">
         <v>43571</v>
@@ -3117,14 +3095,14 @@
       <c r="J19" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="K19" t="s">
+      <c r="K19" s="17" t="s">
         <v>78</v>
       </c>
       <c r="L19" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="2:12" ht="21.75" customHeight="1">
+    <row r="20" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B20" s="9"/>
       <c r="C20" s="10">
         <v>43571</v>
@@ -3150,14 +3128,14 @@
       <c r="J20" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K20" t="s">
+      <c r="K20" s="17" t="s">
         <v>82</v>
       </c>
       <c r="L20" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="2:12" ht="21.75" customHeight="1">
+    <row r="21" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B21" s="9"/>
       <c r="C21" s="10">
         <v>43571</v>
@@ -3183,14 +3161,14 @@
       <c r="J21" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K21" t="s">
+      <c r="K21" s="17" t="s">
         <v>86</v>
       </c>
       <c r="L21" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="2:12" ht="21.75" customHeight="1">
+    <row r="22" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B22" s="9"/>
       <c r="C22" s="10">
         <v>43571</v>
@@ -3198,7 +3176,7 @@
       <c r="D22" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="E22" s="13" t="s">
+      <c r="E22" s="9" t="s">
         <v>88</v>
       </c>
       <c r="F22" s="9" t="s">
@@ -3216,14 +3194,14 @@
       <c r="J22" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K22" t="s">
+      <c r="K22" s="17" t="s">
         <v>89</v>
       </c>
       <c r="L22" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="2:12" ht="21.75" customHeight="1">
+    <row r="23" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B23" s="9"/>
       <c r="C23" s="10">
         <v>43571</v>
@@ -3249,14 +3227,14 @@
       <c r="J23" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K23" t="s">
+      <c r="K23" s="17" t="s">
         <v>91</v>
       </c>
       <c r="L23" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="2:12" ht="42.95" customHeight="1">
+    <row r="24" spans="2:12" s="2" customFormat="1" ht="42.95" customHeight="1">
       <c r="B24" s="9"/>
       <c r="C24" s="10">
         <v>43571</v>
@@ -3282,14 +3260,14 @@
       <c r="J24" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K24" t="s">
+      <c r="K24" s="17" t="s">
         <v>95</v>
       </c>
       <c r="L24" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="2:12" ht="21.75" customHeight="1">
+    <row r="25" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B25" s="9"/>
       <c r="C25" s="10">
         <v>43571</v>
@@ -3315,14 +3293,14 @@
       <c r="J25" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K25" t="s">
+      <c r="K25" s="17" t="s">
         <v>98</v>
       </c>
       <c r="L25" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="2:12" ht="21.75" customHeight="1">
+    <row r="26" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B26" s="9"/>
       <c r="C26" s="10">
         <v>43571</v>
@@ -3348,14 +3326,14 @@
       <c r="J26" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K26" t="s">
+      <c r="K26" s="17" t="s">
         <v>99</v>
       </c>
       <c r="L26" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="2:12" ht="21.75" customHeight="1">
+    <row r="27" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B27" s="9"/>
       <c r="C27" s="10">
         <v>43571</v>
@@ -3381,14 +3359,14 @@
       <c r="J27" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K27" t="s">
+      <c r="K27" s="17" t="s">
         <v>100</v>
       </c>
       <c r="L27" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="2:12" ht="21.75" customHeight="1">
+    <row r="28" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B28" s="9"/>
       <c r="C28" s="10">
         <v>43571</v>
@@ -3414,14 +3392,14 @@
       <c r="J28" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="K28" t="s">
+      <c r="K28" s="17" t="s">
         <v>106</v>
       </c>
       <c r="L28" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="2:12" ht="21.75" customHeight="1">
+    <row r="29" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B29" s="9">
         <v>78</v>
       </c>
@@ -3449,15 +3427,15 @@
       <c r="J29" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="K29" t="s">
-        <v>231</v>
+      <c r="K29" s="17" t="s">
+        <v>344</v>
       </c>
       <c r="L29" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="2:12" ht="21.75" customHeight="1">
-      <c r="B30" s="14"/>
+    <row r="30" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B30" s="12"/>
       <c r="C30" s="10">
         <v>43571</v>
       </c>
@@ -3482,14 +3460,14 @@
       <c r="J30" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K30" t="s">
+      <c r="K30" s="17" t="s">
         <v>112</v>
       </c>
       <c r="L30" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="2:12" ht="21.75" customHeight="1">
+    <row r="31" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B31" s="9">
         <v>79</v>
       </c>
@@ -3517,14 +3495,14 @@
       <c r="J31" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K31" t="s">
+      <c r="K31" s="17" t="s">
         <v>114</v>
       </c>
       <c r="L31" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="2:12" ht="21.75" customHeight="1">
+    <row r="32" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B32" s="9">
         <v>80</v>
       </c>
@@ -3552,14 +3530,14 @@
       <c r="J32" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="K32" t="s">
+      <c r="K32" s="17" t="s">
         <v>59</v>
       </c>
       <c r="L32" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="2:12" ht="21.75" customHeight="1">
+    <row r="33" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B33" s="9">
         <v>81</v>
       </c>
@@ -3587,14 +3565,14 @@
       <c r="J33" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="K33" t="s">
+      <c r="K33" s="17" t="s">
         <v>61</v>
       </c>
       <c r="L33" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="2:12" ht="21.75" customHeight="1">
+    <row r="34" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B34" s="9">
         <v>82</v>
       </c>
@@ -3622,24 +3600,24 @@
       <c r="J34" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="K34" t="s">
+      <c r="K34" s="17" t="s">
         <v>78</v>
       </c>
       <c r="L34" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="2:12" ht="21.75" customHeight="1">
+    <row r="35" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B35" s="9">
         <v>83</v>
       </c>
       <c r="C35" s="10">
         <v>43571</v>
       </c>
-      <c r="D35" s="15" t="s">
+      <c r="D35" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" s="17" t="s">
         <v>116</v>
       </c>
       <c r="F35" s="9" t="s">
@@ -3657,14 +3635,14 @@
       <c r="J35" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K35" t="s">
+      <c r="K35" s="17" t="s">
         <v>117</v>
       </c>
       <c r="L35" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="2:12" ht="21.75" customHeight="1">
+    <row r="36" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B36" s="9">
         <v>84</v>
       </c>
@@ -3674,7 +3652,7 @@
       <c r="D36" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="E36" s="15" t="s">
+      <c r="E36" s="17" t="s">
         <v>119</v>
       </c>
       <c r="F36" s="9" t="s">
@@ -3692,24 +3670,24 @@
       <c r="J36" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K36" t="s">
+      <c r="K36" s="17" t="s">
         <v>121</v>
       </c>
       <c r="L36" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="2:12" ht="21.75" customHeight="1">
+    <row r="37" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B37" s="9">
         <v>85</v>
       </c>
       <c r="C37" s="10">
         <v>43571</v>
       </c>
-      <c r="D37" s="16" t="s">
+      <c r="D37" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="E37" s="16" t="s">
+      <c r="E37" s="13" t="s">
         <v>68</v>
       </c>
       <c r="F37" s="9" t="s">
@@ -3727,24 +3705,24 @@
       <c r="J37" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="K37" t="s">
+      <c r="K37" s="17" t="s">
         <v>70</v>
       </c>
       <c r="L37" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="2:12" ht="21.75" customHeight="1">
+    <row r="38" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B38" s="9">
         <v>86</v>
       </c>
       <c r="C38" s="10">
         <v>43571</v>
       </c>
-      <c r="D38" s="16" t="s">
+      <c r="D38" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="E38" s="16" t="s">
+      <c r="E38" s="13" t="s">
         <v>123</v>
       </c>
       <c r="F38" s="9" t="s">
@@ -3762,7 +3740,7 @@
       <c r="J38" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="K38" t="s">
+      <c r="K38" s="17" t="s">
         <v>124</v>
       </c>
       <c r="L38" s="9" t="s">
@@ -3776,10 +3754,10 @@
       <c r="C39" s="10">
         <v>43571</v>
       </c>
-      <c r="D39" s="17" t="s">
+      <c r="D39" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="E39" s="17" t="s">
+      <c r="E39" s="13" t="s">
         <v>125</v>
       </c>
       <c r="F39" s="9" t="s">
@@ -3791,13 +3769,13 @@
       <c r="H39" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I39" s="17" t="s">
+      <c r="I39" s="13" t="s">
         <v>37</v>
       </c>
       <c r="J39" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K39" t="s">
+      <c r="K39" s="17" t="s">
         <v>126</v>
       </c>
       <c r="L39" s="9" t="s">
@@ -3811,10 +3789,10 @@
       <c r="C40" s="10">
         <v>43571</v>
       </c>
-      <c r="D40" s="18" t="s">
+      <c r="D40" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="E40" s="18" t="s">
+      <c r="E40" s="14" t="s">
         <v>128</v>
       </c>
       <c r="F40" s="9" t="s">
@@ -3826,14 +3804,14 @@
       <c r="H40" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I40" s="18" t="s">
+      <c r="I40" s="14" t="s">
         <v>42</v>
       </c>
       <c r="J40" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="K40" t="s">
-        <v>196</v>
+      <c r="K40" s="17" t="s">
+        <v>345</v>
       </c>
       <c r="L40" s="9" t="s">
         <v>23</v>
@@ -3846,10 +3824,10 @@
       <c r="C41" s="10">
         <v>43571</v>
       </c>
-      <c r="D41" s="18" t="s">
+      <c r="D41" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="E41" s="19" t="s">
+      <c r="E41" s="15" t="s">
         <v>129</v>
       </c>
       <c r="F41" s="9" t="s">
@@ -3861,14 +3839,14 @@
       <c r="H41" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I41" s="18" t="s">
+      <c r="I41" s="14" t="s">
         <v>26</v>
       </c>
       <c r="J41" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="K41" t="s">
-        <v>230</v>
+      <c r="K41" s="17" t="s">
+        <v>346</v>
       </c>
       <c r="L41" s="9" t="s">
         <v>23</v>
@@ -3881,10 +3859,10 @@
       <c r="C42" s="10">
         <v>43572</v>
       </c>
-      <c r="D42" s="20" t="s">
+      <c r="D42" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="E42" s="20" t="s">
+      <c r="E42" s="16" t="s">
         <v>130</v>
       </c>
       <c r="F42" s="9" t="s">
@@ -3896,13 +3874,13 @@
       <c r="H42" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I42" s="20" t="s">
+      <c r="I42" s="16" t="s">
         <v>58</v>
       </c>
       <c r="J42" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="K42" t="s">
+      <c r="K42" s="17" t="s">
         <v>131</v>
       </c>
       <c r="L42" s="9" t="s">
@@ -3910,14 +3888,14 @@
       </c>
     </row>
     <row r="43" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B43" s="14"/>
+      <c r="B43" s="12"/>
       <c r="C43" s="10">
         <v>43572</v>
       </c>
-      <c r="D43" s="21" t="s">
+      <c r="D43" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="E43" s="21" t="s">
+      <c r="E43" s="17" t="s">
         <v>133</v>
       </c>
       <c r="F43" s="9" t="s">
@@ -3929,13 +3907,13 @@
       <c r="H43" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I43" s="21" t="s">
+      <c r="I43" s="17" t="s">
         <v>20</v>
       </c>
       <c r="J43" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K43" t="s">
+      <c r="K43" s="17" t="s">
         <v>135</v>
       </c>
       <c r="L43" s="9" t="s">
@@ -3943,14 +3921,14 @@
       </c>
     </row>
     <row r="44" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B44" s="14"/>
+      <c r="B44" s="12"/>
       <c r="C44" s="10">
         <v>43572</v>
       </c>
-      <c r="D44" s="21" t="s">
+      <c r="D44" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="E44" s="21" t="s">
+      <c r="E44" s="17" t="s">
         <v>137</v>
       </c>
       <c r="F44" s="9" t="s">
@@ -3962,28 +3940,28 @@
       <c r="H44" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I44" s="21" t="s">
+      <c r="I44" s="17" t="s">
         <v>20</v>
       </c>
       <c r="J44" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="K44" t="s">
-        <v>245</v>
+      <c r="K44" s="17" t="s">
+        <v>347</v>
       </c>
       <c r="L44" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="45" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B45" s="14"/>
+      <c r="B45" s="12"/>
       <c r="C45" s="10">
         <v>43572</v>
       </c>
-      <c r="D45" s="21" t="s">
+      <c r="D45" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="E45" s="21" t="s">
+      <c r="E45" s="17" t="s">
         <v>139</v>
       </c>
       <c r="F45" s="9" t="s">
@@ -3996,64 +3974,64 @@
         <v>19</v>
       </c>
       <c r="I45" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J45" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K45" t="s">
-        <v>141</v>
+      <c r="K45" s="17" t="s">
+        <v>348</v>
       </c>
       <c r="L45" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="46" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B46" s="14"/>
+      <c r="B46" s="12"/>
       <c r="C46" s="10">
         <v>43572</v>
       </c>
-      <c r="D46" s="21" t="s">
+      <c r="D46" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="E46" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="E46" s="21" t="s">
+      <c r="F46" s="31" t="s">
         <v>144</v>
       </c>
-      <c r="F46" s="35" t="s">
-        <v>145</v>
-      </c>
       <c r="G46" s="9">
         <v>1</v>
       </c>
       <c r="H46" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I46" s="21" t="s">
+      <c r="I46" s="17" t="s">
         <v>30</v>
       </c>
       <c r="J46" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K46" t="s">
-        <v>146</v>
+      <c r="K46" s="17" t="s">
+        <v>349</v>
       </c>
       <c r="L46" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="47" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B47" s="14"/>
+      <c r="B47" s="12"/>
       <c r="C47" s="10">
         <v>43572</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="E47" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="E47" s="17" t="s">
         <v>97</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G47" s="9">
         <v>1</v>
@@ -4061,98 +4039,98 @@
       <c r="H47" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I47" s="21" t="s">
+      <c r="I47" s="17" t="s">
         <v>37</v>
       </c>
       <c r="J47" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="K47" t="s">
-        <v>246</v>
+      <c r="K47" s="17" t="s">
+        <v>350</v>
       </c>
       <c r="L47" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="48" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B48" s="14"/>
+      <c r="B48" s="12"/>
       <c r="C48" s="10">
         <v>43572</v>
       </c>
-      <c r="D48" s="36" t="s">
+      <c r="D48" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="E48" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="F48" s="30" t="s">
         <v>149</v>
       </c>
-      <c r="E48" s="36" t="s">
-        <v>150</v>
-      </c>
-      <c r="F48" s="34" t="s">
-        <v>151</v>
-      </c>
       <c r="G48" s="9">
         <v>1</v>
       </c>
       <c r="H48" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I48" s="36" t="s">
+      <c r="I48" s="32" t="s">
         <v>20</v>
       </c>
       <c r="J48" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="K48" t="s">
-        <v>229</v>
+      <c r="K48" s="17" t="s">
+        <v>351</v>
       </c>
       <c r="L48" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="49" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B49" s="14"/>
+      <c r="B49" s="12"/>
       <c r="C49" s="10">
         <v>43573</v>
       </c>
-      <c r="D49" s="21" t="s">
+      <c r="D49" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="E49" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="F49" s="30" t="s">
         <v>149</v>
       </c>
-      <c r="E49" s="21" t="s">
-        <v>150</v>
-      </c>
-      <c r="F49" s="34" t="s">
-        <v>151</v>
-      </c>
       <c r="G49" s="9">
         <v>1</v>
       </c>
       <c r="H49" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I49" s="36" t="s">
+      <c r="I49" s="32" t="s">
         <v>20</v>
       </c>
       <c r="J49" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K49" t="s">
-        <v>247</v>
+      <c r="K49" s="17" t="s">
+        <v>352</v>
       </c>
       <c r="L49" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="50" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B50" s="14"/>
+      <c r="B50" s="12"/>
       <c r="C50" s="10">
         <v>43573</v>
       </c>
-      <c r="D50" s="21" t="s">
+      <c r="D50" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="E50" s="21" t="s">
+      <c r="E50" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="F50" s="34" t="s">
-        <v>152</v>
+      <c r="F50" s="30" t="s">
+        <v>150</v>
       </c>
       <c r="G50" s="9">
         <v>1</v>
@@ -4160,32 +4138,32 @@
       <c r="H50" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I50" s="21" t="s">
+      <c r="I50" s="17" t="s">
         <v>54</v>
       </c>
       <c r="J50" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K50" t="s">
-        <v>153</v>
+      <c r="K50" s="17" t="s">
+        <v>353</v>
       </c>
       <c r="L50" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="51" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B51" s="14"/>
+      <c r="B51" s="12"/>
       <c r="C51" s="10">
         <v>43573</v>
       </c>
-      <c r="D51" s="21" t="s">
-        <v>154</v>
-      </c>
-      <c r="E51" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="F51" s="34" t="s">
-        <v>156</v>
+      <c r="D51" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="E51" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="F51" s="30" t="s">
+        <v>153</v>
       </c>
       <c r="G51" s="9">
         <v>1</v>
@@ -4193,32 +4171,32 @@
       <c r="H51" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I51" s="21" t="s">
+      <c r="I51" s="17" t="s">
         <v>37</v>
       </c>
       <c r="J51" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="K51" t="s">
-        <v>228</v>
+      <c r="K51" s="17" t="s">
+        <v>354</v>
       </c>
       <c r="L51" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="52" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B52" s="14"/>
+      <c r="B52" s="12"/>
       <c r="C52" s="10">
         <v>43573</v>
       </c>
-      <c r="D52" s="21" t="s">
+      <c r="D52" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="E52" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="F52" s="34" t="s">
-        <v>158</v>
+      <c r="E52" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="F52" s="30" t="s">
+        <v>155</v>
       </c>
       <c r="G52" s="9">
         <v>1</v>
@@ -4226,32 +4204,32 @@
       <c r="H52" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I52" s="21" t="s">
+      <c r="I52" s="17" t="s">
         <v>104</v>
       </c>
       <c r="J52" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K52" t="s">
-        <v>159</v>
+      <c r="K52" s="17" t="s">
+        <v>355</v>
       </c>
       <c r="L52" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="53" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B53" s="14"/>
+      <c r="B53" s="12"/>
       <c r="C53" s="10">
         <v>43573</v>
       </c>
-      <c r="D53" s="21" t="s">
-        <v>160</v>
-      </c>
-      <c r="E53" s="21" t="s">
+      <c r="D53" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="E53" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="F53" s="34" t="s">
-        <v>161</v>
+      <c r="F53" s="30" t="s">
+        <v>157</v>
       </c>
       <c r="G53" s="9">
         <v>1</v>
@@ -4259,32 +4237,32 @@
       <c r="H53" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I53" s="21" t="s">
+      <c r="I53" s="17" t="s">
         <v>30</v>
       </c>
       <c r="J53" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="K53" t="s">
-        <v>248</v>
+      <c r="K53" s="17" t="s">
+        <v>356</v>
       </c>
       <c r="L53" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="54" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B54" s="14"/>
+      <c r="B54" s="12"/>
       <c r="C54" s="10">
         <v>43573</v>
       </c>
-      <c r="D54" s="21" t="s">
+      <c r="D54" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E54" s="21" t="s">
+      <c r="E54" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="F54" s="34" t="s">
-        <v>156</v>
+      <c r="F54" s="30" t="s">
+        <v>153</v>
       </c>
       <c r="G54" s="9">
         <v>1</v>
@@ -4292,32 +4270,32 @@
       <c r="H54" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I54" s="21" t="s">
+      <c r="I54" s="17" t="s">
         <v>30</v>
       </c>
       <c r="J54" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="K54" t="s">
-        <v>249</v>
+      <c r="K54" s="17" t="s">
+        <v>357</v>
       </c>
       <c r="L54" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="55" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B55" s="14"/>
+      <c r="B55" s="12"/>
       <c r="C55" s="10">
         <v>43573</v>
       </c>
-      <c r="D55" s="21" t="s">
+      <c r="D55" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E55" s="21" t="s">
+      <c r="E55" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="F55" s="34" t="s">
-        <v>156</v>
+      <c r="F55" s="30" t="s">
+        <v>153</v>
       </c>
       <c r="G55" s="9">
         <v>1</v>
@@ -4325,32 +4303,32 @@
       <c r="H55" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I55" s="21" t="s">
+      <c r="I55" s="17" t="s">
         <v>30</v>
       </c>
       <c r="J55" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="K55" t="s">
-        <v>250</v>
+      <c r="K55" s="17" t="s">
+        <v>358</v>
       </c>
       <c r="L55" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="56" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B56" s="14"/>
+      <c r="B56" s="12"/>
       <c r="C56" s="10">
         <v>43573</v>
       </c>
-      <c r="D56" s="21" t="s">
+      <c r="D56" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="E56" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="F56" s="34" t="s">
-        <v>163</v>
+      <c r="E56" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="F56" s="30" t="s">
+        <v>159</v>
       </c>
       <c r="G56" s="9">
         <v>1</v>
@@ -4358,32 +4336,32 @@
       <c r="H56" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I56" s="21" t="s">
+      <c r="I56" s="17" t="s">
         <v>104</v>
       </c>
       <c r="J56" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K56" t="s">
-        <v>164</v>
+      <c r="K56" s="17" t="s">
+        <v>359</v>
       </c>
       <c r="L56" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="57" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B57" s="14"/>
+      <c r="B57" s="12"/>
       <c r="C57" s="10">
         <v>43573</v>
       </c>
-      <c r="D57" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="E57" s="21" t="s">
-        <v>166</v>
-      </c>
-      <c r="F57" s="34" t="s">
-        <v>163</v>
+      <c r="D57" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="E57" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="F57" s="30" t="s">
+        <v>159</v>
       </c>
       <c r="G57" s="9">
         <v>1</v>
@@ -4391,32 +4369,32 @@
       <c r="H57" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I57" s="21" t="s">
+      <c r="I57" s="17" t="s">
         <v>54</v>
       </c>
       <c r="J57" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K57" t="s">
-        <v>167</v>
+      <c r="K57" s="17" t="s">
+        <v>360</v>
       </c>
       <c r="L57" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="58" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B58" s="14"/>
+      <c r="B58" s="12"/>
       <c r="C58" s="10">
         <v>43573</v>
       </c>
-      <c r="D58" s="21" t="s">
-        <v>168</v>
-      </c>
-      <c r="E58" s="21" t="s">
-        <v>169</v>
-      </c>
-      <c r="F58" s="34" t="s">
-        <v>170</v>
+      <c r="D58" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="E58" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="F58" s="30" t="s">
+        <v>164</v>
       </c>
       <c r="G58" s="9">
         <v>1</v>
@@ -4424,32 +4402,32 @@
       <c r="H58" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I58" s="21" t="s">
+      <c r="I58" s="17" t="s">
         <v>30</v>
       </c>
       <c r="J58" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K58" t="s">
-        <v>251</v>
+      <c r="K58" s="17" t="s">
+        <v>361</v>
       </c>
       <c r="L58" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="59" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B59" s="14"/>
+      <c r="B59" s="12"/>
       <c r="C59" s="10">
         <v>43573</v>
       </c>
-      <c r="D59" s="21" t="s">
-        <v>168</v>
-      </c>
-      <c r="E59" s="21" t="s">
-        <v>171</v>
-      </c>
-      <c r="F59" s="34" t="s">
-        <v>170</v>
+      <c r="D59" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="E59" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="F59" s="30" t="s">
+        <v>164</v>
       </c>
       <c r="G59" s="9">
         <v>1</v>
@@ -4457,32 +4435,32 @@
       <c r="H59" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I59" s="21" t="s">
+      <c r="I59" s="17" t="s">
         <v>37</v>
       </c>
       <c r="J59" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K59" t="s">
-        <v>172</v>
+      <c r="K59" s="17" t="s">
+        <v>362</v>
       </c>
       <c r="L59" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="60" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B60" s="14"/>
+      <c r="B60" s="12"/>
       <c r="C60" s="10">
         <v>43573</v>
       </c>
-      <c r="D60" s="37" t="s">
-        <v>173</v>
-      </c>
-      <c r="E60" s="37" t="s">
-        <v>173</v>
-      </c>
-      <c r="F60" s="34" t="s">
-        <v>170</v>
+      <c r="D60" s="33" t="s">
+        <v>166</v>
+      </c>
+      <c r="E60" s="33" t="s">
+        <v>166</v>
+      </c>
+      <c r="F60" s="30" t="s">
+        <v>164</v>
       </c>
       <c r="G60" s="9">
         <v>1</v>
@@ -4490,32 +4468,32 @@
       <c r="H60" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I60" s="37" t="s">
+      <c r="I60" s="33" t="s">
         <v>20</v>
       </c>
       <c r="J60" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K60" t="s">
-        <v>174</v>
+      <c r="K60" s="17" t="s">
+        <v>167</v>
       </c>
       <c r="L60" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="61" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B61" s="14"/>
+      <c r="B61" s="12"/>
       <c r="C61" s="10">
         <v>43573</v>
       </c>
-      <c r="D61" s="37" t="s">
-        <v>175</v>
-      </c>
-      <c r="E61" s="37" t="s">
-        <v>176</v>
-      </c>
-      <c r="F61" s="34" t="s">
-        <v>152</v>
+      <c r="D61" s="33" t="s">
+        <v>168</v>
+      </c>
+      <c r="E61" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="F61" s="30" t="s">
+        <v>150</v>
       </c>
       <c r="G61" s="9">
         <v>1</v>
@@ -4523,32 +4501,32 @@
       <c r="H61" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I61" s="37" t="s">
+      <c r="I61" s="33" t="s">
         <v>37</v>
       </c>
       <c r="J61" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="K61" t="s">
-        <v>252</v>
+      <c r="K61" s="17" t="s">
+        <v>363</v>
       </c>
       <c r="L61" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="62" spans="2:12" s="2" customFormat="1" ht="172.5" customHeight="1">
-      <c r="B62" s="14"/>
+      <c r="B62" s="12"/>
       <c r="C62" s="10">
         <v>43574</v>
       </c>
-      <c r="D62" s="21" t="s">
-        <v>177</v>
-      </c>
-      <c r="E62" s="21" t="s">
-        <v>178</v>
-      </c>
-      <c r="F62" s="34" t="s">
-        <v>180</v>
+      <c r="D62" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="E62" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="F62" s="30" t="s">
+        <v>172</v>
       </c>
       <c r="G62" s="9">
         <v>10</v>
@@ -4556,32 +4534,32 @@
       <c r="H62" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I62" s="21" t="s">
+      <c r="I62" s="17" t="s">
         <v>58</v>
       </c>
       <c r="J62" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K62" t="s">
-        <v>179</v>
+      <c r="K62" s="17" t="s">
+        <v>364</v>
       </c>
       <c r="L62" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="63" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B63" s="14"/>
+      <c r="B63" s="12"/>
       <c r="C63" s="10">
         <v>43574</v>
       </c>
-      <c r="D63" s="21" t="s">
+      <c r="D63" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="E63" s="21" t="s">
-        <v>181</v>
-      </c>
-      <c r="F63" s="34" t="s">
-        <v>182</v>
+      <c r="E63" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="F63" s="30" t="s">
+        <v>174</v>
       </c>
       <c r="G63" s="9">
         <v>1</v>
@@ -4589,32 +4567,32 @@
       <c r="H63" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I63" s="21" t="s">
+      <c r="I63" s="17" t="s">
         <v>104</v>
       </c>
       <c r="J63" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K63" t="s">
-        <v>253</v>
+      <c r="K63" s="17" t="s">
+        <v>365</v>
       </c>
       <c r="L63" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="64" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B64" s="14"/>
+      <c r="B64" s="12"/>
       <c r="C64" s="10">
         <v>43574</v>
       </c>
-      <c r="D64" s="21" t="s">
+      <c r="D64" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E64" s="21" t="s">
+      <c r="E64" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="F64" s="34" t="s">
-        <v>183</v>
+      <c r="F64" s="30" t="s">
+        <v>175</v>
       </c>
       <c r="G64" s="9">
         <v>1</v>
@@ -4622,32 +4600,32 @@
       <c r="H64" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I64" s="21" t="s">
+      <c r="I64" s="17" t="s">
         <v>20</v>
       </c>
       <c r="J64" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K64" t="s">
-        <v>187</v>
+      <c r="K64" s="17" t="s">
+        <v>366</v>
       </c>
       <c r="L64" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="65" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B65" s="14"/>
+      <c r="B65" s="12"/>
       <c r="C65" s="10">
         <v>43574</v>
       </c>
-      <c r="D65" s="21" t="s">
-        <v>184</v>
-      </c>
-      <c r="E65" s="21" t="s">
-        <v>185</v>
-      </c>
-      <c r="F65" s="34" t="s">
-        <v>186</v>
+      <c r="D65" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="E65" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="F65" s="30" t="s">
+        <v>178</v>
       </c>
       <c r="G65" s="9">
         <v>1</v>
@@ -4655,32 +4633,32 @@
       <c r="H65" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I65" s="21" t="s">
+      <c r="I65" s="17" t="s">
         <v>58</v>
       </c>
       <c r="J65" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K65" t="s">
-        <v>254</v>
+      <c r="K65" s="17" t="s">
+        <v>367</v>
       </c>
       <c r="L65" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="66" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B66" s="14"/>
+      <c r="B66" s="12"/>
       <c r="C66" s="10">
         <v>43574</v>
       </c>
-      <c r="D66" s="37" t="s">
-        <v>188</v>
-      </c>
-      <c r="E66" s="37" t="s">
-        <v>189</v>
-      </c>
-      <c r="F66" s="34" t="s">
-        <v>191</v>
+      <c r="D66" s="33" t="s">
+        <v>179</v>
+      </c>
+      <c r="E66" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="F66" s="30" t="s">
+        <v>182</v>
       </c>
       <c r="G66" s="9">
         <v>1</v>
@@ -4688,32 +4666,32 @@
       <c r="H66" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I66" s="37" t="s">
+      <c r="I66" s="33" t="s">
         <v>20</v>
       </c>
       <c r="J66" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="K66" t="s">
-        <v>227</v>
+      <c r="K66" s="17" t="s">
+        <v>368</v>
       </c>
       <c r="L66" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="67" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B67" s="14"/>
+      <c r="B67" s="12"/>
       <c r="C67" s="10">
         <v>43574</v>
       </c>
-      <c r="D67" s="37" t="s">
-        <v>188</v>
-      </c>
-      <c r="E67" s="37" t="s">
-        <v>190</v>
-      </c>
-      <c r="F67" s="34" t="s">
-        <v>156</v>
+      <c r="D67" s="33" t="s">
+        <v>179</v>
+      </c>
+      <c r="E67" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="F67" s="30" t="s">
+        <v>153</v>
       </c>
       <c r="G67" s="9">
         <v>1</v>
@@ -4721,32 +4699,32 @@
       <c r="H67" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I67" s="37" t="s">
+      <c r="I67" s="33" t="s">
         <v>20</v>
       </c>
       <c r="J67" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="K67" t="s">
-        <v>255</v>
+      <c r="K67" s="17" t="s">
+        <v>369</v>
       </c>
       <c r="L67" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="68" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B68" s="14"/>
+      <c r="B68" s="12"/>
       <c r="C68" s="10">
         <v>43575</v>
       </c>
-      <c r="D68" s="21" t="s">
+      <c r="D68" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="E68" s="21" t="s">
-        <v>192</v>
-      </c>
-      <c r="F68" s="34" t="s">
-        <v>156</v>
+      <c r="E68" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="F68" s="30" t="s">
+        <v>153</v>
       </c>
       <c r="G68" s="9">
         <v>1</v>
@@ -4754,32 +4732,32 @@
       <c r="H68" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I68" s="37" t="s">
+      <c r="I68" s="33" t="s">
         <v>42</v>
       </c>
       <c r="J68" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="K68" t="s">
-        <v>195</v>
+      <c r="K68" s="17" t="s">
+        <v>370</v>
       </c>
       <c r="L68" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="69" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B69" s="14"/>
+      <c r="B69" s="12"/>
       <c r="C69" s="10">
         <v>43575</v>
       </c>
-      <c r="D69" s="37" t="s">
+      <c r="D69" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="E69" s="37" t="s">
-        <v>193</v>
-      </c>
-      <c r="F69" s="34" t="s">
-        <v>194</v>
+      <c r="E69" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="F69" s="30" t="s">
+        <v>185</v>
       </c>
       <c r="G69" s="9">
         <v>1</v>
@@ -4787,32 +4765,32 @@
       <c r="H69" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I69" s="37" t="s">
+      <c r="I69" s="33" t="s">
         <v>37</v>
       </c>
       <c r="J69" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="K69" t="s">
-        <v>256</v>
+      <c r="K69" s="17" t="s">
+        <v>437</v>
       </c>
       <c r="L69" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="70" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B70" s="14"/>
+      <c r="B70" s="12"/>
       <c r="C70" s="10">
         <v>43575</v>
       </c>
-      <c r="D70" s="37" t="s">
+      <c r="D70" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="E70" s="37" t="s">
-        <v>193</v>
-      </c>
-      <c r="F70" s="34" t="s">
-        <v>194</v>
+      <c r="E70" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="F70" s="30" t="s">
+        <v>185</v>
       </c>
       <c r="G70" s="9">
         <v>1</v>
@@ -4820,32 +4798,32 @@
       <c r="H70" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I70" s="37" t="s">
+      <c r="I70" s="33" t="s">
         <v>37</v>
       </c>
       <c r="J70" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="K70" t="s">
-        <v>226</v>
+      <c r="K70" s="17" t="s">
+        <v>371</v>
       </c>
       <c r="L70" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="71" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B71" s="14"/>
+      <c r="B71" s="12"/>
       <c r="C71" s="10">
         <v>43575</v>
       </c>
-      <c r="D71" s="37" t="s">
+      <c r="D71" s="33" t="s">
         <v>127</v>
       </c>
-      <c r="E71" s="37" t="s">
+      <c r="E71" s="33" t="s">
         <v>128</v>
       </c>
-      <c r="F71" s="34" t="s">
-        <v>194</v>
+      <c r="F71" s="30" t="s">
+        <v>185</v>
       </c>
       <c r="G71" s="9">
         <v>1</v>
@@ -4853,32 +4831,32 @@
       <c r="H71" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I71" s="37" t="s">
+      <c r="I71" s="33" t="s">
         <v>42</v>
       </c>
       <c r="J71" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="K71" t="s">
-        <v>196</v>
+      <c r="K71" s="17" t="s">
+        <v>345</v>
       </c>
       <c r="L71" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="72" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B72" s="14"/>
+      <c r="B72" s="12"/>
       <c r="C72" s="10">
         <v>43575</v>
       </c>
-      <c r="D72" s="37" t="s">
+      <c r="D72" s="33" t="s">
         <v>127</v>
       </c>
-      <c r="E72" s="37" t="s">
+      <c r="E72" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="F72" s="34" t="s">
-        <v>194</v>
+      <c r="F72" s="30" t="s">
+        <v>185</v>
       </c>
       <c r="G72" s="9">
         <v>1</v>
@@ -4886,32 +4864,32 @@
       <c r="H72" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I72" s="37" t="s">
+      <c r="I72" s="33" t="s">
         <v>26</v>
       </c>
       <c r="J72" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="K72" t="s">
-        <v>197</v>
+      <c r="K72" s="17" t="s">
+        <v>186</v>
       </c>
       <c r="L72" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="73" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B73" s="14"/>
+      <c r="B73" s="12"/>
       <c r="C73" s="10">
         <v>43575</v>
       </c>
-      <c r="D73" s="37" t="s">
-        <v>198</v>
-      </c>
-      <c r="E73" s="37" t="s">
-        <v>199</v>
-      </c>
-      <c r="F73" s="34" t="s">
-        <v>151</v>
+      <c r="D73" s="33" t="s">
+        <v>187</v>
+      </c>
+      <c r="E73" s="33" t="s">
+        <v>188</v>
+      </c>
+      <c r="F73" s="30" t="s">
+        <v>149</v>
       </c>
       <c r="G73" s="9">
         <v>1</v>
@@ -4919,32 +4897,32 @@
       <c r="H73" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I73" s="37" t="s">
-        <v>200</v>
+      <c r="I73" s="33" t="s">
+        <v>189</v>
       </c>
       <c r="J73" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="K73" t="s">
-        <v>201</v>
+      <c r="K73" s="17" t="s">
+        <v>372</v>
       </c>
       <c r="L73" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="74" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B74" s="14"/>
+      <c r="B74" s="12"/>
       <c r="C74" s="10">
         <v>43575</v>
       </c>
-      <c r="D74" s="37" t="s">
+      <c r="D74" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="E74" s="37" t="s">
+      <c r="E74" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="F74" s="34" t="s">
-        <v>151</v>
+      <c r="F74" s="30" t="s">
+        <v>149</v>
       </c>
       <c r="G74" s="9">
         <v>1</v>
@@ -4952,32 +4930,32 @@
       <c r="H74" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I74" s="37" t="s">
+      <c r="I74" s="33" t="s">
         <v>26</v>
       </c>
       <c r="J74" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="K74" t="s">
-        <v>225</v>
+      <c r="K74" s="17" t="s">
+        <v>342</v>
       </c>
       <c r="L74" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="75" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B75" s="14"/>
+      <c r="B75" s="12"/>
       <c r="C75" s="10">
         <v>43577</v>
       </c>
-      <c r="D75" s="21" t="s">
-        <v>202</v>
-      </c>
-      <c r="E75" s="21" t="s">
-        <v>203</v>
-      </c>
-      <c r="F75" s="34" t="s">
-        <v>204</v>
+      <c r="D75" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="E75" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="F75" s="30" t="s">
+        <v>192</v>
       </c>
       <c r="G75" s="9">
         <v>1</v>
@@ -4985,32 +4963,32 @@
       <c r="H75" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I75" s="21" t="s">
+      <c r="I75" s="17" t="s">
         <v>30</v>
       </c>
       <c r="J75" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K75" t="s">
-        <v>257</v>
+      <c r="K75" s="17" t="s">
+        <v>373</v>
       </c>
       <c r="L75" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="76" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B76" s="14"/>
+      <c r="B76" s="12"/>
       <c r="C76" s="10">
         <v>43577</v>
       </c>
-      <c r="D76" s="21" t="s">
-        <v>202</v>
-      </c>
-      <c r="E76" s="21" t="s">
-        <v>208</v>
-      </c>
-      <c r="F76" s="34" t="s">
-        <v>204</v>
+      <c r="D76" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="E76" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="F76" s="30" t="s">
+        <v>192</v>
       </c>
       <c r="G76" s="9">
         <v>1</v>
@@ -5018,32 +4996,32 @@
       <c r="H76" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I76" s="21" t="s">
+      <c r="I76" s="17" t="s">
         <v>30</v>
       </c>
       <c r="J76" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="K76" t="s">
-        <v>206</v>
+        <v>193</v>
+      </c>
+      <c r="K76" s="17" t="s">
+        <v>374</v>
       </c>
       <c r="L76" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="77" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B77" s="14"/>
+      <c r="B77" s="12"/>
       <c r="C77" s="10">
         <v>43577</v>
       </c>
-      <c r="D77" s="21" t="s">
-        <v>202</v>
-      </c>
-      <c r="E77" s="21" t="s">
-        <v>207</v>
-      </c>
-      <c r="F77" s="34" t="s">
-        <v>204</v>
+      <c r="D77" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="E77" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="F77" s="30" t="s">
+        <v>192</v>
       </c>
       <c r="G77" s="9">
         <v>1</v>
@@ -5051,32 +5029,32 @@
       <c r="H77" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I77" s="21" t="s">
+      <c r="I77" s="17" t="s">
         <v>30</v>
       </c>
       <c r="J77" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K77" t="s">
-        <v>209</v>
+      <c r="K77" s="17" t="s">
+        <v>375</v>
       </c>
       <c r="L77" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="78" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B78" s="14"/>
+      <c r="B78" s="12"/>
       <c r="C78" s="10">
         <v>43577</v>
       </c>
-      <c r="D78" s="21" t="s">
-        <v>210</v>
-      </c>
-      <c r="E78" s="21" t="s">
-        <v>211</v>
-      </c>
-      <c r="F78" s="34" t="s">
-        <v>212</v>
+      <c r="D78" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="E78" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="F78" s="30" t="s">
+        <v>198</v>
       </c>
       <c r="G78" s="9">
         <v>1</v>
@@ -5084,32 +5062,32 @@
       <c r="H78" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I78" s="21" t="s">
+      <c r="I78" s="17" t="s">
         <v>30</v>
       </c>
       <c r="J78" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K78" t="s">
-        <v>258</v>
+      <c r="K78" s="17" t="s">
+        <v>376</v>
       </c>
       <c r="L78" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="79" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B79" s="14"/>
+      <c r="B79" s="12"/>
       <c r="C79" s="10">
         <v>43577</v>
       </c>
-      <c r="D79" s="21" t="s">
-        <v>213</v>
-      </c>
-      <c r="E79" s="21" t="s">
-        <v>214</v>
-      </c>
-      <c r="F79" s="34" t="s">
-        <v>215</v>
+      <c r="D79" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="E79" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="F79" s="30" t="s">
+        <v>201</v>
       </c>
       <c r="G79" s="9">
         <v>1</v>
@@ -5117,32 +5095,32 @@
       <c r="H79" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I79" s="21" t="s">
+      <c r="I79" s="17" t="s">
         <v>26</v>
       </c>
       <c r="J79" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="K79" t="s">
-        <v>216</v>
+      <c r="K79" s="17" t="s">
+        <v>202</v>
       </c>
       <c r="L79" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="80" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B80" s="14"/>
+      <c r="B80" s="12"/>
       <c r="C80" s="10">
         <v>43577</v>
       </c>
-      <c r="D80" s="21" t="s">
-        <v>217</v>
-      </c>
-      <c r="E80" s="21" t="s">
+      <c r="D80" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="E80" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="F80" s="34" t="s">
-        <v>215</v>
+      <c r="F80" s="30" t="s">
+        <v>201</v>
       </c>
       <c r="G80" s="9">
         <v>1</v>
@@ -5150,32 +5128,32 @@
       <c r="H80" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I80" s="21" t="s">
+      <c r="I80" s="17" t="s">
         <v>42</v>
       </c>
       <c r="J80" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="K80" t="s">
-        <v>196</v>
+      <c r="K80" s="17" t="s">
+        <v>345</v>
       </c>
       <c r="L80" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="81" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B81" s="14"/>
+      <c r="B81" s="12"/>
       <c r="C81" s="10">
         <v>43577</v>
       </c>
-      <c r="D81" s="38" t="s">
-        <v>218</v>
-      </c>
-      <c r="E81" s="38" t="s">
-        <v>219</v>
-      </c>
-      <c r="F81" s="34" t="s">
-        <v>220</v>
+      <c r="D81" s="34" t="s">
+        <v>204</v>
+      </c>
+      <c r="E81" s="34" t="s">
+        <v>205</v>
+      </c>
+      <c r="F81" s="30" t="s">
+        <v>206</v>
       </c>
       <c r="G81" s="9">
         <v>1</v>
@@ -5183,30 +5161,30 @@
       <c r="H81" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I81" s="38" t="s">
+      <c r="I81" s="34" t="s">
         <v>54</v>
       </c>
       <c r="J81" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="K81" t="s">
-        <v>223</v>
+      <c r="K81" s="17" t="s">
+        <v>377</v>
       </c>
       <c r="L81" s="9"/>
     </row>
     <row r="82" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B82" s="14"/>
+      <c r="B82" s="12"/>
       <c r="C82" s="10">
         <v>43577</v>
       </c>
-      <c r="D82" s="21" t="s">
+      <c r="D82" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="E82" s="21" t="s">
+      <c r="E82" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="F82" s="34" t="s">
-        <v>221</v>
+      <c r="F82" s="30" t="s">
+        <v>207</v>
       </c>
       <c r="G82" s="9">
         <v>1</v>
@@ -5214,32 +5192,32 @@
       <c r="H82" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I82" s="21" t="s">
+      <c r="I82" s="17" t="s">
         <v>58</v>
       </c>
       <c r="J82" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K82" t="s">
-        <v>222</v>
+      <c r="K82" s="17" t="s">
+        <v>378</v>
       </c>
       <c r="L82" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="83" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B83" s="14"/>
+      <c r="B83" s="12"/>
       <c r="C83" s="10">
         <v>43577</v>
       </c>
-      <c r="D83" s="21" t="s">
-        <v>149</v>
-      </c>
-      <c r="E83" s="21" t="s">
-        <v>150</v>
-      </c>
-      <c r="F83" s="34" t="s">
-        <v>215</v>
+      <c r="D83" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="E83" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="F83" s="30" t="s">
+        <v>201</v>
       </c>
       <c r="G83" s="9">
         <v>1</v>
@@ -5247,32 +5225,32 @@
       <c r="H83" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I83" s="21" t="s">
+      <c r="I83" s="17" t="s">
         <v>20</v>
       </c>
       <c r="J83" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="K83" t="s">
-        <v>224</v>
+      <c r="K83" s="17" t="s">
+        <v>208</v>
       </c>
       <c r="L83" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="84" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B84" s="14"/>
+      <c r="B84" s="12"/>
       <c r="C84" s="10">
         <v>43577</v>
       </c>
-      <c r="D84" s="36" t="s">
-        <v>232</v>
-      </c>
-      <c r="E84" s="36" t="s">
-        <v>233</v>
-      </c>
-      <c r="F84" s="34" t="s">
-        <v>234</v>
+      <c r="D84" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="E84" s="32" t="s">
+        <v>210</v>
+      </c>
+      <c r="F84" s="30" t="s">
+        <v>211</v>
       </c>
       <c r="G84" s="9">
         <v>1</v>
@@ -5280,32 +5258,32 @@
       <c r="H84" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I84" s="21" t="s">
+      <c r="I84" s="17" t="s">
         <v>20</v>
       </c>
       <c r="J84" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="K84" s="43" t="s">
-        <v>351</v>
+      <c r="K84" s="17" t="s">
+        <v>379</v>
       </c>
       <c r="L84" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="85" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B85" s="14"/>
+      <c r="B85" s="12"/>
       <c r="C85" s="10">
         <v>43578</v>
       </c>
-      <c r="D85" s="36" t="s">
+      <c r="D85" s="32" t="s">
         <v>115</v>
       </c>
-      <c r="E85" s="36" t="s">
+      <c r="E85" s="32" t="s">
         <v>116</v>
       </c>
-      <c r="F85" s="34" t="s">
-        <v>234</v>
+      <c r="F85" s="30" t="s">
+        <v>211</v>
       </c>
       <c r="G85" s="9">
         <v>1</v>
@@ -5313,32 +5291,32 @@
       <c r="H85" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I85" s="21" t="s">
+      <c r="I85" s="17" t="s">
         <v>58</v>
       </c>
       <c r="J85" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="K85" t="s">
-        <v>259</v>
+      <c r="K85" s="17" t="s">
+        <v>380</v>
       </c>
       <c r="L85" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="86" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B86" s="14"/>
+      <c r="B86" s="12"/>
       <c r="C86" s="10">
         <v>43578</v>
       </c>
-      <c r="D86" s="36" t="s">
-        <v>235</v>
-      </c>
-      <c r="E86" s="36" t="s">
-        <v>236</v>
-      </c>
-      <c r="F86" s="34" t="s">
-        <v>237</v>
+      <c r="D86" s="32" t="s">
+        <v>212</v>
+      </c>
+      <c r="E86" s="32" t="s">
+        <v>213</v>
+      </c>
+      <c r="F86" s="30" t="s">
+        <v>214</v>
       </c>
       <c r="G86" s="9">
         <v>1</v>
@@ -5346,32 +5324,32 @@
       <c r="H86" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I86" s="21" t="s">
+      <c r="I86" s="17" t="s">
         <v>58</v>
       </c>
       <c r="J86" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K86" t="s">
-        <v>260</v>
+      <c r="K86" s="17" t="s">
+        <v>381</v>
       </c>
       <c r="L86" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="87" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B87" s="14"/>
+      <c r="B87" s="12"/>
       <c r="C87" s="10">
         <v>43578</v>
       </c>
-      <c r="D87" s="21" t="s">
+      <c r="D87" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="E87" s="21" t="s">
-        <v>193</v>
-      </c>
-      <c r="F87" s="34" t="s">
-        <v>238</v>
+      <c r="E87" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="F87" s="30" t="s">
+        <v>215</v>
       </c>
       <c r="G87" s="9">
         <v>1</v>
@@ -5379,32 +5357,32 @@
       <c r="H87" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I87" s="21" t="s">
+      <c r="I87" s="17" t="s">
         <v>37</v>
       </c>
       <c r="J87" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K87" t="s">
-        <v>239</v>
+      <c r="K87" s="17" t="s">
+        <v>216</v>
       </c>
       <c r="L87" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="88" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B88" s="14"/>
+      <c r="B88" s="12"/>
       <c r="C88" s="10">
         <v>43578</v>
       </c>
-      <c r="D88" s="21" t="s">
+      <c r="D88" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="E88" s="21" t="s">
-        <v>240</v>
-      </c>
-      <c r="F88" s="34" t="s">
-        <v>241</v>
+      <c r="E88" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="F88" s="30" t="s">
+        <v>218</v>
       </c>
       <c r="G88" s="9">
         <v>1</v>
@@ -5412,32 +5390,32 @@
       <c r="H88" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I88" s="21" t="s">
+      <c r="I88" s="17" t="s">
         <v>54</v>
       </c>
       <c r="J88" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K88" t="s">
-        <v>242</v>
+      <c r="K88" s="17" t="s">
+        <v>382</v>
       </c>
       <c r="L88" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="89" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B89" s="14"/>
+      <c r="B89" s="12"/>
       <c r="C89" s="10">
         <v>43578</v>
       </c>
-      <c r="D89" s="21" t="s">
+      <c r="D89" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="E89" s="21" t="s">
-        <v>193</v>
-      </c>
-      <c r="F89" s="34" t="s">
-        <v>238</v>
+      <c r="E89" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="F89" s="30" t="s">
+        <v>215</v>
       </c>
       <c r="G89" s="9">
         <v>1</v>
@@ -5445,32 +5423,32 @@
       <c r="H89" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I89" s="21" t="s">
+      <c r="I89" s="17" t="s">
         <v>37</v>
       </c>
       <c r="J89" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="K89" t="s">
-        <v>239</v>
+      <c r="K89" s="17" t="s">
+        <v>216</v>
       </c>
       <c r="L89" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="90" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B90" s="14"/>
+      <c r="B90" s="12"/>
       <c r="C90" s="10">
         <v>43578</v>
       </c>
-      <c r="D90" s="21" t="s">
+      <c r="D90" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="E90" s="21" t="s">
-        <v>244</v>
-      </c>
-      <c r="F90" s="34" t="s">
-        <v>243</v>
+      <c r="E90" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="F90" s="30" t="s">
+        <v>219</v>
       </c>
       <c r="G90" s="9">
         <v>1</v>
@@ -5478,32 +5456,32 @@
       <c r="H90" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I90" s="21" t="s">
+      <c r="I90" s="17" t="s">
         <v>58</v>
       </c>
       <c r="J90" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="K90" t="s">
-        <v>273</v>
+      <c r="K90" s="17" t="s">
+        <v>383</v>
       </c>
       <c r="L90" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="91" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B91" s="14"/>
+      <c r="B91" s="12"/>
       <c r="C91" s="10">
         <v>43578</v>
       </c>
-      <c r="D91" s="21" t="s">
-        <v>218</v>
-      </c>
-      <c r="E91" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="F91" s="34" t="s">
-        <v>163</v>
+      <c r="D91" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="E91" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="F91" s="30" t="s">
+        <v>159</v>
       </c>
       <c r="G91" s="9">
         <v>1</v>
@@ -5511,32 +5489,32 @@
       <c r="H91" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I91" s="21" t="s">
+      <c r="I91" s="17" t="s">
         <v>37</v>
       </c>
       <c r="J91" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K91" t="s">
-        <v>261</v>
+      <c r="K91" s="17" t="s">
+        <v>384</v>
       </c>
       <c r="L91" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="92" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B92" s="14"/>
+      <c r="B92" s="12"/>
       <c r="C92" s="10">
         <v>43578</v>
       </c>
-      <c r="D92" s="21" t="s">
-        <v>218</v>
-      </c>
-      <c r="E92" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="F92" s="34" t="s">
-        <v>163</v>
+      <c r="D92" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="E92" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="F92" s="30" t="s">
+        <v>159</v>
       </c>
       <c r="G92" s="9">
         <v>1</v>
@@ -5544,32 +5522,32 @@
       <c r="H92" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I92" s="21" t="s">
+      <c r="I92" s="17" t="s">
         <v>37</v>
       </c>
       <c r="J92" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K92" t="s">
-        <v>263</v>
+      <c r="K92" s="17" t="s">
+        <v>385</v>
       </c>
       <c r="L92" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="93" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B93" s="14"/>
+      <c r="B93" s="12"/>
       <c r="C93" s="10">
         <v>43578</v>
       </c>
-      <c r="D93" s="21" t="s">
+      <c r="D93" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="E93" s="21" t="s">
+      <c r="E93" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="F93" s="34" t="s">
-        <v>264</v>
+      <c r="F93" s="30" t="s">
+        <v>221</v>
       </c>
       <c r="G93" s="9">
         <v>1</v>
@@ -5577,32 +5555,32 @@
       <c r="H93" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I93" s="21" t="s">
+      <c r="I93" s="17" t="s">
         <v>58</v>
       </c>
       <c r="J93" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="K93" s="43" t="s">
-        <v>350</v>
+      <c r="K93" s="17" t="s">
+        <v>386</v>
       </c>
       <c r="L93" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="94" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B94" s="14"/>
+      <c r="B94" s="12"/>
       <c r="C94" s="10">
         <v>43578</v>
       </c>
-      <c r="D94" s="21" t="s">
-        <v>265</v>
-      </c>
-      <c r="E94" s="21" t="s">
-        <v>266</v>
-      </c>
-      <c r="F94" s="34" t="s">
-        <v>267</v>
+      <c r="D94" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="E94" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="F94" s="30" t="s">
+        <v>224</v>
       </c>
       <c r="G94" s="9">
         <v>1</v>
@@ -5610,32 +5588,32 @@
       <c r="H94" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I94" s="21" t="s">
+      <c r="I94" s="17" t="s">
         <v>54</v>
       </c>
       <c r="J94" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K94" t="s">
-        <v>274</v>
+      <c r="K94" s="17" t="s">
+        <v>387</v>
       </c>
       <c r="L94" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="95" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B95" s="14"/>
+      <c r="B95" s="12"/>
       <c r="C95" s="10">
         <v>43578</v>
       </c>
-      <c r="D95" s="21" t="s">
-        <v>268</v>
-      </c>
-      <c r="E95" s="21" t="s">
-        <v>269</v>
-      </c>
-      <c r="F95" s="34" t="s">
-        <v>270</v>
+      <c r="D95" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="E95" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="F95" s="30" t="s">
+        <v>227</v>
       </c>
       <c r="G95" s="9">
         <v>1</v>
@@ -5643,32 +5621,32 @@
       <c r="H95" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I95" s="21" t="s">
+      <c r="I95" s="17" t="s">
         <v>58</v>
       </c>
       <c r="J95" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="K95" t="s">
-        <v>275</v>
+      <c r="K95" s="17" t="s">
+        <v>388</v>
       </c>
       <c r="L95" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="96" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B96" s="14"/>
+      <c r="B96" s="12"/>
       <c r="C96" s="10">
         <v>43578</v>
       </c>
-      <c r="D96" s="21" t="s">
-        <v>271</v>
-      </c>
-      <c r="E96" s="21" t="s">
-        <v>271</v>
-      </c>
-      <c r="F96" s="34" t="s">
-        <v>272</v>
+      <c r="D96" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="E96" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="F96" s="30" t="s">
+        <v>229</v>
       </c>
       <c r="G96" s="9">
         <v>1</v>
@@ -5676,32 +5654,32 @@
       <c r="H96" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I96" s="21" t="s">
+      <c r="I96" s="17" t="s">
         <v>20</v>
       </c>
       <c r="J96" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K96" t="s">
-        <v>276</v>
+      <c r="K96" s="17" t="s">
+        <v>389</v>
       </c>
       <c r="L96" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="97" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B97" s="14"/>
+      <c r="B97" s="12"/>
       <c r="C97" s="10">
         <v>43578</v>
       </c>
-      <c r="D97" t="s">
+      <c r="D97" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="E97" t="s">
-        <v>277</v>
-      </c>
-      <c r="F97" s="34" t="s">
-        <v>278</v>
+      <c r="E97" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="F97" s="30" t="s">
+        <v>231</v>
       </c>
       <c r="G97" s="9">
         <v>1</v>
@@ -5709,32 +5687,32 @@
       <c r="H97" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I97" t="s">
+      <c r="I97" s="17" t="s">
         <v>37</v>
       </c>
       <c r="J97" s="9" t="s">
-        <v>279</v>
-      </c>
-      <c r="K97" t="s">
-        <v>280</v>
+        <v>232</v>
+      </c>
+      <c r="K97" s="17" t="s">
+        <v>233</v>
       </c>
       <c r="L97" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="98" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B98" s="14"/>
+      <c r="B98" s="12"/>
       <c r="C98" s="10">
         <v>43578</v>
       </c>
-      <c r="D98" t="s">
-        <v>210</v>
-      </c>
-      <c r="E98" t="s">
-        <v>211</v>
-      </c>
-      <c r="F98" s="34" t="s">
-        <v>281</v>
+      <c r="D98" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="E98" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="F98" s="30" t="s">
+        <v>234</v>
       </c>
       <c r="G98" s="9">
         <v>1</v>
@@ -5742,32 +5720,32 @@
       <c r="H98" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I98" t="s">
+      <c r="I98" s="17" t="s">
         <v>30</v>
       </c>
       <c r="J98" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K98" s="39" t="s">
-        <v>282</v>
+      <c r="K98" s="17" t="s">
+        <v>390</v>
       </c>
       <c r="L98" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="99" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B99" s="14"/>
+      <c r="B99" s="12"/>
       <c r="C99" s="10">
         <v>43578</v>
       </c>
-      <c r="D99" s="40" t="s">
-        <v>202</v>
-      </c>
-      <c r="E99" s="40" t="s">
-        <v>208</v>
-      </c>
-      <c r="F99" s="34" t="s">
-        <v>204</v>
+      <c r="D99" s="33" t="s">
+        <v>190</v>
+      </c>
+      <c r="E99" s="33" t="s">
+        <v>195</v>
+      </c>
+      <c r="F99" s="30" t="s">
+        <v>192</v>
       </c>
       <c r="G99" s="9">
         <v>1</v>
@@ -5775,32 +5753,32 @@
       <c r="H99" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I99" s="40" t="s">
+      <c r="I99" s="33" t="s">
         <v>30</v>
       </c>
       <c r="J99" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="K99" s="40" t="s">
-        <v>283</v>
+      <c r="K99" s="17" t="s">
+        <v>235</v>
       </c>
       <c r="L99" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="100" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B100" s="14"/>
+      <c r="B100" s="12"/>
       <c r="C100" s="10">
         <v>43578</v>
       </c>
-      <c r="D100" s="40" t="s">
-        <v>202</v>
-      </c>
-      <c r="E100" s="40" t="s">
-        <v>285</v>
-      </c>
-      <c r="F100" s="34" t="s">
-        <v>204</v>
+      <c r="D100" s="33" t="s">
+        <v>190</v>
+      </c>
+      <c r="E100" s="33" t="s">
+        <v>237</v>
+      </c>
+      <c r="F100" s="30" t="s">
+        <v>192</v>
       </c>
       <c r="G100" s="9">
         <v>1</v>
@@ -5808,65 +5786,65 @@
       <c r="H100" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I100" s="40" t="s">
+      <c r="I100" s="33" t="s">
         <v>30</v>
       </c>
       <c r="J100" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="K100" s="40" t="s">
-        <v>284</v>
+      <c r="K100" s="17" t="s">
+        <v>236</v>
       </c>
       <c r="L100" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="101" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B101" s="14"/>
+      <c r="B101" s="12"/>
       <c r="C101" s="10">
         <v>43578</v>
       </c>
-      <c r="D101" s="40" t="s">
-        <v>286</v>
-      </c>
-      <c r="E101" s="40" t="s">
-        <v>287</v>
-      </c>
-      <c r="F101" s="34" t="s">
+      <c r="D101" s="33" t="s">
         <v>238</v>
       </c>
+      <c r="E101" s="33" t="s">
+        <v>239</v>
+      </c>
+      <c r="F101" s="30" t="s">
+        <v>215</v>
+      </c>
       <c r="G101" s="9">
         <v>1</v>
       </c>
       <c r="H101" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I101" s="40" t="s">
+      <c r="I101" s="33" t="s">
         <v>37</v>
       </c>
       <c r="J101" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="K101" s="39" t="s">
-        <v>289</v>
+      <c r="K101" s="17" t="s">
+        <v>391</v>
       </c>
       <c r="L101" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="102" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B102" s="14"/>
+      <c r="B102" s="12"/>
       <c r="C102" s="10">
         <v>43578</v>
       </c>
-      <c r="D102" s="40" t="s">
+      <c r="D102" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="E102" s="40" t="s">
+      <c r="E102" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="F102" s="34" t="s">
-        <v>156</v>
+      <c r="F102" s="30" t="s">
+        <v>153</v>
       </c>
       <c r="G102" s="9">
         <v>1</v>
@@ -5874,32 +5852,32 @@
       <c r="H102" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I102" s="40" t="s">
+      <c r="I102" s="33" t="s">
         <v>20</v>
       </c>
       <c r="J102" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="K102" s="40" t="s">
-        <v>288</v>
+      <c r="K102" s="17" t="s">
+        <v>240</v>
       </c>
       <c r="L102" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="103" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B103" s="14"/>
+      <c r="B103" s="12"/>
       <c r="C103" s="10">
         <v>43579</v>
       </c>
-      <c r="D103" t="s">
-        <v>290</v>
-      </c>
-      <c r="E103" t="s">
+      <c r="D103" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="E103" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="F103" s="34" t="s">
-        <v>291</v>
+      <c r="F103" s="30" t="s">
+        <v>242</v>
       </c>
       <c r="G103" s="9">
         <v>1</v>
@@ -5907,32 +5885,32 @@
       <c r="H103" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I103" t="s">
+      <c r="I103" s="17" t="s">
         <v>42</v>
       </c>
       <c r="J103" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="K103" s="39" t="s">
-        <v>292</v>
+      <c r="K103" s="17" t="s">
+        <v>345</v>
       </c>
       <c r="L103" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="104" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B104" s="14"/>
+      <c r="B104" s="12"/>
       <c r="C104" s="10">
         <v>43579</v>
       </c>
-      <c r="D104" t="s">
-        <v>293</v>
-      </c>
-      <c r="E104" t="s">
-        <v>294</v>
-      </c>
-      <c r="F104" s="34" t="s">
-        <v>295</v>
+      <c r="D104" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="E104" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="F104" s="30" t="s">
+        <v>245</v>
       </c>
       <c r="G104" s="9">
         <v>1</v>
@@ -5940,32 +5918,32 @@
       <c r="H104" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I104" t="s">
+      <c r="I104" s="17" t="s">
         <v>37</v>
       </c>
       <c r="J104" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K104" s="39" t="s">
-        <v>296</v>
+      <c r="K104" s="17" t="s">
+        <v>392</v>
       </c>
       <c r="L104" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="105" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B105" s="14"/>
+      <c r="B105" s="12"/>
       <c r="C105" s="10">
         <v>43579</v>
       </c>
-      <c r="D105" s="41" t="s">
+      <c r="D105" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="E105" s="42" t="s">
-        <v>297</v>
-      </c>
-      <c r="F105" s="34" t="s">
-        <v>291</v>
+      <c r="E105" s="32" t="s">
+        <v>246</v>
+      </c>
+      <c r="F105" s="30" t="s">
+        <v>242</v>
       </c>
       <c r="G105" s="9">
         <v>1</v>
@@ -5973,32 +5951,32 @@
       <c r="H105" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I105" t="s">
+      <c r="I105" s="17" t="s">
         <v>42</v>
       </c>
       <c r="J105" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="K105" s="43" t="s">
-        <v>298</v>
+      <c r="K105" s="17" t="s">
+        <v>393</v>
       </c>
       <c r="L105" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="106" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B106" s="14"/>
+      <c r="B106" s="12"/>
       <c r="C106" s="10">
         <v>43579</v>
       </c>
-      <c r="D106" s="41" t="s">
-        <v>299</v>
-      </c>
-      <c r="E106" s="40" t="s">
-        <v>300</v>
-      </c>
-      <c r="F106" s="34" t="s">
-        <v>291</v>
+      <c r="D106" s="34" t="s">
+        <v>247</v>
+      </c>
+      <c r="E106" s="33" t="s">
+        <v>248</v>
+      </c>
+      <c r="F106" s="30" t="s">
+        <v>242</v>
       </c>
       <c r="G106" s="9">
         <v>1</v>
@@ -6006,32 +5984,32 @@
       <c r="H106" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I106" s="40" t="s">
+      <c r="I106" s="33" t="s">
         <v>58</v>
       </c>
       <c r="J106" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K106" s="43" t="s">
-        <v>301</v>
+      <c r="K106" s="17" t="s">
+        <v>394</v>
       </c>
       <c r="L106" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="107" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B107" s="14"/>
+      <c r="B107" s="12"/>
       <c r="C107" s="10">
         <v>43579</v>
       </c>
-      <c r="D107" s="40" t="s">
-        <v>302</v>
-      </c>
-      <c r="E107" s="40" t="s">
-        <v>303</v>
-      </c>
-      <c r="F107" s="34" t="s">
-        <v>304</v>
+      <c r="D107" s="33" t="s">
+        <v>249</v>
+      </c>
+      <c r="E107" s="33" t="s">
+        <v>250</v>
+      </c>
+      <c r="F107" s="30" t="s">
+        <v>251</v>
       </c>
       <c r="G107" s="9">
         <v>1</v>
@@ -6039,32 +6017,32 @@
       <c r="H107" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I107" s="40" t="s">
+      <c r="I107" s="33" t="s">
         <v>37</v>
       </c>
       <c r="J107" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="K107" s="43" t="s">
-        <v>305</v>
+      <c r="K107" s="17" t="s">
+        <v>395</v>
       </c>
       <c r="L107" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="108" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B108" s="14"/>
+      <c r="B108" s="12"/>
       <c r="C108" s="10">
         <v>43579</v>
       </c>
-      <c r="D108" s="40" t="s">
-        <v>149</v>
-      </c>
-      <c r="E108" s="40" t="s">
-        <v>150</v>
-      </c>
-      <c r="F108" s="34" t="s">
-        <v>306</v>
+      <c r="D108" s="33" t="s">
+        <v>147</v>
+      </c>
+      <c r="E108" s="33" t="s">
+        <v>148</v>
+      </c>
+      <c r="F108" s="30" t="s">
+        <v>252</v>
       </c>
       <c r="G108" s="9">
         <v>1</v>
@@ -6072,32 +6050,32 @@
       <c r="H108" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I108" s="40" t="s">
+      <c r="I108" s="33" t="s">
         <v>20</v>
       </c>
       <c r="J108" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="K108" s="43" t="s">
-        <v>307</v>
+      <c r="K108" s="17" t="s">
+        <v>396</v>
       </c>
       <c r="L108" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="109" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B109" s="14"/>
+      <c r="B109" s="12"/>
       <c r="C109" s="10">
         <v>43579</v>
       </c>
-      <c r="D109" s="40" t="s">
+      <c r="D109" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="E109" s="40" t="s">
-        <v>308</v>
-      </c>
-      <c r="F109" s="34" t="s">
-        <v>291</v>
+      <c r="E109" s="33" t="s">
+        <v>253</v>
+      </c>
+      <c r="F109" s="30" t="s">
+        <v>242</v>
       </c>
       <c r="G109" s="9">
         <v>1</v>
@@ -6105,32 +6083,32 @@
       <c r="H109" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I109" s="40" t="s">
+      <c r="I109" s="33" t="s">
         <v>58</v>
       </c>
       <c r="J109" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="K109" s="43" t="s">
-        <v>309</v>
+      <c r="K109" s="17" t="s">
+        <v>397</v>
       </c>
       <c r="L109" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="110" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B110" s="14"/>
+      <c r="B110" s="12"/>
       <c r="C110" s="10">
         <v>43579</v>
       </c>
-      <c r="D110" s="40" t="s">
-        <v>302</v>
-      </c>
-      <c r="E110" s="40" t="s">
-        <v>303</v>
-      </c>
-      <c r="F110" s="34" t="s">
-        <v>304</v>
+      <c r="D110" s="33" t="s">
+        <v>249</v>
+      </c>
+      <c r="E110" s="33" t="s">
+        <v>250</v>
+      </c>
+      <c r="F110" s="30" t="s">
+        <v>251</v>
       </c>
       <c r="G110" s="9">
         <v>1</v>
@@ -6138,32 +6116,32 @@
       <c r="H110" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I110" s="40" t="s">
+      <c r="I110" s="33" t="s">
         <v>37</v>
       </c>
       <c r="J110" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K110" s="43" t="s">
-        <v>310</v>
+      <c r="K110" s="17" t="s">
+        <v>398</v>
       </c>
       <c r="L110" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="111" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B111" s="14"/>
+      <c r="B111" s="12"/>
       <c r="C111" s="10">
         <v>43579</v>
       </c>
-      <c r="D111" t="s">
-        <v>311</v>
-      </c>
-      <c r="E111" t="s">
-        <v>312</v>
-      </c>
-      <c r="F111" s="34" t="s">
-        <v>313</v>
+      <c r="D111" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="E111" s="17" t="s">
+        <v>255</v>
+      </c>
+      <c r="F111" s="30" t="s">
+        <v>256</v>
       </c>
       <c r="G111" s="9">
         <v>1</v>
@@ -6171,32 +6149,32 @@
       <c r="H111" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I111" t="s">
+      <c r="I111" s="17" t="s">
         <v>30</v>
       </c>
       <c r="J111" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K111" s="39" t="s">
-        <v>314</v>
+      <c r="K111" s="17" t="s">
+        <v>399</v>
       </c>
       <c r="L111" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="112" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B112" s="14"/>
+      <c r="B112" s="12"/>
       <c r="C112" s="10">
         <v>43579</v>
       </c>
-      <c r="D112" t="s">
-        <v>210</v>
-      </c>
-      <c r="E112" t="s">
-        <v>211</v>
-      </c>
-      <c r="F112" s="34" t="s">
-        <v>212</v>
+      <c r="D112" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="E112" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="F112" s="30" t="s">
+        <v>198</v>
       </c>
       <c r="G112" s="9">
         <v>1</v>
@@ -6204,32 +6182,32 @@
       <c r="H112" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I112" t="s">
+      <c r="I112" s="17" t="s">
         <v>30</v>
       </c>
       <c r="J112" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K112" s="39" t="s">
-        <v>315</v>
+      <c r="K112" s="17" t="s">
+        <v>400</v>
       </c>
       <c r="L112" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="113" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B113" s="14"/>
+      <c r="B113" s="12"/>
       <c r="C113" s="10">
         <v>43579</v>
       </c>
-      <c r="D113" t="s">
-        <v>316</v>
-      </c>
-      <c r="E113" t="s">
+      <c r="D113" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="E113" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="F113" s="34" t="s">
-        <v>151</v>
+      <c r="F113" s="30" t="s">
+        <v>149</v>
       </c>
       <c r="G113" s="9">
         <v>1</v>
@@ -6237,32 +6215,32 @@
       <c r="H113" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I113" t="s">
+      <c r="I113" s="17" t="s">
         <v>42</v>
       </c>
       <c r="J113" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="K113" t="s">
-        <v>317</v>
+      <c r="K113" s="17" t="s">
+        <v>258</v>
       </c>
       <c r="L113" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="114" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B114" s="14"/>
+      <c r="B114" s="12"/>
       <c r="C114" s="10">
         <v>43580</v>
       </c>
-      <c r="D114" t="s">
-        <v>235</v>
-      </c>
-      <c r="E114" t="s">
-        <v>318</v>
-      </c>
-      <c r="F114" s="34" t="s">
-        <v>151</v>
+      <c r="D114" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="E114" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="F114" s="30" t="s">
+        <v>149</v>
       </c>
       <c r="G114" s="9">
         <v>1</v>
@@ -6270,32 +6248,32 @@
       <c r="H114" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I114" t="s">
+      <c r="I114" s="17" t="s">
         <v>54</v>
       </c>
       <c r="J114" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K114" s="39" t="s">
-        <v>321</v>
+      <c r="K114" s="17" t="s">
+        <v>401</v>
       </c>
       <c r="L114" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="115" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B115" s="14"/>
+      <c r="B115" s="12"/>
       <c r="C115" s="10">
         <v>43580</v>
       </c>
-      <c r="D115" t="s">
-        <v>320</v>
-      </c>
-      <c r="E115" t="s">
-        <v>166</v>
-      </c>
-      <c r="F115" s="34" t="s">
-        <v>151</v>
+      <c r="D115" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="E115" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="F115" s="30" t="s">
+        <v>149</v>
       </c>
       <c r="G115" s="9">
         <v>1</v>
@@ -6303,32 +6281,32 @@
       <c r="H115" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I115" t="s">
+      <c r="I115" s="17" t="s">
         <v>54</v>
       </c>
       <c r="J115" s="9" t="s">
-        <v>319</v>
-      </c>
-      <c r="K115" s="39" t="s">
-        <v>322</v>
+        <v>260</v>
+      </c>
+      <c r="K115" s="17" t="s">
+        <v>402</v>
       </c>
       <c r="L115" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="116" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B116" s="14"/>
+      <c r="B116" s="12"/>
       <c r="C116" s="10">
         <v>43580</v>
       </c>
-      <c r="D116" t="s">
-        <v>323</v>
-      </c>
-      <c r="E116" t="s">
-        <v>324</v>
-      </c>
-      <c r="F116" s="34" t="s">
-        <v>325</v>
+      <c r="D116" s="17" t="s">
+        <v>262</v>
+      </c>
+      <c r="E116" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="F116" s="30" t="s">
+        <v>264</v>
       </c>
       <c r="G116" s="9">
         <v>1</v>
@@ -6336,32 +6314,32 @@
       <c r="H116" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I116" t="s">
+      <c r="I116" s="17" t="s">
         <v>37</v>
       </c>
       <c r="J116" s="9" t="s">
-        <v>319</v>
-      </c>
-      <c r="K116" s="39" t="s">
-        <v>326</v>
+        <v>260</v>
+      </c>
+      <c r="K116" s="17" t="s">
+        <v>403</v>
       </c>
       <c r="L116" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="117" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B117" s="14"/>
+      <c r="B117" s="12"/>
       <c r="C117" s="10">
         <v>43580</v>
       </c>
-      <c r="D117" t="s">
-        <v>165</v>
-      </c>
-      <c r="E117" t="s">
-        <v>219</v>
-      </c>
-      <c r="F117" s="34" t="s">
-        <v>220</v>
+      <c r="D117" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="E117" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="F117" s="30" t="s">
+        <v>206</v>
       </c>
       <c r="G117" s="9">
         <v>1</v>
@@ -6369,32 +6347,32 @@
       <c r="H117" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I117" t="s">
+      <c r="I117" s="17" t="s">
         <v>54</v>
       </c>
       <c r="J117" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="K117" s="39" t="s">
-        <v>327</v>
+      <c r="K117" s="17" t="s">
+        <v>404</v>
       </c>
       <c r="L117" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="118" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B118" s="14"/>
+      <c r="B118" s="12"/>
       <c r="C118" s="10">
         <v>43580</v>
       </c>
-      <c r="D118" t="s">
-        <v>328</v>
-      </c>
-      <c r="E118" t="s">
-        <v>329</v>
-      </c>
-      <c r="F118" s="34" t="s">
-        <v>330</v>
+      <c r="D118" s="17" t="s">
+        <v>265</v>
+      </c>
+      <c r="E118" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="F118" s="30" t="s">
+        <v>267</v>
       </c>
       <c r="G118" s="9">
         <v>1</v>
@@ -6402,32 +6380,32 @@
       <c r="H118" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I118" t="s">
+      <c r="I118" s="17" t="s">
         <v>37</v>
       </c>
       <c r="J118" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="K118" s="39" t="s">
-        <v>331</v>
+      <c r="K118" s="17" t="s">
+        <v>405</v>
       </c>
       <c r="L118" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="119" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B119" s="14"/>
+      <c r="B119" s="12"/>
       <c r="C119" s="10">
         <v>43580</v>
       </c>
-      <c r="D119" t="s">
-        <v>332</v>
-      </c>
-      <c r="E119" t="s">
-        <v>333</v>
-      </c>
-      <c r="F119" s="34" t="s">
-        <v>334</v>
+      <c r="D119" s="17" t="s">
+        <v>268</v>
+      </c>
+      <c r="E119" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="F119" s="30" t="s">
+        <v>270</v>
       </c>
       <c r="G119" s="9">
         <v>1</v>
@@ -6435,32 +6413,32 @@
       <c r="H119" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I119" t="s">
+      <c r="I119" s="17" t="s">
         <v>20</v>
       </c>
       <c r="J119" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="K119" s="39" t="s">
-        <v>335</v>
+      <c r="K119" s="17" t="s">
+        <v>406</v>
       </c>
       <c r="L119" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="120" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B120" s="14"/>
+      <c r="B120" s="12"/>
       <c r="C120" s="10">
         <v>43580</v>
       </c>
-      <c r="D120" t="s">
-        <v>290</v>
-      </c>
-      <c r="E120" t="s">
-        <v>336</v>
-      </c>
-      <c r="F120" s="34" t="s">
-        <v>334</v>
+      <c r="D120" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="E120" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="F120" s="30" t="s">
+        <v>270</v>
       </c>
       <c r="G120" s="9">
         <v>1</v>
@@ -6468,32 +6446,32 @@
       <c r="H120" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I120" t="s">
+      <c r="I120" s="17" t="s">
         <v>58</v>
       </c>
       <c r="J120" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K120" s="39" t="s">
-        <v>337</v>
+      <c r="K120" s="17" t="s">
+        <v>407</v>
       </c>
       <c r="L120" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="121" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B121" s="14"/>
+      <c r="B121" s="12"/>
       <c r="C121" s="10">
         <v>43580</v>
       </c>
-      <c r="D121" t="s">
+      <c r="D121" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="E121" t="s">
+      <c r="E121" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="F121" s="34" t="s">
-        <v>264</v>
+      <c r="F121" s="30" t="s">
+        <v>221</v>
       </c>
       <c r="G121" s="9">
         <v>1</v>
@@ -6501,32 +6479,32 @@
       <c r="H121" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I121" t="s">
+      <c r="I121" s="17" t="s">
         <v>58</v>
       </c>
       <c r="J121" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="K121" t="s">
-        <v>338</v>
+      <c r="K121" s="17" t="s">
+        <v>272</v>
       </c>
       <c r="L121" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="122" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B122" s="14"/>
+      <c r="B122" s="12"/>
       <c r="C122" s="10">
         <v>43580</v>
       </c>
-      <c r="D122" t="s">
-        <v>339</v>
-      </c>
-      <c r="E122" t="s">
-        <v>340</v>
-      </c>
-      <c r="F122" s="34" t="s">
-        <v>343</v>
+      <c r="D122" s="17" t="s">
+        <v>273</v>
+      </c>
+      <c r="E122" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="F122" s="30" t="s">
+        <v>276</v>
       </c>
       <c r="G122" s="9">
         <v>1</v>
@@ -6534,32 +6512,32 @@
       <c r="H122" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I122" s="21" t="s">
+      <c r="I122" s="17" t="s">
         <v>26</v>
       </c>
       <c r="J122" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="K122" s="39" t="s">
-        <v>341</v>
+      <c r="K122" s="17" t="s">
+        <v>408</v>
       </c>
       <c r="L122" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="123" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B123" s="14"/>
+      <c r="B123" s="12"/>
       <c r="C123" s="10">
         <v>43580</v>
       </c>
-      <c r="D123" s="44" t="s">
+      <c r="D123" s="47" t="s">
         <v>107</v>
       </c>
-      <c r="E123" s="44" t="s">
-        <v>342</v>
-      </c>
-      <c r="F123" s="34" t="s">
-        <v>151</v>
+      <c r="E123" s="47" t="s">
+        <v>275</v>
+      </c>
+      <c r="F123" s="30" t="s">
+        <v>149</v>
       </c>
       <c r="G123" s="9">
         <v>1</v>
@@ -6567,32 +6545,32 @@
       <c r="H123" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I123" s="44" t="s">
-        <v>344</v>
+      <c r="I123" s="47" t="s">
+        <v>277</v>
       </c>
       <c r="J123" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="K123" s="43" t="s">
-        <v>345</v>
+      <c r="K123" s="17" t="s">
+        <v>409</v>
       </c>
       <c r="L123" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="124" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B124" s="14"/>
+      <c r="B124" s="12"/>
       <c r="C124" s="10">
         <v>43580</v>
       </c>
-      <c r="D124" s="40" t="s">
-        <v>346</v>
-      </c>
-      <c r="E124" s="40" t="s">
-        <v>347</v>
-      </c>
-      <c r="F124" s="34" t="s">
-        <v>348</v>
+      <c r="D124" s="33" t="s">
+        <v>278</v>
+      </c>
+      <c r="E124" s="33" t="s">
+        <v>279</v>
+      </c>
+      <c r="F124" s="30" t="s">
+        <v>280</v>
       </c>
       <c r="G124" s="9">
         <v>1</v>
@@ -6600,32 +6578,32 @@
       <c r="H124" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I124" s="40" t="s">
+      <c r="I124" s="33" t="s">
         <v>37</v>
       </c>
       <c r="J124" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K124" s="43" t="s">
-        <v>349</v>
+      <c r="K124" s="17" t="s">
+        <v>410</v>
       </c>
       <c r="L124" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="125" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B125" s="14"/>
+      <c r="B125" s="12"/>
       <c r="C125" s="10">
         <v>43580</v>
       </c>
-      <c r="D125" s="44" t="s">
+      <c r="D125" s="47" t="s">
         <v>107</v>
       </c>
-      <c r="E125" s="44" t="s">
-        <v>342</v>
-      </c>
-      <c r="F125" s="34" t="s">
-        <v>151</v>
+      <c r="E125" s="47" t="s">
+        <v>275</v>
+      </c>
+      <c r="F125" s="30" t="s">
+        <v>149</v>
       </c>
       <c r="G125" s="9">
         <v>1</v>
@@ -6633,32 +6611,32 @@
       <c r="H125" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I125" s="44" t="s">
-        <v>344</v>
+      <c r="I125" s="47" t="s">
+        <v>277</v>
       </c>
       <c r="J125" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="K125" s="43" t="s">
-        <v>345</v>
+      <c r="K125" s="17" t="s">
+        <v>409</v>
       </c>
       <c r="L125" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="126" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B126" s="14"/>
+      <c r="B126" s="12"/>
       <c r="C126" s="10">
         <v>43580</v>
       </c>
-      <c r="D126" s="40" t="s">
+      <c r="D126" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="E126" s="40" t="s">
-        <v>199</v>
-      </c>
-      <c r="F126" s="34" t="s">
-        <v>151</v>
+      <c r="E126" s="33" t="s">
+        <v>188</v>
+      </c>
+      <c r="F126" s="30" t="s">
+        <v>149</v>
       </c>
       <c r="G126" s="9">
         <v>1</v>
@@ -6666,32 +6644,32 @@
       <c r="H126" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I126" s="40" t="s">
-        <v>200</v>
+      <c r="I126" s="33" t="s">
+        <v>189</v>
       </c>
       <c r="J126" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="K126" s="43" t="s">
-        <v>352</v>
+      <c r="K126" s="17" t="s">
+        <v>372</v>
       </c>
       <c r="L126" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="127" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B127" s="14"/>
+      <c r="B127" s="12"/>
       <c r="C127" s="10">
         <v>43580</v>
       </c>
-      <c r="D127" s="40" t="s">
-        <v>353</v>
-      </c>
-      <c r="E127" s="40" t="s">
-        <v>354</v>
-      </c>
-      <c r="F127" s="34" t="s">
-        <v>355</v>
+      <c r="D127" s="33" t="s">
+        <v>281</v>
+      </c>
+      <c r="E127" s="33" t="s">
+        <v>282</v>
+      </c>
+      <c r="F127" s="30" t="s">
+        <v>283</v>
       </c>
       <c r="G127" s="9">
         <v>1</v>
@@ -6699,32 +6677,32 @@
       <c r="H127" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I127" s="40" t="s">
-        <v>344</v>
+      <c r="I127" s="33" t="s">
+        <v>277</v>
       </c>
       <c r="J127" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K127" s="43" t="s">
-        <v>356</v>
+      <c r="K127" s="17" t="s">
+        <v>411</v>
       </c>
       <c r="L127" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="128" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B128" s="14"/>
+      <c r="B128" s="12"/>
       <c r="C128" s="10">
         <v>43581</v>
       </c>
-      <c r="D128" t="s">
-        <v>357</v>
-      </c>
-      <c r="E128" t="s">
-        <v>193</v>
-      </c>
-      <c r="F128" s="34" t="s">
-        <v>358</v>
+      <c r="D128" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="E128" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="F128" s="30" t="s">
+        <v>285</v>
       </c>
       <c r="G128" s="9">
         <v>1</v>
@@ -6732,32 +6710,32 @@
       <c r="H128" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I128" t="s">
+      <c r="I128" s="17" t="s">
         <v>37</v>
       </c>
       <c r="J128" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K128" t="s">
-        <v>239</v>
+      <c r="K128" s="17" t="s">
+        <v>216</v>
       </c>
       <c r="L128" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="129" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B129" s="14"/>
+      <c r="B129" s="12"/>
       <c r="C129" s="10">
         <v>43581</v>
       </c>
-      <c r="D129" t="s">
-        <v>359</v>
-      </c>
-      <c r="E129" t="s">
-        <v>360</v>
-      </c>
-      <c r="F129" s="34" t="s">
-        <v>362</v>
+      <c r="D129" s="17" t="s">
+        <v>286</v>
+      </c>
+      <c r="E129" s="17" t="s">
+        <v>287</v>
+      </c>
+      <c r="F129" s="30" t="s">
+        <v>288</v>
       </c>
       <c r="G129" s="9">
         <v>1</v>
@@ -6765,32 +6743,32 @@
       <c r="H129" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I129" t="s">
+      <c r="I129" s="17" t="s">
         <v>54</v>
       </c>
       <c r="J129" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K129" s="39" t="s">
-        <v>361</v>
+      <c r="K129" s="17" t="s">
+        <v>412</v>
       </c>
       <c r="L129" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="130" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B130" s="14"/>
+      <c r="B130" s="12"/>
       <c r="C130" s="10">
         <v>43581</v>
       </c>
-      <c r="D130" t="s">
+      <c r="D130" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="E130" t="s">
+      <c r="E130" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="F130" s="34" t="s">
-        <v>363</v>
+      <c r="F130" s="30" t="s">
+        <v>289</v>
       </c>
       <c r="G130" s="9">
         <v>1</v>
@@ -6798,32 +6776,32 @@
       <c r="H130" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I130" t="s">
+      <c r="I130" s="17" t="s">
         <v>30</v>
       </c>
       <c r="J130" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K130" s="39" t="s">
-        <v>364</v>
+      <c r="K130" s="17" t="s">
+        <v>413</v>
       </c>
       <c r="L130" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="131" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B131" s="14"/>
+      <c r="B131" s="12"/>
       <c r="C131" s="10">
         <v>43581</v>
       </c>
-      <c r="D131" t="s">
-        <v>365</v>
-      </c>
-      <c r="E131" t="s">
-        <v>366</v>
-      </c>
-      <c r="F131" s="34" t="s">
-        <v>363</v>
+      <c r="D131" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="E131" s="17" t="s">
+        <v>291</v>
+      </c>
+      <c r="F131" s="30" t="s">
+        <v>289</v>
       </c>
       <c r="G131" s="9">
         <v>1</v>
@@ -6831,32 +6809,32 @@
       <c r="H131" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I131" t="s">
+      <c r="I131" s="17" t="s">
         <v>54</v>
       </c>
       <c r="J131" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K131" s="39" t="s">
-        <v>367</v>
+      <c r="K131" s="17" t="s">
+        <v>414</v>
       </c>
       <c r="L131" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="132" spans="2:12" s="2" customFormat="1" ht="65.25" customHeight="1">
-      <c r="B132" s="14"/>
+      <c r="B132" s="12"/>
       <c r="C132" s="10">
         <v>43581</v>
       </c>
-      <c r="D132" t="s">
-        <v>368</v>
-      </c>
-      <c r="E132" t="s">
-        <v>369</v>
-      </c>
-      <c r="F132" s="34" t="s">
-        <v>370</v>
+      <c r="D132" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="E132" s="17" t="s">
+        <v>293</v>
+      </c>
+      <c r="F132" s="30" t="s">
+        <v>294</v>
       </c>
       <c r="G132" s="9">
         <v>1</v>
@@ -6864,32 +6842,32 @@
       <c r="H132" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I132" t="s">
+      <c r="I132" s="17" t="s">
         <v>58</v>
       </c>
       <c r="J132" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K132" s="45" t="s">
-        <v>371</v>
+      <c r="K132" s="17" t="s">
+        <v>415</v>
       </c>
       <c r="L132" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="133" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B133" s="14"/>
+      <c r="B133" s="12"/>
       <c r="C133" s="10">
         <v>43581</v>
       </c>
-      <c r="D133" t="s">
-        <v>357</v>
-      </c>
-      <c r="E133" t="s">
-        <v>193</v>
-      </c>
-      <c r="F133" s="34" t="s">
-        <v>194</v>
+      <c r="D133" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="E133" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="F133" s="30" t="s">
+        <v>185</v>
       </c>
       <c r="G133" s="9">
         <v>1</v>
@@ -6897,32 +6875,32 @@
       <c r="H133" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I133" t="s">
+      <c r="I133" s="17" t="s">
         <v>37</v>
       </c>
       <c r="J133" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K133" t="s">
-        <v>373</v>
+      <c r="K133" s="17" t="s">
+        <v>296</v>
       </c>
       <c r="L133" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="134" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B134" s="14"/>
+      <c r="B134" s="12"/>
       <c r="C134" s="10">
         <v>43581</v>
       </c>
-      <c r="D134" t="s">
-        <v>374</v>
-      </c>
-      <c r="E134" t="s">
-        <v>375</v>
-      </c>
-      <c r="F134" s="34" t="s">
-        <v>376</v>
+      <c r="D134" s="17" t="s">
+        <v>297</v>
+      </c>
+      <c r="E134" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="F134" s="30" t="s">
+        <v>299</v>
       </c>
       <c r="G134" s="9">
         <v>1</v>
@@ -6930,32 +6908,32 @@
       <c r="H134" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I134" t="s">
+      <c r="I134" s="17" t="s">
         <v>42</v>
       </c>
       <c r="J134" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="K134" s="39" t="s">
-        <v>377</v>
+      <c r="K134" s="17" t="s">
+        <v>416</v>
       </c>
       <c r="L134" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="135" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B135" s="14"/>
+      <c r="B135" s="12"/>
       <c r="C135" s="10">
         <v>43581</v>
       </c>
-      <c r="D135" t="s">
-        <v>357</v>
-      </c>
-      <c r="E135" t="s">
-        <v>193</v>
-      </c>
-      <c r="F135" s="34" t="s">
-        <v>194</v>
+      <c r="D135" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="E135" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="F135" s="30" t="s">
+        <v>185</v>
       </c>
       <c r="G135" s="9">
         <v>1</v>
@@ -6963,32 +6941,32 @@
       <c r="H135" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I135" t="s">
+      <c r="I135" s="17" t="s">
         <v>58</v>
       </c>
       <c r="J135" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K135" t="s">
-        <v>372</v>
+      <c r="K135" s="17" t="s">
+        <v>295</v>
       </c>
       <c r="L135" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="136" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B136" s="14"/>
+      <c r="B136" s="12"/>
       <c r="C136" s="10">
         <v>43581</v>
       </c>
-      <c r="D136" t="s">
-        <v>290</v>
-      </c>
-      <c r="E136" t="s">
+      <c r="D136" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="E136" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="F136" s="34" t="s">
-        <v>194</v>
+      <c r="F136" s="30" t="s">
+        <v>185</v>
       </c>
       <c r="G136" s="9">
         <v>1</v>
@@ -6996,32 +6974,32 @@
       <c r="H136" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I136" t="s">
+      <c r="I136" s="17" t="s">
         <v>42</v>
       </c>
       <c r="J136" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K136" t="s">
-        <v>317</v>
+      <c r="K136" s="17" t="s">
+        <v>258</v>
       </c>
       <c r="L136" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="137" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B137" s="14"/>
+      <c r="B137" s="12"/>
       <c r="C137" s="10">
         <v>43581</v>
       </c>
-      <c r="D137" t="s">
-        <v>210</v>
-      </c>
-      <c r="E137" t="s">
-        <v>211</v>
-      </c>
-      <c r="F137" s="34" t="s">
-        <v>204</v>
+      <c r="D137" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="E137" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="F137" s="30" t="s">
+        <v>192</v>
       </c>
       <c r="G137" s="9">
         <v>1</v>
@@ -7029,32 +7007,32 @@
       <c r="H137" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I137" t="s">
+      <c r="I137" s="17" t="s">
         <v>30</v>
       </c>
       <c r="J137" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K137" t="s">
-        <v>378</v>
+      <c r="K137" s="17" t="s">
+        <v>300</v>
       </c>
       <c r="L137" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="138" spans="2:12" s="2" customFormat="1" ht="45" customHeight="1">
-      <c r="B138" s="14"/>
+      <c r="B138" s="12"/>
       <c r="C138" s="10">
         <v>43581</v>
       </c>
-      <c r="D138" t="s">
-        <v>202</v>
-      </c>
-      <c r="E138" t="s">
-        <v>379</v>
-      </c>
-      <c r="F138" s="34" t="s">
-        <v>204</v>
+      <c r="D138" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="E138" s="17" t="s">
+        <v>301</v>
+      </c>
+      <c r="F138" s="30" t="s">
+        <v>192</v>
       </c>
       <c r="G138" s="9">
         <v>2</v>
@@ -7062,32 +7040,32 @@
       <c r="H138" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I138" t="s">
+      <c r="I138" s="17" t="s">
         <v>30</v>
       </c>
       <c r="J138" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K138" s="46" t="s">
-        <v>380</v>
+      <c r="K138" s="17" t="s">
+        <v>417</v>
       </c>
       <c r="L138" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="139" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B139" s="14"/>
+      <c r="B139" s="12"/>
       <c r="C139" s="10">
         <v>43582</v>
       </c>
-      <c r="D139" s="40" t="s">
+      <c r="D139" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="E139" s="40" t="s">
-        <v>199</v>
-      </c>
-      <c r="F139" s="34" t="s">
-        <v>151</v>
+      <c r="E139" s="33" t="s">
+        <v>188</v>
+      </c>
+      <c r="F139" s="30" t="s">
+        <v>149</v>
       </c>
       <c r="G139" s="9">
         <v>1</v>
@@ -7095,32 +7073,32 @@
       <c r="H139" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I139" s="40" t="s">
-        <v>200</v>
+      <c r="I139" s="33" t="s">
+        <v>189</v>
       </c>
       <c r="J139" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="K139" s="43" t="s">
-        <v>352</v>
+      <c r="K139" s="17" t="s">
+        <v>372</v>
       </c>
       <c r="L139" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="140" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B140" s="14"/>
+      <c r="B140" s="12"/>
       <c r="C140" s="10">
         <v>43582</v>
       </c>
-      <c r="D140" t="s">
-        <v>290</v>
-      </c>
-      <c r="E140" t="s">
+      <c r="D140" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="E140" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="F140" s="34" t="s">
-        <v>194</v>
+      <c r="F140" s="30" t="s">
+        <v>185</v>
       </c>
       <c r="G140" s="9">
         <v>1</v>
@@ -7128,32 +7106,32 @@
       <c r="H140" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I140" t="s">
+      <c r="I140" s="17" t="s">
         <v>42</v>
       </c>
       <c r="J140" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K140" t="s">
-        <v>317</v>
+      <c r="K140" s="17" t="s">
+        <v>258</v>
       </c>
       <c r="L140" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="141" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B141" s="14"/>
+      <c r="B141" s="12"/>
       <c r="C141" s="10">
         <v>43582</v>
       </c>
-      <c r="D141" t="s">
-        <v>353</v>
-      </c>
-      <c r="E141" t="s">
-        <v>381</v>
-      </c>
-      <c r="F141" s="34" t="s">
-        <v>382</v>
+      <c r="D141" s="17" t="s">
+        <v>281</v>
+      </c>
+      <c r="E141" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="F141" s="30" t="s">
+        <v>303</v>
       </c>
       <c r="G141" s="9">
         <v>1</v>
@@ -7161,32 +7139,32 @@
       <c r="H141" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I141" t="s">
-        <v>344</v>
+      <c r="I141" s="17" t="s">
+        <v>277</v>
       </c>
       <c r="J141" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K141" t="s">
-        <v>383</v>
+      <c r="K141" s="17" t="s">
+        <v>304</v>
       </c>
       <c r="L141" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="142" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B142" s="14"/>
+      <c r="B142" s="12"/>
       <c r="C142" s="10">
         <v>43583</v>
       </c>
-      <c r="D142" t="s">
-        <v>290</v>
-      </c>
-      <c r="E142" t="s">
-        <v>384</v>
-      </c>
-      <c r="F142" s="34" t="s">
-        <v>385</v>
+      <c r="D142" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="E142" s="17" t="s">
+        <v>305</v>
+      </c>
+      <c r="F142" s="30" t="s">
+        <v>306</v>
       </c>
       <c r="G142" s="9">
         <v>1</v>
@@ -7194,32 +7172,32 @@
       <c r="H142" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I142" t="s">
+      <c r="I142" s="17" t="s">
         <v>42</v>
       </c>
       <c r="J142" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K142" s="39" t="s">
-        <v>386</v>
+      <c r="K142" s="17" t="s">
+        <v>418</v>
       </c>
       <c r="L142" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="143" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B143" s="14"/>
+      <c r="B143" s="12"/>
       <c r="C143" s="10">
         <v>43583</v>
       </c>
-      <c r="D143" t="s">
-        <v>323</v>
-      </c>
-      <c r="E143" t="s">
-        <v>324</v>
-      </c>
-      <c r="F143" s="34" t="s">
-        <v>387</v>
+      <c r="D143" s="17" t="s">
+        <v>262</v>
+      </c>
+      <c r="E143" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="F143" s="30" t="s">
+        <v>307</v>
       </c>
       <c r="G143" s="9">
         <v>1</v>
@@ -7227,32 +7205,32 @@
       <c r="H143" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I143" t="s">
+      <c r="I143" s="17" t="s">
         <v>37</v>
       </c>
       <c r="J143" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K143" s="39" t="s">
-        <v>388</v>
+      <c r="K143" s="17" t="s">
+        <v>419</v>
       </c>
       <c r="L143" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="144" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B144" s="14"/>
+      <c r="B144" s="12"/>
       <c r="C144" s="10">
         <v>43583</v>
       </c>
-      <c r="D144" t="s">
-        <v>290</v>
-      </c>
-      <c r="E144" t="s">
+      <c r="D144" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="E144" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="F144" s="34" t="s">
-        <v>194</v>
+      <c r="F144" s="30" t="s">
+        <v>185</v>
       </c>
       <c r="G144" s="9">
         <v>1</v>
@@ -7260,32 +7238,32 @@
       <c r="H144" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I144" t="s">
+      <c r="I144" s="17" t="s">
         <v>42</v>
       </c>
       <c r="J144" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K144" t="s">
-        <v>317</v>
+      <c r="K144" s="17" t="s">
+        <v>258</v>
       </c>
       <c r="L144" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="145" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B145" s="14"/>
+      <c r="B145" s="12"/>
       <c r="C145" s="10">
         <v>43583</v>
       </c>
-      <c r="D145" t="s">
-        <v>389</v>
-      </c>
-      <c r="E145" t="s">
-        <v>390</v>
-      </c>
-      <c r="F145" s="34" t="s">
-        <v>194</v>
+      <c r="D145" s="17" t="s">
+        <v>308</v>
+      </c>
+      <c r="E145" s="17" t="s">
+        <v>309</v>
+      </c>
+      <c r="F145" s="30" t="s">
+        <v>185</v>
       </c>
       <c r="G145" s="9">
         <v>1</v>
@@ -7293,32 +7271,32 @@
       <c r="H145" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I145" t="s">
+      <c r="I145" s="17" t="s">
         <v>26</v>
       </c>
       <c r="J145" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K145" s="39" t="s">
-        <v>391</v>
+      <c r="K145" s="17" t="s">
+        <v>420</v>
       </c>
       <c r="L145" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="146" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B146" s="14"/>
+      <c r="B146" s="12"/>
       <c r="C146" s="10">
         <v>43583</v>
       </c>
-      <c r="D146" t="s">
-        <v>392</v>
-      </c>
-      <c r="E146" t="s">
-        <v>393</v>
-      </c>
-      <c r="F146" s="34" t="s">
-        <v>194</v>
+      <c r="D146" s="17" t="s">
+        <v>310</v>
+      </c>
+      <c r="E146" s="17" t="s">
+        <v>311</v>
+      </c>
+      <c r="F146" s="30" t="s">
+        <v>185</v>
       </c>
       <c r="G146" s="9">
         <v>1</v>
@@ -7326,32 +7304,32 @@
       <c r="H146" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I146" t="s">
+      <c r="I146" s="17" t="s">
         <v>54</v>
       </c>
       <c r="J146" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K146" s="39" t="s">
-        <v>394</v>
+      <c r="K146" s="17" t="s">
+        <v>421</v>
       </c>
       <c r="L146" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="147" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B147" s="14"/>
+      <c r="B147" s="12"/>
       <c r="C147" s="10">
         <v>43583</v>
       </c>
-      <c r="D147" t="s">
-        <v>395</v>
-      </c>
-      <c r="E147" t="s">
-        <v>396</v>
-      </c>
-      <c r="F147" s="34" t="s">
-        <v>194</v>
+      <c r="D147" s="17" t="s">
+        <v>312</v>
+      </c>
+      <c r="E147" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="F147" s="30" t="s">
+        <v>185</v>
       </c>
       <c r="G147" s="9">
         <v>1</v>
@@ -7359,32 +7337,32 @@
       <c r="H147" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I147" t="s">
+      <c r="I147" s="17" t="s">
         <v>37</v>
       </c>
       <c r="J147" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K147" s="39" t="s">
-        <v>397</v>
+      <c r="K147" s="17" t="s">
+        <v>422</v>
       </c>
       <c r="L147" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="148" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B148" s="14"/>
+      <c r="B148" s="12"/>
       <c r="C148" s="10">
         <v>43583</v>
       </c>
-      <c r="D148" t="s">
-        <v>398</v>
-      </c>
-      <c r="E148" t="s">
-        <v>399</v>
-      </c>
-      <c r="F148" s="34" t="s">
-        <v>400</v>
+      <c r="D148" s="17" t="s">
+        <v>314</v>
+      </c>
+      <c r="E148" s="17" t="s">
+        <v>315</v>
+      </c>
+      <c r="F148" s="30" t="s">
+        <v>316</v>
       </c>
       <c r="G148" s="9">
         <v>1</v>
@@ -7392,32 +7370,32 @@
       <c r="H148" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I148" t="s">
+      <c r="I148" s="17" t="s">
         <v>37</v>
       </c>
       <c r="J148" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K148" s="39" t="s">
-        <v>401</v>
+      <c r="K148" s="17" t="s">
+        <v>423</v>
       </c>
       <c r="L148" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="149" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B149" s="14"/>
+      <c r="B149" s="12"/>
       <c r="C149" s="10">
         <v>43583</v>
       </c>
-      <c r="D149" t="s">
-        <v>265</v>
-      </c>
-      <c r="E149" t="s">
-        <v>266</v>
-      </c>
-      <c r="F149" s="34" t="s">
-        <v>402</v>
+      <c r="D149" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="E149" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="F149" s="30" t="s">
+        <v>317</v>
       </c>
       <c r="G149" s="9">
         <v>1</v>
@@ -7425,32 +7403,32 @@
       <c r="H149" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I149" t="s">
+      <c r="I149" s="17" t="s">
         <v>54</v>
       </c>
       <c r="J149" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K149" s="39" t="s">
-        <v>403</v>
+      <c r="K149" s="17" t="s">
+        <v>424</v>
       </c>
       <c r="L149" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="150" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B150" s="14"/>
+      <c r="B150" s="12"/>
       <c r="C150" s="10">
         <v>43583</v>
       </c>
-      <c r="D150" t="s">
+      <c r="D150" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="E150" t="s">
-        <v>297</v>
-      </c>
-      <c r="F150" s="34" t="s">
-        <v>402</v>
+      <c r="E150" s="17" t="s">
+        <v>246</v>
+      </c>
+      <c r="F150" s="30" t="s">
+        <v>317</v>
       </c>
       <c r="G150" s="9">
         <v>1</v>
@@ -7458,32 +7436,32 @@
       <c r="H150" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I150" t="s">
+      <c r="I150" s="17" t="s">
         <v>42</v>
       </c>
       <c r="J150" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="K150" s="39" t="s">
-        <v>404</v>
+      <c r="K150" s="17" t="s">
+        <v>393</v>
       </c>
       <c r="L150" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="151" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B151" s="14"/>
+      <c r="B151" s="12"/>
       <c r="C151" s="10">
         <v>43583</v>
       </c>
-      <c r="D151" s="40" t="s">
+      <c r="D151" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="E151" s="40" t="s">
-        <v>199</v>
-      </c>
-      <c r="F151" s="34" t="s">
-        <v>151</v>
+      <c r="E151" s="33" t="s">
+        <v>188</v>
+      </c>
+      <c r="F151" s="30" t="s">
+        <v>149</v>
       </c>
       <c r="G151" s="9">
         <v>1</v>
@@ -7491,32 +7469,32 @@
       <c r="H151" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I151" s="40" t="s">
-        <v>200</v>
+      <c r="I151" s="33" t="s">
+        <v>189</v>
       </c>
       <c r="J151" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="K151" s="43" t="s">
-        <v>352</v>
+      <c r="K151" s="17" t="s">
+        <v>372</v>
       </c>
       <c r="L151" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="152" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B152" s="14"/>
+      <c r="B152" s="12"/>
       <c r="C152" s="10">
         <v>43583</v>
       </c>
-      <c r="D152" t="s">
-        <v>405</v>
-      </c>
-      <c r="E152" t="s">
-        <v>406</v>
-      </c>
-      <c r="F152" s="34" t="s">
-        <v>151</v>
+      <c r="D152" s="17" t="s">
+        <v>318</v>
+      </c>
+      <c r="E152" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="F152" s="30" t="s">
+        <v>149</v>
       </c>
       <c r="G152" s="9">
         <v>1</v>
@@ -7524,32 +7502,32 @@
       <c r="H152" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I152" t="s">
+      <c r="I152" s="17" t="s">
         <v>30</v>
       </c>
       <c r="J152" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K152" s="39" t="s">
-        <v>407</v>
+      <c r="K152" s="17" t="s">
+        <v>425</v>
       </c>
       <c r="L152" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="153" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B153" s="14"/>
+      <c r="B153" s="12"/>
       <c r="C153" s="10">
         <v>43583</v>
       </c>
-      <c r="D153" t="s">
-        <v>154</v>
-      </c>
-      <c r="E153" t="s">
-        <v>155</v>
-      </c>
-      <c r="F153" s="34" t="s">
-        <v>408</v>
+      <c r="D153" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="E153" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="F153" s="30" t="s">
+        <v>320</v>
       </c>
       <c r="G153" s="9">
         <v>1</v>
@@ -7557,32 +7535,32 @@
       <c r="H153" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I153" t="s">
+      <c r="I153" s="17" t="s">
         <v>37</v>
       </c>
       <c r="J153" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K153" s="39" t="s">
-        <v>409</v>
+      <c r="K153" s="17" t="s">
+        <v>426</v>
       </c>
       <c r="L153" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="154" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B154" s="14"/>
+      <c r="B154" s="12"/>
       <c r="C154" s="10">
         <v>43583</v>
       </c>
-      <c r="D154" t="s">
-        <v>395</v>
-      </c>
-      <c r="E154" t="s">
-        <v>396</v>
-      </c>
-      <c r="F154" s="34" t="s">
-        <v>194</v>
+      <c r="D154" s="17" t="s">
+        <v>312</v>
+      </c>
+      <c r="E154" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="F154" s="30" t="s">
+        <v>185</v>
       </c>
       <c r="G154" s="9">
         <v>1</v>
@@ -7590,32 +7568,32 @@
       <c r="H154" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I154" t="s">
+      <c r="I154" s="17" t="s">
         <v>37</v>
       </c>
       <c r="J154" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="K154" s="39" t="s">
-        <v>397</v>
+      <c r="K154" s="17" t="s">
+        <v>422</v>
       </c>
       <c r="L154" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="155" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B155" s="14"/>
+      <c r="B155" s="12"/>
       <c r="C155" s="10">
         <v>43583</v>
       </c>
-      <c r="D155" t="s">
-        <v>410</v>
-      </c>
-      <c r="E155" t="s">
-        <v>410</v>
-      </c>
-      <c r="F155" s="34" t="s">
-        <v>411</v>
+      <c r="D155" s="17" t="s">
+        <v>321</v>
+      </c>
+      <c r="E155" s="17" t="s">
+        <v>321</v>
+      </c>
+      <c r="F155" s="30" t="s">
+        <v>322</v>
       </c>
       <c r="G155" s="9">
         <v>1</v>
@@ -7623,65 +7601,65 @@
       <c r="H155" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I155" t="s">
+      <c r="I155" s="17" t="s">
         <v>20</v>
       </c>
       <c r="J155" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K155" s="39" t="s">
-        <v>412</v>
+      <c r="K155" s="17" t="s">
+        <v>427</v>
       </c>
       <c r="L155" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="156" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B156" s="14"/>
+      <c r="B156" s="12"/>
       <c r="C156" s="10">
         <v>43583</v>
       </c>
-      <c r="D156" t="s">
-        <v>154</v>
-      </c>
-      <c r="E156" t="s">
-        <v>413</v>
-      </c>
-      <c r="F156" s="34" t="s">
+      <c r="D156" s="17" t="s">
         <v>151</v>
       </c>
+      <c r="E156" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="F156" s="30" t="s">
+        <v>149</v>
+      </c>
       <c r="G156" s="9">
         <v>1</v>
       </c>
       <c r="H156" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I156" t="s">
+      <c r="I156" s="17" t="s">
         <v>37</v>
       </c>
       <c r="J156" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K156" s="39" t="s">
-        <v>418</v>
+      <c r="K156" s="17" t="s">
+        <v>428</v>
       </c>
       <c r="L156" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="157" spans="2:12" s="2" customFormat="1" ht="43.5" customHeight="1">
-      <c r="B157" s="14"/>
+      <c r="B157" s="12"/>
       <c r="C157" s="10">
         <v>43584</v>
       </c>
-      <c r="D157" t="s">
-        <v>323</v>
-      </c>
-      <c r="E157" t="s">
-        <v>324</v>
-      </c>
-      <c r="F157" s="34" t="s">
-        <v>325</v>
+      <c r="D157" s="17" t="s">
+        <v>262</v>
+      </c>
+      <c r="E157" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="F157" s="30" t="s">
+        <v>264</v>
       </c>
       <c r="G157" s="9">
         <v>2</v>
@@ -7689,32 +7667,32 @@
       <c r="H157" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I157" t="s">
+      <c r="I157" s="17" t="s">
         <v>37</v>
       </c>
       <c r="J157" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K157" s="45" t="s">
-        <v>414</v>
+      <c r="K157" s="17" t="s">
+        <v>429</v>
       </c>
       <c r="L157" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="158" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B158" s="14"/>
+      <c r="B158" s="12"/>
       <c r="C158" s="10">
         <v>43584</v>
       </c>
-      <c r="D158" t="s">
-        <v>415</v>
-      </c>
-      <c r="E158" t="s">
-        <v>415</v>
-      </c>
-      <c r="F158" s="34" t="s">
-        <v>417</v>
+      <c r="D158" s="17" t="s">
+        <v>324</v>
+      </c>
+      <c r="E158" s="17" t="s">
+        <v>324</v>
+      </c>
+      <c r="F158" s="30" t="s">
+        <v>326</v>
       </c>
       <c r="G158" s="9">
         <v>1</v>
@@ -7722,32 +7700,32 @@
       <c r="H158" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I158" t="s">
+      <c r="I158" s="17" t="s">
         <v>20</v>
       </c>
       <c r="J158" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K158" s="39" t="s">
-        <v>419</v>
+      <c r="K158" s="17" t="s">
+        <v>430</v>
       </c>
       <c r="L158" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="159" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B159" s="14"/>
+      <c r="B159" s="12"/>
       <c r="C159" s="10">
         <v>43584</v>
       </c>
-      <c r="D159" t="s">
-        <v>420</v>
-      </c>
-      <c r="E159" t="s">
-        <v>421</v>
-      </c>
-      <c r="F159" s="34" t="s">
-        <v>422</v>
+      <c r="D159" s="17" t="s">
+        <v>327</v>
+      </c>
+      <c r="E159" s="17" t="s">
+        <v>328</v>
+      </c>
+      <c r="F159" s="30" t="s">
+        <v>329</v>
       </c>
       <c r="G159" s="9">
         <v>1</v>
@@ -7755,32 +7733,32 @@
       <c r="H159" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I159" t="s">
+      <c r="I159" s="17" t="s">
         <v>37</v>
       </c>
       <c r="J159" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K159" s="39" t="s">
-        <v>425</v>
+      <c r="K159" s="17" t="s">
+        <v>431</v>
       </c>
       <c r="L159" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="160" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B160" s="14"/>
+      <c r="B160" s="12"/>
       <c r="C160" s="10">
         <v>43584</v>
       </c>
-      <c r="D160" t="s">
+      <c r="D160" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="E160" t="s">
-        <v>423</v>
-      </c>
-      <c r="F160" s="34" t="s">
-        <v>426</v>
+      <c r="E160" s="17" t="s">
+        <v>330</v>
+      </c>
+      <c r="F160" s="30" t="s">
+        <v>331</v>
       </c>
       <c r="G160" s="9">
         <v>1</v>
@@ -7788,131 +7766,131 @@
       <c r="H160" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I160" t="s">
+      <c r="I160" s="17" t="s">
         <v>58</v>
       </c>
       <c r="J160" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K160" s="39" t="s">
-        <v>424</v>
+      <c r="K160" s="17" t="s">
+        <v>432</v>
       </c>
       <c r="L160" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="161" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B161" s="14"/>
+      <c r="B161" s="12"/>
       <c r="C161" s="10">
         <v>43584</v>
       </c>
-      <c r="D161" t="s">
-        <v>427</v>
-      </c>
-      <c r="E161" t="s">
-        <v>428</v>
-      </c>
-      <c r="F161" s="34" t="s">
-        <v>156</v>
+      <c r="D161" s="17" t="s">
+        <v>332</v>
+      </c>
+      <c r="E161" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="F161" s="30" t="s">
+        <v>153</v>
       </c>
       <c r="G161" s="9">
         <v>1</v>
       </c>
       <c r="H161" s="9" t="s">
-        <v>431</v>
-      </c>
-      <c r="I161" t="s">
+        <v>335</v>
+      </c>
+      <c r="I161" s="17" t="s">
         <v>58</v>
       </c>
       <c r="J161" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K161" s="39" t="s">
-        <v>429</v>
+      <c r="K161" s="17" t="s">
+        <v>433</v>
       </c>
       <c r="L161" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="162" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B162" s="14"/>
+      <c r="B162" s="12"/>
       <c r="C162" s="10">
         <v>43584</v>
       </c>
-      <c r="D162" t="s">
-        <v>430</v>
-      </c>
-      <c r="E162" t="s">
-        <v>430</v>
-      </c>
-      <c r="F162" s="34" t="s">
-        <v>194</v>
+      <c r="D162" s="17" t="s">
+        <v>334</v>
+      </c>
+      <c r="E162" s="17" t="s">
+        <v>334</v>
+      </c>
+      <c r="F162" s="30" t="s">
+        <v>185</v>
       </c>
       <c r="G162" s="9">
         <v>1</v>
       </c>
       <c r="H162" s="9" t="s">
-        <v>431</v>
-      </c>
-      <c r="I162" t="s">
+        <v>335</v>
+      </c>
+      <c r="I162" s="17" t="s">
         <v>58</v>
       </c>
       <c r="J162" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K162" s="39" t="s">
-        <v>432</v>
+      <c r="K162" s="17" t="s">
+        <v>434</v>
       </c>
       <c r="L162" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="163" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B163" s="14"/>
+      <c r="B163" s="12"/>
       <c r="C163" s="10">
         <v>43584</v>
       </c>
-      <c r="D163" t="s">
-        <v>374</v>
-      </c>
-      <c r="E163" t="s">
-        <v>433</v>
-      </c>
-      <c r="F163" s="34" t="s">
-        <v>416</v>
+      <c r="D163" s="17" t="s">
+        <v>297</v>
+      </c>
+      <c r="E163" s="17" t="s">
+        <v>336</v>
+      </c>
+      <c r="F163" s="30" t="s">
+        <v>325</v>
       </c>
       <c r="G163" s="9">
         <v>1</v>
       </c>
       <c r="H163" s="9" t="s">
-        <v>431</v>
-      </c>
-      <c r="I163" t="s">
+        <v>335</v>
+      </c>
+      <c r="I163" s="17" t="s">
         <v>42</v>
       </c>
       <c r="J163" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K163" s="39" t="s">
-        <v>434</v>
+      <c r="K163" s="17" t="s">
+        <v>435</v>
       </c>
       <c r="L163" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="164" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B164" s="14"/>
+      <c r="B164" s="12"/>
       <c r="C164" s="10">
         <v>43584</v>
       </c>
-      <c r="D164" t="s">
-        <v>435</v>
-      </c>
-      <c r="E164" s="40" t="s">
-        <v>287</v>
-      </c>
-      <c r="F164" s="34" t="s">
-        <v>238</v>
+      <c r="D164" s="17" t="s">
+        <v>337</v>
+      </c>
+      <c r="E164" s="33" t="s">
+        <v>239</v>
+      </c>
+      <c r="F164" s="30" t="s">
+        <v>215</v>
       </c>
       <c r="G164" s="9">
         <v>1</v>
@@ -7920,32 +7898,32 @@
       <c r="H164" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I164" s="40" t="s">
+      <c r="I164" s="33" t="s">
         <v>37</v>
       </c>
       <c r="J164" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="K164" s="39" t="s">
-        <v>289</v>
+      <c r="K164" s="17" t="s">
+        <v>391</v>
       </c>
       <c r="L164" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="165" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B165" s="14"/>
+      <c r="B165" s="12"/>
       <c r="C165" s="10">
         <v>43584</v>
       </c>
-      <c r="D165" t="s">
-        <v>235</v>
-      </c>
-      <c r="E165" t="s">
-        <v>437</v>
-      </c>
-      <c r="F165" s="34" t="s">
-        <v>436</v>
+      <c r="D165" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="E165" s="17" t="s">
+        <v>339</v>
+      </c>
+      <c r="F165" s="30" t="s">
+        <v>338</v>
       </c>
       <c r="G165" s="9">
         <v>1</v>
@@ -7953,132 +7931,257 @@
       <c r="H165" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I165" t="s">
+      <c r="I165" s="17" t="s">
         <v>26</v>
       </c>
       <c r="J165" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="K165" s="39" t="s">
-        <v>438</v>
+      <c r="K165" s="17" t="s">
+        <v>436</v>
       </c>
       <c r="L165" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="166" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B166" s="14"/>
-      <c r="C166" s="22"/>
-      <c r="D166"/>
-      <c r="E166"/>
-      <c r="F166" s="34"/>
-      <c r="G166" s="9"/>
-      <c r="H166" s="9"/>
-      <c r="I166"/>
-      <c r="J166" s="9"/>
-      <c r="K166" s="39"/>
-      <c r="L166" s="9"/>
+      <c r="B166" s="12"/>
+      <c r="C166" s="10">
+        <v>43584</v>
+      </c>
+      <c r="D166" s="17" t="s">
+        <v>340</v>
+      </c>
+      <c r="E166" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="F166" s="30" t="s">
+        <v>264</v>
+      </c>
+      <c r="G166" s="9">
+        <v>1</v>
+      </c>
+      <c r="H166" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I166" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="J166" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="K166" s="17" t="s">
+        <v>341</v>
+      </c>
+      <c r="L166" s="9" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="167" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B167" s="14"/>
-      <c r="C167" s="22"/>
-      <c r="D167" s="41"/>
-      <c r="E167" s="40"/>
-      <c r="F167" s="34"/>
-      <c r="G167" s="9"/>
-      <c r="H167" s="9"/>
-      <c r="I167" s="40"/>
-      <c r="J167" s="9"/>
-      <c r="K167" s="43"/>
-      <c r="L167" s="9"/>
+      <c r="B167" s="12"/>
+      <c r="C167" s="10">
+        <v>43584</v>
+      </c>
+      <c r="D167" s="17" t="s">
+        <v>340</v>
+      </c>
+      <c r="E167" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="F167" s="30" t="s">
+        <v>264</v>
+      </c>
+      <c r="G167" s="9">
+        <v>1</v>
+      </c>
+      <c r="H167" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I167" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="J167" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K167" s="17" t="s">
+        <v>341</v>
+      </c>
+      <c r="L167" s="9" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="168" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B168" s="14"/>
-      <c r="C168" s="22"/>
-      <c r="D168" s="41"/>
-      <c r="E168" s="40"/>
-      <c r="F168" s="34"/>
-      <c r="G168" s="9"/>
-      <c r="H168" s="9"/>
-      <c r="I168" s="40"/>
-      <c r="J168" s="9"/>
-      <c r="K168" s="43"/>
-      <c r="L168" s="9"/>
+      <c r="B168" s="12"/>
+      <c r="C168" s="10">
+        <v>43584</v>
+      </c>
+      <c r="D168" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="E168" s="17" t="s">
+        <v>330</v>
+      </c>
+      <c r="F168" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="G168" s="9">
+        <v>1</v>
+      </c>
+      <c r="H168" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I168" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="J168" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K168" s="17" t="s">
+        <v>432</v>
+      </c>
+      <c r="L168" s="9" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="169" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B169" s="14"/>
-      <c r="C169" s="22"/>
-      <c r="D169" s="41"/>
-      <c r="E169" s="40"/>
-      <c r="F169" s="34"/>
+      <c r="B169" s="12"/>
+      <c r="C169" s="18"/>
+      <c r="D169"/>
+      <c r="E169"/>
+      <c r="F169" s="30"/>
       <c r="G169" s="9"/>
       <c r="H169" s="9"/>
-      <c r="I169" s="40"/>
+      <c r="I169"/>
       <c r="J169" s="9"/>
-      <c r="K169" s="43"/>
+      <c r="K169" s="35"/>
       <c r="L169" s="9"/>
     </row>
     <row r="170" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B170" s="14"/>
-      <c r="C170" s="22"/>
-      <c r="D170" s="21"/>
-      <c r="E170" s="21"/>
-      <c r="F170" s="34"/>
+      <c r="B170" s="12"/>
+      <c r="C170" s="18"/>
+      <c r="D170"/>
+      <c r="E170"/>
+      <c r="F170" s="30"/>
       <c r="G170" s="9"/>
       <c r="H170" s="9"/>
-      <c r="I170" s="21"/>
+      <c r="I170"/>
       <c r="J170" s="9"/>
-      <c r="K170" s="21"/>
+      <c r="K170" s="35"/>
       <c r="L170" s="9"/>
     </row>
-    <row r="171" spans="2:12" ht="21.75" customHeight="1">
-      <c r="B171" s="49" t="s">
+    <row r="171" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B171" s="12"/>
+      <c r="C171" s="18"/>
+      <c r="D171"/>
+      <c r="E171"/>
+      <c r="F171" s="30"/>
+      <c r="G171" s="9"/>
+      <c r="H171" s="9"/>
+      <c r="I171"/>
+      <c r="J171" s="9"/>
+      <c r="K171" s="35"/>
+      <c r="L171" s="9"/>
+    </row>
+    <row r="172" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B172" s="12"/>
+      <c r="C172" s="18"/>
+      <c r="D172" s="37"/>
+      <c r="E172" s="36"/>
+      <c r="F172" s="30"/>
+      <c r="G172" s="9"/>
+      <c r="H172" s="9"/>
+      <c r="I172" s="36"/>
+      <c r="J172" s="9"/>
+      <c r="K172" s="38"/>
+      <c r="L172" s="9"/>
+    </row>
+    <row r="173" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B173" s="12"/>
+      <c r="C173" s="18"/>
+      <c r="D173" s="37"/>
+      <c r="E173" s="36"/>
+      <c r="F173" s="30"/>
+      <c r="G173" s="9"/>
+      <c r="H173" s="9"/>
+      <c r="I173" s="36"/>
+      <c r="J173" s="9"/>
+      <c r="K173" s="38"/>
+      <c r="L173" s="9"/>
+    </row>
+    <row r="174" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B174" s="12"/>
+      <c r="C174" s="18"/>
+      <c r="D174" s="37"/>
+      <c r="E174" s="36"/>
+      <c r="F174" s="30"/>
+      <c r="G174" s="9"/>
+      <c r="H174" s="9"/>
+      <c r="I174" s="36"/>
+      <c r="J174" s="9"/>
+      <c r="K174" s="38"/>
+      <c r="L174" s="9"/>
+    </row>
+    <row r="175" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B175" s="12"/>
+      <c r="C175" s="18"/>
+      <c r="D175" s="17"/>
+      <c r="E175" s="17"/>
+      <c r="F175" s="30"/>
+      <c r="G175" s="9"/>
+      <c r="H175" s="9"/>
+      <c r="I175" s="17"/>
+      <c r="J175" s="9"/>
+      <c r="K175" s="17"/>
+      <c r="L175" s="9"/>
+    </row>
+    <row r="176" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B176" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="C171" s="50"/>
-      <c r="D171" s="23"/>
-      <c r="E171" s="23"/>
-      <c r="F171" s="24"/>
-      <c r="G171" s="24">
-        <f>SUM(G3:G29)</f>
-        <v>33</v>
-      </c>
-      <c r="H171" s="24"/>
-      <c r="I171" s="24"/>
-      <c r="J171" s="9"/>
-      <c r="K171" s="30"/>
-      <c r="L171" s="9"/>
-    </row>
-    <row r="173" spans="2:12" ht="75" customHeight="1">
-      <c r="B173" s="51"/>
-      <c r="C173" s="52"/>
-      <c r="D173" s="52"/>
-      <c r="E173" s="52"/>
-      <c r="F173" s="52"/>
-      <c r="G173" s="52"/>
-      <c r="H173" s="52"/>
-      <c r="I173" s="52"/>
-      <c r="J173" s="53"/>
-      <c r="K173" s="31"/>
-      <c r="L173" s="32"/>
+      <c r="C176" s="42"/>
+      <c r="D176" s="19"/>
+      <c r="E176" s="19"/>
+      <c r="F176" s="20"/>
+      <c r="G176" s="20">
+        <f>SUM(G3:G166)</f>
+        <v>181</v>
+      </c>
+      <c r="H176" s="20"/>
+      <c r="I176" s="20"/>
+      <c r="J176" s="9"/>
+      <c r="K176" s="26"/>
+      <c r="L176" s="9"/>
+    </row>
+    <row r="178" spans="2:12" ht="75" customHeight="1">
+      <c r="B178" s="43"/>
+      <c r="C178" s="44"/>
+      <c r="D178" s="44"/>
+      <c r="E178" s="44"/>
+      <c r="F178" s="44"/>
+      <c r="G178" s="44"/>
+      <c r="H178" s="44"/>
+      <c r="I178" s="44"/>
+      <c r="J178" s="45"/>
+      <c r="K178" s="27"/>
+      <c r="L178" s="28"/>
     </row>
   </sheetData>
-  <autoFilter ref="C2:L171"/>
+  <autoFilter ref="C2:L176"/>
   <sortState ref="B3:I41">
     <sortCondition ref="B3"/>
   </sortState>
   <mergeCells count="4">
     <mergeCell ref="C1:J1"/>
     <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="B171:C171"/>
-    <mergeCell ref="B173:J173"/>
+    <mergeCell ref="B176:C176"/>
+    <mergeCell ref="B178:J178"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J171">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J176">
       <formula1>"H5页面制作,页面跳转修改,页面修改,H5整站制作,PC制作&amp;折成3个H5页面"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J170">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J175">
       <formula1>"H5页面制作,页面跳转修改,页面修改,H5整站制作,PC制作&amp;折成3个H5页面,跳转设置,摘包"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8221,9 +8324,12 @@
     <hyperlink ref="K163" r:id="rId136"/>
     <hyperlink ref="K164" r:id="rId137"/>
     <hyperlink ref="K165" r:id="rId138"/>
+    <hyperlink ref="K166" r:id="rId139"/>
+    <hyperlink ref="K167" r:id="rId140"/>
+    <hyperlink ref="K168" r:id="rId141"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId139"/>
-  <drawing r:id="rId140"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId142"/>
+  <drawing r:id="rId143"/>
 </worksheet>
 </file>
--- a/业务线技术支持登记表格式.xlsx
+++ b/业务线技术支持登记表格式.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$2:$L$176</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$2:$L$183</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1347" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1363" uniqueCount="442">
   <si>
     <t>业务线支持登记表</t>
   </si>
@@ -1530,6 +1530,21 @@
       </rPr>
       <t>lanzi/</t>
     </r>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>广东天河城（集团）股份有限公司</t>
+  </si>
+  <si>
+    <t>天河城</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/tianhec/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.xhbup.com/jiuhe5/</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
@@ -1901,7 +1916,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2019,6 +2034,15 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2038,12 +2062,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2078,13 +2096,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>234950</xdr:colOff>
-      <xdr:row>177</xdr:row>
+      <xdr:row>184</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>111125</xdr:colOff>
-      <xdr:row>178</xdr:row>
+      <xdr:row>185</xdr:row>
       <xdr:rowOff>1574</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2414,13 +2432,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:Q178"/>
+  <dimension ref="B1:Q185"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="F156" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E165" sqref="E165"/>
+      <selection pane="bottomRight" activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -2445,24 +2463,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:17" s="1" customFormat="1" ht="46.5" customHeight="1">
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
       <c r="K1" s="21"/>
       <c r="L1" s="7"/>
-      <c r="N1" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="40"/>
+      <c r="N1" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
     </row>
     <row r="2" spans="2:17" ht="21.75" customHeight="1">
       <c r="B2" s="8" t="s">
@@ -2615,7 +2633,7 @@
       <c r="D5" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="46" t="s">
+      <c r="E5" s="39" t="s">
         <v>28</v>
       </c>
       <c r="F5" s="9" t="s">
@@ -6530,10 +6548,10 @@
       <c r="C123" s="10">
         <v>43580</v>
       </c>
-      <c r="D123" s="47" t="s">
+      <c r="D123" s="40" t="s">
         <v>107</v>
       </c>
-      <c r="E123" s="47" t="s">
+      <c r="E123" s="40" t="s">
         <v>275</v>
       </c>
       <c r="F123" s="30" t="s">
@@ -6545,7 +6563,7 @@
       <c r="H123" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I123" s="47" t="s">
+      <c r="I123" s="40" t="s">
         <v>277</v>
       </c>
       <c r="J123" s="9" t="s">
@@ -6596,10 +6614,10 @@
       <c r="C125" s="10">
         <v>43580</v>
       </c>
-      <c r="D125" s="47" t="s">
+      <c r="D125" s="40" t="s">
         <v>107</v>
       </c>
-      <c r="E125" s="47" t="s">
+      <c r="E125" s="40" t="s">
         <v>275</v>
       </c>
       <c r="F125" s="30" t="s">
@@ -6611,7 +6629,7 @@
       <c r="H125" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I125" s="47" t="s">
+      <c r="I125" s="40" t="s">
         <v>277</v>
       </c>
       <c r="J125" s="9" t="s">
@@ -8045,80 +8063,120 @@
     </row>
     <row r="169" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B169" s="12"/>
-      <c r="C169" s="18"/>
-      <c r="D169"/>
-      <c r="E169"/>
-      <c r="F169" s="30"/>
-      <c r="G169" s="9"/>
-      <c r="H169" s="9"/>
-      <c r="I169"/>
-      <c r="J169" s="9"/>
-      <c r="K169" s="35"/>
-      <c r="L169" s="9"/>
+      <c r="C169" s="10">
+        <v>43585</v>
+      </c>
+      <c r="D169" t="s">
+        <v>438</v>
+      </c>
+      <c r="E169" t="s">
+        <v>438</v>
+      </c>
+      <c r="F169" s="30" t="s">
+        <v>439</v>
+      </c>
+      <c r="G169" s="9">
+        <v>1</v>
+      </c>
+      <c r="H169" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I169" t="s">
+        <v>20</v>
+      </c>
+      <c r="J169" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="K169" s="41" t="s">
+        <v>440</v>
+      </c>
+      <c r="L169" s="9" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="170" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B170" s="12"/>
-      <c r="C170" s="18"/>
-      <c r="D170"/>
-      <c r="E170"/>
-      <c r="F170" s="30"/>
-      <c r="G170" s="9"/>
-      <c r="H170" s="9"/>
-      <c r="I170"/>
-      <c r="J170" s="9"/>
-      <c r="K170" s="35"/>
-      <c r="L170" s="9"/>
+      <c r="C170" s="10">
+        <v>43585</v>
+      </c>
+      <c r="D170" t="s">
+        <v>262</v>
+      </c>
+      <c r="E170" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="F170" s="30" t="s">
+        <v>264</v>
+      </c>
+      <c r="G170" s="9">
+        <v>1</v>
+      </c>
+      <c r="H170" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I170" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="J170" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="K170" s="41" t="s">
+        <v>441</v>
+      </c>
+      <c r="L170" s="9" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="171" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B171" s="12"/>
       <c r="C171" s="18"/>
-      <c r="D171"/>
-      <c r="E171"/>
+      <c r="D171" s="17"/>
+      <c r="E171" s="17"/>
       <c r="F171" s="30"/>
       <c r="G171" s="9"/>
       <c r="H171" s="9"/>
-      <c r="I171"/>
+      <c r="I171" s="17"/>
       <c r="J171" s="9"/>
-      <c r="K171" s="35"/>
+      <c r="K171" s="17"/>
       <c r="L171" s="9"/>
     </row>
     <row r="172" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B172" s="12"/>
       <c r="C172" s="18"/>
-      <c r="D172" s="37"/>
-      <c r="E172" s="36"/>
+      <c r="D172" s="17"/>
+      <c r="E172" s="17"/>
       <c r="F172" s="30"/>
       <c r="G172" s="9"/>
       <c r="H172" s="9"/>
-      <c r="I172" s="36"/>
+      <c r="I172" s="17"/>
       <c r="J172" s="9"/>
-      <c r="K172" s="38"/>
+      <c r="K172" s="17"/>
       <c r="L172" s="9"/>
     </row>
     <row r="173" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B173" s="12"/>
       <c r="C173" s="18"/>
-      <c r="D173" s="37"/>
-      <c r="E173" s="36"/>
+      <c r="D173" s="17"/>
+      <c r="E173" s="17"/>
       <c r="F173" s="30"/>
       <c r="G173" s="9"/>
       <c r="H173" s="9"/>
-      <c r="I173" s="36"/>
+      <c r="I173" s="17"/>
       <c r="J173" s="9"/>
-      <c r="K173" s="38"/>
+      <c r="K173" s="17"/>
       <c r="L173" s="9"/>
     </row>
     <row r="174" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B174" s="12"/>
       <c r="C174" s="18"/>
-      <c r="D174" s="37"/>
-      <c r="E174" s="36"/>
+      <c r="D174" s="17"/>
+      <c r="E174" s="17"/>
       <c r="F174" s="30"/>
       <c r="G174" s="9"/>
       <c r="H174" s="9"/>
-      <c r="I174" s="36"/>
+      <c r="I174" s="17"/>
       <c r="J174" s="9"/>
-      <c r="K174" s="38"/>
+      <c r="K174" s="17"/>
       <c r="L174" s="9"/>
     </row>
     <row r="175" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
@@ -8134,54 +8192,145 @@
       <c r="K175" s="17"/>
       <c r="L175" s="9"/>
     </row>
-    <row r="176" spans="2:12" ht="21.75" customHeight="1">
-      <c r="B176" s="41" t="s">
+    <row r="176" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B176" s="12"/>
+      <c r="C176" s="18"/>
+      <c r="D176"/>
+      <c r="E176"/>
+      <c r="F176" s="30"/>
+      <c r="G176" s="9"/>
+      <c r="H176" s="9"/>
+      <c r="I176"/>
+      <c r="J176" s="9"/>
+      <c r="K176" s="35"/>
+      <c r="L176" s="9"/>
+    </row>
+    <row r="177" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B177" s="12"/>
+      <c r="C177" s="18"/>
+      <c r="D177"/>
+      <c r="E177"/>
+      <c r="F177" s="30"/>
+      <c r="G177" s="9"/>
+      <c r="H177" s="9"/>
+      <c r="I177"/>
+      <c r="J177" s="9"/>
+      <c r="K177" s="35"/>
+      <c r="L177" s="9"/>
+    </row>
+    <row r="178" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B178" s="12"/>
+      <c r="C178" s="18"/>
+      <c r="D178"/>
+      <c r="E178"/>
+      <c r="F178" s="30"/>
+      <c r="G178" s="9"/>
+      <c r="H178" s="9"/>
+      <c r="I178"/>
+      <c r="J178" s="9"/>
+      <c r="K178" s="35"/>
+      <c r="L178" s="9"/>
+    </row>
+    <row r="179" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B179" s="12"/>
+      <c r="C179" s="18"/>
+      <c r="D179" s="37"/>
+      <c r="E179" s="36"/>
+      <c r="F179" s="30"/>
+      <c r="G179" s="9"/>
+      <c r="H179" s="9"/>
+      <c r="I179" s="36"/>
+      <c r="J179" s="9"/>
+      <c r="K179" s="38"/>
+      <c r="L179" s="9"/>
+    </row>
+    <row r="180" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B180" s="12"/>
+      <c r="C180" s="18"/>
+      <c r="D180" s="37"/>
+      <c r="E180" s="36"/>
+      <c r="F180" s="30"/>
+      <c r="G180" s="9"/>
+      <c r="H180" s="9"/>
+      <c r="I180" s="36"/>
+      <c r="J180" s="9"/>
+      <c r="K180" s="38"/>
+      <c r="L180" s="9"/>
+    </row>
+    <row r="181" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B181" s="12"/>
+      <c r="C181" s="18"/>
+      <c r="D181" s="37"/>
+      <c r="E181" s="36"/>
+      <c r="F181" s="30"/>
+      <c r="G181" s="9"/>
+      <c r="H181" s="9"/>
+      <c r="I181" s="36"/>
+      <c r="J181" s="9"/>
+      <c r="K181" s="38"/>
+      <c r="L181" s="9"/>
+    </row>
+    <row r="182" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B182" s="12"/>
+      <c r="C182" s="18"/>
+      <c r="D182" s="17"/>
+      <c r="E182" s="17"/>
+      <c r="F182" s="30"/>
+      <c r="G182" s="9"/>
+      <c r="H182" s="9"/>
+      <c r="I182" s="17"/>
+      <c r="J182" s="9"/>
+      <c r="K182" s="17"/>
+      <c r="L182" s="9"/>
+    </row>
+    <row r="183" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B183" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="C176" s="42"/>
-      <c r="D176" s="19"/>
-      <c r="E176" s="19"/>
-      <c r="F176" s="20"/>
-      <c r="G176" s="20">
+      <c r="C183" s="45"/>
+      <c r="D183" s="19"/>
+      <c r="E183" s="19"/>
+      <c r="F183" s="20"/>
+      <c r="G183" s="20">
         <f>SUM(G3:G166)</f>
         <v>181</v>
       </c>
-      <c r="H176" s="20"/>
-      <c r="I176" s="20"/>
-      <c r="J176" s="9"/>
-      <c r="K176" s="26"/>
-      <c r="L176" s="9"/>
-    </row>
-    <row r="178" spans="2:12" ht="75" customHeight="1">
-      <c r="B178" s="43"/>
-      <c r="C178" s="44"/>
-      <c r="D178" s="44"/>
-      <c r="E178" s="44"/>
-      <c r="F178" s="44"/>
-      <c r="G178" s="44"/>
-      <c r="H178" s="44"/>
-      <c r="I178" s="44"/>
-      <c r="J178" s="45"/>
-      <c r="K178" s="27"/>
-      <c r="L178" s="28"/>
+      <c r="H183" s="20"/>
+      <c r="I183" s="20"/>
+      <c r="J183" s="9"/>
+      <c r="K183" s="26"/>
+      <c r="L183" s="9"/>
+    </row>
+    <row r="185" spans="2:12" ht="75" customHeight="1">
+      <c r="B185" s="46"/>
+      <c r="C185" s="47"/>
+      <c r="D185" s="47"/>
+      <c r="E185" s="47"/>
+      <c r="F185" s="47"/>
+      <c r="G185" s="47"/>
+      <c r="H185" s="47"/>
+      <c r="I185" s="47"/>
+      <c r="J185" s="48"/>
+      <c r="K185" s="27"/>
+      <c r="L185" s="28"/>
     </row>
   </sheetData>
-  <autoFilter ref="C2:L176"/>
+  <autoFilter ref="C2:L183"/>
   <sortState ref="B3:I41">
     <sortCondition ref="B3"/>
   </sortState>
   <mergeCells count="4">
     <mergeCell ref="C1:J1"/>
     <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="B176:C176"/>
-    <mergeCell ref="B178:J178"/>
+    <mergeCell ref="B183:C183"/>
+    <mergeCell ref="B185:J185"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J176">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J183">
       <formula1>"H5页面制作,页面跳转修改,页面修改,H5整站制作,PC制作&amp;折成3个H5页面"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J175">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J182">
       <formula1>"H5页面制作,页面跳转修改,页面修改,H5整站制作,PC制作&amp;折成3个H5页面,跳转设置,摘包"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8327,9 +8476,11 @@
     <hyperlink ref="K166" r:id="rId139"/>
     <hyperlink ref="K167" r:id="rId140"/>
     <hyperlink ref="K168" r:id="rId141"/>
+    <hyperlink ref="K169" r:id="rId142"/>
+    <hyperlink ref="K170" r:id="rId143"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId142"/>
-  <drawing r:id="rId143"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId144"/>
+  <drawing r:id="rId145"/>
 </worksheet>
 </file>
--- a/业务线技术支持登记表格式.xlsx
+++ b/业务线技术支持登记表格式.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1363" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1403" uniqueCount="450">
   <si>
     <t>业务线支持登记表</t>
   </si>
@@ -1545,6 +1545,35 @@
   </si>
   <si>
     <t>https://www.xhbup.com/jiuhe5/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>丰胸</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨总</t>
+  </si>
+  <si>
+    <t>刘正通</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/zhimei/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>小说</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/weicheng/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>广州龙聚网络科技有限公司</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/longju/</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
@@ -2435,10 +2464,10 @@
   <dimension ref="B1:Q185"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="F164" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="P3" sqref="P3"/>
+      <selection pane="bottomRight" activeCell="K175" sqref="K175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -8129,68 +8158,168 @@
     </row>
     <row r="171" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B171" s="12"/>
-      <c r="C171" s="18"/>
-      <c r="D171" s="17"/>
-      <c r="E171" s="17"/>
-      <c r="F171" s="30"/>
-      <c r="G171" s="9"/>
-      <c r="H171" s="9"/>
-      <c r="I171" s="17"/>
-      <c r="J171" s="9"/>
-      <c r="K171" s="17"/>
-      <c r="L171" s="9"/>
+      <c r="C171" s="10">
+        <v>43585</v>
+      </c>
+      <c r="D171" t="s">
+        <v>443</v>
+      </c>
+      <c r="E171" t="s">
+        <v>313</v>
+      </c>
+      <c r="F171" s="30" t="s">
+        <v>442</v>
+      </c>
+      <c r="G171" s="9">
+        <v>1</v>
+      </c>
+      <c r="H171" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I171" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="J171" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K171" s="41" t="s">
+        <v>441</v>
+      </c>
+      <c r="L171" s="9" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="172" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B172" s="12"/>
-      <c r="C172" s="18"/>
-      <c r="D172" s="17"/>
-      <c r="E172" s="17"/>
-      <c r="F172" s="30"/>
-      <c r="G172" s="9"/>
-      <c r="H172" s="9"/>
-      <c r="I172" s="17"/>
-      <c r="J172" s="9"/>
-      <c r="K172" s="17"/>
-      <c r="L172" s="9"/>
+      <c r="C172" s="10">
+        <v>43585</v>
+      </c>
+      <c r="D172" t="s">
+        <v>444</v>
+      </c>
+      <c r="E172" t="s">
+        <v>128</v>
+      </c>
+      <c r="F172" s="30" t="s">
+        <v>442</v>
+      </c>
+      <c r="G172" s="9">
+        <v>1</v>
+      </c>
+      <c r="H172" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I172" t="s">
+        <v>42</v>
+      </c>
+      <c r="J172" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="K172" s="41" t="s">
+        <v>445</v>
+      </c>
+      <c r="L172" s="9" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="173" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B173" s="12"/>
-      <c r="C173" s="18"/>
-      <c r="D173" s="17"/>
-      <c r="E173" s="17"/>
-      <c r="F173" s="30"/>
-      <c r="G173" s="9"/>
-      <c r="H173" s="9"/>
-      <c r="I173" s="17"/>
-      <c r="J173" s="9"/>
-      <c r="K173" s="17"/>
-      <c r="L173" s="9"/>
+      <c r="C173" s="10">
+        <v>43585</v>
+      </c>
+      <c r="D173" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="E173" s="33" t="s">
+        <v>188</v>
+      </c>
+      <c r="F173" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="G173" s="9">
+        <v>1</v>
+      </c>
+      <c r="H173" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I173" s="33" t="s">
+        <v>189</v>
+      </c>
+      <c r="J173" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K173" s="17" t="s">
+        <v>372</v>
+      </c>
+      <c r="L173" s="9" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="174" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B174" s="12"/>
-      <c r="C174" s="18"/>
-      <c r="D174" s="17"/>
-      <c r="E174" s="17"/>
-      <c r="F174" s="30"/>
-      <c r="G174" s="9"/>
-      <c r="H174" s="9"/>
-      <c r="I174" s="17"/>
-      <c r="J174" s="9"/>
-      <c r="K174" s="17"/>
-      <c r="L174" s="9"/>
+      <c r="C174" s="10">
+        <v>43585</v>
+      </c>
+      <c r="D174" t="s">
+        <v>102</v>
+      </c>
+      <c r="E174" t="s">
+        <v>102</v>
+      </c>
+      <c r="F174" s="30" t="s">
+        <v>446</v>
+      </c>
+      <c r="G174" s="9">
+        <v>1</v>
+      </c>
+      <c r="H174" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I174" t="s">
+        <v>20</v>
+      </c>
+      <c r="J174" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="K174" s="41" t="s">
+        <v>447</v>
+      </c>
+      <c r="L174" s="9" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="175" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B175" s="12"/>
-      <c r="C175" s="18"/>
-      <c r="D175" s="17"/>
-      <c r="E175" s="17"/>
-      <c r="F175" s="30"/>
-      <c r="G175" s="9"/>
-      <c r="H175" s="9"/>
-      <c r="I175" s="17"/>
-      <c r="J175" s="9"/>
-      <c r="K175" s="17"/>
-      <c r="L175" s="9"/>
+      <c r="C175" s="10">
+        <v>43585</v>
+      </c>
+      <c r="D175" t="s">
+        <v>448</v>
+      </c>
+      <c r="E175" t="s">
+        <v>448</v>
+      </c>
+      <c r="F175" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="G175" s="9">
+        <v>1</v>
+      </c>
+      <c r="H175" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I175" t="s">
+        <v>20</v>
+      </c>
+      <c r="J175" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="K175" s="41" t="s">
+        <v>449</v>
+      </c>
+      <c r="L175" s="9" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="176" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B176" s="12"/>
@@ -8478,9 +8607,14 @@
     <hyperlink ref="K168" r:id="rId141"/>
     <hyperlink ref="K169" r:id="rId142"/>
     <hyperlink ref="K170" r:id="rId143"/>
+    <hyperlink ref="K171" r:id="rId144"/>
+    <hyperlink ref="K172" r:id="rId145"/>
+    <hyperlink ref="K173" r:id="rId146"/>
+    <hyperlink ref="K174" r:id="rId147"/>
+    <hyperlink ref="K175" r:id="rId148"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId144"/>
-  <drawing r:id="rId145"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId149"/>
+  <drawing r:id="rId150"/>
 </worksheet>
 </file>
--- a/业务线技术支持登记表格式.xlsx
+++ b/业务线技术支持登记表格式.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1403" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1411" uniqueCount="454">
   <si>
     <t>业务线支持登记表</t>
   </si>
@@ -1574,6 +1574,21 @@
   </si>
   <si>
     <t>https://xhbup.com/longju/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>好享瘦</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>阳春市每天惠电子商务有限公司</t>
+  </si>
+  <si>
+    <t>减肥</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/meitianh/</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
@@ -2467,7 +2482,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="F164" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K175" sqref="K175"/>
+      <selection pane="bottomRight" activeCell="K176" sqref="K176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -8323,16 +8338,36 @@
     </row>
     <row r="176" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B176" s="12"/>
-      <c r="C176" s="18"/>
-      <c r="D176"/>
-      <c r="E176"/>
-      <c r="F176" s="30"/>
-      <c r="G176" s="9"/>
-      <c r="H176" s="9"/>
-      <c r="I176"/>
-      <c r="J176" s="9"/>
-      <c r="K176" s="35"/>
-      <c r="L176" s="9"/>
+      <c r="C176" s="10">
+        <v>43585</v>
+      </c>
+      <c r="D176" t="s">
+        <v>450</v>
+      </c>
+      <c r="E176" t="s">
+        <v>451</v>
+      </c>
+      <c r="F176" s="30" t="s">
+        <v>452</v>
+      </c>
+      <c r="G176" s="9">
+        <v>1</v>
+      </c>
+      <c r="H176" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I176" t="s">
+        <v>26</v>
+      </c>
+      <c r="J176" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K176" s="41" t="s">
+        <v>453</v>
+      </c>
+      <c r="L176" s="9" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="177" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B177" s="12"/>
@@ -8612,9 +8647,10 @@
     <hyperlink ref="K173" r:id="rId146"/>
     <hyperlink ref="K174" r:id="rId147"/>
     <hyperlink ref="K175" r:id="rId148"/>
+    <hyperlink ref="K176" r:id="rId149"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId149"/>
-  <drawing r:id="rId150"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId150"/>
+  <drawing r:id="rId151"/>
 </worksheet>
 </file>